--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="PageCount">'Товарная накладная'!$C$1</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'Товарная накладная'!$A$1:$BD$54</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Товарная накладная'!$A$1:$BS$71</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>Итоговая сумма прописью</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -300,9 +306,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="172" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="173" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="174" formatCode="dd\ mmmm\ yyyy&quot; г.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="dd\ mmmm\ yyyy&quot; г.&quot;;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -914,208 +920,208 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="3" fontId="1" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="1" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="17" fillId="2" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="1" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="17" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="18" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="9" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="20" fillId="2" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="2" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="2" fontId="6" numFmtId="2" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="2" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="2" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="24" fillId="2" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="3" fontId="1" numFmtId="165" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="2" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="3" fontId="1" numFmtId="173" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="2" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="2" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="24" fillId="2" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="2" fontId="6" numFmtId="172" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="2" fontId="6" numFmtId="2" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="18" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="9" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="20" fillId="2" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="17" fillId="2" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="1" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="17" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="1" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="3" fontId="1" numFmtId="174" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="2" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,11 +1592,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="1" autoPageBreaks="true"/>
   </sheetPr>
   <dimension ref="A1:BS123"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A3" view="pageBreakPreview" workbookViewId="0" zoomScaleSheetLayoutView="100">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A42" view="pageBreakPreview" workbookViewId="0" zoomScaleSheetLayoutView="100">
       <selection activeCell="H22" sqref="H22:AV22"/>
     </sheetView>
   </sheetViews>
@@ -1985,11 +1991,11 @@
       <c r="AY5" s="8"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="8"/>
-      <c r="BB5" s="101" t="s">
+      <c r="BB5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="BC5" s="101"/>
-      <c r="BD5" s="101"/>
+      <c r="BC5" s="114"/>
+      <c r="BD5" s="114"/>
       <c r="BG5" s="6"/>
       <c r="BH5" s="7">
         <v>180</v>
@@ -2055,11 +2061,11 @@
       <c r="BA6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="BB6" s="102" t="s">
+      <c r="BB6" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102"/>
+      <c r="BC6" s="115"/>
+      <c r="BD6" s="115"/>
       <c r="BG6" s="6"/>
       <c r="BH6" s="7">
         <v>210</v>
@@ -2070,66 +2076,66 @@
       <c r="BR6" s="6"/>
     </row>
     <row customHeight="1" ht="20.65" r="7" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="103"/>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="103"/>
-      <c r="AO7" s="103"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="103"/>
-      <c r="AR7" s="103"/>
-      <c r="AS7" s="103"/>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="103"/>
-      <c r="AV7" s="103"/>
-      <c r="AW7" s="103"/>
-      <c r="AX7" s="103"/>
-      <c r="AY7" s="104" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="116"/>
+      <c r="AO7" s="116"/>
+      <c r="AP7" s="116"/>
+      <c r="AQ7" s="116"/>
+      <c r="AR7" s="116"/>
+      <c r="AS7" s="116"/>
+      <c r="AT7" s="116"/>
+      <c r="AU7" s="116"/>
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="116"/>
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="AZ7" s="104"/>
-      <c r="BA7" s="104"/>
-      <c r="BB7" s="86"/>
-      <c r="BC7" s="86"/>
-      <c r="BD7" s="86"/>
+      <c r="AZ7" s="117"/>
+      <c r="BA7" s="117"/>
+      <c r="BB7" s="118"/>
+      <c r="BC7" s="118"/>
+      <c r="BD7" s="118"/>
       <c r="BG7" s="6"/>
       <c r="BH7" s="7">
         <v>412</v>
@@ -2140,62 +2146,62 @@
       <c r="BR7" s="6"/>
     </row>
     <row customHeight="1" ht="3.75" r="8" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="104"/>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="104"/>
-      <c r="BB8" s="86"/>
-      <c r="BC8" s="86"/>
-      <c r="BD8" s="86"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="116"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="117"/>
+      <c r="AZ8" s="117"/>
+      <c r="BA8" s="117"/>
+      <c r="BB8" s="118"/>
+      <c r="BC8" s="118"/>
+      <c r="BD8" s="118"/>
       <c r="BG8" s="6"/>
       <c r="BH8" s="7">
         <v>75</v>
@@ -2206,52 +2212,52 @@
       <c r="BR8" s="6"/>
     </row>
     <row customHeight="1" ht="6.75" r="9" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="94"/>
-      <c r="AL9" s="94"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="94"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
@@ -2261,9 +2267,9 @@
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3"/>
       <c r="BA9" s="12"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
+      <c r="BB9" s="118"/>
+      <c r="BC9" s="118"/>
+      <c r="BD9" s="118"/>
       <c r="BG9" s="6"/>
       <c r="BH9" s="7">
         <v>135</v>
@@ -2274,62 +2280,62 @@
       <c r="BR9" s="6"/>
     </row>
     <row customHeight="1" ht="8.1" r="10" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="105"/>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="105"/>
-      <c r="AO10" s="105"/>
-      <c r="AP10" s="105"/>
-      <c r="AQ10" s="105"/>
-      <c r="AR10" s="105"/>
-      <c r="AS10" s="105"/>
-      <c r="AT10" s="105"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="105"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="119"/>
+      <c r="AL10" s="119"/>
+      <c r="AM10" s="119"/>
+      <c r="AN10" s="119"/>
+      <c r="AO10" s="119"/>
+      <c r="AP10" s="119"/>
+      <c r="AQ10" s="119"/>
+      <c r="AR10" s="119"/>
+      <c r="AS10" s="119"/>
+      <c r="AT10" s="119"/>
+      <c r="AU10" s="119"/>
+      <c r="AV10" s="119"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="14"/>
       <c r="AZ10" s="3"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="86"/>
-      <c r="BC10" s="86"/>
-      <c r="BD10" s="86"/>
+      <c r="BB10" s="118"/>
+      <c r="BC10" s="118"/>
+      <c r="BD10" s="118"/>
       <c r="BG10" s="6"/>
       <c r="BH10" s="7">
         <v>162</v>
@@ -2340,52 +2346,52 @@
       <c r="BR10" s="6"/>
     </row>
     <row customHeight="1" ht="7.5" r="11" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="94"/>
-      <c r="AK11" s="94"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="94"/>
-      <c r="AR11" s="94"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="89"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
       <c r="AU11" s="15"/>
@@ -2395,9 +2401,9 @@
       <c r="AY11" s="3"/>
       <c r="AZ11" s="3"/>
       <c r="BA11" s="12"/>
-      <c r="BB11" s="86"/>
-      <c r="BC11" s="86"/>
-      <c r="BD11" s="86"/>
+      <c r="BB11" s="118"/>
+      <c r="BC11" s="118"/>
+      <c r="BD11" s="118"/>
       <c r="BG11" s="6"/>
       <c r="BH11" s="7">
         <v>150</v>
@@ -2408,41 +2414,41 @@
       <c r="BR11" s="6"/>
     </row>
     <row customHeight="1" ht="9.75" r="12" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
+      <c r="AF12" s="120"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
@@ -2463,9 +2469,9 @@
       <c r="BA12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="BB12" s="86"/>
-      <c r="BC12" s="86"/>
-      <c r="BD12" s="86"/>
+      <c r="BB12" s="118"/>
+      <c r="BC12" s="118"/>
+      <c r="BD12" s="118"/>
       <c r="BG12" s="6"/>
       <c r="BH12" s="7">
         <v>195</v>
@@ -2476,58 +2482,58 @@
       <c r="BR12" s="6"/>
     </row>
     <row customFormat="1" customHeight="1" ht="20.65" r="13" s="23" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="96" t="s">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="96"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="122"/>
+      <c r="AO13" s="122"/>
+      <c r="AP13" s="122"/>
+      <c r="AQ13" s="122"/>
+      <c r="AR13" s="122"/>
+      <c r="AS13" s="122"/>
+      <c r="AT13" s="122"/>
+      <c r="AU13" s="122"/>
+      <c r="AV13" s="122"/>
       <c r="AW13" s="19"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="21"/>
@@ -2535,9 +2541,9 @@
       <c r="BA13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="97"/>
-      <c r="BD13" s="97"/>
+      <c r="BB13" s="123"/>
+      <c r="BC13" s="123"/>
+      <c r="BD13" s="123"/>
       <c r="BE13" s="1"/>
       <c r="BG13" s="6"/>
       <c r="BH13" s="7">
@@ -2623,45 +2629,45 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="89"/>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="89"/>
-      <c r="AR15" s="89"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="124"/>
+      <c r="AL15" s="124"/>
+      <c r="AM15" s="124"/>
+      <c r="AN15" s="124"/>
+      <c r="AO15" s="124"/>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="124"/>
+      <c r="AR15" s="124"/>
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
       <c r="AU15" s="17"/>
@@ -2671,9 +2677,9 @@
       <c r="AY15" s="3"/>
       <c r="AZ15" s="3"/>
       <c r="BA15" s="20"/>
-      <c r="BB15" s="85"/>
-      <c r="BC15" s="85"/>
-      <c r="BD15" s="85"/>
+      <c r="BB15" s="125"/>
+      <c r="BC15" s="125"/>
+      <c r="BD15" s="125"/>
       <c r="BE15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2687,58 +2693,58 @@
       <c r="BR15" s="6"/>
     </row>
     <row customHeight="1" ht="20.65" r="16" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="93" t="s">
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="126"/>
+      <c r="X16" s="126"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="126"/>
+      <c r="AA16" s="126"/>
+      <c r="AB16" s="126"/>
+      <c r="AC16" s="126"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
+      <c r="AQ16" s="126"/>
+      <c r="AR16" s="126"/>
+      <c r="AS16" s="126"/>
+      <c r="AT16" s="126"/>
+      <c r="AU16" s="126"/>
+      <c r="AV16" s="126"/>
       <c r="AW16" s="20"/>
       <c r="AX16" s="20"/>
       <c r="AY16" s="3"/>
@@ -2746,9 +2752,9 @@
       <c r="BA16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB16" s="85"/>
-      <c r="BC16" s="85"/>
-      <c r="BD16" s="85"/>
+      <c r="BB16" s="125"/>
+      <c r="BC16" s="125"/>
+      <c r="BD16" s="125"/>
       <c r="BG16" s="6"/>
       <c r="BH16" s="7">
         <v>412</v>
@@ -2830,45 +2836,45 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="89" t="s">
+      <c r="H18" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="124"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="124"/>
+      <c r="AJ18" s="124"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="124"/>
+      <c r="AM18" s="124"/>
+      <c r="AN18" s="124"/>
+      <c r="AO18" s="124"/>
+      <c r="AP18" s="124"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="124"/>
       <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
@@ -2878,9 +2884,9 @@
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
       <c r="BA18" s="20"/>
-      <c r="BB18" s="85"/>
-      <c r="BC18" s="85"/>
-      <c r="BD18" s="85"/>
+      <c r="BB18" s="125"/>
+      <c r="BC18" s="125"/>
+      <c r="BD18" s="125"/>
       <c r="BG18" s="6"/>
       <c r="BH18" s="7">
         <v>150</v>
@@ -2891,58 +2897,58 @@
       <c r="BR18" s="6"/>
     </row>
     <row customHeight="1" ht="20.65" r="19" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="93" t="s">
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="93"/>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="93"/>
-      <c r="AQ19" s="93"/>
-      <c r="AR19" s="93"/>
-      <c r="AS19" s="93"/>
-      <c r="AT19" s="93"/>
-      <c r="AU19" s="93"/>
-      <c r="AV19" s="93"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="126"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
+      <c r="V19" s="126"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Y19" s="126"/>
+      <c r="Z19" s="126"/>
+      <c r="AA19" s="126"/>
+      <c r="AB19" s="126"/>
+      <c r="AC19" s="126"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="126"/>
+      <c r="AG19" s="126"/>
+      <c r="AH19" s="126"/>
+      <c r="AI19" s="126"/>
+      <c r="AJ19" s="126"/>
+      <c r="AK19" s="126"/>
+      <c r="AL19" s="126"/>
+      <c r="AM19" s="126"/>
+      <c r="AN19" s="126"/>
+      <c r="AO19" s="126"/>
+      <c r="AP19" s="126"/>
+      <c r="AQ19" s="126"/>
+      <c r="AR19" s="126"/>
+      <c r="AS19" s="126"/>
+      <c r="AT19" s="126"/>
+      <c r="AU19" s="126"/>
+      <c r="AV19" s="126"/>
       <c r="AW19" s="20"/>
       <c r="AX19" s="20"/>
       <c r="AY19" s="3"/>
@@ -2950,9 +2956,9 @@
       <c r="BA19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB19" s="85"/>
-      <c r="BC19" s="85"/>
-      <c r="BD19" s="85"/>
+      <c r="BB19" s="125"/>
+      <c r="BC19" s="125"/>
+      <c r="BD19" s="125"/>
       <c r="BG19" s="6"/>
       <c r="BH19" s="7">
         <v>412</v>
@@ -3034,45 +3040,45 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="89"/>
-      <c r="AQ21" s="89"/>
-      <c r="AR21" s="89"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="124"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="124"/>
+      <c r="AL21" s="124"/>
+      <c r="AM21" s="124"/>
+      <c r="AN21" s="124"/>
+      <c r="AO21" s="124"/>
+      <c r="AP21" s="124"/>
+      <c r="AQ21" s="124"/>
+      <c r="AR21" s="124"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="34"/>
       <c r="AU21" s="3"/>
@@ -3080,13 +3086,13 @@
       <c r="AW21" s="34"/>
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
-      <c r="AZ21" s="84" t="s">
+      <c r="AZ21" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="BA21" s="84"/>
-      <c r="BB21" s="86"/>
-      <c r="BC21" s="86"/>
-      <c r="BD21" s="86"/>
+      <c r="BA21" s="127"/>
+      <c r="BB21" s="118"/>
+      <c r="BC21" s="118"/>
+      <c r="BD21" s="118"/>
       <c r="BG21" s="6"/>
       <c r="BH21" s="7">
         <v>150</v>
@@ -3097,66 +3103,66 @@
       <c r="BR21" s="6"/>
     </row>
     <row customHeight="1" ht="9.75" r="22" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="91"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="91"/>
-      <c r="AJ22" s="91"/>
-      <c r="AK22" s="91"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="91"/>
-      <c r="AN22" s="91"/>
-      <c r="AO22" s="91"/>
-      <c r="AP22" s="91"/>
-      <c r="AQ22" s="91"/>
-      <c r="AR22" s="91"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="91"/>
-      <c r="AV22" s="91"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="128"/>
+      <c r="AJ22" s="128"/>
+      <c r="AK22" s="128"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="128"/>
+      <c r="AN22" s="128"/>
+      <c r="AO22" s="128"/>
+      <c r="AP22" s="128"/>
+      <c r="AQ22" s="128"/>
+      <c r="AR22" s="128"/>
+      <c r="AS22" s="128"/>
+      <c r="AT22" s="128"/>
+      <c r="AU22" s="128"/>
+      <c r="AV22" s="128"/>
       <c r="AW22" s="12"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="34"/>
-      <c r="AZ22" s="84"/>
-      <c r="BA22" s="84"/>
-      <c r="BB22" s="86"/>
-      <c r="BC22" s="86"/>
-      <c r="BD22" s="86"/>
+      <c r="AZ22" s="127"/>
+      <c r="BA22" s="127"/>
+      <c r="BB22" s="118"/>
+      <c r="BC22" s="118"/>
+      <c r="BD22" s="118"/>
       <c r="BG22" s="6"/>
       <c r="BH22" s="7">
         <v>195</v>
@@ -3174,45 +3180,45 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="89"/>
-      <c r="AO23" s="89"/>
-      <c r="AP23" s="89"/>
-      <c r="AQ23" s="89"/>
-      <c r="AR23" s="89"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="124"/>
+      <c r="AK23" s="124"/>
+      <c r="AL23" s="124"/>
+      <c r="AM23" s="124"/>
+      <c r="AN23" s="124"/>
+      <c r="AO23" s="124"/>
+      <c r="AP23" s="124"/>
+      <c r="AQ23" s="124"/>
+      <c r="AR23" s="124"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="34"/>
       <c r="AU23" s="3"/>
@@ -3220,13 +3226,13 @@
       <c r="AW23" s="34"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="84" t="s">
+      <c r="AZ23" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="BA23" s="84"/>
-      <c r="BB23" s="92"/>
-      <c r="BC23" s="92"/>
-      <c r="BD23" s="92"/>
+      <c r="BA23" s="127"/>
+      <c r="BB23" s="129"/>
+      <c r="BC23" s="129"/>
+      <c r="BD23" s="129"/>
       <c r="BG23" s="6"/>
       <c r="BH23" s="7">
         <v>195</v>
@@ -3280,23 +3286,23 @@
       <c r="AO24" s="15"/>
       <c r="AP24" s="15"/>
       <c r="AQ24" s="15"/>
-      <c r="AR24" s="83" t="s">
+      <c r="AR24" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="AS24" s="83"/>
-      <c r="AT24" s="83"/>
-      <c r="AU24" s="83"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="83"/>
+      <c r="AS24" s="131"/>
+      <c r="AT24" s="131"/>
+      <c r="AU24" s="131"/>
+      <c r="AV24" s="131"/>
+      <c r="AW24" s="131"/>
+      <c r="AX24" s="131"/>
       <c r="AY24" s="3"/>
-      <c r="AZ24" s="84" t="s">
+      <c r="AZ24" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="BA24" s="84"/>
-      <c r="BB24" s="85"/>
-      <c r="BC24" s="85"/>
-      <c r="BD24" s="85"/>
+      <c r="BA24" s="127"/>
+      <c r="BB24" s="125"/>
+      <c r="BC24" s="125"/>
+      <c r="BD24" s="125"/>
       <c r="BG24" s="6"/>
       <c r="BH24" s="7">
         <v>195</v>
@@ -3358,13 +3364,13 @@
       <c r="AW25" s="34"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
-      <c r="AZ25" s="84" t="s">
+      <c r="AZ25" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="86"/>
-      <c r="BC25" s="86"/>
-      <c r="BD25" s="86"/>
+      <c r="BA25" s="127"/>
+      <c r="BB25" s="118"/>
+      <c r="BC25" s="118"/>
+      <c r="BD25" s="118"/>
       <c r="BG25" s="6"/>
       <c r="BH25" s="7">
         <v>195</v>
@@ -3397,21 +3403,21 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="87" t="s">
+      <c r="W26" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87" t="s">
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="132"/>
+      <c r="AF26" s="132"/>
+      <c r="AG26" s="132"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
@@ -3434,9 +3440,9 @@
       <c r="BA26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="BB26" s="88"/>
-      <c r="BC26" s="88"/>
-      <c r="BD26" s="88"/>
+      <c r="BB26" s="133"/>
+      <c r="BC26" s="133"/>
+      <c r="BD26" s="133"/>
       <c r="BG26" s="6"/>
       <c r="BH26" s="7">
         <v>195</v>
@@ -3458,34 +3464,34 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="78" t="s">
+      <c r="L27" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="79" t="s">
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="80" t="s">
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="AD27" s="80"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="80"/>
+      <c r="AD27" s="136"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="136"/>
+      <c r="AG27" s="136"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
@@ -3587,84 +3593,84 @@
       <c r="BR28" s="6"/>
     </row>
     <row customHeight="1" ht="10.15" r="29" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="81" t="s">
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="82" t="s">
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="77" t="s">
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="138"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="81" t="s">
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="81"/>
-      <c r="AH29" s="77" t="s">
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="AI29" s="77"/>
-      <c r="AJ29" s="77"/>
-      <c r="AK29" s="77" t="s">
+      <c r="AI29" s="130"/>
+      <c r="AJ29" s="130"/>
+      <c r="AK29" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="77" t="s">
+      <c r="AL29" s="130"/>
+      <c r="AM29" s="130"/>
+      <c r="AN29" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
-      <c r="AQ29" s="77" t="s">
+      <c r="AO29" s="130"/>
+      <c r="AP29" s="130"/>
+      <c r="AQ29" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="77"/>
-      <c r="AT29" s="77" t="s">
+      <c r="AR29" s="130"/>
+      <c r="AS29" s="130"/>
+      <c r="AT29" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="AU29" s="77"/>
-      <c r="AV29" s="77"/>
-      <c r="AW29" s="77"/>
-      <c r="AX29" s="77"/>
-      <c r="AY29" s="77"/>
-      <c r="AZ29" s="77"/>
-      <c r="BA29" s="77" t="s">
+      <c r="AU29" s="130"/>
+      <c r="AV29" s="130"/>
+      <c r="AW29" s="130"/>
+      <c r="AX29" s="130"/>
+      <c r="AY29" s="130"/>
+      <c r="AZ29" s="130"/>
+      <c r="BA29" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="BB29" s="77"/>
-      <c r="BC29" s="77"/>
-      <c r="BD29" s="77"/>
+      <c r="BB29" s="130"/>
+      <c r="BC29" s="130"/>
+      <c r="BD29" s="130"/>
       <c r="BG29" s="6"/>
       <c r="BH29" s="7">
         <v>195</v>
@@ -3675,78 +3681,78 @@
       <c r="BR29" s="6"/>
     </row>
     <row customHeight="1" ht="18.2" r="30" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77" t="s">
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77" t="s">
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77" t="s">
+      <c r="R30" s="130"/>
+      <c r="S30" s="130"/>
+      <c r="T30" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77" t="s">
+      <c r="U30" s="130"/>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77" t="s">
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77" t="s">
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="AG30" s="77"/>
-      <c r="AH30" s="77"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="77"/>
-      <c r="AK30" s="77"/>
-      <c r="AL30" s="77"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="77"/>
-      <c r="AO30" s="77"/>
-      <c r="AP30" s="77"/>
-      <c r="AQ30" s="77"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="77"/>
-      <c r="AT30" s="77" t="s">
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="130"/>
+      <c r="AI30" s="130"/>
+      <c r="AJ30" s="130"/>
+      <c r="AK30" s="130"/>
+      <c r="AL30" s="130"/>
+      <c r="AM30" s="130"/>
+      <c r="AN30" s="130"/>
+      <c r="AO30" s="130"/>
+      <c r="AP30" s="130"/>
+      <c r="AQ30" s="130"/>
+      <c r="AR30" s="130"/>
+      <c r="AS30" s="130"/>
+      <c r="AT30" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="AU30" s="77"/>
-      <c r="AV30" s="77"/>
-      <c r="AW30" s="77" t="s">
+      <c r="AU30" s="130"/>
+      <c r="AV30" s="130"/>
+      <c r="AW30" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="AX30" s="77"/>
-      <c r="AY30" s="77"/>
-      <c r="AZ30" s="77"/>
-      <c r="BA30" s="77"/>
-      <c r="BB30" s="77"/>
-      <c r="BC30" s="77"/>
-      <c r="BD30" s="77"/>
+      <c r="AX30" s="130"/>
+      <c r="AY30" s="130"/>
+      <c r="AZ30" s="130"/>
+      <c r="BA30" s="130"/>
+      <c r="BB30" s="130"/>
+      <c r="BC30" s="130"/>
+      <c r="BD30" s="130"/>
       <c r="BG30" s="6"/>
       <c r="BH30" s="7">
         <v>365</v>
@@ -3757,62 +3763,62 @@
       <c r="BR30" s="6"/>
     </row>
     <row customHeight="1" ht="4.5" r="31" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="77"/>
-      <c r="AI31" s="77"/>
-      <c r="AJ31" s="77"/>
-      <c r="AK31" s="77"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="77"/>
-      <c r="AO31" s="77"/>
-      <c r="AP31" s="77"/>
-      <c r="AQ31" s="77"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="77"/>
-      <c r="AT31" s="77"/>
-      <c r="AU31" s="77"/>
-      <c r="AV31" s="77"/>
-      <c r="AW31" s="77"/>
-      <c r="AX31" s="77"/>
-      <c r="AY31" s="77"/>
-      <c r="AZ31" s="77"/>
-      <c r="BA31" s="77"/>
-      <c r="BB31" s="77"/>
-      <c r="BC31" s="77"/>
-      <c r="BD31" s="77"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="130"/>
+      <c r="AI31" s="130"/>
+      <c r="AJ31" s="130"/>
+      <c r="AK31" s="130"/>
+      <c r="AL31" s="130"/>
+      <c r="AM31" s="130"/>
+      <c r="AN31" s="130"/>
+      <c r="AO31" s="130"/>
+      <c r="AP31" s="130"/>
+      <c r="AQ31" s="130"/>
+      <c r="AR31" s="130"/>
+      <c r="AS31" s="130"/>
+      <c r="AT31" s="130"/>
+      <c r="AU31" s="130"/>
+      <c r="AV31" s="130"/>
+      <c r="AW31" s="130"/>
+      <c r="AX31" s="130"/>
+      <c r="AY31" s="130"/>
+      <c r="AZ31" s="130"/>
+      <c r="BA31" s="130"/>
+      <c r="BB31" s="130"/>
+      <c r="BC31" s="130"/>
+      <c r="BD31" s="130"/>
       <c r="BG31" s="6"/>
       <c r="BH31" s="7">
         <v>90</v>
@@ -3823,92 +3829,92 @@
       <c r="BR31" s="6"/>
     </row>
     <row customFormat="1" customHeight="1" ht="10.15" r="32" s="46" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A32" s="74">
+      <c r="A32" s="139">
         <v>1</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="76">
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140">
         <v>2</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="75">
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="141">
         <v>3</v>
       </c>
-      <c r="R32" s="75"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="74">
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="139">
         <v>4</v>
       </c>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="75">
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="141">
         <v>5</v>
       </c>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75">
+      <c r="X32" s="141"/>
+      <c r="Y32" s="141"/>
+      <c r="Z32" s="141">
         <v>6</v>
       </c>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75">
+      <c r="AA32" s="141"/>
+      <c r="AB32" s="141"/>
+      <c r="AC32" s="141">
         <v>7</v>
       </c>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75">
+      <c r="AD32" s="141"/>
+      <c r="AE32" s="141"/>
+      <c r="AF32" s="141">
         <v>8</v>
       </c>
-      <c r="AG32" s="75"/>
-      <c r="AH32" s="75">
+      <c r="AG32" s="141"/>
+      <c r="AH32" s="141">
         <v>9</v>
       </c>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75">
+      <c r="AI32" s="141"/>
+      <c r="AJ32" s="141"/>
+      <c r="AK32" s="141">
         <v>10</v>
       </c>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75">
+      <c r="AL32" s="141"/>
+      <c r="AM32" s="141"/>
+      <c r="AN32" s="141">
         <v>11</v>
       </c>
-      <c r="AO32" s="75"/>
-      <c r="AP32" s="75"/>
-      <c r="AQ32" s="75">
+      <c r="AO32" s="141"/>
+      <c r="AP32" s="141"/>
+      <c r="AQ32" s="141">
         <v>12</v>
       </c>
-      <c r="AR32" s="75"/>
-      <c r="AS32" s="75"/>
-      <c r="AT32" s="74">
+      <c r="AR32" s="141"/>
+      <c r="AS32" s="141"/>
+      <c r="AT32" s="139">
         <v>13</v>
       </c>
-      <c r="AU32" s="74"/>
-      <c r="AV32" s="74"/>
-      <c r="AW32" s="75">
+      <c r="AU32" s="139"/>
+      <c r="AV32" s="139"/>
+      <c r="AW32" s="141">
         <v>14</v>
       </c>
-      <c r="AX32" s="75"/>
-      <c r="AY32" s="75"/>
-      <c r="AZ32" s="75"/>
-      <c r="BA32" s="75">
+      <c r="AX32" s="141"/>
+      <c r="AY32" s="141"/>
+      <c r="AZ32" s="141"/>
+      <c r="BA32" s="141">
         <v>15</v>
       </c>
-      <c r="BB32" s="75"/>
-      <c r="BC32" s="75"/>
-      <c r="BD32" s="75"/>
+      <c r="BB32" s="141"/>
+      <c r="BC32" s="141"/>
+      <c r="BD32" s="141"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="23">
         <v>0</v>
@@ -3924,84 +3930,84 @@
       <c r="BS32" s="1"/>
     </row>
     <row customHeight="1" ht="29.85" r="33" spans="1:70" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="115">
+      <c r="A33" s="98">
         <v>1</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="106" t="s">
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="107" t="s">
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="108" t="s">
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="X33" s="108"/>
-      <c r="Y33" s="108"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="114"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="111"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109"/>
-      <c r="AJ33" s="109"/>
-      <c r="AK33" s="112" t="s">
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="106"/>
+      <c r="AA33" s="106"/>
+      <c r="AB33" s="106"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="109"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="106"/>
+      <c r="AI33" s="106"/>
+      <c r="AJ33" s="106"/>
+      <c r="AK33" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="AL33" s="112"/>
-      <c r="AM33" s="112"/>
-      <c r="AN33" s="113" t="s">
+      <c r="AL33" s="110"/>
+      <c r="AM33" s="110"/>
+      <c r="AN33" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="AO33" s="113"/>
-      <c r="AP33" s="113"/>
-      <c r="AQ33" s="98" t="s">
+      <c r="AO33" s="111"/>
+      <c r="AP33" s="111"/>
+      <c r="AQ33" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="AR33" s="98"/>
-      <c r="AS33" s="98"/>
-      <c r="AT33" s="99">
+      <c r="AR33" s="108"/>
+      <c r="AS33" s="108"/>
+      <c r="AT33" s="112">
         <v>0.2</v>
       </c>
-      <c r="AU33" s="100"/>
-      <c r="AV33" s="100"/>
-      <c r="AW33" s="110" t="s">
+      <c r="AU33" s="113"/>
+      <c r="AV33" s="113"/>
+      <c r="AW33" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="AX33" s="110"/>
-      <c r="AY33" s="110"/>
-      <c r="AZ33" s="110"/>
-      <c r="BA33" s="98" t="s">
+      <c r="AX33" s="107"/>
+      <c r="AY33" s="107"/>
+      <c r="AZ33" s="107"/>
+      <c r="BA33" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="BB33" s="98"/>
-      <c r="BC33" s="98"/>
-      <c r="BD33" s="98"/>
+      <c r="BB33" s="108"/>
+      <c r="BC33" s="108"/>
+      <c r="BD33" s="108"/>
       <c r="BE33" s="23"/>
       <c r="BF33" s="1">
         <v>5373</v>
@@ -4054,50 +4060,50 @@
       <c r="AE34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AF34" s="117">
+      <c r="AF34" s="100">
         <f>SUM(AF33)</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="118"/>
-      <c r="AK34" s="119">
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="101"/>
+      <c r="AI34" s="101"/>
+      <c r="AJ34" s="101"/>
+      <c r="AK34" s="102">
         <f>SUM(AK33)</f>
         <v>0</v>
       </c>
-      <c r="AL34" s="119"/>
-      <c r="AM34" s="119"/>
-      <c r="AN34" s="120" t="s">
+      <c r="AL34" s="102"/>
+      <c r="AM34" s="102"/>
+      <c r="AN34" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="AO34" s="120"/>
-      <c r="AP34" s="120"/>
-      <c r="AQ34" s="121">
+      <c r="AO34" s="93"/>
+      <c r="AP34" s="93"/>
+      <c r="AQ34" s="94">
         <f>SUM(AQ33)</f>
         <v>0</v>
       </c>
-      <c r="AR34" s="121"/>
-      <c r="AS34" s="121"/>
-      <c r="AT34" s="120" t="s">
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="94"/>
+      <c r="AT34" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="AU34" s="120"/>
-      <c r="AV34" s="120"/>
-      <c r="AW34" s="122">
+      <c r="AU34" s="93"/>
+      <c r="AV34" s="93"/>
+      <c r="AW34" s="95">
         <f>SUM(AW33)</f>
         <v>0</v>
       </c>
-      <c r="AX34" s="122"/>
-      <c r="AY34" s="122"/>
-      <c r="AZ34" s="122"/>
-      <c r="BA34" s="122">
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="95"/>
+      <c r="BA34" s="95">
         <f>SUM(BA33)</f>
         <v>0</v>
       </c>
-      <c r="BB34" s="122"/>
-      <c r="BC34" s="122"/>
-      <c r="BD34" s="122"/>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
       <c r="BF34" s="49"/>
       <c r="BG34" s="6"/>
       <c r="BH34" s="7"/>
@@ -4131,27 +4137,27 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="139"/>
-      <c r="R35" s="139"/>
-      <c r="S35" s="139"/>
-      <c r="T35" s="139"/>
-      <c r="U35" s="139"/>
-      <c r="V35" s="139"/>
-      <c r="W35" s="139"/>
-      <c r="X35" s="139"/>
-      <c r="Y35" s="139"/>
-      <c r="Z35" s="139"/>
-      <c r="AA35" s="139"/>
-      <c r="AB35" s="139"/>
-      <c r="AC35" s="139"/>
-      <c r="AD35" s="139"/>
-      <c r="AE35" s="139"/>
-      <c r="AF35" s="139"/>
-      <c r="AG35" s="139"/>
-      <c r="AH35" s="139"/>
-      <c r="AI35" s="139"/>
-      <c r="AJ35" s="139"/>
-      <c r="AK35" s="139"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="74"/>
       <c r="AL35" s="2" t="s">
         <v>45</v>
       </c>
@@ -4197,40 +4203,40 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="139" t="s">
+      <c r="F36" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="139"/>
-      <c r="R36" s="139"/>
-      <c r="S36" s="139"/>
-      <c r="T36" s="139"/>
-      <c r="U36" s="139"/>
-      <c r="V36" s="139"/>
-      <c r="W36" s="139"/>
-      <c r="X36" s="139"/>
-      <c r="Y36" s="139"/>
-      <c r="Z36" s="139"/>
-      <c r="AA36" s="139"/>
-      <c r="AB36" s="139"/>
-      <c r="AC36" s="139"/>
-      <c r="AD36" s="139"/>
-      <c r="AE36" s="139"/>
-      <c r="AF36" s="139"/>
-      <c r="AG36" s="139"/>
-      <c r="AH36" s="139"/>
-      <c r="AI36" s="139"/>
-      <c r="AJ36" s="139"/>
-      <c r="AK36" s="139"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="74"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="74"/>
       <c r="AL36" s="2" t="s">
         <v>47</v>
       </c>
@@ -4273,58 +4279,58 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="135" t="s">
+      <c r="F37" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="135"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
-      <c r="N37" s="135"/>
-      <c r="O37" s="135"/>
-      <c r="P37" s="135"/>
-      <c r="Q37" s="135"/>
-      <c r="R37" s="135"/>
-      <c r="S37" s="135"/>
-      <c r="T37" s="135"/>
-      <c r="U37" s="135"/>
-      <c r="V37" s="135"/>
-      <c r="W37" s="135"/>
-      <c r="X37" s="135"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="135"/>
-      <c r="AA37" s="135"/>
-      <c r="AB37" s="135"/>
-      <c r="AC37" s="135"/>
-      <c r="AD37" s="135"/>
-      <c r="AE37" s="135"/>
-      <c r="AF37" s="135"/>
-      <c r="AG37" s="135"/>
-      <c r="AH37" s="135"/>
-      <c r="AI37" s="135"/>
-      <c r="AJ37" s="135"/>
-      <c r="AK37" s="135"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="75"/>
+      <c r="AD37" s="75"/>
+      <c r="AE37" s="75"/>
+      <c r="AF37" s="75"/>
+      <c r="AG37" s="75"/>
+      <c r="AH37" s="75"/>
+      <c r="AI37" s="75"/>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="75"/>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
-      <c r="AP37" s="140"/>
-      <c r="AQ37" s="140"/>
-      <c r="AR37" s="140"/>
-      <c r="AS37" s="140"/>
-      <c r="AT37" s="140"/>
-      <c r="AU37" s="140"/>
-      <c r="AV37" s="140"/>
-      <c r="AW37" s="140"/>
-      <c r="AX37" s="140"/>
-      <c r="AY37" s="140"/>
-      <c r="AZ37" s="140"/>
-      <c r="BA37" s="140"/>
-      <c r="BB37" s="140"/>
-      <c r="BC37" s="140"/>
+      <c r="AP37" s="76"/>
+      <c r="AQ37" s="76"/>
+      <c r="AR37" s="76"/>
+      <c r="AS37" s="76"/>
+      <c r="AT37" s="76"/>
+      <c r="AU37" s="76"/>
+      <c r="AV37" s="76"/>
+      <c r="AW37" s="76"/>
+      <c r="AX37" s="76"/>
+      <c r="AY37" s="76"/>
+      <c r="AZ37" s="76"/>
+      <c r="BA37" s="76"/>
+      <c r="BB37" s="76"/>
+      <c r="BC37" s="76"/>
       <c r="BD37" s="2"/>
       <c r="BE37" s="23"/>
       <c r="BF37" s="1">
@@ -4363,45 +4369,45 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="141" t="s">
+      <c r="S38" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="T38" s="141"/>
-      <c r="U38" s="141"/>
-      <c r="V38" s="141"/>
-      <c r="W38" s="141"/>
-      <c r="X38" s="141"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="124"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="124"/>
-      <c r="AH38" s="124"/>
-      <c r="AI38" s="124"/>
-      <c r="AJ38" s="124"/>
-      <c r="AK38" s="124"/>
-      <c r="AL38" s="124"/>
-      <c r="AM38" s="124"/>
-      <c r="AN38" s="124"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="78"/>
+      <c r="AA38" s="78"/>
+      <c r="AB38" s="78"/>
+      <c r="AC38" s="78"/>
+      <c r="AD38" s="78"/>
+      <c r="AE38" s="78"/>
+      <c r="AF38" s="78"/>
+      <c r="AG38" s="78"/>
+      <c r="AH38" s="78"/>
+      <c r="AI38" s="78"/>
+      <c r="AJ38" s="78"/>
+      <c r="AK38" s="78"/>
+      <c r="AL38" s="78"/>
+      <c r="AM38" s="78"/>
+      <c r="AN38" s="78"/>
       <c r="AO38" s="2"/>
-      <c r="AP38" s="140"/>
-      <c r="AQ38" s="140"/>
-      <c r="AR38" s="140"/>
-      <c r="AS38" s="140"/>
-      <c r="AT38" s="140"/>
-      <c r="AU38" s="140"/>
-      <c r="AV38" s="140"/>
-      <c r="AW38" s="140"/>
-      <c r="AX38" s="140"/>
-      <c r="AY38" s="140"/>
-      <c r="AZ38" s="140"/>
-      <c r="BA38" s="140"/>
-      <c r="BB38" s="140"/>
-      <c r="BC38" s="140"/>
+      <c r="AP38" s="76"/>
+      <c r="AQ38" s="76"/>
+      <c r="AR38" s="76"/>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="76"/>
+      <c r="AV38" s="76"/>
+      <c r="AW38" s="76"/>
+      <c r="AX38" s="76"/>
+      <c r="AY38" s="76"/>
+      <c r="AZ38" s="76"/>
+      <c r="BA38" s="76"/>
+      <c r="BB38" s="76"/>
+      <c r="BC38" s="76"/>
       <c r="BD38" s="2"/>
       <c r="BE38" s="23"/>
       <c r="BF38" s="1">
@@ -4446,39 +4452,39 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="22"/>
-      <c r="Y39" s="126" t="s">
+      <c r="Y39" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="Z39" s="126"/>
-      <c r="AA39" s="126"/>
-      <c r="AB39" s="126"/>
-      <c r="AC39" s="126"/>
-      <c r="AD39" s="126"/>
-      <c r="AE39" s="126"/>
-      <c r="AF39" s="126"/>
-      <c r="AG39" s="126"/>
-      <c r="AH39" s="126"/>
-      <c r="AI39" s="126"/>
-      <c r="AJ39" s="126"/>
-      <c r="AK39" s="126"/>
-      <c r="AL39" s="126"/>
-      <c r="AM39" s="126"/>
-      <c r="AN39" s="126"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="79"/>
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="79"/>
+      <c r="AJ39" s="79"/>
+      <c r="AK39" s="79"/>
+      <c r="AL39" s="79"/>
+      <c r="AM39" s="79"/>
+      <c r="AN39" s="79"/>
       <c r="AO39" s="2"/>
-      <c r="AP39" s="137"/>
-      <c r="AQ39" s="137"/>
-      <c r="AR39" s="137"/>
-      <c r="AS39" s="137"/>
-      <c r="AT39" s="137"/>
-      <c r="AU39" s="137"/>
-      <c r="AV39" s="137"/>
-      <c r="AW39" s="137"/>
-      <c r="AX39" s="137"/>
-      <c r="AY39" s="137"/>
-      <c r="AZ39" s="137"/>
-      <c r="BA39" s="137"/>
-      <c r="BB39" s="137"/>
-      <c r="BC39" s="137"/>
+      <c r="AP39" s="80"/>
+      <c r="AQ39" s="80"/>
+      <c r="AR39" s="80"/>
+      <c r="AS39" s="80"/>
+      <c r="AT39" s="80"/>
+      <c r="AU39" s="80"/>
+      <c r="AV39" s="80"/>
+      <c r="AW39" s="80"/>
+      <c r="AX39" s="80"/>
+      <c r="AY39" s="80"/>
+      <c r="AZ39" s="80"/>
+      <c r="BA39" s="80"/>
+      <c r="BB39" s="80"/>
+      <c r="BC39" s="80"/>
       <c r="BD39" s="2"/>
       <c r="BG39" s="6"/>
       <c r="BH39" s="52">
@@ -4502,58 +4508,58 @@
       <c r="E40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="138" t="s">
+      <c r="R40" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="S40" s="138"/>
-      <c r="T40" s="138"/>
-      <c r="U40" s="138"/>
-      <c r="V40" s="138"/>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="124"/>
-      <c r="AG40" s="124"/>
-      <c r="AH40" s="124"/>
-      <c r="AI40" s="124"/>
-      <c r="AJ40" s="124"/>
-      <c r="AK40" s="124"/>
-      <c r="AL40" s="124"/>
-      <c r="AM40" s="124"/>
-      <c r="AN40" s="124"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="78"/>
+      <c r="AF40" s="78"/>
+      <c r="AG40" s="78"/>
+      <c r="AH40" s="78"/>
+      <c r="AI40" s="78"/>
+      <c r="AJ40" s="78"/>
+      <c r="AK40" s="78"/>
+      <c r="AL40" s="78"/>
+      <c r="AM40" s="78"/>
+      <c r="AN40" s="78"/>
       <c r="AO40" s="2"/>
-      <c r="AP40" s="137"/>
-      <c r="AQ40" s="137"/>
-      <c r="AR40" s="137"/>
-      <c r="AS40" s="137"/>
-      <c r="AT40" s="137"/>
-      <c r="AU40" s="137"/>
-      <c r="AV40" s="137"/>
-      <c r="AW40" s="137"/>
-      <c r="AX40" s="137"/>
-      <c r="AY40" s="137"/>
-      <c r="AZ40" s="137"/>
-      <c r="BA40" s="137"/>
-      <c r="BB40" s="137"/>
-      <c r="BC40" s="137"/>
+      <c r="AP40" s="80"/>
+      <c r="AQ40" s="80"/>
+      <c r="AR40" s="80"/>
+      <c r="AS40" s="80"/>
+      <c r="AT40" s="80"/>
+      <c r="AU40" s="80"/>
+      <c r="AV40" s="80"/>
+      <c r="AW40" s="80"/>
+      <c r="AX40" s="80"/>
+      <c r="AY40" s="80"/>
+      <c r="AZ40" s="80"/>
+      <c r="BA40" s="80"/>
+      <c r="BB40" s="80"/>
+      <c r="BC40" s="80"/>
       <c r="BD40" s="2"/>
       <c r="BG40" s="6"/>
       <c r="BH40" s="52">
@@ -4575,19 +4581,19 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="126" t="s">
+      <c r="F41" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="126"/>
-      <c r="P41" s="126"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -4596,24 +4602,24 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="126" t="s">
+      <c r="Y41" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="Z41" s="126"/>
-      <c r="AA41" s="126"/>
-      <c r="AB41" s="126"/>
-      <c r="AC41" s="126"/>
-      <c r="AD41" s="126"/>
-      <c r="AE41" s="126"/>
-      <c r="AF41" s="126"/>
-      <c r="AG41" s="126"/>
-      <c r="AH41" s="126"/>
-      <c r="AI41" s="126"/>
-      <c r="AJ41" s="126"/>
-      <c r="AK41" s="126"/>
-      <c r="AL41" s="126"/>
-      <c r="AM41" s="126"/>
-      <c r="AN41" s="126"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="79"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="79"/>
+      <c r="AE41" s="79"/>
+      <c r="AF41" s="79"/>
+      <c r="AG41" s="79"/>
+      <c r="AH41" s="79"/>
+      <c r="AI41" s="79"/>
+      <c r="AJ41" s="79"/>
+      <c r="AK41" s="79"/>
+      <c r="AL41" s="79"/>
+      <c r="AM41" s="79"/>
+      <c r="AN41" s="79"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="53"/>
       <c r="AQ41" s="53"/>
@@ -4750,27 +4756,27 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
-      <c r="AK43" s="124"/>
-      <c r="AL43" s="124"/>
-      <c r="AM43" s="124"/>
-      <c r="AN43" s="124"/>
-      <c r="AO43" s="124"/>
-      <c r="AP43" s="124"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="78"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="78"/>
+      <c r="AP43" s="78"/>
       <c r="AQ43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AR43" s="124"/>
-      <c r="AS43" s="124"/>
-      <c r="AT43" s="124"/>
-      <c r="AU43" s="124"/>
-      <c r="AV43" s="124"/>
-      <c r="AW43" s="124"/>
-      <c r="AX43" s="124"/>
-      <c r="AY43" s="124"/>
-      <c r="AZ43" s="124"/>
-      <c r="BA43" s="124"/>
-      <c r="BB43" s="124"/>
-      <c r="BC43" s="124"/>
+      <c r="AR43" s="78"/>
+      <c r="AS43" s="78"/>
+      <c r="AT43" s="78"/>
+      <c r="AU43" s="78"/>
+      <c r="AV43" s="78"/>
+      <c r="AW43" s="78"/>
+      <c r="AX43" s="78"/>
+      <c r="AY43" s="78"/>
+      <c r="AZ43" s="78"/>
+      <c r="BA43" s="78"/>
+      <c r="BB43" s="78"/>
+      <c r="BC43" s="78"/>
       <c r="BD43" s="2"/>
       <c r="BE43" s="46"/>
       <c r="BF43" s="6"/>
@@ -4800,17 +4806,17 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="135" t="s">
+      <c r="R44" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="S44" s="135"/>
-      <c r="T44" s="135"/>
-      <c r="U44" s="135"/>
-      <c r="V44" s="135"/>
-      <c r="W44" s="135"/>
-      <c r="X44" s="135"/>
-      <c r="Y44" s="135"/>
-      <c r="Z44" s="135"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="75"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="55"/>
@@ -4820,28 +4826,28 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="124"/>
-      <c r="AI44" s="124"/>
-      <c r="AJ44" s="124"/>
-      <c r="AK44" s="124"/>
-      <c r="AL44" s="124"/>
-      <c r="AM44" s="124"/>
-      <c r="AN44" s="124"/>
-      <c r="AO44" s="124"/>
-      <c r="AP44" s="124"/>
-      <c r="AQ44" s="124"/>
-      <c r="AR44" s="124"/>
-      <c r="AS44" s="124"/>
-      <c r="AT44" s="124"/>
-      <c r="AU44" s="124"/>
-      <c r="AV44" s="124"/>
-      <c r="AW44" s="124"/>
-      <c r="AX44" s="124"/>
-      <c r="AY44" s="124"/>
-      <c r="AZ44" s="124"/>
-      <c r="BA44" s="124"/>
-      <c r="BB44" s="124"/>
-      <c r="BC44" s="124"/>
+      <c r="AH44" s="78"/>
+      <c r="AI44" s="78"/>
+      <c r="AJ44" s="78"/>
+      <c r="AK44" s="78"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="78"/>
+      <c r="AO44" s="78"/>
+      <c r="AP44" s="78"/>
+      <c r="AQ44" s="78"/>
+      <c r="AR44" s="78"/>
+      <c r="AS44" s="78"/>
+      <c r="AT44" s="78"/>
+      <c r="AU44" s="78"/>
+      <c r="AV44" s="78"/>
+      <c r="AW44" s="78"/>
+      <c r="AX44" s="78"/>
+      <c r="AY44" s="78"/>
+      <c r="AZ44" s="78"/>
+      <c r="BA44" s="78"/>
+      <c r="BB44" s="78"/>
+      <c r="BC44" s="78"/>
       <c r="BD44" s="2"/>
       <c r="BE44" s="46"/>
       <c r="BF44" s="6"/>
@@ -4854,65 +4860,65 @@
       <c r="BR44" s="6"/>
     </row>
     <row customHeight="1" ht="7.5" r="45" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A45" s="136" t="s">
+      <c r="A45" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="136"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="136"/>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
-      <c r="U45" s="136"/>
-      <c r="V45" s="136"/>
-      <c r="W45" s="136"/>
-      <c r="X45" s="136"/>
-      <c r="Y45" s="136"/>
-      <c r="Z45" s="136"/>
-      <c r="AA45" s="136"/>
-      <c r="AB45" s="136"/>
-      <c r="AC45" s="136"/>
-      <c r="AD45" s="136"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="82"/>
+      <c r="AD45" s="82"/>
       <c r="AE45" s="55"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
-      <c r="AI45" s="125" t="s">
+      <c r="AI45" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="AJ45" s="125"/>
-      <c r="AK45" s="125"/>
-      <c r="AL45" s="125"/>
-      <c r="AM45" s="125"/>
-      <c r="AN45" s="125"/>
-      <c r="AO45" s="125"/>
-      <c r="AP45" s="125"/>
-      <c r="AQ45" s="125"/>
-      <c r="AR45" s="125"/>
-      <c r="AS45" s="125"/>
-      <c r="AT45" s="125"/>
-      <c r="AU45" s="125"/>
-      <c r="AV45" s="125"/>
-      <c r="AW45" s="125"/>
-      <c r="AX45" s="125"/>
-      <c r="AY45" s="125"/>
-      <c r="AZ45" s="125"/>
-      <c r="BA45" s="125"/>
-      <c r="BB45" s="125"/>
-      <c r="BC45" s="125"/>
+      <c r="AJ45" s="83"/>
+      <c r="AK45" s="83"/>
+      <c r="AL45" s="83"/>
+      <c r="AM45" s="83"/>
+      <c r="AN45" s="83"/>
+      <c r="AO45" s="83"/>
+      <c r="AP45" s="83"/>
+      <c r="AQ45" s="83"/>
+      <c r="AR45" s="83"/>
+      <c r="AS45" s="83"/>
+      <c r="AT45" s="83"/>
+      <c r="AU45" s="83"/>
+      <c r="AV45" s="83"/>
+      <c r="AW45" s="83"/>
+      <c r="AX45" s="83"/>
+      <c r="AY45" s="83"/>
+      <c r="AZ45" s="83"/>
+      <c r="BA45" s="83"/>
+      <c r="BB45" s="83"/>
+      <c r="BC45" s="83"/>
       <c r="BD45" s="2"/>
       <c r="BE45" s="52">
         <v>150</v>
@@ -4927,35 +4933,35 @@
       <c r="BR45" s="6"/>
     </row>
     <row customHeight="1" ht="11.25" r="46" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="130"/>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="130"/>
-      <c r="S46" s="130"/>
-      <c r="T46" s="130"/>
-      <c r="U46" s="130"/>
-      <c r="V46" s="130"/>
-      <c r="W46" s="130"/>
-      <c r="X46" s="130"/>
-      <c r="Y46" s="130"/>
-      <c r="Z46" s="130"/>
-      <c r="AA46" s="130"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
+      <c r="Q46" s="84"/>
+      <c r="R46" s="84"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="84"/>
+      <c r="U46" s="84"/>
+      <c r="V46" s="84"/>
+      <c r="W46" s="84"/>
+      <c r="X46" s="84"/>
+      <c r="Y46" s="84"/>
+      <c r="Z46" s="84"/>
+      <c r="AA46" s="84"/>
       <c r="AB46" s="58"/>
       <c r="AC46" s="58"/>
       <c r="AD46" s="57"/>
@@ -5033,28 +5039,28 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="59"/>
       <c r="AG47" s="59"/>
-      <c r="AH47" s="131"/>
-      <c r="AI47" s="131"/>
-      <c r="AJ47" s="131"/>
-      <c r="AK47" s="131"/>
-      <c r="AL47" s="131"/>
-      <c r="AM47" s="131"/>
-      <c r="AN47" s="131"/>
-      <c r="AO47" s="131"/>
-      <c r="AP47" s="131"/>
-      <c r="AQ47" s="131"/>
-      <c r="AR47" s="131"/>
-      <c r="AS47" s="131"/>
-      <c r="AT47" s="131"/>
-      <c r="AU47" s="131"/>
-      <c r="AV47" s="131"/>
-      <c r="AW47" s="131"/>
-      <c r="AX47" s="131"/>
-      <c r="AY47" s="131"/>
-      <c r="AZ47" s="131"/>
-      <c r="BA47" s="131"/>
-      <c r="BB47" s="131"/>
-      <c r="BC47" s="131"/>
+      <c r="AH47" s="85"/>
+      <c r="AI47" s="85"/>
+      <c r="AJ47" s="85"/>
+      <c r="AK47" s="85"/>
+      <c r="AL47" s="85"/>
+      <c r="AM47" s="85"/>
+      <c r="AN47" s="85"/>
+      <c r="AO47" s="85"/>
+      <c r="AP47" s="85"/>
+      <c r="AQ47" s="85"/>
+      <c r="AR47" s="85"/>
+      <c r="AS47" s="85"/>
+      <c r="AT47" s="85"/>
+      <c r="AU47" s="85"/>
+      <c r="AV47" s="85"/>
+      <c r="AW47" s="85"/>
+      <c r="AX47" s="85"/>
+      <c r="AY47" s="85"/>
+      <c r="AZ47" s="85"/>
+      <c r="BA47" s="85"/>
+      <c r="BB47" s="85"/>
+      <c r="BC47" s="85"/>
       <c r="BD47" s="2"/>
       <c r="BE47" s="52">
         <v>150</v>
@@ -5089,49 +5095,49 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="132"/>
-      <c r="R48" s="132"/>
-      <c r="S48" s="132"/>
-      <c r="T48" s="132"/>
-      <c r="U48" s="132"/>
-      <c r="V48" s="133" t="s">
+      <c r="Q48" s="86"/>
+      <c r="R48" s="86"/>
+      <c r="S48" s="86"/>
+      <c r="T48" s="86"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="W48" s="133"/>
-      <c r="X48" s="133"/>
-      <c r="Y48" s="133"/>
-      <c r="Z48" s="133"/>
-      <c r="AA48" s="133"/>
-      <c r="AB48" s="133"/>
-      <c r="AC48" s="133"/>
-      <c r="AD48" s="133"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="87"/>
+      <c r="AB48" s="87"/>
+      <c r="AC48" s="87"/>
+      <c r="AD48" s="87"/>
       <c r="AE48" s="59" t="s">
         <v>59</v>
       </c>
       <c r="AF48" s="59"/>
       <c r="AG48" s="59"/>
       <c r="AH48" s="59"/>
-      <c r="AI48" s="134"/>
-      <c r="AJ48" s="134"/>
-      <c r="AK48" s="134"/>
-      <c r="AL48" s="134"/>
-      <c r="AM48" s="134"/>
-      <c r="AN48" s="134"/>
-      <c r="AO48" s="134"/>
-      <c r="AP48" s="134"/>
+      <c r="AI48" s="88"/>
+      <c r="AJ48" s="88"/>
+      <c r="AK48" s="88"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="88"/>
+      <c r="AN48" s="88"/>
+      <c r="AO48" s="88"/>
+      <c r="AP48" s="88"/>
       <c r="AQ48" s="8"/>
-      <c r="AR48" s="134"/>
-      <c r="AS48" s="134"/>
-      <c r="AT48" s="134"/>
-      <c r="AU48" s="134"/>
-      <c r="AV48" s="134"/>
+      <c r="AR48" s="88"/>
+      <c r="AS48" s="88"/>
+      <c r="AT48" s="88"/>
+      <c r="AU48" s="88"/>
+      <c r="AV48" s="88"/>
       <c r="AW48" s="8"/>
-      <c r="AX48" s="134"/>
-      <c r="AY48" s="134"/>
-      <c r="AZ48" s="134"/>
-      <c r="BA48" s="134"/>
-      <c r="BB48" s="134"/>
-      <c r="BC48" s="134"/>
+      <c r="AX48" s="88"/>
+      <c r="AY48" s="88"/>
+      <c r="AZ48" s="88"/>
+      <c r="BA48" s="88"/>
+      <c r="BB48" s="88"/>
+      <c r="BC48" s="88"/>
       <c r="BD48" s="2"/>
       <c r="BE48" s="52">
         <v>15</v>
@@ -5153,64 +5159,64 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="94" t="s">
+      <c r="H49" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
-      <c r="M49" s="94"/>
-      <c r="N49" s="94"/>
-      <c r="O49" s="94"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="129"/>
-      <c r="T49" s="129"/>
-      <c r="U49" s="129"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="90"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="126" t="s">
+      <c r="W49" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="X49" s="126"/>
-      <c r="Y49" s="126"/>
-      <c r="Z49" s="126"/>
-      <c r="AA49" s="126"/>
-      <c r="AB49" s="126"/>
-      <c r="AC49" s="126"/>
+      <c r="X49" s="79"/>
+      <c r="Y49" s="79"/>
+      <c r="Z49" s="79"/>
+      <c r="AA49" s="79"/>
+      <c r="AB49" s="79"/>
+      <c r="AC49" s="79"/>
       <c r="AD49" s="56"/>
       <c r="AE49" s="8"/>
       <c r="AF49" s="59"/>
       <c r="AG49" s="59"/>
       <c r="AH49" s="59"/>
       <c r="AI49" s="59"/>
-      <c r="AJ49" s="94" t="s">
+      <c r="AJ49" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="AK49" s="94"/>
-      <c r="AL49" s="94"/>
-      <c r="AM49" s="94"/>
-      <c r="AN49" s="94"/>
-      <c r="AO49" s="94"/>
-      <c r="AP49" s="94"/>
+      <c r="AK49" s="89"/>
+      <c r="AL49" s="89"/>
+      <c r="AM49" s="89"/>
+      <c r="AN49" s="89"/>
+      <c r="AO49" s="89"/>
+      <c r="AP49" s="89"/>
       <c r="AQ49" s="8"/>
-      <c r="AR49" s="94" t="s">
+      <c r="AR49" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="AS49" s="94"/>
-      <c r="AT49" s="94"/>
-      <c r="AU49" s="94"/>
-      <c r="AV49" s="94"/>
+      <c r="AS49" s="89"/>
+      <c r="AT49" s="89"/>
+      <c r="AU49" s="89"/>
+      <c r="AV49" s="89"/>
       <c r="AW49" s="8"/>
-      <c r="AX49" s="94" t="s">
+      <c r="AX49" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="AY49" s="94"/>
-      <c r="AZ49" s="94"/>
-      <c r="BA49" s="94"/>
-      <c r="BB49" s="94"/>
-      <c r="BC49" s="94"/>
+      <c r="AY49" s="89"/>
+      <c r="AZ49" s="89"/>
+      <c r="BA49" s="89"/>
+      <c r="BB49" s="89"/>
+      <c r="BC49" s="89"/>
       <c r="BD49" s="2"/>
       <c r="BE49" s="52">
         <v>225</v>
@@ -5243,49 +5249,49 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="124"/>
-      <c r="S50" s="124"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="124"/>
-      <c r="V50" s="127" t="s">
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="W50" s="127"/>
-      <c r="X50" s="127"/>
-      <c r="Y50" s="127"/>
-      <c r="Z50" s="127"/>
-      <c r="AA50" s="127"/>
-      <c r="AB50" s="127"/>
-      <c r="AC50" s="127"/>
-      <c r="AD50" s="127"/>
+      <c r="W50" s="92"/>
+      <c r="X50" s="92"/>
+      <c r="Y50" s="92"/>
+      <c r="Z50" s="92"/>
+      <c r="AA50" s="92"/>
+      <c r="AB50" s="92"/>
+      <c r="AC50" s="92"/>
+      <c r="AD50" s="92"/>
       <c r="AE50" s="59" t="s">
         <v>66</v>
       </c>
       <c r="AF50" s="59"/>
       <c r="AG50" s="59"/>
       <c r="AH50" s="59"/>
-      <c r="AI50" s="128"/>
-      <c r="AJ50" s="128"/>
-      <c r="AK50" s="128"/>
-      <c r="AL50" s="128"/>
-      <c r="AM50" s="128"/>
-      <c r="AN50" s="128"/>
-      <c r="AO50" s="128"/>
-      <c r="AP50" s="128"/>
+      <c r="AI50" s="91"/>
+      <c r="AJ50" s="91"/>
+      <c r="AK50" s="91"/>
+      <c r="AL50" s="91"/>
+      <c r="AM50" s="91"/>
+      <c r="AN50" s="91"/>
+      <c r="AO50" s="91"/>
+      <c r="AP50" s="91"/>
       <c r="AQ50" s="59"/>
-      <c r="AR50" s="128"/>
-      <c r="AS50" s="128"/>
-      <c r="AT50" s="128"/>
-      <c r="AU50" s="128"/>
-      <c r="AV50" s="128"/>
+      <c r="AR50" s="91"/>
+      <c r="AS50" s="91"/>
+      <c r="AT50" s="91"/>
+      <c r="AU50" s="91"/>
+      <c r="AV50" s="91"/>
       <c r="AW50" s="59"/>
-      <c r="AX50" s="128"/>
-      <c r="AY50" s="128"/>
-      <c r="AZ50" s="128"/>
-      <c r="BA50" s="128"/>
-      <c r="BB50" s="128"/>
-      <c r="BC50" s="128"/>
+      <c r="AX50" s="91"/>
+      <c r="AY50" s="91"/>
+      <c r="AZ50" s="91"/>
+      <c r="BA50" s="91"/>
+      <c r="BB50" s="91"/>
+      <c r="BC50" s="91"/>
       <c r="BD50" s="2"/>
       <c r="BE50" s="52">
         <v>225</v>
@@ -5316,21 +5322,21 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="125"/>
-      <c r="R51" s="125"/>
-      <c r="S51" s="125"/>
-      <c r="T51" s="125"/>
-      <c r="U51" s="125"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="126" t="s">
+      <c r="W51" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="X51" s="126"/>
-      <c r="Y51" s="126"/>
-      <c r="Z51" s="126"/>
-      <c r="AA51" s="126"/>
-      <c r="AB51" s="126"/>
-      <c r="AC51" s="126"/>
+      <c r="X51" s="79"/>
+      <c r="Y51" s="79"/>
+      <c r="Z51" s="79"/>
+      <c r="AA51" s="79"/>
+      <c r="AB51" s="79"/>
+      <c r="AC51" s="79"/>
       <c r="AD51" s="56"/>
       <c r="AE51" s="67" t="s">
         <v>67</v>
@@ -5339,32 +5345,32 @@
       <c r="AG51" s="59"/>
       <c r="AH51" s="59"/>
       <c r="AI51" s="11"/>
-      <c r="AJ51" s="94" t="s">
+      <c r="AJ51" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="AK51" s="94"/>
-      <c r="AL51" s="94"/>
-      <c r="AM51" s="94"/>
-      <c r="AN51" s="94"/>
-      <c r="AO51" s="94"/>
-      <c r="AP51" s="94"/>
+      <c r="AK51" s="89"/>
+      <c r="AL51" s="89"/>
+      <c r="AM51" s="89"/>
+      <c r="AN51" s="89"/>
+      <c r="AO51" s="89"/>
+      <c r="AP51" s="89"/>
       <c r="AQ51" s="59"/>
-      <c r="AR51" s="126" t="s">
+      <c r="AR51" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="AS51" s="126"/>
-      <c r="AT51" s="126"/>
-      <c r="AU51" s="126"/>
-      <c r="AV51" s="126"/>
+      <c r="AS51" s="79"/>
+      <c r="AT51" s="79"/>
+      <c r="AU51" s="79"/>
+      <c r="AV51" s="79"/>
       <c r="AW51" s="59"/>
-      <c r="AX51" s="126" t="s">
+      <c r="AX51" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="AY51" s="126"/>
-      <c r="AZ51" s="126"/>
-      <c r="BA51" s="126"/>
-      <c r="BB51" s="126"/>
-      <c r="BC51" s="126"/>
+      <c r="AY51" s="79"/>
+      <c r="AZ51" s="79"/>
+      <c r="BA51" s="79"/>
+      <c r="BB51" s="79"/>
+      <c r="BC51" s="79"/>
       <c r="BD51" s="2"/>
       <c r="BE51" s="52">
         <v>225</v>
@@ -5389,27 +5395,27 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="34"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="124"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="124"/>
-      <c r="S52" s="124"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="124"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+      <c r="U52" s="78"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="124"/>
-      <c r="X52" s="124"/>
-      <c r="Y52" s="124"/>
-      <c r="Z52" s="124"/>
-      <c r="AA52" s="124"/>
-      <c r="AB52" s="124"/>
-      <c r="AC52" s="124"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="78"/>
+      <c r="AA52" s="78"/>
+      <c r="AB52" s="78"/>
+      <c r="AC52" s="78"/>
       <c r="AD52" s="56"/>
       <c r="AE52" s="8"/>
       <c r="AF52" s="59"/>
@@ -5455,31 +5461,31 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="94" t="s">
+      <c r="I53" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="89"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="125"/>
-      <c r="R53" s="125"/>
-      <c r="S53" s="125"/>
-      <c r="T53" s="125"/>
-      <c r="U53" s="125"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="83"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="126" t="s">
+      <c r="W53" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="X53" s="126"/>
-      <c r="Y53" s="126"/>
-      <c r="Z53" s="126"/>
-      <c r="AA53" s="126"/>
-      <c r="AB53" s="126"/>
-      <c r="AC53" s="126"/>
+      <c r="X53" s="79"/>
+      <c r="Y53" s="79"/>
+      <c r="Z53" s="79"/>
+      <c r="AA53" s="79"/>
+      <c r="AB53" s="79"/>
+      <c r="AC53" s="79"/>
       <c r="AD53" s="56"/>
       <c r="AE53" s="8"/>
       <c r="AF53" s="59"/>
@@ -5526,16 +5532,16 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="123" t="s">
+      <c r="H54" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="123"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -5690,7 +5696,11 @@
     <row customHeight="1" ht="12.75" r="63" spans="1:70" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="12.75" r="64" spans="1:70" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="12.75" r="65" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="9.75" r="66" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="9.75" r="66" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row customHeight="1" ht="7.5" r="67" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="9.75" r="68" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="12.75" r="69" x14ac:dyDescent="0.2"/>
@@ -5750,71 +5760,66 @@
     <row customHeight="1" ht="12.75" r="123" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells>
-    <mergeCell ref="Q35:AK35"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="F37:AK37"/>
-    <mergeCell ref="AP37:BC38"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="Y38:AN38"/>
-    <mergeCell ref="Y39:AN39"/>
-    <mergeCell ref="AP39:BC40"/>
-    <mergeCell ref="F40:P40"/>
-    <mergeCell ref="R40:X40"/>
-    <mergeCell ref="Y40:AN40"/>
-    <mergeCell ref="F41:P41"/>
-    <mergeCell ref="Y41:AN41"/>
-    <mergeCell ref="AK43:AP43"/>
-    <mergeCell ref="AR43:BC43"/>
-    <mergeCell ref="R44:Z44"/>
-    <mergeCell ref="AH44:BC44"/>
-    <mergeCell ref="A45:AD45"/>
-    <mergeCell ref="AI45:BC45"/>
-    <mergeCell ref="A46:AA46"/>
-    <mergeCell ref="AH47:BC47"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="V48:AD48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="AR48:AV48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="W49:AC49"/>
-    <mergeCell ref="AJ49:AP49"/>
-    <mergeCell ref="AR49:AV49"/>
-    <mergeCell ref="AX49:BC49"/>
-    <mergeCell ref="AX50:BC50"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="W51:AC51"/>
-    <mergeCell ref="AJ51:AP51"/>
-    <mergeCell ref="AR51:AV51"/>
-    <mergeCell ref="AX51:BC51"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="W53:AC53"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:AD50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="AR50:AV50"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AQ34:AS34"/>
-    <mergeCell ref="AT34:AV34"/>
-    <mergeCell ref="AW34:AZ34"/>
-    <mergeCell ref="BA34:BD34"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="W52:AC52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
+  <mergeCells count="147">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AT32:AV32"/>
+    <mergeCell ref="AW32:AZ32"/>
+    <mergeCell ref="BA32:BD32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AQ32:AS32"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="D29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="Z29:AB31"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="T30:V31"/>
+    <mergeCell ref="W30:Y31"/>
+    <mergeCell ref="AC30:AE31"/>
+    <mergeCell ref="AF30:AG31"/>
+    <mergeCell ref="H23:AR23"/>
+    <mergeCell ref="AZ23:BA23"/>
+    <mergeCell ref="BB23:BD23"/>
+    <mergeCell ref="D30:P31"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="AR24:AX24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="BB24:BD24"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BD25"/>
+    <mergeCell ref="W26:AB26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="BB26:BD26"/>
+    <mergeCell ref="AT29:AZ29"/>
+    <mergeCell ref="BA29:BD31"/>
+    <mergeCell ref="L27:V27"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="AC27:AG27"/>
+    <mergeCell ref="AT30:AV31"/>
+    <mergeCell ref="AW30:AZ31"/>
+    <mergeCell ref="AH29:AJ31"/>
+    <mergeCell ref="AK29:AM31"/>
+    <mergeCell ref="AN29:AP31"/>
+    <mergeCell ref="AQ29:AS31"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:AV16"/>
+    <mergeCell ref="H18:AR18"/>
+    <mergeCell ref="BB18:BD19"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:AV19"/>
+    <mergeCell ref="H21:AR21"/>
+    <mergeCell ref="AZ21:BA22"/>
+    <mergeCell ref="BB21:BD22"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:AV22"/>
     <mergeCell ref="AW33:AZ33"/>
     <mergeCell ref="BA33:BD33"/>
     <mergeCell ref="AF33:AG33"/>
@@ -5839,68 +5844,79 @@
     <mergeCell ref="BB13:BD13"/>
     <mergeCell ref="H15:AR15"/>
     <mergeCell ref="BB15:BD16"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:AV16"/>
-    <mergeCell ref="H18:AR18"/>
-    <mergeCell ref="BB18:BD19"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:AV19"/>
-    <mergeCell ref="H21:AR21"/>
-    <mergeCell ref="AZ21:BA22"/>
-    <mergeCell ref="BB21:BD22"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:AV22"/>
-    <mergeCell ref="H23:AR23"/>
-    <mergeCell ref="AZ23:BA23"/>
-    <mergeCell ref="BB23:BD23"/>
-    <mergeCell ref="D30:P31"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="AR24:AX24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="BB24:BD24"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BD25"/>
-    <mergeCell ref="W26:AB26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="BB26:BD26"/>
-    <mergeCell ref="AT29:AZ29"/>
-    <mergeCell ref="BA29:BD31"/>
-    <mergeCell ref="L27:V27"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="D29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="Z29:AB31"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="T30:V31"/>
-    <mergeCell ref="W30:Y31"/>
-    <mergeCell ref="AC30:AE31"/>
-    <mergeCell ref="AF30:AG31"/>
-    <mergeCell ref="AT30:AV31"/>
-    <mergeCell ref="AW30:AZ31"/>
-    <mergeCell ref="AH29:AJ31"/>
-    <mergeCell ref="AK29:AM31"/>
-    <mergeCell ref="AN29:AP31"/>
-    <mergeCell ref="AQ29:AS31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AT32:AV32"/>
-    <mergeCell ref="AW32:AZ32"/>
-    <mergeCell ref="BA32:BD32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AQ32:AS32"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AQ34:AS34"/>
+    <mergeCell ref="AT34:AV34"/>
+    <mergeCell ref="AW34:AZ34"/>
+    <mergeCell ref="BA34:BD34"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="W52:AC52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="AX50:BC50"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="W51:AC51"/>
+    <mergeCell ref="AJ51:AP51"/>
+    <mergeCell ref="AR51:AV51"/>
+    <mergeCell ref="AX51:BC51"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="W53:AC53"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:AD50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="AR50:AV50"/>
+    <mergeCell ref="AH47:BC47"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="V48:AD48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="AR48:AV48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="W49:AC49"/>
+    <mergeCell ref="AJ49:AP49"/>
+    <mergeCell ref="AR49:AV49"/>
+    <mergeCell ref="AX49:BC49"/>
+    <mergeCell ref="F41:P41"/>
+    <mergeCell ref="Y41:AN41"/>
+    <mergeCell ref="AK43:AP43"/>
+    <mergeCell ref="AR43:BC43"/>
+    <mergeCell ref="R44:Z44"/>
+    <mergeCell ref="AH44:BC44"/>
+    <mergeCell ref="A45:AD45"/>
+    <mergeCell ref="AI45:BC45"/>
+    <mergeCell ref="A46:AA46"/>
+    <mergeCell ref="Q35:AK35"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="F37:AK37"/>
+    <mergeCell ref="AP37:BC38"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="Y38:AN38"/>
+    <mergeCell ref="Y39:AN39"/>
+    <mergeCell ref="AP39:BC40"/>
+    <mergeCell ref="F40:P40"/>
+    <mergeCell ref="R40:X40"/>
+    <mergeCell ref="Y40:AN40"/>
   </mergeCells>
   <pageMargins bottom="0.35416666666666669" footer="0.51180555555555551" header="0.51180555555555551" left="0.35416666666666669" right="0.2361111111111111" top="0.39374999999999999"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" horizontalDpi="300" orientation="landscape" paperSize="9" r:id="rId1" scale="96" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="71" man="true" max="16383"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="71" man="true" max="1048575"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="PageCount">'Товарная накладная'!$C$1</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'Товарная накладная'!$A$1:$BS$71</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Товарная накладная'!$A$1:$BD$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -920,209 +917,209 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="2" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="2" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="2" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="2" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="24" fillId="2" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="3" fontId="1" numFmtId="165" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="17" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="18" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="1" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="9" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="20" fillId="2" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="2" fontId="6" numFmtId="2" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="1" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="3" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="17" fillId="2" fontId="1" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="2" xfId="0">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="3" fontId="1" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="2" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="3" fontId="1" numFmtId="166" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="1" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="3" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="left" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="17" fillId="2" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="1" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="17" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="18" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="3" fontId="1" numFmtId="2" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="9" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="20" fillId="2" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="2" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="2" fontId="6" numFmtId="2" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="2" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="22" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="24" fillId="2" fontId="6" numFmtId="49" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="3" fontId="1" numFmtId="165" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="2" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,11 +1589,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr fitToPage="1" autoPageBreaks="true"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BS123"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A42" view="pageBreakPreview" workbookViewId="0" zoomScaleSheetLayoutView="100">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A36" view="pageBreakPreview" workbookViewId="0" zoomScaleSheetLayoutView="100">
       <selection activeCell="H22" sqref="H22:AV22"/>
     </sheetView>
   </sheetViews>
@@ -1991,11 +1988,11 @@
       <c r="AY5" s="8"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="8"/>
-      <c r="BB5" s="114" t="s">
+      <c r="BB5" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="BC5" s="114"/>
-      <c r="BD5" s="114"/>
+      <c r="BC5" s="102"/>
+      <c r="BD5" s="102"/>
       <c r="BG5" s="6"/>
       <c r="BH5" s="7">
         <v>180</v>
@@ -2061,11 +2058,11 @@
       <c r="BA6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="BB6" s="115" t="s">
+      <c r="BB6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="BC6" s="115"/>
-      <c r="BD6" s="115"/>
+      <c r="BC6" s="103"/>
+      <c r="BD6" s="103"/>
       <c r="BG6" s="6"/>
       <c r="BH6" s="7">
         <v>210</v>
@@ -2076,66 +2073,66 @@
       <c r="BR6" s="6"/>
     </row>
     <row customHeight="1" ht="20.65" r="7" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="116"/>
-      <c r="AO7" s="116"/>
-      <c r="AP7" s="116"/>
-      <c r="AQ7" s="116"/>
-      <c r="AR7" s="116"/>
-      <c r="AS7" s="116"/>
-      <c r="AT7" s="116"/>
-      <c r="AU7" s="116"/>
-      <c r="AV7" s="116"/>
-      <c r="AW7" s="116"/>
-      <c r="AX7" s="116"/>
-      <c r="AY7" s="117" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="104"/>
+      <c r="AA7" s="104"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="104"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="104"/>
+      <c r="AK7" s="104"/>
+      <c r="AL7" s="104"/>
+      <c r="AM7" s="104"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="104"/>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="104"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="104"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="104"/>
+      <c r="AV7" s="104"/>
+      <c r="AW7" s="104"/>
+      <c r="AX7" s="104"/>
+      <c r="AY7" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="AZ7" s="117"/>
-      <c r="BA7" s="117"/>
-      <c r="BB7" s="118"/>
-      <c r="BC7" s="118"/>
-      <c r="BD7" s="118"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="85"/>
+      <c r="BC7" s="85"/>
+      <c r="BD7" s="85"/>
       <c r="BG7" s="6"/>
       <c r="BH7" s="7">
         <v>412</v>
@@ -2146,62 +2143,62 @@
       <c r="BR7" s="6"/>
     </row>
     <row customHeight="1" ht="3.75" r="8" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="116"/>
-      <c r="AO8" s="116"/>
-      <c r="AP8" s="116"/>
-      <c r="AQ8" s="116"/>
-      <c r="AR8" s="116"/>
-      <c r="AS8" s="116"/>
-      <c r="AT8" s="116"/>
-      <c r="AU8" s="116"/>
-      <c r="AV8" s="116"/>
-      <c r="AW8" s="116"/>
-      <c r="AX8" s="116"/>
-      <c r="AY8" s="117"/>
-      <c r="AZ8" s="117"/>
-      <c r="BA8" s="117"/>
-      <c r="BB8" s="118"/>
-      <c r="BC8" s="118"/>
-      <c r="BD8" s="118"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="85"/>
+      <c r="BC8" s="85"/>
+      <c r="BD8" s="85"/>
       <c r="BG8" s="6"/>
       <c r="BH8" s="7">
         <v>75</v>
@@ -2212,52 +2209,52 @@
       <c r="BR8" s="6"/>
     </row>
     <row customHeight="1" ht="6.75" r="9" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="89"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="106"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="106"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="106"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
@@ -2267,9 +2264,9 @@
       <c r="AY9" s="3"/>
       <c r="AZ9" s="3"/>
       <c r="BA9" s="12"/>
-      <c r="BB9" s="118"/>
-      <c r="BC9" s="118"/>
-      <c r="BD9" s="118"/>
+      <c r="BB9" s="85"/>
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
       <c r="BG9" s="6"/>
       <c r="BH9" s="7">
         <v>135</v>
@@ -2280,62 +2277,62 @@
       <c r="BR9" s="6"/>
     </row>
     <row customHeight="1" ht="8.1" r="10" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="119"/>
-      <c r="AG10" s="119"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="119"/>
-      <c r="AJ10" s="119"/>
-      <c r="AK10" s="119"/>
-      <c r="AL10" s="119"/>
-      <c r="AM10" s="119"/>
-      <c r="AN10" s="119"/>
-      <c r="AO10" s="119"/>
-      <c r="AP10" s="119"/>
-      <c r="AQ10" s="119"/>
-      <c r="AR10" s="119"/>
-      <c r="AS10" s="119"/>
-      <c r="AT10" s="119"/>
-      <c r="AU10" s="119"/>
-      <c r="AV10" s="119"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="107"/>
+      <c r="AI10" s="107"/>
+      <c r="AJ10" s="107"/>
+      <c r="AK10" s="107"/>
+      <c r="AL10" s="107"/>
+      <c r="AM10" s="107"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="107"/>
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="107"/>
+      <c r="AR10" s="107"/>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="107"/>
+      <c r="AV10" s="107"/>
       <c r="AW10" s="13"/>
       <c r="AX10" s="13"/>
       <c r="AY10" s="14"/>
       <c r="AZ10" s="3"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="118"/>
-      <c r="BC10" s="118"/>
-      <c r="BD10" s="118"/>
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="85"/>
       <c r="BG10" s="6"/>
       <c r="BH10" s="7">
         <v>162</v>
@@ -2346,52 +2343,52 @@
       <c r="BR10" s="6"/>
     </row>
     <row customHeight="1" ht="7.5" r="11" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="89"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="106"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
       <c r="AS11" s="15"/>
       <c r="AT11" s="15"/>
       <c r="AU11" s="15"/>
@@ -2401,9 +2398,9 @@
       <c r="AY11" s="3"/>
       <c r="AZ11" s="3"/>
       <c r="BA11" s="12"/>
-      <c r="BB11" s="118"/>
-      <c r="BC11" s="118"/>
-      <c r="BD11" s="118"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
       <c r="BG11" s="6"/>
       <c r="BH11" s="7">
         <v>150</v>
@@ -2414,41 +2411,41 @@
       <c r="BR11" s="6"/>
     </row>
     <row customHeight="1" ht="9.75" r="12" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A12" s="120"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="120"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
@@ -2469,9 +2466,9 @@
       <c r="BA12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="BB12" s="118"/>
-      <c r="BC12" s="118"/>
-      <c r="BD12" s="118"/>
+      <c r="BB12" s="85"/>
+      <c r="BC12" s="85"/>
+      <c r="BD12" s="85"/>
       <c r="BG12" s="6"/>
       <c r="BH12" s="7">
         <v>195</v>
@@ -2482,58 +2479,58 @@
       <c r="BR12" s="6"/>
     </row>
     <row customFormat="1" customHeight="1" ht="20.65" r="13" s="23" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="122"/>
-      <c r="AL13" s="122"/>
-      <c r="AM13" s="122"/>
-      <c r="AN13" s="122"/>
-      <c r="AO13" s="122"/>
-      <c r="AP13" s="122"/>
-      <c r="AQ13" s="122"/>
-      <c r="AR13" s="122"/>
-      <c r="AS13" s="122"/>
-      <c r="AT13" s="122"/>
-      <c r="AU13" s="122"/>
-      <c r="AV13" s="122"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="109"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="109"/>
+      <c r="AI13" s="109"/>
+      <c r="AJ13" s="109"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="109"/>
+      <c r="AM13" s="109"/>
+      <c r="AN13" s="109"/>
+      <c r="AO13" s="109"/>
+      <c r="AP13" s="109"/>
+      <c r="AQ13" s="109"/>
+      <c r="AR13" s="109"/>
+      <c r="AS13" s="109"/>
+      <c r="AT13" s="109"/>
+      <c r="AU13" s="109"/>
+      <c r="AV13" s="109"/>
       <c r="AW13" s="19"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="21"/>
@@ -2541,9 +2538,9 @@
       <c r="BA13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB13" s="123"/>
-      <c r="BC13" s="123"/>
-      <c r="BD13" s="123"/>
+      <c r="BB13" s="110"/>
+      <c r="BC13" s="110"/>
+      <c r="BD13" s="110"/>
       <c r="BE13" s="1"/>
       <c r="BG13" s="6"/>
       <c r="BH13" s="7">
@@ -2629,45 +2626,45 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="124" t="s">
+      <c r="H15" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="124"/>
-      <c r="AN15" s="124"/>
-      <c r="AO15" s="124"/>
-      <c r="AP15" s="124"/>
-      <c r="AQ15" s="124"/>
-      <c r="AR15" s="124"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="80"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="80"/>
+      <c r="AO15" s="80"/>
+      <c r="AP15" s="80"/>
+      <c r="AQ15" s="80"/>
+      <c r="AR15" s="80"/>
       <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
       <c r="AU15" s="17"/>
@@ -2677,9 +2674,9 @@
       <c r="AY15" s="3"/>
       <c r="AZ15" s="3"/>
       <c r="BA15" s="20"/>
-      <c r="BB15" s="125"/>
-      <c r="BC15" s="125"/>
-      <c r="BD15" s="125"/>
+      <c r="BB15" s="84"/>
+      <c r="BC15" s="84"/>
+      <c r="BD15" s="84"/>
       <c r="BE15" s="1" t="s">
         <v>11</v>
       </c>
@@ -2693,58 +2690,58 @@
       <c r="BR15" s="6"/>
     </row>
     <row customHeight="1" ht="20.65" r="16" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="126" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="126"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="126"/>
-      <c r="AF16" s="126"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="126"/>
-      <c r="AI16" s="126"/>
-      <c r="AJ16" s="126"/>
-      <c r="AK16" s="126"/>
-      <c r="AL16" s="126"/>
-      <c r="AM16" s="126"/>
-      <c r="AN16" s="126"/>
-      <c r="AO16" s="126"/>
-      <c r="AP16" s="126"/>
-      <c r="AQ16" s="126"/>
-      <c r="AR16" s="126"/>
-      <c r="AS16" s="126"/>
-      <c r="AT16" s="126"/>
-      <c r="AU16" s="126"/>
-      <c r="AV16" s="126"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="92"/>
+      <c r="AR16" s="92"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="92"/>
       <c r="AW16" s="20"/>
       <c r="AX16" s="20"/>
       <c r="AY16" s="3"/>
@@ -2752,9 +2749,9 @@
       <c r="BA16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB16" s="125"/>
-      <c r="BC16" s="125"/>
-      <c r="BD16" s="125"/>
+      <c r="BB16" s="84"/>
+      <c r="BC16" s="84"/>
+      <c r="BD16" s="84"/>
       <c r="BG16" s="6"/>
       <c r="BH16" s="7">
         <v>412</v>
@@ -2836,45 +2833,45 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="124" t="s">
+      <c r="H18" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="124"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="124"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="124"/>
-      <c r="AK18" s="124"/>
-      <c r="AL18" s="124"/>
-      <c r="AM18" s="124"/>
-      <c r="AN18" s="124"/>
-      <c r="AO18" s="124"/>
-      <c r="AP18" s="124"/>
-      <c r="AQ18" s="124"/>
-      <c r="AR18" s="124"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="80"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="80"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="80"/>
+      <c r="AP18" s="80"/>
+      <c r="AQ18" s="80"/>
+      <c r="AR18" s="80"/>
       <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
@@ -2884,9 +2881,9 @@
       <c r="AY18" s="3"/>
       <c r="AZ18" s="3"/>
       <c r="BA18" s="20"/>
-      <c r="BB18" s="125"/>
-      <c r="BC18" s="125"/>
-      <c r="BD18" s="125"/>
+      <c r="BB18" s="84"/>
+      <c r="BC18" s="84"/>
+      <c r="BD18" s="84"/>
       <c r="BG18" s="6"/>
       <c r="BH18" s="7">
         <v>150</v>
@@ -2897,58 +2894,58 @@
       <c r="BR18" s="6"/>
     </row>
     <row customHeight="1" ht="20.65" r="19" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="126" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="126"/>
-      <c r="AC19" s="126"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="126"/>
-      <c r="AF19" s="126"/>
-      <c r="AG19" s="126"/>
-      <c r="AH19" s="126"/>
-      <c r="AI19" s="126"/>
-      <c r="AJ19" s="126"/>
-      <c r="AK19" s="126"/>
-      <c r="AL19" s="126"/>
-      <c r="AM19" s="126"/>
-      <c r="AN19" s="126"/>
-      <c r="AO19" s="126"/>
-      <c r="AP19" s="126"/>
-      <c r="AQ19" s="126"/>
-      <c r="AR19" s="126"/>
-      <c r="AS19" s="126"/>
-      <c r="AT19" s="126"/>
-      <c r="AU19" s="126"/>
-      <c r="AV19" s="126"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="92"/>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="92"/>
+      <c r="AS19" s="92"/>
+      <c r="AT19" s="92"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="92"/>
       <c r="AW19" s="20"/>
       <c r="AX19" s="20"/>
       <c r="AY19" s="3"/>
@@ -2956,9 +2953,9 @@
       <c r="BA19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BB19" s="125"/>
-      <c r="BC19" s="125"/>
-      <c r="BD19" s="125"/>
+      <c r="BB19" s="84"/>
+      <c r="BC19" s="84"/>
+      <c r="BD19" s="84"/>
       <c r="BG19" s="6"/>
       <c r="BH19" s="7">
         <v>412</v>
@@ -3040,45 +3037,45 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="124" t="s">
+      <c r="H21" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="124"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="124"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="124"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="124"/>
-      <c r="AN21" s="124"/>
-      <c r="AO21" s="124"/>
-      <c r="AP21" s="124"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="124"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="80"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="80"/>
+      <c r="AN21" s="80"/>
+      <c r="AO21" s="80"/>
+      <c r="AP21" s="80"/>
+      <c r="AQ21" s="80"/>
+      <c r="AR21" s="80"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="34"/>
       <c r="AU21" s="3"/>
@@ -3086,13 +3083,13 @@
       <c r="AW21" s="34"/>
       <c r="AX21" s="3"/>
       <c r="AY21" s="3"/>
-      <c r="AZ21" s="127" t="s">
+      <c r="AZ21" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="BA21" s="127"/>
-      <c r="BB21" s="118"/>
-      <c r="BC21" s="118"/>
-      <c r="BD21" s="118"/>
+      <c r="BA21" s="81"/>
+      <c r="BB21" s="85"/>
+      <c r="BC21" s="85"/>
+      <c r="BD21" s="85"/>
       <c r="BG21" s="6"/>
       <c r="BH21" s="7">
         <v>150</v>
@@ -3103,66 +3100,66 @@
       <c r="BR21" s="6"/>
     </row>
     <row customHeight="1" ht="9.75" r="22" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="128" t="s">
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="128"/>
-      <c r="AJ22" s="128"/>
-      <c r="AK22" s="128"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="128"/>
-      <c r="AO22" s="128"/>
-      <c r="AP22" s="128"/>
-      <c r="AQ22" s="128"/>
-      <c r="AR22" s="128"/>
-      <c r="AS22" s="128"/>
-      <c r="AT22" s="128"/>
-      <c r="AU22" s="128"/>
-      <c r="AV22" s="128"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="93"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="93"/>
+      <c r="AN22" s="93"/>
+      <c r="AO22" s="93"/>
+      <c r="AP22" s="93"/>
+      <c r="AQ22" s="93"/>
+      <c r="AR22" s="93"/>
+      <c r="AS22" s="93"/>
+      <c r="AT22" s="93"/>
+      <c r="AU22" s="93"/>
+      <c r="AV22" s="93"/>
       <c r="AW22" s="12"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="34"/>
-      <c r="AZ22" s="127"/>
-      <c r="BA22" s="127"/>
-      <c r="BB22" s="118"/>
-      <c r="BC22" s="118"/>
-      <c r="BD22" s="118"/>
+      <c r="AZ22" s="81"/>
+      <c r="BA22" s="81"/>
+      <c r="BB22" s="85"/>
+      <c r="BC22" s="85"/>
+      <c r="BD22" s="85"/>
       <c r="BG22" s="6"/>
       <c r="BH22" s="7">
         <v>195</v>
@@ -3180,45 +3177,45 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="124" t="s">
+      <c r="H23" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="124"/>
-      <c r="AL23" s="124"/>
-      <c r="AM23" s="124"/>
-      <c r="AN23" s="124"/>
-      <c r="AO23" s="124"/>
-      <c r="AP23" s="124"/>
-      <c r="AQ23" s="124"/>
-      <c r="AR23" s="124"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="80"/>
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="80"/>
+      <c r="AN23" s="80"/>
+      <c r="AO23" s="80"/>
+      <c r="AP23" s="80"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="80"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="34"/>
       <c r="AU23" s="3"/>
@@ -3226,13 +3223,13 @@
       <c r="AW23" s="34"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="127" t="s">
+      <c r="AZ23" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="BA23" s="127"/>
-      <c r="BB23" s="129"/>
-      <c r="BC23" s="129"/>
-      <c r="BD23" s="129"/>
+      <c r="BA23" s="81"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="82"/>
+      <c r="BD23" s="82"/>
       <c r="BG23" s="6"/>
       <c r="BH23" s="7">
         <v>195</v>
@@ -3286,23 +3283,23 @@
       <c r="AO24" s="15"/>
       <c r="AP24" s="15"/>
       <c r="AQ24" s="15"/>
-      <c r="AR24" s="131" t="s">
+      <c r="AR24" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AS24" s="131"/>
-      <c r="AT24" s="131"/>
-      <c r="AU24" s="131"/>
-      <c r="AV24" s="131"/>
-      <c r="AW24" s="131"/>
-      <c r="AX24" s="131"/>
+      <c r="AS24" s="83"/>
+      <c r="AT24" s="83"/>
+      <c r="AU24" s="83"/>
+      <c r="AV24" s="83"/>
+      <c r="AW24" s="83"/>
+      <c r="AX24" s="83"/>
       <c r="AY24" s="3"/>
-      <c r="AZ24" s="127" t="s">
+      <c r="AZ24" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="BA24" s="127"/>
-      <c r="BB24" s="125"/>
-      <c r="BC24" s="125"/>
-      <c r="BD24" s="125"/>
+      <c r="BA24" s="81"/>
+      <c r="BB24" s="84"/>
+      <c r="BC24" s="84"/>
+      <c r="BD24" s="84"/>
       <c r="BG24" s="6"/>
       <c r="BH24" s="7">
         <v>195</v>
@@ -3364,13 +3361,13 @@
       <c r="AW25" s="34"/>
       <c r="AX25" s="3"/>
       <c r="AY25" s="3"/>
-      <c r="AZ25" s="127" t="s">
+      <c r="AZ25" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="BA25" s="127"/>
-      <c r="BB25" s="118"/>
-      <c r="BC25" s="118"/>
-      <c r="BD25" s="118"/>
+      <c r="BA25" s="81"/>
+      <c r="BB25" s="85"/>
+      <c r="BC25" s="85"/>
+      <c r="BD25" s="85"/>
       <c r="BG25" s="6"/>
       <c r="BH25" s="7">
         <v>195</v>
@@ -3403,21 +3400,21 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="132" t="s">
+      <c r="W26" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132" t="s">
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="132"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="132"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
@@ -3440,9 +3437,9 @@
       <c r="BA26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="BB26" s="133"/>
-      <c r="BC26" s="133"/>
-      <c r="BD26" s="133"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="87"/>
+      <c r="BD26" s="87"/>
       <c r="BG26" s="6"/>
       <c r="BH26" s="7">
         <v>195</v>
@@ -3464,34 +3461,34 @@
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
-      <c r="L27" s="134" t="s">
+      <c r="L27" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="135" t="s">
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="136" t="s">
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="AD27" s="136"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="136"/>
-      <c r="AG27" s="136"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
@@ -3593,84 +3590,84 @@
       <c r="BR28" s="6"/>
     </row>
     <row customHeight="1" ht="10.15" r="29" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="137" t="s">
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="138" t="s">
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
-      <c r="Z29" s="130" t="s">
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="137" t="s">
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="137"/>
-      <c r="AH29" s="130" t="s">
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AI29" s="130"/>
-      <c r="AJ29" s="130"/>
-      <c r="AK29" s="130" t="s">
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AL29" s="130"/>
-      <c r="AM29" s="130"/>
-      <c r="AN29" s="130" t="s">
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AO29" s="130"/>
-      <c r="AP29" s="130"/>
-      <c r="AQ29" s="130" t="s">
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="77"/>
+      <c r="AQ29" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AR29" s="130"/>
-      <c r="AS29" s="130"/>
-      <c r="AT29" s="130" t="s">
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="77"/>
+      <c r="AT29" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="AU29" s="130"/>
-      <c r="AV29" s="130"/>
-      <c r="AW29" s="130"/>
-      <c r="AX29" s="130"/>
-      <c r="AY29" s="130"/>
-      <c r="AZ29" s="130"/>
-      <c r="BA29" s="130" t="s">
+      <c r="AU29" s="77"/>
+      <c r="AV29" s="77"/>
+      <c r="AW29" s="77"/>
+      <c r="AX29" s="77"/>
+      <c r="AY29" s="77"/>
+      <c r="AZ29" s="77"/>
+      <c r="BA29" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="BB29" s="130"/>
-      <c r="BC29" s="130"/>
-      <c r="BD29" s="130"/>
+      <c r="BB29" s="77"/>
+      <c r="BC29" s="77"/>
+      <c r="BD29" s="77"/>
       <c r="BG29" s="6"/>
       <c r="BH29" s="7">
         <v>195</v>
@@ -3681,78 +3678,78 @@
       <c r="BR29" s="6"/>
     </row>
     <row customHeight="1" ht="18.2" r="30" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A30" s="130"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130" t="s">
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130" t="s">
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130" t="s">
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130" t="s">
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130" t="s">
+      <c r="X30" s="77"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="130" t="s">
+      <c r="AD30" s="77"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="130"/>
-      <c r="AI30" s="130"/>
-      <c r="AJ30" s="130"/>
-      <c r="AK30" s="130"/>
-      <c r="AL30" s="130"/>
-      <c r="AM30" s="130"/>
-      <c r="AN30" s="130"/>
-      <c r="AO30" s="130"/>
-      <c r="AP30" s="130"/>
-      <c r="AQ30" s="130"/>
-      <c r="AR30" s="130"/>
-      <c r="AS30" s="130"/>
-      <c r="AT30" s="130" t="s">
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="77"/>
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="77"/>
+      <c r="AO30" s="77"/>
+      <c r="AP30" s="77"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="77"/>
+      <c r="AT30" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="AU30" s="130"/>
-      <c r="AV30" s="130"/>
-      <c r="AW30" s="130" t="s">
+      <c r="AU30" s="77"/>
+      <c r="AV30" s="77"/>
+      <c r="AW30" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="AX30" s="130"/>
-      <c r="AY30" s="130"/>
-      <c r="AZ30" s="130"/>
-      <c r="BA30" s="130"/>
-      <c r="BB30" s="130"/>
-      <c r="BC30" s="130"/>
-      <c r="BD30" s="130"/>
+      <c r="AX30" s="77"/>
+      <c r="AY30" s="77"/>
+      <c r="AZ30" s="77"/>
+      <c r="BA30" s="77"/>
+      <c r="BB30" s="77"/>
+      <c r="BC30" s="77"/>
+      <c r="BD30" s="77"/>
       <c r="BG30" s="6"/>
       <c r="BH30" s="7">
         <v>365</v>
@@ -3763,62 +3760,62 @@
       <c r="BR30" s="6"/>
     </row>
     <row customHeight="1" ht="4.5" r="31" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A31" s="130"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="130"/>
-      <c r="AH31" s="130"/>
-      <c r="AI31" s="130"/>
-      <c r="AJ31" s="130"/>
-      <c r="AK31" s="130"/>
-      <c r="AL31" s="130"/>
-      <c r="AM31" s="130"/>
-      <c r="AN31" s="130"/>
-      <c r="AO31" s="130"/>
-      <c r="AP31" s="130"/>
-      <c r="AQ31" s="130"/>
-      <c r="AR31" s="130"/>
-      <c r="AS31" s="130"/>
-      <c r="AT31" s="130"/>
-      <c r="AU31" s="130"/>
-      <c r="AV31" s="130"/>
-      <c r="AW31" s="130"/>
-      <c r="AX31" s="130"/>
-      <c r="AY31" s="130"/>
-      <c r="AZ31" s="130"/>
-      <c r="BA31" s="130"/>
-      <c r="BB31" s="130"/>
-      <c r="BC31" s="130"/>
-      <c r="BD31" s="130"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="77"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="77"/>
+      <c r="AO31" s="77"/>
+      <c r="AP31" s="77"/>
+      <c r="AQ31" s="77"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="77"/>
+      <c r="AT31" s="77"/>
+      <c r="AU31" s="77"/>
+      <c r="AV31" s="77"/>
+      <c r="AW31" s="77"/>
+      <c r="AX31" s="77"/>
+      <c r="AY31" s="77"/>
+      <c r="AZ31" s="77"/>
+      <c r="BA31" s="77"/>
+      <c r="BB31" s="77"/>
+      <c r="BC31" s="77"/>
+      <c r="BD31" s="77"/>
       <c r="BG31" s="6"/>
       <c r="BH31" s="7">
         <v>90</v>
@@ -3829,92 +3826,92 @@
       <c r="BR31" s="6"/>
     </row>
     <row customFormat="1" customHeight="1" ht="10.15" r="32" s="46" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="A32" s="139">
+      <c r="A32" s="74">
         <v>1</v>
       </c>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140">
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75">
         <v>2</v>
       </c>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="140"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="141">
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76">
         <v>3</v>
       </c>
-      <c r="R32" s="141"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="139">
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="74">
         <v>4</v>
       </c>
-      <c r="U32" s="139"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="141">
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="76">
         <v>5</v>
       </c>
-      <c r="X32" s="141"/>
-      <c r="Y32" s="141"/>
-      <c r="Z32" s="141">
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="76">
         <v>6</v>
       </c>
-      <c r="AA32" s="141"/>
-      <c r="AB32" s="141"/>
-      <c r="AC32" s="141">
+      <c r="AA32" s="76"/>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="76">
         <v>7</v>
       </c>
-      <c r="AD32" s="141"/>
-      <c r="AE32" s="141"/>
-      <c r="AF32" s="141">
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="76">
         <v>8</v>
       </c>
-      <c r="AG32" s="141"/>
-      <c r="AH32" s="141">
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76">
         <v>9</v>
       </c>
-      <c r="AI32" s="141"/>
-      <c r="AJ32" s="141"/>
-      <c r="AK32" s="141">
+      <c r="AI32" s="76"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="76">
         <v>10</v>
       </c>
-      <c r="AL32" s="141"/>
-      <c r="AM32" s="141"/>
-      <c r="AN32" s="141">
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="76"/>
+      <c r="AN32" s="76">
         <v>11</v>
       </c>
-      <c r="AO32" s="141"/>
-      <c r="AP32" s="141"/>
-      <c r="AQ32" s="141">
+      <c r="AO32" s="76"/>
+      <c r="AP32" s="76"/>
+      <c r="AQ32" s="76">
         <v>12</v>
       </c>
-      <c r="AR32" s="141"/>
-      <c r="AS32" s="141"/>
-      <c r="AT32" s="139">
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="76"/>
+      <c r="AT32" s="74">
         <v>13</v>
       </c>
-      <c r="AU32" s="139"/>
-      <c r="AV32" s="139"/>
-      <c r="AW32" s="141">
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="74"/>
+      <c r="AW32" s="76">
         <v>14</v>
       </c>
-      <c r="AX32" s="141"/>
-      <c r="AY32" s="141"/>
-      <c r="AZ32" s="141"/>
-      <c r="BA32" s="141">
+      <c r="AX32" s="76"/>
+      <c r="AY32" s="76"/>
+      <c r="AZ32" s="76"/>
+      <c r="BA32" s="76">
         <v>15</v>
       </c>
-      <c r="BB32" s="141"/>
-      <c r="BC32" s="141"/>
-      <c r="BD32" s="141"/>
+      <c r="BB32" s="76"/>
+      <c r="BC32" s="76"/>
+      <c r="BD32" s="76"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="23">
         <v>0</v>
@@ -3930,84 +3927,84 @@
       <c r="BS32" s="1"/>
     </row>
     <row customHeight="1" ht="29.85" r="33" spans="1:70" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="98">
+      <c r="A33" s="112">
         <v>1</v>
       </c>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99" t="s">
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="103" t="s">
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="104" t="s">
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="105" t="s">
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="X33" s="105"/>
-      <c r="Y33" s="105"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="106"/>
-      <c r="AJ33" s="106"/>
-      <c r="AK33" s="110" t="s">
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="96"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="AL33" s="110"/>
-      <c r="AM33" s="110"/>
-      <c r="AN33" s="111" t="s">
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="AO33" s="111"/>
-      <c r="AP33" s="111"/>
-      <c r="AQ33" s="108" t="s">
+      <c r="AO33" s="99"/>
+      <c r="AP33" s="99"/>
+      <c r="AQ33" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="AR33" s="108"/>
-      <c r="AS33" s="108"/>
-      <c r="AT33" s="112">
+      <c r="AR33" s="95"/>
+      <c r="AS33" s="95"/>
+      <c r="AT33" s="100">
         <v>0.2</v>
       </c>
-      <c r="AU33" s="113"/>
-      <c r="AV33" s="113"/>
-      <c r="AW33" s="107" t="s">
+      <c r="AU33" s="101"/>
+      <c r="AV33" s="101"/>
+      <c r="AW33" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="AX33" s="107"/>
-      <c r="AY33" s="107"/>
-      <c r="AZ33" s="107"/>
-      <c r="BA33" s="108" t="s">
+      <c r="AX33" s="94"/>
+      <c r="AY33" s="94"/>
+      <c r="AZ33" s="94"/>
+      <c r="BA33" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="BB33" s="108"/>
-      <c r="BC33" s="108"/>
-      <c r="BD33" s="108"/>
+      <c r="BB33" s="95"/>
+      <c r="BC33" s="95"/>
+      <c r="BD33" s="95"/>
       <c r="BE33" s="23"/>
       <c r="BF33" s="1">
         <v>5373</v>
@@ -4060,50 +4057,50 @@
       <c r="AE34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AF34" s="100">
+      <c r="AF34" s="114">
         <f>SUM(AF33)</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="100"/>
-      <c r="AH34" s="101"/>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="101"/>
-      <c r="AK34" s="102">
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="115"/>
+      <c r="AI34" s="115"/>
+      <c r="AJ34" s="115"/>
+      <c r="AK34" s="116">
         <f>SUM(AK33)</f>
         <v>0</v>
       </c>
-      <c r="AL34" s="102"/>
-      <c r="AM34" s="102"/>
-      <c r="AN34" s="93" t="s">
+      <c r="AL34" s="116"/>
+      <c r="AM34" s="116"/>
+      <c r="AN34" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AO34" s="93"/>
-      <c r="AP34" s="93"/>
-      <c r="AQ34" s="94">
+      <c r="AO34" s="120"/>
+      <c r="AP34" s="120"/>
+      <c r="AQ34" s="121">
         <f>SUM(AQ33)</f>
         <v>0</v>
       </c>
-      <c r="AR34" s="94"/>
-      <c r="AS34" s="94"/>
-      <c r="AT34" s="93" t="s">
+      <c r="AR34" s="121"/>
+      <c r="AS34" s="121"/>
+      <c r="AT34" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AU34" s="93"/>
-      <c r="AV34" s="93"/>
-      <c r="AW34" s="95">
+      <c r="AU34" s="120"/>
+      <c r="AV34" s="120"/>
+      <c r="AW34" s="122">
         <f>SUM(AW33)</f>
         <v>0</v>
       </c>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95">
+      <c r="AX34" s="122"/>
+      <c r="AY34" s="122"/>
+      <c r="AZ34" s="122"/>
+      <c r="BA34" s="122">
         <f>SUM(BA33)</f>
         <v>0</v>
       </c>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
+      <c r="BB34" s="122"/>
+      <c r="BC34" s="122"/>
+      <c r="BD34" s="122"/>
       <c r="BF34" s="49"/>
       <c r="BG34" s="6"/>
       <c r="BH34" s="7"/>
@@ -4118,72 +4115,92 @@
       <c r="BQ34" s="6"/>
       <c r="BR34" s="6"/>
     </row>
-    <row customHeight="1" ht="32.25" r="35" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="74"/>
-      <c r="AK35" s="74"/>
-      <c r="AL35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="2"/>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="2"/>
-      <c r="AT35" s="2"/>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="6"/>
-      <c r="BH35" s="7">
-        <v>195</v>
-      </c>
+    <row customHeight="true" ht="29.85" r="35" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A35" s="112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="U35" s="118"/>
+      <c r="V35" s="118"/>
+      <c r="W35" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="119"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="111"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="111"/>
+      <c r="AF35" s="96"/>
+      <c r="AG35" s="96"/>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="97"/>
+      <c r="AJ35" s="97"/>
+      <c r="AK35" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL35" s="98"/>
+      <c r="AM35" s="98"/>
+      <c r="AN35" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO35" s="99"/>
+      <c r="AP35" s="99"/>
+      <c r="AQ35" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR35" s="95"/>
+      <c r="AS35" s="95"/>
+      <c r="AT35" s="100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU35" s="101"/>
+      <c r="AV35" s="101"/>
+      <c r="AW35" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX35" s="94"/>
+      <c r="AY35" s="94"/>
+      <c r="AZ35" s="94"/>
+      <c r="BA35" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB35" s="95"/>
+      <c r="BC35" s="95"/>
+      <c r="BD35" s="95"/>
+      <c r="BF35" s="1" t="n">
+        <v>5373.0</v>
+      </c>
+      <c r="BG35" s="7" t="n">
+        <v>598.0</v>
+      </c>
+      <c r="BH35" s="6"/>
       <c r="BI35" s="6"/>
       <c r="BJ35" s="47"/>
       <c r="BK35" s="47"/>
@@ -4195,74 +4212,82 @@
       <c r="BQ35" s="6"/>
       <c r="BR35" s="6"/>
     </row>
-    <row customHeight="1" ht="9" r="36" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="74"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
-      <c r="AL36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM36" s="2"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="2"/>
-      <c r="AQ36" s="2"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="2"/>
-      <c r="AT36" s="2"/>
-      <c r="AU36" s="2"/>
-      <c r="AV36" s="2"/>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="2"/>
-      <c r="AY36" s="2"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
+    <row customHeight="true" ht="34.5" r="36" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="48"/>
+      <c r="AE36" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF36" s="114">
+        <f>SUM(AF33)</f>
+      </c>
+      <c r="AG36" s="114"/>
+      <c r="AH36" s="115"/>
+      <c r="AI36" s="115"/>
+      <c r="AJ36" s="115"/>
+      <c r="AK36" s="116">
+        <f>SUM(AK33)</f>
+      </c>
+      <c r="AL36" s="116"/>
+      <c r="AM36" s="116"/>
+      <c r="AN36" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO36" s="120"/>
+      <c r="AP36" s="120"/>
+      <c r="AQ36" s="121">
+        <f>SUM(AQ33)</f>
+      </c>
+      <c r="AR36" s="121"/>
+      <c r="AS36" s="121"/>
+      <c r="AT36" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU36" s="120"/>
+      <c r="AV36" s="120"/>
+      <c r="AW36" s="122">
+        <f>SUM(AW33)</f>
+      </c>
+      <c r="AX36" s="122"/>
+      <c r="AY36" s="122"/>
+      <c r="AZ36" s="122"/>
+      <c r="BA36" s="122">
+        <f>SUM(BA33)</f>
+      </c>
+      <c r="BB36" s="122"/>
+      <c r="BC36" s="122"/>
+      <c r="BD36" s="122"/>
       <c r="BF36" s="49"/>
       <c r="BG36" s="6"/>
-      <c r="BH36" s="7">
-        <v>180</v>
-      </c>
+      <c r="BH36" s="7"/>
       <c r="BI36" s="6"/>
       <c r="BJ36" s="47"/>
       <c r="BK36" s="47"/>
@@ -4273,73 +4298,73 @@
       <c r="BQ36" s="6"/>
       <c r="BR36" s="6"/>
     </row>
-    <row customHeight="1" ht="29.85" r="37" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+    <row customHeight="true" ht="32.25" r="37" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="75"/>
-      <c r="AA37" s="75"/>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="75"/>
-      <c r="AE37" s="75"/>
-      <c r="AF37" s="75"/>
-      <c r="AG37" s="75"/>
-      <c r="AH37" s="75"/>
-      <c r="AI37" s="75"/>
-      <c r="AJ37" s="75"/>
-      <c r="AK37" s="75"/>
-      <c r="AL37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="137"/>
+      <c r="R37" s="137"/>
+      <c r="S37" s="137"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="137"/>
+      <c r="AA37" s="137"/>
+      <c r="AB37" s="137"/>
+      <c r="AC37" s="137"/>
+      <c r="AD37" s="137"/>
+      <c r="AE37" s="137"/>
+      <c r="AF37" s="137"/>
+      <c r="AG37" s="137"/>
+      <c r="AH37" s="137"/>
+      <c r="AI37" s="137"/>
+      <c r="AJ37" s="137"/>
+      <c r="AK37" s="137"/>
+      <c r="AL37" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
-      <c r="AP37" s="76"/>
-      <c r="AQ37" s="76"/>
-      <c r="AR37" s="76"/>
-      <c r="AS37" s="76"/>
-      <c r="AT37" s="76"/>
-      <c r="AU37" s="76"/>
-      <c r="AV37" s="76"/>
-      <c r="AW37" s="76"/>
-      <c r="AX37" s="76"/>
-      <c r="AY37" s="76"/>
-      <c r="AZ37" s="76"/>
-      <c r="BA37" s="76"/>
-      <c r="BB37" s="76"/>
-      <c r="BC37" s="76"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
       <c r="BD37" s="2"/>
       <c r="BE37" s="23"/>
-      <c r="BF37" s="1">
-        <v>10360</v>
-      </c>
-      <c r="BG37" s="7">
-        <v>598</v>
-      </c>
-      <c r="BH37" s="6"/>
+      <c r="BF37" s="49"/>
+      <c r="BG37" s="6"/>
+      <c r="BH37" s="7" t="n">
+        <v>195.0</v>
+      </c>
       <c r="BI37" s="6"/>
       <c r="BJ37" s="47"/>
       <c r="BK37" s="47"/>
@@ -4350,73 +4375,75 @@
       <c r="BQ37" s="6"/>
       <c r="BR37" s="6"/>
     </row>
-    <row customHeight="1" ht="48.6" r="38" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+    <row customHeight="true" ht="9.0" r="38" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="T38" s="77"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="77"/>
-      <c r="W38" s="77"/>
-      <c r="X38" s="77"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="78"/>
-      <c r="AC38" s="78"/>
-      <c r="AD38" s="78"/>
-      <c r="AE38" s="78"/>
-      <c r="AF38" s="78"/>
-      <c r="AG38" s="78"/>
-      <c r="AH38" s="78"/>
-      <c r="AI38" s="78"/>
-      <c r="AJ38" s="78"/>
-      <c r="AK38" s="78"/>
-      <c r="AL38" s="78"/>
-      <c r="AM38" s="78"/>
-      <c r="AN38" s="78"/>
+      <c r="F38" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="137"/>
+      <c r="O38" s="137"/>
+      <c r="P38" s="137"/>
+      <c r="Q38" s="137"/>
+      <c r="R38" s="137"/>
+      <c r="S38" s="137"/>
+      <c r="T38" s="137"/>
+      <c r="U38" s="137"/>
+      <c r="V38" s="137"/>
+      <c r="W38" s="137"/>
+      <c r="X38" s="137"/>
+      <c r="Y38" s="137"/>
+      <c r="Z38" s="137"/>
+      <c r="AA38" s="137"/>
+      <c r="AB38" s="137"/>
+      <c r="AC38" s="137"/>
+      <c r="AD38" s="137"/>
+      <c r="AE38" s="137"/>
+      <c r="AF38" s="137"/>
+      <c r="AG38" s="137"/>
+      <c r="AH38" s="137"/>
+      <c r="AI38" s="137"/>
+      <c r="AJ38" s="137"/>
+      <c r="AK38" s="137"/>
+      <c r="AL38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
-      <c r="AP38" s="76"/>
-      <c r="AQ38" s="76"/>
-      <c r="AR38" s="76"/>
-      <c r="AS38" s="76"/>
-      <c r="AT38" s="76"/>
-      <c r="AU38" s="76"/>
-      <c r="AV38" s="76"/>
-      <c r="AW38" s="76"/>
-      <c r="AX38" s="76"/>
-      <c r="AY38" s="76"/>
-      <c r="AZ38" s="76"/>
-      <c r="BA38" s="76"/>
-      <c r="BB38" s="76"/>
-      <c r="BC38" s="76"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
       <c r="BD38" s="2"/>
       <c r="BE38" s="23"/>
-      <c r="BF38" s="1">
-        <v>9762</v>
-      </c>
-      <c r="BG38" s="7">
-        <v>970</v>
-      </c>
-      <c r="BH38" s="6"/>
+      <c r="BF38" s="49"/>
+      <c r="BG38" s="6"/>
+      <c r="BH38" s="7" t="n">
+        <v>180.0</v>
+      </c>
       <c r="BI38" s="6"/>
       <c r="BJ38" s="47"/>
       <c r="BK38" s="47"/>
@@ -4427,173 +4454,169 @@
       <c r="BQ38" s="6"/>
       <c r="BR38" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="39" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="29.85" r="39" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="79" t="s">
+      <c r="F39" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="Z39" s="79"/>
-      <c r="AA39" s="79"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="79"/>
-      <c r="AD39" s="79"/>
-      <c r="AE39" s="79"/>
-      <c r="AF39" s="79"/>
-      <c r="AG39" s="79"/>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="79"/>
-      <c r="AJ39" s="79"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="79"/>
-      <c r="AM39" s="79"/>
-      <c r="AN39" s="79"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="134"/>
+      <c r="W39" s="134"/>
+      <c r="X39" s="134"/>
+      <c r="Y39" s="134"/>
+      <c r="Z39" s="134"/>
+      <c r="AA39" s="134"/>
+      <c r="AB39" s="134"/>
+      <c r="AC39" s="134"/>
+      <c r="AD39" s="134"/>
+      <c r="AE39" s="134"/>
+      <c r="AF39" s="134"/>
+      <c r="AG39" s="134"/>
+      <c r="AH39" s="134"/>
+      <c r="AI39" s="134"/>
+      <c r="AJ39" s="134"/>
+      <c r="AK39" s="134"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
-      <c r="AP39" s="80"/>
-      <c r="AQ39" s="80"/>
-      <c r="AR39" s="80"/>
-      <c r="AS39" s="80"/>
-      <c r="AT39" s="80"/>
-      <c r="AU39" s="80"/>
-      <c r="AV39" s="80"/>
-      <c r="AW39" s="80"/>
-      <c r="AX39" s="80"/>
-      <c r="AY39" s="80"/>
-      <c r="AZ39" s="80"/>
-      <c r="BA39" s="80"/>
-      <c r="BB39" s="80"/>
-      <c r="BC39" s="80"/>
+      <c r="AP39" s="138"/>
+      <c r="AQ39" s="138"/>
+      <c r="AR39" s="138"/>
+      <c r="AS39" s="138"/>
+      <c r="AT39" s="138"/>
+      <c r="AU39" s="138"/>
+      <c r="AV39" s="138"/>
+      <c r="AW39" s="138"/>
+      <c r="AX39" s="138"/>
+      <c r="AY39" s="138"/>
+      <c r="AZ39" s="138"/>
+      <c r="BA39" s="138"/>
+      <c r="BB39" s="138"/>
+      <c r="BC39" s="138"/>
       <c r="BD39" s="2"/>
-      <c r="BG39" s="6"/>
-      <c r="BH39" s="52">
-        <v>225</v>
-      </c>
+      <c r="BG39" s="7" t="n">
+        <v>598.0</v>
+      </c>
+      <c r="BH39" s="6"/>
       <c r="BI39" s="6"/>
       <c r="BJ39" s="47"/>
       <c r="BK39" s="47"/>
       <c r="BL39" s="47"/>
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
-      <c r="BP39" s="52"/>
+      <c r="BP39" s="7"/>
       <c r="BQ39" s="6"/>
       <c r="BR39" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="40" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="48.6" r="40" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="81"/>
-      <c r="V40" s="81"/>
-      <c r="W40" s="81"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="78"/>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="78"/>
-      <c r="AC40" s="78"/>
-      <c r="AD40" s="78"/>
-      <c r="AE40" s="78"/>
-      <c r="AF40" s="78"/>
-      <c r="AG40" s="78"/>
-      <c r="AH40" s="78"/>
-      <c r="AI40" s="78"/>
-      <c r="AJ40" s="78"/>
-      <c r="AK40" s="78"/>
-      <c r="AL40" s="78"/>
-      <c r="AM40" s="78"/>
-      <c r="AN40" s="78"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="T40" s="139"/>
+      <c r="U40" s="139"/>
+      <c r="V40" s="139"/>
+      <c r="W40" s="139"/>
+      <c r="X40" s="139"/>
+      <c r="Y40" s="124"/>
+      <c r="Z40" s="124"/>
+      <c r="AA40" s="124"/>
+      <c r="AB40" s="124"/>
+      <c r="AC40" s="124"/>
+      <c r="AD40" s="124"/>
+      <c r="AE40" s="124"/>
+      <c r="AF40" s="124"/>
+      <c r="AG40" s="124"/>
+      <c r="AH40" s="124"/>
+      <c r="AI40" s="124"/>
+      <c r="AJ40" s="124"/>
+      <c r="AK40" s="124"/>
+      <c r="AL40" s="124"/>
+      <c r="AM40" s="124"/>
+      <c r="AN40" s="124"/>
       <c r="AO40" s="2"/>
-      <c r="AP40" s="80"/>
-      <c r="AQ40" s="80"/>
-      <c r="AR40" s="80"/>
-      <c r="AS40" s="80"/>
-      <c r="AT40" s="80"/>
-      <c r="AU40" s="80"/>
-      <c r="AV40" s="80"/>
-      <c r="AW40" s="80"/>
-      <c r="AX40" s="80"/>
-      <c r="AY40" s="80"/>
-      <c r="AZ40" s="80"/>
-      <c r="BA40" s="80"/>
-      <c r="BB40" s="80"/>
-      <c r="BC40" s="80"/>
+      <c r="AP40" s="138"/>
+      <c r="AQ40" s="138"/>
+      <c r="AR40" s="138"/>
+      <c r="AS40" s="138"/>
+      <c r="AT40" s="138"/>
+      <c r="AU40" s="138"/>
+      <c r="AV40" s="138"/>
+      <c r="AW40" s="138"/>
+      <c r="AX40" s="138"/>
+      <c r="AY40" s="138"/>
+      <c r="AZ40" s="138"/>
+      <c r="BA40" s="138"/>
+      <c r="BB40" s="138"/>
+      <c r="BC40" s="138"/>
       <c r="BD40" s="2"/>
-      <c r="BG40" s="6"/>
-      <c r="BH40" s="52">
-        <v>225</v>
-      </c>
+      <c r="BG40" s="7" t="n">
+        <v>970.0</v>
+      </c>
+      <c r="BH40" s="6"/>
       <c r="BI40" s="6"/>
       <c r="BJ40" s="47"/>
       <c r="BK40" s="47"/>
       <c r="BL40" s="47"/>
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
-      <c r="BP40" s="52"/>
+      <c r="BP40" s="7"/>
       <c r="BQ40" s="6"/>
       <c r="BR40" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="41" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="11.25" r="41" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -4601,187 +4624,187 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="79" t="s">
+      <c r="X41" s="22"/>
+      <c r="Y41" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="Z41" s="79"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="79"/>
-      <c r="AG41" s="79"/>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="79"/>
-      <c r="AJ41" s="79"/>
-      <c r="AK41" s="79"/>
-      <c r="AL41" s="79"/>
-      <c r="AM41" s="79"/>
-      <c r="AN41" s="79"/>
+      <c r="Z41" s="127"/>
+      <c r="AA41" s="127"/>
+      <c r="AB41" s="127"/>
+      <c r="AC41" s="127"/>
+      <c r="AD41" s="127"/>
+      <c r="AE41" s="127"/>
+      <c r="AF41" s="127"/>
+      <c r="AG41" s="127"/>
+      <c r="AH41" s="127"/>
+      <c r="AI41" s="127"/>
+      <c r="AJ41" s="127"/>
+      <c r="AK41" s="127"/>
+      <c r="AL41" s="127"/>
+      <c r="AM41" s="127"/>
+      <c r="AN41" s="127"/>
       <c r="AO41" s="2"/>
-      <c r="AP41" s="53"/>
-      <c r="AQ41" s="53"/>
-      <c r="AR41" s="53"/>
-      <c r="AS41" s="53"/>
-      <c r="AT41" s="53"/>
-      <c r="AU41" s="53"/>
-      <c r="AV41" s="53"/>
-      <c r="AW41" s="53"/>
-      <c r="AX41" s="53"/>
-      <c r="AY41" s="53"/>
-      <c r="AZ41" s="53"/>
-      <c r="BA41" s="53"/>
-      <c r="BB41" s="53"/>
-      <c r="BC41" s="53"/>
+      <c r="AP41" s="140"/>
+      <c r="AQ41" s="140"/>
+      <c r="AR41" s="140"/>
+      <c r="AS41" s="140"/>
+      <c r="AT41" s="140"/>
+      <c r="AU41" s="140"/>
+      <c r="AV41" s="140"/>
+      <c r="AW41" s="140"/>
+      <c r="AX41" s="140"/>
+      <c r="AY41" s="140"/>
+      <c r="AZ41" s="140"/>
+      <c r="BA41" s="140"/>
+      <c r="BB41" s="140"/>
+      <c r="BC41" s="140"/>
       <c r="BD41" s="2"/>
       <c r="BE41" s="46"/>
       <c r="BF41" s="6"/>
-      <c r="BH41" s="7">
-        <v>225</v>
-      </c>
-      <c r="BI41" s="4"/>
-      <c r="BP41" s="7"/>
+      <c r="BH41" s="52" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="BI41" s="6"/>
+      <c r="BP41" s="52"/>
       <c r="BQ41" s="6"/>
       <c r="BR41" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="42" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="11.25" r="42" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="E42" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="124"/>
+      <c r="P42" s="124"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42" s="2"/>
-      <c r="AN42" s="2"/>
+      <c r="R42" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="S42" s="141"/>
+      <c r="T42" s="141"/>
+      <c r="U42" s="141"/>
+      <c r="V42" s="141"/>
+      <c r="W42" s="141"/>
+      <c r="X42" s="141"/>
+      <c r="Y42" s="124"/>
+      <c r="Z42" s="124"/>
+      <c r="AA42" s="124"/>
+      <c r="AB42" s="124"/>
+      <c r="AC42" s="124"/>
+      <c r="AD42" s="124"/>
+      <c r="AE42" s="124"/>
+      <c r="AF42" s="124"/>
+      <c r="AG42" s="124"/>
+      <c r="AH42" s="124"/>
+      <c r="AI42" s="124"/>
+      <c r="AJ42" s="124"/>
+      <c r="AK42" s="124"/>
+      <c r="AL42" s="124"/>
+      <c r="AM42" s="124"/>
+      <c r="AN42" s="124"/>
       <c r="AO42" s="2"/>
-      <c r="AP42" s="2"/>
-      <c r="AQ42" s="2"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="2"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2"/>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
-      <c r="AY42" s="2"/>
-      <c r="AZ42" s="2"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="2"/>
+      <c r="AP42" s="140"/>
+      <c r="AQ42" s="140"/>
+      <c r="AR42" s="140"/>
+      <c r="AS42" s="140"/>
+      <c r="AT42" s="140"/>
+      <c r="AU42" s="140"/>
+      <c r="AV42" s="140"/>
+      <c r="AW42" s="140"/>
+      <c r="AX42" s="140"/>
+      <c r="AY42" s="140"/>
+      <c r="AZ42" s="140"/>
+      <c r="BA42" s="140"/>
+      <c r="BB42" s="140"/>
+      <c r="BC42" s="140"/>
       <c r="BD42" s="2"/>
       <c r="BE42" s="46"/>
       <c r="BF42" s="6"/>
-      <c r="BH42" s="7">
-        <v>225</v>
-      </c>
-      <c r="BI42" s="4"/>
-      <c r="BP42" s="7"/>
+      <c r="BH42" s="52" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="BI42" s="6"/>
+      <c r="BP42" s="52"/>
       <c r="BQ42" s="6"/>
       <c r="BR42" s="6"/>
     </row>
-    <row customHeight="1" ht="8.25" r="43" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>52</v>
-      </c>
+    <row customHeight="true" ht="11.25" r="43" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="78"/>
-      <c r="AL43" s="78"/>
-      <c r="AM43" s="78"/>
-      <c r="AN43" s="78"/>
-      <c r="AO43" s="78"/>
-      <c r="AP43" s="78"/>
-      <c r="AQ43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR43" s="78"/>
-      <c r="AS43" s="78"/>
-      <c r="AT43" s="78"/>
-      <c r="AU43" s="78"/>
-      <c r="AV43" s="78"/>
-      <c r="AW43" s="78"/>
-      <c r="AX43" s="78"/>
-      <c r="AY43" s="78"/>
-      <c r="AZ43" s="78"/>
-      <c r="BA43" s="78"/>
-      <c r="BB43" s="78"/>
-      <c r="BC43" s="78"/>
+      <c r="F43" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="127"/>
+      <c r="M43" s="127"/>
+      <c r="N43" s="127"/>
+      <c r="O43" s="127"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z43" s="127"/>
+      <c r="AA43" s="127"/>
+      <c r="AB43" s="127"/>
+      <c r="AC43" s="127"/>
+      <c r="AD43" s="127"/>
+      <c r="AE43" s="127"/>
+      <c r="AF43" s="127"/>
+      <c r="AG43" s="127"/>
+      <c r="AH43" s="127"/>
+      <c r="AI43" s="127"/>
+      <c r="AJ43" s="127"/>
+      <c r="AK43" s="127"/>
+      <c r="AL43" s="127"/>
+      <c r="AM43" s="127"/>
+      <c r="AN43" s="127"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="53"/>
+      <c r="AS43" s="53"/>
+      <c r="AT43" s="53"/>
+      <c r="AU43" s="53"/>
+      <c r="AV43" s="53"/>
+      <c r="AW43" s="53"/>
+      <c r="AX43" s="53"/>
+      <c r="AY43" s="53"/>
+      <c r="AZ43" s="53"/>
+      <c r="BA43" s="53"/>
+      <c r="BB43" s="53"/>
+      <c r="BC43" s="53"/>
       <c r="BD43" s="2"/>
       <c r="BE43" s="46"/>
       <c r="BF43" s="6"/>
-      <c r="BH43" s="7">
-        <v>165</v>
+      <c r="BH43" s="7" t="n">
+        <v>225.0</v>
       </c>
       <c r="BI43" s="4"/>
       <c r="BP43" s="7"/>
@@ -4806,17 +4829,17 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="75" t="s">
+      <c r="R44" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="S44" s="75"/>
-      <c r="T44" s="75"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="75"/>
-      <c r="X44" s="75"/>
-      <c r="Y44" s="75"/>
-      <c r="Z44" s="75"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="134"/>
+      <c r="W44" s="134"/>
+      <c r="X44" s="134"/>
+      <c r="Y44" s="134"/>
+      <c r="Z44" s="134"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="55"/>
@@ -4826,28 +4849,28 @@
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="78"/>
-      <c r="AI44" s="78"/>
-      <c r="AJ44" s="78"/>
-      <c r="AK44" s="78"/>
-      <c r="AL44" s="78"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="78"/>
-      <c r="AO44" s="78"/>
-      <c r="AP44" s="78"/>
-      <c r="AQ44" s="78"/>
-      <c r="AR44" s="78"/>
-      <c r="AS44" s="78"/>
-      <c r="AT44" s="78"/>
-      <c r="AU44" s="78"/>
-      <c r="AV44" s="78"/>
-      <c r="AW44" s="78"/>
-      <c r="AX44" s="78"/>
-      <c r="AY44" s="78"/>
-      <c r="AZ44" s="78"/>
-      <c r="BA44" s="78"/>
-      <c r="BB44" s="78"/>
-      <c r="BC44" s="78"/>
+      <c r="AH44" s="124"/>
+      <c r="AI44" s="124"/>
+      <c r="AJ44" s="124"/>
+      <c r="AK44" s="124"/>
+      <c r="AL44" s="124"/>
+      <c r="AM44" s="124"/>
+      <c r="AN44" s="124"/>
+      <c r="AO44" s="124"/>
+      <c r="AP44" s="124"/>
+      <c r="AQ44" s="124"/>
+      <c r="AR44" s="124"/>
+      <c r="AS44" s="124"/>
+      <c r="AT44" s="124"/>
+      <c r="AU44" s="124"/>
+      <c r="AV44" s="124"/>
+      <c r="AW44" s="124"/>
+      <c r="AX44" s="124"/>
+      <c r="AY44" s="124"/>
+      <c r="AZ44" s="124"/>
+      <c r="BA44" s="124"/>
+      <c r="BB44" s="124"/>
+      <c r="BC44" s="124"/>
       <c r="BD44" s="2"/>
       <c r="BE44" s="46"/>
       <c r="BF44" s="6"/>
@@ -4860,65 +4883,65 @@
       <c r="BR44" s="6"/>
     </row>
     <row customHeight="1" ht="7.5" r="45" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="82"/>
-      <c r="AD45" s="82"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="135"/>
+      <c r="S45" s="135"/>
+      <c r="T45" s="135"/>
+      <c r="U45" s="135"/>
+      <c r="V45" s="135"/>
+      <c r="W45" s="135"/>
+      <c r="X45" s="135"/>
+      <c r="Y45" s="135"/>
+      <c r="Z45" s="135"/>
+      <c r="AA45" s="135"/>
+      <c r="AB45" s="135"/>
+      <c r="AC45" s="135"/>
+      <c r="AD45" s="135"/>
       <c r="AE45" s="55"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
-      <c r="AI45" s="83" t="s">
+      <c r="AI45" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="AJ45" s="83"/>
-      <c r="AK45" s="83"/>
-      <c r="AL45" s="83"/>
-      <c r="AM45" s="83"/>
-      <c r="AN45" s="83"/>
-      <c r="AO45" s="83"/>
-      <c r="AP45" s="83"/>
-      <c r="AQ45" s="83"/>
-      <c r="AR45" s="83"/>
-      <c r="AS45" s="83"/>
-      <c r="AT45" s="83"/>
-      <c r="AU45" s="83"/>
-      <c r="AV45" s="83"/>
-      <c r="AW45" s="83"/>
-      <c r="AX45" s="83"/>
-      <c r="AY45" s="83"/>
-      <c r="AZ45" s="83"/>
-      <c r="BA45" s="83"/>
-      <c r="BB45" s="83"/>
-      <c r="BC45" s="83"/>
+      <c r="AJ45" s="126"/>
+      <c r="AK45" s="126"/>
+      <c r="AL45" s="126"/>
+      <c r="AM45" s="126"/>
+      <c r="AN45" s="126"/>
+      <c r="AO45" s="126"/>
+      <c r="AP45" s="126"/>
+      <c r="AQ45" s="126"/>
+      <c r="AR45" s="126"/>
+      <c r="AS45" s="126"/>
+      <c r="AT45" s="126"/>
+      <c r="AU45" s="126"/>
+      <c r="AV45" s="126"/>
+      <c r="AW45" s="126"/>
+      <c r="AX45" s="126"/>
+      <c r="AY45" s="126"/>
+      <c r="AZ45" s="126"/>
+      <c r="BA45" s="126"/>
+      <c r="BB45" s="126"/>
+      <c r="BC45" s="126"/>
       <c r="BD45" s="2"/>
       <c r="BE45" s="52">
         <v>150</v>
@@ -4933,35 +4956,35 @@
       <c r="BR45" s="6"/>
     </row>
     <row customHeight="1" ht="11.25" r="46" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="84"/>
-      <c r="W46" s="84"/>
-      <c r="X46" s="84"/>
-      <c r="Y46" s="84"/>
-      <c r="Z46" s="84"/>
-      <c r="AA46" s="84"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="136"/>
+      <c r="P46" s="136"/>
+      <c r="Q46" s="136"/>
+      <c r="R46" s="136"/>
+      <c r="S46" s="136"/>
+      <c r="T46" s="136"/>
+      <c r="U46" s="136"/>
+      <c r="V46" s="136"/>
+      <c r="W46" s="136"/>
+      <c r="X46" s="136"/>
+      <c r="Y46" s="136"/>
+      <c r="Z46" s="136"/>
+      <c r="AA46" s="136"/>
       <c r="AB46" s="58"/>
       <c r="AC46" s="58"/>
       <c r="AD46" s="57"/>
@@ -5039,28 +5062,28 @@
       <c r="AE47" s="8"/>
       <c r="AF47" s="59"/>
       <c r="AG47" s="59"/>
-      <c r="AH47" s="85"/>
-      <c r="AI47" s="85"/>
-      <c r="AJ47" s="85"/>
-      <c r="AK47" s="85"/>
-      <c r="AL47" s="85"/>
-      <c r="AM47" s="85"/>
-      <c r="AN47" s="85"/>
-      <c r="AO47" s="85"/>
-      <c r="AP47" s="85"/>
-      <c r="AQ47" s="85"/>
-      <c r="AR47" s="85"/>
-      <c r="AS47" s="85"/>
-      <c r="AT47" s="85"/>
-      <c r="AU47" s="85"/>
-      <c r="AV47" s="85"/>
-      <c r="AW47" s="85"/>
-      <c r="AX47" s="85"/>
-      <c r="AY47" s="85"/>
-      <c r="AZ47" s="85"/>
-      <c r="BA47" s="85"/>
-      <c r="BB47" s="85"/>
-      <c r="BC47" s="85"/>
+      <c r="AH47" s="129"/>
+      <c r="AI47" s="129"/>
+      <c r="AJ47" s="129"/>
+      <c r="AK47" s="129"/>
+      <c r="AL47" s="129"/>
+      <c r="AM47" s="129"/>
+      <c r="AN47" s="129"/>
+      <c r="AO47" s="129"/>
+      <c r="AP47" s="129"/>
+      <c r="AQ47" s="129"/>
+      <c r="AR47" s="129"/>
+      <c r="AS47" s="129"/>
+      <c r="AT47" s="129"/>
+      <c r="AU47" s="129"/>
+      <c r="AV47" s="129"/>
+      <c r="AW47" s="129"/>
+      <c r="AX47" s="129"/>
+      <c r="AY47" s="129"/>
+      <c r="AZ47" s="129"/>
+      <c r="BA47" s="129"/>
+      <c r="BB47" s="129"/>
+      <c r="BC47" s="129"/>
       <c r="BD47" s="2"/>
       <c r="BE47" s="52">
         <v>150</v>
@@ -5095,49 +5118,49 @@
       <c r="N48" s="65"/>
       <c r="O48" s="65"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="86"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="86"/>
-      <c r="T48" s="86"/>
-      <c r="U48" s="86"/>
-      <c r="V48" s="87" t="s">
+      <c r="Q48" s="130"/>
+      <c r="R48" s="130"/>
+      <c r="S48" s="130"/>
+      <c r="T48" s="130"/>
+      <c r="U48" s="130"/>
+      <c r="V48" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="W48" s="87"/>
-      <c r="X48" s="87"/>
-      <c r="Y48" s="87"/>
-      <c r="Z48" s="87"/>
-      <c r="AA48" s="87"/>
-      <c r="AB48" s="87"/>
-      <c r="AC48" s="87"/>
-      <c r="AD48" s="87"/>
+      <c r="W48" s="131"/>
+      <c r="X48" s="131"/>
+      <c r="Y48" s="131"/>
+      <c r="Z48" s="131"/>
+      <c r="AA48" s="131"/>
+      <c r="AB48" s="131"/>
+      <c r="AC48" s="131"/>
+      <c r="AD48" s="131"/>
       <c r="AE48" s="59" t="s">
         <v>59</v>
       </c>
       <c r="AF48" s="59"/>
       <c r="AG48" s="59"/>
       <c r="AH48" s="59"/>
-      <c r="AI48" s="88"/>
-      <c r="AJ48" s="88"/>
-      <c r="AK48" s="88"/>
-      <c r="AL48" s="88"/>
-      <c r="AM48" s="88"/>
-      <c r="AN48" s="88"/>
-      <c r="AO48" s="88"/>
-      <c r="AP48" s="88"/>
+      <c r="AI48" s="132"/>
+      <c r="AJ48" s="132"/>
+      <c r="AK48" s="132"/>
+      <c r="AL48" s="132"/>
+      <c r="AM48" s="132"/>
+      <c r="AN48" s="132"/>
+      <c r="AO48" s="132"/>
+      <c r="AP48" s="132"/>
       <c r="AQ48" s="8"/>
-      <c r="AR48" s="88"/>
-      <c r="AS48" s="88"/>
-      <c r="AT48" s="88"/>
-      <c r="AU48" s="88"/>
-      <c r="AV48" s="88"/>
+      <c r="AR48" s="132"/>
+      <c r="AS48" s="132"/>
+      <c r="AT48" s="132"/>
+      <c r="AU48" s="132"/>
+      <c r="AV48" s="132"/>
       <c r="AW48" s="8"/>
-      <c r="AX48" s="88"/>
-      <c r="AY48" s="88"/>
-      <c r="AZ48" s="88"/>
-      <c r="BA48" s="88"/>
-      <c r="BB48" s="88"/>
-      <c r="BC48" s="88"/>
+      <c r="AX48" s="132"/>
+      <c r="AY48" s="132"/>
+      <c r="AZ48" s="132"/>
+      <c r="BA48" s="132"/>
+      <c r="BB48" s="132"/>
+      <c r="BC48" s="132"/>
       <c r="BD48" s="2"/>
       <c r="BE48" s="52">
         <v>15</v>
@@ -5159,64 +5182,64 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="89" t="s">
+      <c r="H49" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="106"/>
+      <c r="O49" s="106"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="90"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="90"/>
-      <c r="U49" s="90"/>
+      <c r="Q49" s="133"/>
+      <c r="R49" s="133"/>
+      <c r="S49" s="133"/>
+      <c r="T49" s="133"/>
+      <c r="U49" s="133"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="79" t="s">
+      <c r="W49" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="X49" s="79"/>
-      <c r="Y49" s="79"/>
-      <c r="Z49" s="79"/>
-      <c r="AA49" s="79"/>
-      <c r="AB49" s="79"/>
-      <c r="AC49" s="79"/>
+      <c r="X49" s="127"/>
+      <c r="Y49" s="127"/>
+      <c r="Z49" s="127"/>
+      <c r="AA49" s="127"/>
+      <c r="AB49" s="127"/>
+      <c r="AC49" s="127"/>
       <c r="AD49" s="56"/>
       <c r="AE49" s="8"/>
       <c r="AF49" s="59"/>
       <c r="AG49" s="59"/>
       <c r="AH49" s="59"/>
       <c r="AI49" s="59"/>
-      <c r="AJ49" s="89" t="s">
+      <c r="AJ49" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="AK49" s="89"/>
-      <c r="AL49" s="89"/>
-      <c r="AM49" s="89"/>
-      <c r="AN49" s="89"/>
-      <c r="AO49" s="89"/>
-      <c r="AP49" s="89"/>
+      <c r="AK49" s="106"/>
+      <c r="AL49" s="106"/>
+      <c r="AM49" s="106"/>
+      <c r="AN49" s="106"/>
+      <c r="AO49" s="106"/>
+      <c r="AP49" s="106"/>
       <c r="AQ49" s="8"/>
-      <c r="AR49" s="89" t="s">
+      <c r="AR49" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="AS49" s="89"/>
-      <c r="AT49" s="89"/>
-      <c r="AU49" s="89"/>
-      <c r="AV49" s="89"/>
+      <c r="AS49" s="106"/>
+      <c r="AT49" s="106"/>
+      <c r="AU49" s="106"/>
+      <c r="AV49" s="106"/>
       <c r="AW49" s="8"/>
-      <c r="AX49" s="89" t="s">
+      <c r="AX49" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="AY49" s="89"/>
-      <c r="AZ49" s="89"/>
-      <c r="BA49" s="89"/>
-      <c r="BB49" s="89"/>
-      <c r="BC49" s="89"/>
+      <c r="AY49" s="106"/>
+      <c r="AZ49" s="106"/>
+      <c r="BA49" s="106"/>
+      <c r="BB49" s="106"/>
+      <c r="BC49" s="106"/>
       <c r="BD49" s="2"/>
       <c r="BE49" s="52">
         <v>225</v>
@@ -5249,49 +5272,49 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="92" t="s">
+      <c r="Q50" s="124"/>
+      <c r="R50" s="124"/>
+      <c r="S50" s="124"/>
+      <c r="T50" s="124"/>
+      <c r="U50" s="124"/>
+      <c r="V50" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="W50" s="92"/>
-      <c r="X50" s="92"/>
-      <c r="Y50" s="92"/>
-      <c r="Z50" s="92"/>
-      <c r="AA50" s="92"/>
-      <c r="AB50" s="92"/>
-      <c r="AC50" s="92"/>
-      <c r="AD50" s="92"/>
+      <c r="W50" s="128"/>
+      <c r="X50" s="128"/>
+      <c r="Y50" s="128"/>
+      <c r="Z50" s="128"/>
+      <c r="AA50" s="128"/>
+      <c r="AB50" s="128"/>
+      <c r="AC50" s="128"/>
+      <c r="AD50" s="128"/>
       <c r="AE50" s="59" t="s">
         <v>66</v>
       </c>
       <c r="AF50" s="59"/>
       <c r="AG50" s="59"/>
       <c r="AH50" s="59"/>
-      <c r="AI50" s="91"/>
-      <c r="AJ50" s="91"/>
-      <c r="AK50" s="91"/>
-      <c r="AL50" s="91"/>
-      <c r="AM50" s="91"/>
-      <c r="AN50" s="91"/>
-      <c r="AO50" s="91"/>
-      <c r="AP50" s="91"/>
+      <c r="AI50" s="125"/>
+      <c r="AJ50" s="125"/>
+      <c r="AK50" s="125"/>
+      <c r="AL50" s="125"/>
+      <c r="AM50" s="125"/>
+      <c r="AN50" s="125"/>
+      <c r="AO50" s="125"/>
+      <c r="AP50" s="125"/>
       <c r="AQ50" s="59"/>
-      <c r="AR50" s="91"/>
-      <c r="AS50" s="91"/>
-      <c r="AT50" s="91"/>
-      <c r="AU50" s="91"/>
-      <c r="AV50" s="91"/>
+      <c r="AR50" s="125"/>
+      <c r="AS50" s="125"/>
+      <c r="AT50" s="125"/>
+      <c r="AU50" s="125"/>
+      <c r="AV50" s="125"/>
       <c r="AW50" s="59"/>
-      <c r="AX50" s="91"/>
-      <c r="AY50" s="91"/>
-      <c r="AZ50" s="91"/>
-      <c r="BA50" s="91"/>
-      <c r="BB50" s="91"/>
-      <c r="BC50" s="91"/>
+      <c r="AX50" s="125"/>
+      <c r="AY50" s="125"/>
+      <c r="AZ50" s="125"/>
+      <c r="BA50" s="125"/>
+      <c r="BB50" s="125"/>
+      <c r="BC50" s="125"/>
       <c r="BD50" s="2"/>
       <c r="BE50" s="52">
         <v>225</v>
@@ -5322,21 +5345,21 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="83"/>
-      <c r="R51" s="83"/>
-      <c r="S51" s="83"/>
-      <c r="T51" s="83"/>
-      <c r="U51" s="83"/>
+      <c r="Q51" s="126"/>
+      <c r="R51" s="126"/>
+      <c r="S51" s="126"/>
+      <c r="T51" s="126"/>
+      <c r="U51" s="126"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="79" t="s">
+      <c r="W51" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="X51" s="79"/>
-      <c r="Y51" s="79"/>
-      <c r="Z51" s="79"/>
-      <c r="AA51" s="79"/>
-      <c r="AB51" s="79"/>
-      <c r="AC51" s="79"/>
+      <c r="X51" s="127"/>
+      <c r="Y51" s="127"/>
+      <c r="Z51" s="127"/>
+      <c r="AA51" s="127"/>
+      <c r="AB51" s="127"/>
+      <c r="AC51" s="127"/>
       <c r="AD51" s="56"/>
       <c r="AE51" s="67" t="s">
         <v>67</v>
@@ -5345,32 +5368,32 @@
       <c r="AG51" s="59"/>
       <c r="AH51" s="59"/>
       <c r="AI51" s="11"/>
-      <c r="AJ51" s="89" t="s">
+      <c r="AJ51" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="AK51" s="89"/>
-      <c r="AL51" s="89"/>
-      <c r="AM51" s="89"/>
-      <c r="AN51" s="89"/>
-      <c r="AO51" s="89"/>
-      <c r="AP51" s="89"/>
+      <c r="AK51" s="106"/>
+      <c r="AL51" s="106"/>
+      <c r="AM51" s="106"/>
+      <c r="AN51" s="106"/>
+      <c r="AO51" s="106"/>
+      <c r="AP51" s="106"/>
       <c r="AQ51" s="59"/>
-      <c r="AR51" s="79" t="s">
+      <c r="AR51" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="AS51" s="79"/>
-      <c r="AT51" s="79"/>
-      <c r="AU51" s="79"/>
-      <c r="AV51" s="79"/>
+      <c r="AS51" s="127"/>
+      <c r="AT51" s="127"/>
+      <c r="AU51" s="127"/>
+      <c r="AV51" s="127"/>
       <c r="AW51" s="59"/>
-      <c r="AX51" s="79" t="s">
+      <c r="AX51" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="AY51" s="79"/>
-      <c r="AZ51" s="79"/>
-      <c r="BA51" s="79"/>
-      <c r="BB51" s="79"/>
-      <c r="BC51" s="79"/>
+      <c r="AY51" s="127"/>
+      <c r="AZ51" s="127"/>
+      <c r="BA51" s="127"/>
+      <c r="BB51" s="127"/>
+      <c r="BC51" s="127"/>
       <c r="BD51" s="2"/>
       <c r="BE51" s="52">
         <v>225</v>
@@ -5395,27 +5418,27 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="34"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="124"/>
+      <c r="M52" s="124"/>
+      <c r="N52" s="124"/>
+      <c r="O52" s="124"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="78"/>
-      <c r="R52" s="78"/>
-      <c r="S52" s="78"/>
-      <c r="T52" s="78"/>
-      <c r="U52" s="78"/>
+      <c r="Q52" s="124"/>
+      <c r="R52" s="124"/>
+      <c r="S52" s="124"/>
+      <c r="T52" s="124"/>
+      <c r="U52" s="124"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="78"/>
-      <c r="X52" s="78"/>
-      <c r="Y52" s="78"/>
-      <c r="Z52" s="78"/>
-      <c r="AA52" s="78"/>
-      <c r="AB52" s="78"/>
-      <c r="AC52" s="78"/>
+      <c r="W52" s="124"/>
+      <c r="X52" s="124"/>
+      <c r="Y52" s="124"/>
+      <c r="Z52" s="124"/>
+      <c r="AA52" s="124"/>
+      <c r="AB52" s="124"/>
+      <c r="AC52" s="124"/>
       <c r="AD52" s="56"/>
       <c r="AE52" s="8"/>
       <c r="AF52" s="59"/>
@@ -5461,31 +5484,31 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="89" t="s">
+      <c r="I53" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="89"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="106"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="83"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="126"/>
+      <c r="S53" s="126"/>
+      <c r="T53" s="126"/>
+      <c r="U53" s="126"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="79" t="s">
+      <c r="W53" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="X53" s="79"/>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-      <c r="AA53" s="79"/>
-      <c r="AB53" s="79"/>
-      <c r="AC53" s="79"/>
+      <c r="X53" s="127"/>
+      <c r="Y53" s="127"/>
+      <c r="Z53" s="127"/>
+      <c r="AA53" s="127"/>
+      <c r="AB53" s="127"/>
+      <c r="AC53" s="127"/>
       <c r="AD53" s="56"/>
       <c r="AE53" s="8"/>
       <c r="AF53" s="59"/>
@@ -5532,16 +5555,16 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="96" t="s">
+      <c r="H54" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -5696,11 +5719,7 @@
     <row customHeight="1" ht="12.75" r="63" spans="1:70" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="12.75" r="64" spans="1:70" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="12.75" r="65" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="9.75" r="66" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    <row customHeight="1" ht="9.75" r="66" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="7.5" r="67" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="9.75" r="68" x14ac:dyDescent="0.2"/>
     <row customHeight="1" ht="12.75" r="69" x14ac:dyDescent="0.2"/>
@@ -5760,31 +5779,104 @@
     <row customHeight="1" ht="12.75" r="123" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="147">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AT32:AV32"/>
-    <mergeCell ref="AW32:AZ32"/>
-    <mergeCell ref="BA32:BD32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AQ32:AS32"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="D29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="Z29:AB31"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="T30:V31"/>
-    <mergeCell ref="W30:Y31"/>
-    <mergeCell ref="AC30:AE31"/>
-    <mergeCell ref="AF30:AG31"/>
+  <mergeCells>
+    <mergeCell ref="Q37:AK37"/>
+    <mergeCell ref="F38:AK38"/>
+    <mergeCell ref="F39:AK39"/>
+    <mergeCell ref="AP39:BC40"/>
+    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="Y40:AN40"/>
+    <mergeCell ref="Y41:AN41"/>
+    <mergeCell ref="AP41:BC42"/>
+    <mergeCell ref="F42:P42"/>
+    <mergeCell ref="R42:X42"/>
+    <mergeCell ref="Y42:AN42"/>
+    <mergeCell ref="F43:P43"/>
+    <mergeCell ref="Y43:AN43"/>
+    <mergeCell ref="R44:Z44"/>
+    <mergeCell ref="AH44:BC44"/>
+    <mergeCell ref="A45:AD45"/>
+    <mergeCell ref="AI45:BC45"/>
+    <mergeCell ref="A46:AA46"/>
+    <mergeCell ref="V48:AD48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="AR48:AV48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="W49:AC49"/>
+    <mergeCell ref="AJ49:AP49"/>
+    <mergeCell ref="AR49:AV49"/>
+    <mergeCell ref="AX49:BC49"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ36:AS36"/>
+    <mergeCell ref="AT36:AV36"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="BA36:BD36"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="W52:AC52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="AX50:BC50"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="W51:AC51"/>
+    <mergeCell ref="AJ51:AP51"/>
+    <mergeCell ref="AR51:AV51"/>
+    <mergeCell ref="AX51:BC51"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="W53:AC53"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="V50:AD50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="AR50:AV50"/>
+    <mergeCell ref="AH47:BC47"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="BA35:BD35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AN35:AP35"/>
+    <mergeCell ref="AQ35:AS35"/>
+    <mergeCell ref="AT35:AV35"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="A7:AX8"/>
+    <mergeCell ref="AY7:BA8"/>
+    <mergeCell ref="BB7:BD8"/>
+    <mergeCell ref="A9:AR9"/>
+    <mergeCell ref="BB9:BD10"/>
+    <mergeCell ref="A10:AV10"/>
+    <mergeCell ref="A11:AR11"/>
+    <mergeCell ref="BB11:BD12"/>
+    <mergeCell ref="A12:AI12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:AV13"/>
+    <mergeCell ref="BB13:BD13"/>
+    <mergeCell ref="H15:AR15"/>
+    <mergeCell ref="BB15:BD16"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:AV16"/>
+    <mergeCell ref="H18:AR18"/>
+    <mergeCell ref="BB18:BD19"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:AV19"/>
+    <mergeCell ref="H21:AR21"/>
+    <mergeCell ref="AZ21:BA22"/>
+    <mergeCell ref="BB21:BD22"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:AV22"/>
     <mergeCell ref="H23:AR23"/>
     <mergeCell ref="AZ23:BA23"/>
     <mergeCell ref="BB23:BD23"/>
@@ -5809,114 +5901,33 @@
     <mergeCell ref="AK29:AM31"/>
     <mergeCell ref="AN29:AP31"/>
     <mergeCell ref="AQ29:AS31"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:AV16"/>
-    <mergeCell ref="H18:AR18"/>
-    <mergeCell ref="BB18:BD19"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:AV19"/>
-    <mergeCell ref="H21:AR21"/>
-    <mergeCell ref="AZ21:BA22"/>
-    <mergeCell ref="BB21:BD22"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:AV22"/>
-    <mergeCell ref="AW33:AZ33"/>
-    <mergeCell ref="BA33:BD33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AQ33:AS33"/>
-    <mergeCell ref="AT33:AV33"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="A7:AX8"/>
-    <mergeCell ref="AY7:BA8"/>
-    <mergeCell ref="BB7:BD8"/>
-    <mergeCell ref="A9:AR9"/>
-    <mergeCell ref="BB9:BD10"/>
-    <mergeCell ref="A10:AV10"/>
-    <mergeCell ref="A11:AR11"/>
-    <mergeCell ref="BB11:BD12"/>
-    <mergeCell ref="A12:AI12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:AV13"/>
-    <mergeCell ref="BB13:BD13"/>
-    <mergeCell ref="H15:AR15"/>
-    <mergeCell ref="BB15:BD16"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AQ34:AS34"/>
-    <mergeCell ref="AT34:AV34"/>
-    <mergeCell ref="AW34:AZ34"/>
-    <mergeCell ref="BA34:BD34"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="W52:AC52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="AX50:BC50"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="W51:AC51"/>
-    <mergeCell ref="AJ51:AP51"/>
-    <mergeCell ref="AR51:AV51"/>
-    <mergeCell ref="AX51:BC51"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="W53:AC53"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:AD50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="AR50:AV50"/>
-    <mergeCell ref="AH47:BC47"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="V48:AD48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="AR48:AV48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="W49:AC49"/>
-    <mergeCell ref="AJ49:AP49"/>
-    <mergeCell ref="AR49:AV49"/>
-    <mergeCell ref="AX49:BC49"/>
-    <mergeCell ref="F41:P41"/>
-    <mergeCell ref="Y41:AN41"/>
-    <mergeCell ref="AK43:AP43"/>
-    <mergeCell ref="AR43:BC43"/>
-    <mergeCell ref="R44:Z44"/>
-    <mergeCell ref="AH44:BC44"/>
-    <mergeCell ref="A45:AD45"/>
-    <mergeCell ref="AI45:BC45"/>
-    <mergeCell ref="A46:AA46"/>
-    <mergeCell ref="Q35:AK35"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="F37:AK37"/>
-    <mergeCell ref="AP37:BC38"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="Y38:AN38"/>
-    <mergeCell ref="Y39:AN39"/>
-    <mergeCell ref="AP39:BC40"/>
-    <mergeCell ref="F40:P40"/>
-    <mergeCell ref="R40:X40"/>
-    <mergeCell ref="Y40:AN40"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="D29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="Z29:AB31"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="T30:V31"/>
+    <mergeCell ref="W30:Y31"/>
+    <mergeCell ref="AC30:AE31"/>
+    <mergeCell ref="AF30:AG31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AT32:AV32"/>
+    <mergeCell ref="AW32:AZ32"/>
+    <mergeCell ref="BA32:BD32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AQ32:AS32"/>
   </mergeCells>
   <pageMargins bottom="0.35416666666666669" footer="0.51180555555555551" header="0.51180555555555551" left="0.35416666666666669" right="0.2361111111111111" top="0.39374999999999999"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" horizontalDpi="300" orientation="landscape" paperSize="9" r:id="rId1" scale="96" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="71" man="true" max="16383"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="71" man="true" max="1048575"/>
-  </colBreaks>
 </worksheet>
 </file>
--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -4115,92 +4115,72 @@
       <c r="BQ34" s="6"/>
       <c r="BR34" s="6"/>
     </row>
-    <row customHeight="true" ht="29.85" r="35" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A35" s="112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="118" t="s">
-        <v>73</v>
-      </c>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="X35" s="119"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="96"/>
-      <c r="AG35" s="96"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="97"/>
-      <c r="AJ35" s="97"/>
-      <c r="AK35" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL35" s="98"/>
-      <c r="AM35" s="98"/>
-      <c r="AN35" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO35" s="99"/>
-      <c r="AP35" s="99"/>
-      <c r="AQ35" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR35" s="95"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="100" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AU35" s="101"/>
-      <c r="AV35" s="101"/>
-      <c r="AW35" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX35" s="94"/>
-      <c r="AY35" s="94"/>
-      <c r="AZ35" s="94"/>
-      <c r="BA35" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB35" s="95"/>
-      <c r="BC35" s="95"/>
-      <c r="BD35" s="95"/>
-      <c r="BF35" s="1" t="n">
-        <v>5373.0</v>
-      </c>
-      <c r="BG35" s="7" t="n">
-        <v>598.0</v>
-      </c>
-      <c r="BH35" s="6"/>
+    <row customHeight="1" ht="32.25" r="35" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="137"/>
+      <c r="S35" s="137"/>
+      <c r="T35" s="137"/>
+      <c r="U35" s="137"/>
+      <c r="V35" s="137"/>
+      <c r="W35" s="137"/>
+      <c r="X35" s="137"/>
+      <c r="Y35" s="137"/>
+      <c r="Z35" s="137"/>
+      <c r="AA35" s="137"/>
+      <c r="AB35" s="137"/>
+      <c r="AC35" s="137"/>
+      <c r="AD35" s="137"/>
+      <c r="AE35" s="137"/>
+      <c r="AF35" s="137"/>
+      <c r="AG35" s="137"/>
+      <c r="AH35" s="137"/>
+      <c r="AI35" s="137"/>
+      <c r="AJ35" s="137"/>
+      <c r="AK35" s="137"/>
+      <c r="AL35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BF35" s="49"/>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="7">
+        <v>195</v>
+      </c>
       <c r="BI35" s="6"/>
       <c r="BJ35" s="47"/>
       <c r="BK35" s="47"/>
@@ -4212,82 +4192,74 @@
       <c r="BQ35" s="6"/>
       <c r="BR35" s="6"/>
     </row>
-    <row customHeight="true" ht="34.5" r="36" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF36" s="114">
-        <f>SUM(AF33)</f>
-      </c>
-      <c r="AG36" s="114"/>
-      <c r="AH36" s="115"/>
-      <c r="AI36" s="115"/>
-      <c r="AJ36" s="115"/>
-      <c r="AK36" s="116">
-        <f>SUM(AK33)</f>
-      </c>
-      <c r="AL36" s="116"/>
-      <c r="AM36" s="116"/>
-      <c r="AN36" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO36" s="120"/>
-      <c r="AP36" s="120"/>
-      <c r="AQ36" s="121">
-        <f>SUM(AQ33)</f>
-      </c>
-      <c r="AR36" s="121"/>
-      <c r="AS36" s="121"/>
-      <c r="AT36" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU36" s="120"/>
-      <c r="AV36" s="120"/>
-      <c r="AW36" s="122">
-        <f>SUM(AW33)</f>
-      </c>
-      <c r="AX36" s="122"/>
-      <c r="AY36" s="122"/>
-      <c r="AZ36" s="122"/>
-      <c r="BA36" s="122">
-        <f>SUM(BA33)</f>
-      </c>
-      <c r="BB36" s="122"/>
-      <c r="BC36" s="122"/>
-      <c r="BD36" s="122"/>
+    <row customHeight="1" ht="9" r="36" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="137"/>
+      <c r="P36" s="137"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="137"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+      <c r="Z36" s="137"/>
+      <c r="AA36" s="137"/>
+      <c r="AB36" s="137"/>
+      <c r="AC36" s="137"/>
+      <c r="AD36" s="137"/>
+      <c r="AE36" s="137"/>
+      <c r="AF36" s="137"/>
+      <c r="AG36" s="137"/>
+      <c r="AH36" s="137"/>
+      <c r="AI36" s="137"/>
+      <c r="AJ36" s="137"/>
+      <c r="AK36" s="137"/>
+      <c r="AL36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
       <c r="BF36" s="49"/>
       <c r="BG36" s="6"/>
-      <c r="BH36" s="7"/>
+      <c r="BH36" s="7">
+        <v>180</v>
+      </c>
       <c r="BI36" s="6"/>
       <c r="BJ36" s="47"/>
       <c r="BK36" s="47"/>
@@ -4298,73 +4270,73 @@
       <c r="BQ36" s="6"/>
       <c r="BR36" s="6"/>
     </row>
-    <row customHeight="true" ht="32.25" r="37" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>44</v>
-      </c>
+    <row customHeight="1" ht="29.85" r="37" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="137"/>
-      <c r="S37" s="137"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="137"/>
-      <c r="V37" s="137"/>
-      <c r="W37" s="137"/>
-      <c r="X37" s="137"/>
-      <c r="Y37" s="137"/>
-      <c r="Z37" s="137"/>
-      <c r="AA37" s="137"/>
-      <c r="AB37" s="137"/>
-      <c r="AC37" s="137"/>
-      <c r="AD37" s="137"/>
-      <c r="AE37" s="137"/>
-      <c r="AF37" s="137"/>
-      <c r="AG37" s="137"/>
-      <c r="AH37" s="137"/>
-      <c r="AI37" s="137"/>
-      <c r="AJ37" s="137"/>
-      <c r="AK37" s="137"/>
-      <c r="AL37" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="F37" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="134"/>
+      <c r="R37" s="134"/>
+      <c r="S37" s="134"/>
+      <c r="T37" s="134"/>
+      <c r="U37" s="134"/>
+      <c r="V37" s="134"/>
+      <c r="W37" s="134"/>
+      <c r="X37" s="134"/>
+      <c r="Y37" s="134"/>
+      <c r="Z37" s="134"/>
+      <c r="AA37" s="134"/>
+      <c r="AB37" s="134"/>
+      <c r="AC37" s="134"/>
+      <c r="AD37" s="134"/>
+      <c r="AE37" s="134"/>
+      <c r="AF37" s="134"/>
+      <c r="AG37" s="134"/>
+      <c r="AH37" s="134"/>
+      <c r="AI37" s="134"/>
+      <c r="AJ37" s="134"/>
+      <c r="AK37" s="134"/>
+      <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="2"/>
-      <c r="AU37" s="2"/>
-      <c r="AV37" s="2"/>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
-      <c r="AY37" s="2"/>
-      <c r="AZ37" s="2"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2"/>
+      <c r="AP37" s="138"/>
+      <c r="AQ37" s="138"/>
+      <c r="AR37" s="138"/>
+      <c r="AS37" s="138"/>
+      <c r="AT37" s="138"/>
+      <c r="AU37" s="138"/>
+      <c r="AV37" s="138"/>
+      <c r="AW37" s="138"/>
+      <c r="AX37" s="138"/>
+      <c r="AY37" s="138"/>
+      <c r="AZ37" s="138"/>
+      <c r="BA37" s="138"/>
+      <c r="BB37" s="138"/>
+      <c r="BC37" s="138"/>
       <c r="BD37" s="2"/>
       <c r="BE37" s="23"/>
-      <c r="BF37" s="49"/>
-      <c r="BG37" s="6"/>
-      <c r="BH37" s="7" t="n">
-        <v>195.0</v>
-      </c>
+      <c r="BF37" s="1">
+        <v>10360</v>
+      </c>
+      <c r="BG37" s="7">
+        <v>598</v>
+      </c>
+      <c r="BH37" s="6"/>
       <c r="BI37" s="6"/>
       <c r="BJ37" s="47"/>
       <c r="BK37" s="47"/>
@@ -4375,75 +4347,73 @@
       <c r="BQ37" s="6"/>
       <c r="BR37" s="6"/>
     </row>
-    <row customHeight="true" ht="9.0" r="38" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>46</v>
-      </c>
+    <row customHeight="1" ht="48.6" r="38" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="137"/>
-      <c r="O38" s="137"/>
-      <c r="P38" s="137"/>
-      <c r="Q38" s="137"/>
-      <c r="R38" s="137"/>
-      <c r="S38" s="137"/>
-      <c r="T38" s="137"/>
-      <c r="U38" s="137"/>
-      <c r="V38" s="137"/>
-      <c r="W38" s="137"/>
-      <c r="X38" s="137"/>
-      <c r="Y38" s="137"/>
-      <c r="Z38" s="137"/>
-      <c r="AA38" s="137"/>
-      <c r="AB38" s="137"/>
-      <c r="AC38" s="137"/>
-      <c r="AD38" s="137"/>
-      <c r="AE38" s="137"/>
-      <c r="AF38" s="137"/>
-      <c r="AG38" s="137"/>
-      <c r="AH38" s="137"/>
-      <c r="AI38" s="137"/>
-      <c r="AJ38" s="137"/>
-      <c r="AK38" s="137"/>
-      <c r="AL38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="T38" s="139"/>
+      <c r="U38" s="139"/>
+      <c r="V38" s="139"/>
+      <c r="W38" s="139"/>
+      <c r="X38" s="139"/>
+      <c r="Y38" s="124"/>
+      <c r="Z38" s="124"/>
+      <c r="AA38" s="124"/>
+      <c r="AB38" s="124"/>
+      <c r="AC38" s="124"/>
+      <c r="AD38" s="124"/>
+      <c r="AE38" s="124"/>
+      <c r="AF38" s="124"/>
+      <c r="AG38" s="124"/>
+      <c r="AH38" s="124"/>
+      <c r="AI38" s="124"/>
+      <c r="AJ38" s="124"/>
+      <c r="AK38" s="124"/>
+      <c r="AL38" s="124"/>
+      <c r="AM38" s="124"/>
+      <c r="AN38" s="124"/>
       <c r="AO38" s="2"/>
-      <c r="AP38" s="2"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="2"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-      <c r="AY38" s="2"/>
-      <c r="AZ38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="2"/>
+      <c r="AP38" s="138"/>
+      <c r="AQ38" s="138"/>
+      <c r="AR38" s="138"/>
+      <c r="AS38" s="138"/>
+      <c r="AT38" s="138"/>
+      <c r="AU38" s="138"/>
+      <c r="AV38" s="138"/>
+      <c r="AW38" s="138"/>
+      <c r="AX38" s="138"/>
+      <c r="AY38" s="138"/>
+      <c r="AZ38" s="138"/>
+      <c r="BA38" s="138"/>
+      <c r="BB38" s="138"/>
+      <c r="BC38" s="138"/>
       <c r="BD38" s="2"/>
       <c r="BE38" s="23"/>
-      <c r="BF38" s="49"/>
-      <c r="BG38" s="6"/>
-      <c r="BH38" s="7" t="n">
-        <v>180.0</v>
-      </c>
+      <c r="BF38" s="1">
+        <v>9762</v>
+      </c>
+      <c r="BG38" s="7">
+        <v>970</v>
+      </c>
+      <c r="BH38" s="6"/>
       <c r="BI38" s="6"/>
       <c r="BJ38" s="47"/>
       <c r="BK38" s="47"/>
@@ -4454,106 +4424,108 @@
       <c r="BQ38" s="6"/>
       <c r="BR38" s="6"/>
     </row>
-    <row customHeight="true" ht="29.85" r="39" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="11.25" r="39" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="134" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="134"/>
-      <c r="X39" s="134"/>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="134"/>
-      <c r="AC39" s="134"/>
-      <c r="AD39" s="134"/>
-      <c r="AE39" s="134"/>
-      <c r="AF39" s="134"/>
-      <c r="AG39" s="134"/>
-      <c r="AH39" s="134"/>
-      <c r="AI39" s="134"/>
-      <c r="AJ39" s="134"/>
-      <c r="AK39" s="134"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
+      <c r="Z39" s="127"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="127"/>
+      <c r="AC39" s="127"/>
+      <c r="AD39" s="127"/>
+      <c r="AE39" s="127"/>
+      <c r="AF39" s="127"/>
+      <c r="AG39" s="127"/>
+      <c r="AH39" s="127"/>
+      <c r="AI39" s="127"/>
+      <c r="AJ39" s="127"/>
+      <c r="AK39" s="127"/>
+      <c r="AL39" s="127"/>
+      <c r="AM39" s="127"/>
+      <c r="AN39" s="127"/>
       <c r="AO39" s="2"/>
-      <c r="AP39" s="138"/>
-      <c r="AQ39" s="138"/>
-      <c r="AR39" s="138"/>
-      <c r="AS39" s="138"/>
-      <c r="AT39" s="138"/>
-      <c r="AU39" s="138"/>
-      <c r="AV39" s="138"/>
-      <c r="AW39" s="138"/>
-      <c r="AX39" s="138"/>
-      <c r="AY39" s="138"/>
-      <c r="AZ39" s="138"/>
-      <c r="BA39" s="138"/>
-      <c r="BB39" s="138"/>
-      <c r="BC39" s="138"/>
+      <c r="AP39" s="140"/>
+      <c r="AQ39" s="140"/>
+      <c r="AR39" s="140"/>
+      <c r="AS39" s="140"/>
+      <c r="AT39" s="140"/>
+      <c r="AU39" s="140"/>
+      <c r="AV39" s="140"/>
+      <c r="AW39" s="140"/>
+      <c r="AX39" s="140"/>
+      <c r="AY39" s="140"/>
+      <c r="AZ39" s="140"/>
+      <c r="BA39" s="140"/>
+      <c r="BB39" s="140"/>
+      <c r="BC39" s="140"/>
       <c r="BD39" s="2"/>
-      <c r="BG39" s="7" t="n">
-        <v>598.0</v>
-      </c>
-      <c r="BH39" s="6"/>
+      <c r="BG39" s="6"/>
+      <c r="BH39" s="52">
+        <v>225</v>
+      </c>
       <c r="BI39" s="6"/>
       <c r="BJ39" s="47"/>
       <c r="BK39" s="47"/>
       <c r="BL39" s="47"/>
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
-      <c r="BP39" s="7"/>
+      <c r="BP39" s="52"/>
       <c r="BQ39" s="6"/>
       <c r="BR39" s="6"/>
     </row>
-    <row customHeight="true" ht="48.6" r="40" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="11.25" r="40" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="E40" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="124"/>
+      <c r="P40" s="124"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="T40" s="139"/>
-      <c r="U40" s="139"/>
-      <c r="V40" s="139"/>
-      <c r="W40" s="139"/>
-      <c r="X40" s="139"/>
+      <c r="R40" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="141"/>
+      <c r="T40" s="141"/>
+      <c r="U40" s="141"/>
+      <c r="V40" s="141"/>
+      <c r="W40" s="141"/>
+      <c r="X40" s="141"/>
       <c r="Y40" s="124"/>
       <c r="Z40" s="124"/>
       <c r="AA40" s="124"/>
@@ -4571,52 +4543,54 @@
       <c r="AM40" s="124"/>
       <c r="AN40" s="124"/>
       <c r="AO40" s="2"/>
-      <c r="AP40" s="138"/>
-      <c r="AQ40" s="138"/>
-      <c r="AR40" s="138"/>
-      <c r="AS40" s="138"/>
-      <c r="AT40" s="138"/>
-      <c r="AU40" s="138"/>
-      <c r="AV40" s="138"/>
-      <c r="AW40" s="138"/>
-      <c r="AX40" s="138"/>
-      <c r="AY40" s="138"/>
-      <c r="AZ40" s="138"/>
-      <c r="BA40" s="138"/>
-      <c r="BB40" s="138"/>
-      <c r="BC40" s="138"/>
+      <c r="AP40" s="140"/>
+      <c r="AQ40" s="140"/>
+      <c r="AR40" s="140"/>
+      <c r="AS40" s="140"/>
+      <c r="AT40" s="140"/>
+      <c r="AU40" s="140"/>
+      <c r="AV40" s="140"/>
+      <c r="AW40" s="140"/>
+      <c r="AX40" s="140"/>
+      <c r="AY40" s="140"/>
+      <c r="AZ40" s="140"/>
+      <c r="BA40" s="140"/>
+      <c r="BB40" s="140"/>
+      <c r="BC40" s="140"/>
       <c r="BD40" s="2"/>
-      <c r="BG40" s="7" t="n">
-        <v>970.0</v>
-      </c>
-      <c r="BH40" s="6"/>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="52">
+        <v>225</v>
+      </c>
       <c r="BI40" s="6"/>
       <c r="BJ40" s="47"/>
       <c r="BK40" s="47"/>
       <c r="BL40" s="47"/>
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
-      <c r="BP40" s="7"/>
+      <c r="BP40" s="52"/>
       <c r="BQ40" s="6"/>
       <c r="BR40" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="41" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="11.25" r="41" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="F41" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="127"/>
+      <c r="P41" s="127"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -4624,7 +4598,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="22"/>
+      <c r="X41" s="2"/>
       <c r="Y41" s="127" t="s">
         <v>48</v>
       </c>
@@ -4644,167 +4618,167 @@
       <c r="AM41" s="127"/>
       <c r="AN41" s="127"/>
       <c r="AO41" s="2"/>
-      <c r="AP41" s="140"/>
-      <c r="AQ41" s="140"/>
-      <c r="AR41" s="140"/>
-      <c r="AS41" s="140"/>
-      <c r="AT41" s="140"/>
-      <c r="AU41" s="140"/>
-      <c r="AV41" s="140"/>
-      <c r="AW41" s="140"/>
-      <c r="AX41" s="140"/>
-      <c r="AY41" s="140"/>
-      <c r="AZ41" s="140"/>
-      <c r="BA41" s="140"/>
-      <c r="BB41" s="140"/>
-      <c r="BC41" s="140"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="53"/>
+      <c r="AS41" s="53"/>
+      <c r="AT41" s="53"/>
+      <c r="AU41" s="53"/>
+      <c r="AV41" s="53"/>
+      <c r="AW41" s="53"/>
+      <c r="AX41" s="53"/>
+      <c r="AY41" s="53"/>
+      <c r="AZ41" s="53"/>
+      <c r="BA41" s="53"/>
+      <c r="BB41" s="53"/>
+      <c r="BC41" s="53"/>
       <c r="BD41" s="2"/>
       <c r="BE41" s="46"/>
       <c r="BF41" s="6"/>
-      <c r="BH41" s="52" t="n">
-        <v>225.0</v>
-      </c>
-      <c r="BI41" s="6"/>
-      <c r="BP41" s="52"/>
+      <c r="BH41" s="7">
+        <v>225</v>
+      </c>
+      <c r="BI41" s="4"/>
+      <c r="BP41" s="7"/>
       <c r="BQ41" s="6"/>
       <c r="BR41" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="42" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="11.25" r="42" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="S42" s="141"/>
-      <c r="T42" s="141"/>
-      <c r="U42" s="141"/>
-      <c r="V42" s="141"/>
-      <c r="W42" s="141"/>
-      <c r="X42" s="141"/>
-      <c r="Y42" s="124"/>
-      <c r="Z42" s="124"/>
-      <c r="AA42" s="124"/>
-      <c r="AB42" s="124"/>
-      <c r="AC42" s="124"/>
-      <c r="AD42" s="124"/>
-      <c r="AE42" s="124"/>
-      <c r="AF42" s="124"/>
-      <c r="AG42" s="124"/>
-      <c r="AH42" s="124"/>
-      <c r="AI42" s="124"/>
-      <c r="AJ42" s="124"/>
-      <c r="AK42" s="124"/>
-      <c r="AL42" s="124"/>
-      <c r="AM42" s="124"/>
-      <c r="AN42" s="124"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
-      <c r="AP42" s="140"/>
-      <c r="AQ42" s="140"/>
-      <c r="AR42" s="140"/>
-      <c r="AS42" s="140"/>
-      <c r="AT42" s="140"/>
-      <c r="AU42" s="140"/>
-      <c r="AV42" s="140"/>
-      <c r="AW42" s="140"/>
-      <c r="AX42" s="140"/>
-      <c r="AY42" s="140"/>
-      <c r="AZ42" s="140"/>
-      <c r="BA42" s="140"/>
-      <c r="BB42" s="140"/>
-      <c r="BC42" s="140"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
       <c r="BD42" s="2"/>
       <c r="BE42" s="46"/>
       <c r="BF42" s="6"/>
-      <c r="BH42" s="52" t="n">
-        <v>225.0</v>
-      </c>
-      <c r="BI42" s="6"/>
-      <c r="BP42" s="52"/>
+      <c r="BH42" s="7">
+        <v>225</v>
+      </c>
+      <c r="BI42" s="4"/>
+      <c r="BP42" s="7"/>
       <c r="BQ42" s="6"/>
       <c r="BR42" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="43" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+    <row customHeight="1" ht="8.25" r="43" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="127"/>
-      <c r="N43" s="127"/>
-      <c r="O43" s="127"/>
-      <c r="P43" s="127"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z43" s="127"/>
-      <c r="AA43" s="127"/>
-      <c r="AB43" s="127"/>
-      <c r="AC43" s="127"/>
-      <c r="AD43" s="127"/>
-      <c r="AE43" s="127"/>
-      <c r="AF43" s="127"/>
-      <c r="AG43" s="127"/>
-      <c r="AH43" s="127"/>
-      <c r="AI43" s="127"/>
-      <c r="AJ43" s="127"/>
-      <c r="AK43" s="127"/>
-      <c r="AL43" s="127"/>
-      <c r="AM43" s="127"/>
-      <c r="AN43" s="127"/>
-      <c r="AO43" s="2"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="53"/>
-      <c r="AR43" s="53"/>
-      <c r="AS43" s="53"/>
-      <c r="AT43" s="53"/>
-      <c r="AU43" s="53"/>
-      <c r="AV43" s="53"/>
-      <c r="AW43" s="53"/>
-      <c r="AX43" s="53"/>
-      <c r="AY43" s="53"/>
-      <c r="AZ43" s="53"/>
-      <c r="BA43" s="53"/>
-      <c r="BB43" s="53"/>
-      <c r="BC43" s="53"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="54"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="54"/>
+      <c r="AA43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="56"/>
+      <c r="AE43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="124"/>
+      <c r="AL43" s="124"/>
+      <c r="AM43" s="124"/>
+      <c r="AN43" s="124"/>
+      <c r="AO43" s="124"/>
+      <c r="AP43" s="124"/>
+      <c r="AQ43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR43" s="124"/>
+      <c r="AS43" s="124"/>
+      <c r="AT43" s="124"/>
+      <c r="AU43" s="124"/>
+      <c r="AV43" s="124"/>
+      <c r="AW43" s="124"/>
+      <c r="AX43" s="124"/>
+      <c r="AY43" s="124"/>
+      <c r="AZ43" s="124"/>
+      <c r="BA43" s="124"/>
+      <c r="BB43" s="124"/>
+      <c r="BC43" s="124"/>
       <c r="BD43" s="2"/>
       <c r="BE43" s="46"/>
       <c r="BF43" s="6"/>
-      <c r="BH43" s="7" t="n">
-        <v>225.0</v>
+      <c r="BH43" s="7">
+        <v>165</v>
       </c>
       <c r="BI43" s="4"/>
       <c r="BP43" s="7"/>
@@ -5641,75 +5615,335 @@
       <c r="BQ55" s="6"/>
       <c r="BR55" s="6"/>
     </row>
-    <row customHeight="1" ht="9.75" r="56" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="AU56" s="52"/>
-      <c r="AV56" s="52"/>
-      <c r="BE56" s="52">
-        <v>195</v>
+    <row customHeight="true" ht="11.25" r="56" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="126"/>
+      <c r="R56" s="126"/>
+      <c r="S56" s="126"/>
+      <c r="T56" s="126"/>
+      <c r="U56" s="126"/>
+      <c r="V56" s="2"/>
+      <c r="W56" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="X56" s="127"/>
+      <c r="Y56" s="127"/>
+      <c r="Z56" s="127"/>
+      <c r="AA56" s="127"/>
+      <c r="AB56" s="127"/>
+      <c r="AC56" s="127"/>
+      <c r="AD56" s="56"/>
+      <c r="AE56" t="s" s="67">
+        <v>67</v>
+      </c>
+      <c r="AF56" s="59"/>
+      <c r="AG56" s="59"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" t="s" s="106">
+        <v>63</v>
+      </c>
+      <c r="AK56" s="106"/>
+      <c r="AL56" s="106"/>
+      <c r="AM56" s="106"/>
+      <c r="AN56" s="106"/>
+      <c r="AO56" s="106"/>
+      <c r="AP56" s="106"/>
+      <c r="AQ56" s="59"/>
+      <c r="AR56" t="s" s="127">
+        <v>64</v>
+      </c>
+      <c r="AS56" s="127"/>
+      <c r="AT56" s="127"/>
+      <c r="AU56" s="127"/>
+      <c r="AV56" s="127"/>
+      <c r="AW56" s="59"/>
+      <c r="AX56" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="AY56" s="127"/>
+      <c r="AZ56" s="127"/>
+      <c r="BA56" s="127"/>
+      <c r="BB56" s="127"/>
+      <c r="BC56" s="127"/>
+      <c r="BD56" s="2"/>
+      <c r="BE56" t="n" s="52">
+        <v>225.0</v>
       </c>
       <c r="BF56" s="6"/>
-      <c r="BH56" s="7">
-        <v>195</v>
+      <c r="BH56" t="n" s="7">
+        <v>225.0</v>
       </c>
       <c r="BI56" s="4"/>
       <c r="BP56" s="7"/>
       <c r="BQ56" s="6"/>
       <c r="BR56" s="6"/>
     </row>
-    <row customHeight="1" ht="7.5" r="57" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="BE57" s="52">
-        <v>150</v>
+    <row customHeight="true" ht="11.25" r="57" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A57" t="s" s="59">
+        <v>68</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="124"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="124"/>
+      <c r="R57" s="124"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="124"/>
+      <c r="U57" s="124"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="124"/>
+      <c r="X57" s="124"/>
+      <c r="Y57" s="124"/>
+      <c r="Z57" s="124"/>
+      <c r="AA57" s="124"/>
+      <c r="AB57" s="124"/>
+      <c r="AC57" s="124"/>
+      <c r="AD57" s="56"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="59"/>
+      <c r="AG57" s="59"/>
+      <c r="AH57" s="59"/>
+      <c r="AI57" s="59"/>
+      <c r="AJ57" s="59"/>
+      <c r="AK57" s="59"/>
+      <c r="AL57" s="59"/>
+      <c r="AM57" s="59"/>
+      <c r="AN57" s="59"/>
+      <c r="AO57" s="59"/>
+      <c r="AP57" s="59"/>
+      <c r="AQ57" s="59"/>
+      <c r="AR57" s="59"/>
+      <c r="AS57" s="59"/>
+      <c r="AT57" s="59"/>
+      <c r="AU57" s="59"/>
+      <c r="AV57" s="59"/>
+      <c r="AW57" s="59"/>
+      <c r="AX57" s="59"/>
+      <c r="AY57" s="59"/>
+      <c r="AZ57" s="59"/>
+      <c r="BA57" s="59"/>
+      <c r="BB57" s="59"/>
+      <c r="BC57" s="59"/>
+      <c r="BD57" s="2"/>
+      <c r="BE57" t="n" s="52">
+        <v>180.0</v>
       </c>
       <c r="BF57" s="6"/>
-      <c r="BH57" s="7">
-        <v>150</v>
-      </c>
+      <c r="BH57" s="7"/>
       <c r="BI57" s="4"/>
       <c r="BP57" s="7"/>
       <c r="BQ57" s="6"/>
       <c r="BR57" s="6"/>
     </row>
-    <row customHeight="1" ht="9.75" r="58" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="BE58" s="52">
-        <v>195</v>
+    <row customHeight="true" ht="8.25" r="58" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" t="s" s="106">
+        <v>63</v>
+      </c>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="126"/>
+      <c r="R58" s="126"/>
+      <c r="S58" s="126"/>
+      <c r="T58" s="126"/>
+      <c r="U58" s="126"/>
+      <c r="V58" s="2"/>
+      <c r="W58" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="X58" s="127"/>
+      <c r="Y58" s="127"/>
+      <c r="Z58" s="127"/>
+      <c r="AA58" s="127"/>
+      <c r="AB58" s="127"/>
+      <c r="AC58" s="127"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="59"/>
+      <c r="AG58" s="59"/>
+      <c r="AH58" s="59"/>
+      <c r="AI58" s="59"/>
+      <c r="AJ58" s="59"/>
+      <c r="AK58" s="59"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="59"/>
+      <c r="AN58" s="59"/>
+      <c r="AO58" s="59"/>
+      <c r="AP58" s="59"/>
+      <c r="AQ58" s="59"/>
+      <c r="AR58" s="59"/>
+      <c r="AS58" s="59"/>
+      <c r="AT58" s="59"/>
+      <c r="AU58" s="59"/>
+      <c r="AV58" s="59"/>
+      <c r="AW58" s="59"/>
+      <c r="AX58" s="59"/>
+      <c r="AY58" s="59"/>
+      <c r="AZ58" s="59"/>
+      <c r="BA58" s="59"/>
+      <c r="BB58" s="59"/>
+      <c r="BC58" s="59"/>
+      <c r="BD58" s="2"/>
+      <c r="BE58" t="n" s="52">
+        <v>165.0</v>
       </c>
       <c r="BF58" s="6"/>
-      <c r="BH58" s="7">
-        <v>195</v>
-      </c>
+      <c r="BH58" s="7"/>
       <c r="BI58" s="4"/>
       <c r="BP58" s="7"/>
       <c r="BQ58" s="6"/>
       <c r="BR58" s="6"/>
     </row>
-    <row customHeight="1" ht="7.5" r="59" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="BE59" s="52">
-        <v>150</v>
+    <row customHeight="true" ht="14.25" r="59" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="68">
+        <v>69</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" t="s" s="123">
+        <v>89</v>
+      </c>
+      <c r="I59" s="123"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="123"/>
+      <c r="L59" s="123"/>
+      <c r="M59" s="123"/>
+      <c r="N59" s="123"/>
+      <c r="O59" s="123"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="56"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="59"/>
+      <c r="AI59" t="s" s="69">
+        <v>69</v>
+      </c>
+      <c r="AJ59" s="70"/>
+      <c r="AK59" s="70"/>
+      <c r="AL59" s="70"/>
+      <c r="AM59" s="70"/>
+      <c r="AN59" t="s" s="71">
+        <v>70</v>
+      </c>
+      <c r="AO59" s="60"/>
+      <c r="AP59" s="60"/>
+      <c r="AQ59" s="60"/>
+      <c r="AR59" s="60"/>
+      <c r="AS59" s="60"/>
+      <c r="AT59" s="60"/>
+      <c r="AU59" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AV59" s="37"/>
+      <c r="AW59" t="s" s="59">
+        <v>71</v>
+      </c>
+      <c r="AX59" s="37"/>
+      <c r="AY59" s="37"/>
+      <c r="AZ59" s="37"/>
+      <c r="BA59" s="37"/>
+      <c r="BB59" s="59"/>
+      <c r="BC59" s="59"/>
+      <c r="BD59" s="2"/>
+      <c r="BE59" t="s" s="52">
+        <v>60</v>
       </c>
       <c r="BF59" s="6"/>
-      <c r="BH59" s="7">
-        <v>150</v>
+      <c r="BH59" t="n" s="7">
+        <v>285.0</v>
       </c>
       <c r="BI59" s="4"/>
       <c r="BP59" s="7"/>
       <c r="BQ59" s="6"/>
       <c r="BR59" s="6"/>
     </row>
-    <row customHeight="1" ht="9.75" r="60" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="BE60" s="52"/>
+    <row customHeight="true" ht="7.5" r="60" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="AU60" s="52"/>
+      <c r="AV60" s="52"/>
+      <c r="BE60" t="n" s="52">
+        <v>150.0</v>
+      </c>
       <c r="BF60" s="6"/>
-      <c r="BH60" s="7">
-        <v>195</v>
+      <c r="BH60" t="n" s="7">
+        <v>150.0</v>
       </c>
       <c r="BI60" s="4"/>
       <c r="BP60" s="7"/>
       <c r="BQ60" s="6"/>
       <c r="BR60" s="6"/>
     </row>
-    <row customHeight="1" ht="12.75" r="61" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="BR61" s="1">
-        <v>0</v>
-      </c>
+    <row customHeight="true" ht="9.75" r="61" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="AU61" s="52"/>
+      <c r="AV61" s="52"/>
+      <c r="BE61" t="n" s="52">
+        <v>195.0</v>
+      </c>
+      <c r="BF61" s="6"/>
+      <c r="BH61" t="n" s="7">
+        <v>195.0</v>
+      </c>
+      <c r="BI61" s="4"/>
+      <c r="BP61" s="7"/>
+      <c r="BQ61" s="6"/>
+      <c r="BR61" s="6"/>
     </row>
     <row customHeight="1" ht="12.75" r="62" spans="1:70" x14ac:dyDescent="0.2">
       <c r="BR62" s="1">
@@ -5780,19 +6014,21 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells>
-    <mergeCell ref="Q37:AK37"/>
-    <mergeCell ref="F38:AK38"/>
-    <mergeCell ref="F39:AK39"/>
+    <mergeCell ref="Q35:AK35"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="F37:AK37"/>
+    <mergeCell ref="AP37:BC38"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="Y38:AN38"/>
+    <mergeCell ref="Y39:AN39"/>
     <mergeCell ref="AP39:BC40"/>
-    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="F40:P40"/>
+    <mergeCell ref="R40:X40"/>
     <mergeCell ref="Y40:AN40"/>
+    <mergeCell ref="F41:P41"/>
     <mergeCell ref="Y41:AN41"/>
-    <mergeCell ref="AP41:BC42"/>
-    <mergeCell ref="F42:P42"/>
-    <mergeCell ref="R42:X42"/>
-    <mergeCell ref="Y42:AN42"/>
-    <mergeCell ref="F43:P43"/>
-    <mergeCell ref="Y43:AN43"/>
+    <mergeCell ref="AK43:AP43"/>
+    <mergeCell ref="AR43:BC43"/>
     <mergeCell ref="R44:Z44"/>
     <mergeCell ref="AH44:BC44"/>
     <mergeCell ref="A45:AD45"/>
@@ -5808,48 +6044,48 @@
     <mergeCell ref="AJ49:AP49"/>
     <mergeCell ref="AR49:AV49"/>
     <mergeCell ref="AX49:BC49"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ36:AS36"/>
-    <mergeCell ref="AT36:AV36"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="BA36:BD36"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="W52:AC52"/>
-    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AQ34:AS34"/>
+    <mergeCell ref="AT34:AV34"/>
+    <mergeCell ref="AW34:AZ34"/>
+    <mergeCell ref="BA34:BD34"/>
+    <mergeCell ref="H59:O59"/>
+    <mergeCell ref="I57:O57"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="W57:AC57"/>
+    <mergeCell ref="I58:O58"/>
     <mergeCell ref="AX50:BC50"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="W51:AC51"/>
-    <mergeCell ref="AJ51:AP51"/>
-    <mergeCell ref="AR51:AV51"/>
-    <mergeCell ref="AX51:BC51"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="W53:AC53"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="W56:AC56"/>
+    <mergeCell ref="AJ56:AP56"/>
+    <mergeCell ref="AR56:AV56"/>
+    <mergeCell ref="AX56:BC56"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="W58:AC58"/>
     <mergeCell ref="Q50:U50"/>
     <mergeCell ref="V50:AD50"/>
     <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="AR50:AV50"/>
     <mergeCell ref="AH47:BC47"/>
     <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="BA35:BD35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AN35:AP35"/>
-    <mergeCell ref="AQ35:AS35"/>
-    <mergeCell ref="AT35:AV35"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AW33:AZ33"/>
+    <mergeCell ref="BA33:BD33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AQ33:AS33"/>
+    <mergeCell ref="AT33:AV33"/>
     <mergeCell ref="BB5:BD5"/>
     <mergeCell ref="BB6:BD6"/>
     <mergeCell ref="A7:AX8"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -4023,87 +4023,93 @@
       <c r="BQ33" s="6"/>
       <c r="BR33" s="6"/>
     </row>
-    <row customHeight="1" ht="34.5" r="34" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF34" s="114">
-        <f>SUM(AF33)</f>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="114"/>
-      <c r="AH34" s="115"/>
-      <c r="AI34" s="115"/>
-      <c r="AJ34" s="115"/>
-      <c r="AK34" s="116">
-        <f>SUM(AK33)</f>
-        <v>0</v>
-      </c>
-      <c r="AL34" s="116"/>
-      <c r="AM34" s="116"/>
-      <c r="AN34" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO34" s="120"/>
-      <c r="AP34" s="120"/>
-      <c r="AQ34" s="121">
-        <f>SUM(AQ33)</f>
-        <v>0</v>
-      </c>
-      <c r="AR34" s="121"/>
-      <c r="AS34" s="121"/>
-      <c r="AT34" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU34" s="120"/>
-      <c r="AV34" s="120"/>
-      <c r="AW34" s="122">
-        <f>SUM(AW33)</f>
-        <v>0</v>
-      </c>
-      <c r="AX34" s="122"/>
-      <c r="AY34" s="122"/>
-      <c r="AZ34" s="122"/>
-      <c r="BA34" s="122">
-        <f>SUM(BA33)</f>
-        <v>0</v>
-      </c>
-      <c r="BB34" s="122"/>
-      <c r="BC34" s="122"/>
-      <c r="BD34" s="122"/>
-      <c r="BF34" s="49"/>
-      <c r="BG34" s="6"/>
-      <c r="BH34" s="7"/>
+    <row customHeight="true" ht="29.85" r="34" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A34" t="n" s="112">
+        <v>1.0</v>
+      </c>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" t="s" s="113">
+        <v>80</v>
+      </c>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="113"/>
+      <c r="Q34" t="s" s="117">
+        <v>82</v>
+      </c>
+      <c r="R34" s="117"/>
+      <c r="S34" s="117"/>
+      <c r="T34" t="s" s="118">
+        <v>73</v>
+      </c>
+      <c r="U34" s="118"/>
+      <c r="V34" s="118"/>
+      <c r="W34" t="s" s="119">
+        <v>74</v>
+      </c>
+      <c r="X34" s="119"/>
+      <c r="Y34" s="119"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="96"/>
+      <c r="AG34" s="96"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" t="s" s="98">
+        <v>81</v>
+      </c>
+      <c r="AL34" s="98"/>
+      <c r="AM34" s="98"/>
+      <c r="AN34" t="s" s="99">
+        <v>83</v>
+      </c>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" t="s" s="95">
+        <v>84</v>
+      </c>
+      <c r="AR34" s="95"/>
+      <c r="AS34" s="95"/>
+      <c r="AT34" t="n" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="AU34" s="101"/>
+      <c r="AV34" s="101"/>
+      <c r="AW34" t="s" s="94">
+        <v>85</v>
+      </c>
+      <c r="AX34" s="94"/>
+      <c r="AY34" s="94"/>
+      <c r="AZ34" s="94"/>
+      <c r="BA34" t="s" s="95">
+        <v>86</v>
+      </c>
+      <c r="BB34" s="95"/>
+      <c r="BC34" s="95"/>
+      <c r="BD34" s="95"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" t="n" s="1">
+        <v>5373.0</v>
+      </c>
+      <c r="BG34" t="n" s="7">
+        <v>598.0</v>
+      </c>
+      <c r="BH34" s="6"/>
       <c r="BI34" s="6"/>
       <c r="BJ34" s="47"/>
       <c r="BK34" s="47"/>
@@ -4115,72 +4121,93 @@
       <c r="BQ34" s="6"/>
       <c r="BR34" s="6"/>
     </row>
-    <row customHeight="1" ht="32.25" r="35" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="137"/>
-      <c r="R35" s="137"/>
-      <c r="S35" s="137"/>
-      <c r="T35" s="137"/>
-      <c r="U35" s="137"/>
-      <c r="V35" s="137"/>
-      <c r="W35" s="137"/>
-      <c r="X35" s="137"/>
-      <c r="Y35" s="137"/>
-      <c r="Z35" s="137"/>
-      <c r="AA35" s="137"/>
-      <c r="AB35" s="137"/>
-      <c r="AC35" s="137"/>
-      <c r="AD35" s="137"/>
-      <c r="AE35" s="137"/>
-      <c r="AF35" s="137"/>
-      <c r="AG35" s="137"/>
-      <c r="AH35" s="137"/>
-      <c r="AI35" s="137"/>
-      <c r="AJ35" s="137"/>
-      <c r="AK35" s="137"/>
-      <c r="AL35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="2"/>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="2"/>
-      <c r="AT35" s="2"/>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="6"/>
-      <c r="BH35" s="7">
-        <v>195</v>
-      </c>
+    <row customHeight="true" ht="29.85" r="35" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A35" t="n" s="112">
+        <v>1.0</v>
+      </c>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" t="s" s="113">
+        <v>80</v>
+      </c>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
+      <c r="P35" s="113"/>
+      <c r="Q35" t="s" s="117">
+        <v>82</v>
+      </c>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" t="s" s="118">
+        <v>73</v>
+      </c>
+      <c r="U35" s="118"/>
+      <c r="V35" s="118"/>
+      <c r="W35" t="s" s="119">
+        <v>74</v>
+      </c>
+      <c r="X35" s="119"/>
+      <c r="Y35" s="119"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="111"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="111"/>
+      <c r="AF35" s="96"/>
+      <c r="AG35" s="96"/>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="97"/>
+      <c r="AJ35" s="97"/>
+      <c r="AK35" t="s" s="98">
+        <v>81</v>
+      </c>
+      <c r="AL35" s="98"/>
+      <c r="AM35" s="98"/>
+      <c r="AN35" t="s" s="99">
+        <v>83</v>
+      </c>
+      <c r="AO35" s="99"/>
+      <c r="AP35" s="99"/>
+      <c r="AQ35" t="s" s="95">
+        <v>84</v>
+      </c>
+      <c r="AR35" s="95"/>
+      <c r="AS35" s="95"/>
+      <c r="AT35" t="n" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="AU35" s="101"/>
+      <c r="AV35" s="101"/>
+      <c r="AW35" t="s" s="94">
+        <v>85</v>
+      </c>
+      <c r="AX35" s="94"/>
+      <c r="AY35" s="94"/>
+      <c r="AZ35" s="94"/>
+      <c r="BA35" t="s" s="95">
+        <v>86</v>
+      </c>
+      <c r="BB35" s="95"/>
+      <c r="BC35" s="95"/>
+      <c r="BD35" s="95"/>
+      <c r="BE35" s="23"/>
+      <c r="BF35" t="n" s="1">
+        <v>5373.0</v>
+      </c>
+      <c r="BG35" t="n" s="7">
+        <v>598.0</v>
+      </c>
+      <c r="BH35" s="6"/>
       <c r="BI35" s="6"/>
       <c r="BJ35" s="47"/>
       <c r="BK35" s="47"/>
@@ -4192,149 +4219,189 @@
       <c r="BQ35" s="6"/>
       <c r="BR35" s="6"/>
     </row>
-    <row customHeight="1" ht="9" r="36" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="137"/>
-      <c r="N36" s="137"/>
-      <c r="O36" s="137"/>
-      <c r="P36" s="137"/>
-      <c r="Q36" s="137"/>
-      <c r="R36" s="137"/>
-      <c r="S36" s="137"/>
-      <c r="T36" s="137"/>
-      <c r="U36" s="137"/>
-      <c r="V36" s="137"/>
-      <c r="W36" s="137"/>
-      <c r="X36" s="137"/>
-      <c r="Y36" s="137"/>
-      <c r="Z36" s="137"/>
-      <c r="AA36" s="137"/>
-      <c r="AB36" s="137"/>
-      <c r="AC36" s="137"/>
-      <c r="AD36" s="137"/>
-      <c r="AE36" s="137"/>
-      <c r="AF36" s="137"/>
-      <c r="AG36" s="137"/>
-      <c r="AH36" s="137"/>
-      <c r="AI36" s="137"/>
-      <c r="AJ36" s="137"/>
-      <c r="AK36" s="137"/>
-      <c r="AL36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM36" s="2"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="2"/>
-      <c r="AQ36" s="2"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="2"/>
-      <c r="AT36" s="2"/>
-      <c r="AU36" s="2"/>
-      <c r="AV36" s="2"/>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="2"/>
-      <c r="AY36" s="2"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
-      <c r="BF36" s="49"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="7">
-        <v>180</v>
-      </c>
+    <row customHeight="true" ht="29.85" r="36" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A36" t="n" s="112">
+        <v>1.0</v>
+      </c>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" t="s" s="113">
+        <v>80</v>
+      </c>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" t="s" s="117">
+        <v>82</v>
+      </c>
+      <c r="R36" s="117"/>
+      <c r="S36" s="117"/>
+      <c r="T36" t="s" s="118">
+        <v>73</v>
+      </c>
+      <c r="U36" s="118"/>
+      <c r="V36" s="118"/>
+      <c r="W36" t="s" s="119">
+        <v>74</v>
+      </c>
+      <c r="X36" s="119"/>
+      <c r="Y36" s="119"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="97"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="111"/>
+      <c r="AF36" s="96"/>
+      <c r="AG36" s="96"/>
+      <c r="AH36" s="97"/>
+      <c r="AI36" s="97"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" t="s" s="98">
+        <v>81</v>
+      </c>
+      <c r="AL36" s="98"/>
+      <c r="AM36" s="98"/>
+      <c r="AN36" t="s" s="99">
+        <v>83</v>
+      </c>
+      <c r="AO36" s="99"/>
+      <c r="AP36" s="99"/>
+      <c r="AQ36" t="s" s="95">
+        <v>84</v>
+      </c>
+      <c r="AR36" s="95"/>
+      <c r="AS36" s="95"/>
+      <c r="AT36" t="n" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="AU36" s="101"/>
+      <c r="AV36" s="101"/>
+      <c r="AW36" t="s" s="94">
+        <v>85</v>
+      </c>
+      <c r="AX36" s="94"/>
+      <c r="AY36" s="94"/>
+      <c r="AZ36" s="94"/>
+      <c r="BA36" t="s" s="95">
+        <v>86</v>
+      </c>
+      <c r="BB36" s="95"/>
+      <c r="BC36" s="95"/>
+      <c r="BD36" s="95"/>
+      <c r="BE36" s="23"/>
+      <c r="BF36" t="n" s="1">
+        <v>5373.0</v>
+      </c>
+      <c r="BG36" t="n" s="7">
+        <v>598.0</v>
+      </c>
+      <c r="BH36" s="6"/>
       <c r="BI36" s="6"/>
       <c r="BJ36" s="47"/>
       <c r="BK36" s="47"/>
       <c r="BL36" s="47"/>
       <c r="BM36" s="47"/>
       <c r="BN36" s="47"/>
+      <c r="BO36" s="7"/>
       <c r="BP36" s="7"/>
       <c r="BQ36" s="6"/>
       <c r="BR36" s="6"/>
     </row>
-    <row customHeight="1" ht="29.85" r="37" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="134"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
-      <c r="N37" s="134"/>
-      <c r="O37" s="134"/>
-      <c r="P37" s="134"/>
-      <c r="Q37" s="134"/>
-      <c r="R37" s="134"/>
-      <c r="S37" s="134"/>
-      <c r="T37" s="134"/>
-      <c r="U37" s="134"/>
-      <c r="V37" s="134"/>
-      <c r="W37" s="134"/>
-      <c r="X37" s="134"/>
-      <c r="Y37" s="134"/>
-      <c r="Z37" s="134"/>
-      <c r="AA37" s="134"/>
-      <c r="AB37" s="134"/>
-      <c r="AC37" s="134"/>
-      <c r="AD37" s="134"/>
-      <c r="AE37" s="134"/>
-      <c r="AF37" s="134"/>
-      <c r="AG37" s="134"/>
-      <c r="AH37" s="134"/>
-      <c r="AI37" s="134"/>
-      <c r="AJ37" s="134"/>
-      <c r="AK37" s="134"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="138"/>
-      <c r="AQ37" s="138"/>
-      <c r="AR37" s="138"/>
-      <c r="AS37" s="138"/>
-      <c r="AT37" s="138"/>
-      <c r="AU37" s="138"/>
-      <c r="AV37" s="138"/>
-      <c r="AW37" s="138"/>
-      <c r="AX37" s="138"/>
-      <c r="AY37" s="138"/>
-      <c r="AZ37" s="138"/>
-      <c r="BA37" s="138"/>
-      <c r="BB37" s="138"/>
-      <c r="BC37" s="138"/>
-      <c r="BD37" s="2"/>
+    <row customHeight="true" ht="29.85" r="37" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A37" t="n" s="112">
+        <v>1.0</v>
+      </c>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" t="s" s="113">
+        <v>80</v>
+      </c>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" t="s" s="117">
+        <v>82</v>
+      </c>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
+      <c r="T37" t="s" s="118">
+        <v>73</v>
+      </c>
+      <c r="U37" s="118"/>
+      <c r="V37" s="118"/>
+      <c r="W37" t="s" s="119">
+        <v>74</v>
+      </c>
+      <c r="X37" s="119"/>
+      <c r="Y37" s="119"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="97"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="96"/>
+      <c r="AG37" s="96"/>
+      <c r="AH37" s="97"/>
+      <c r="AI37" s="97"/>
+      <c r="AJ37" s="97"/>
+      <c r="AK37" t="s" s="98">
+        <v>81</v>
+      </c>
+      <c r="AL37" s="98"/>
+      <c r="AM37" s="98"/>
+      <c r="AN37" t="s" s="99">
+        <v>83</v>
+      </c>
+      <c r="AO37" s="99"/>
+      <c r="AP37" s="99"/>
+      <c r="AQ37" t="s" s="95">
+        <v>84</v>
+      </c>
+      <c r="AR37" s="95"/>
+      <c r="AS37" s="95"/>
+      <c r="AT37" t="n" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="AU37" s="101"/>
+      <c r="AV37" s="101"/>
+      <c r="AW37" t="s" s="94">
+        <v>85</v>
+      </c>
+      <c r="AX37" s="94"/>
+      <c r="AY37" s="94"/>
+      <c r="AZ37" s="94"/>
+      <c r="BA37" t="s" s="95">
+        <v>86</v>
+      </c>
+      <c r="BB37" s="95"/>
+      <c r="BC37" s="95"/>
+      <c r="BD37" s="95"/>
       <c r="BE37" s="23"/>
-      <c r="BF37" s="1">
-        <v>10360</v>
-      </c>
-      <c r="BG37" s="7">
-        <v>598</v>
+      <c r="BF37" t="n" s="1">
+        <v>5373.0</v>
+      </c>
+      <c r="BG37" t="n" s="7">
+        <v>598.0</v>
       </c>
       <c r="BH37" s="6"/>
       <c r="BI37" s="6"/>
@@ -4343,75 +4410,96 @@
       <c r="BL37" s="47"/>
       <c r="BM37" s="47"/>
       <c r="BN37" s="47"/>
+      <c r="BO37" s="7"/>
       <c r="BP37" s="7"/>
       <c r="BQ37" s="6"/>
       <c r="BR37" s="6"/>
     </row>
-    <row customHeight="1" ht="48.6" r="38" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="T38" s="139"/>
-      <c r="U38" s="139"/>
-      <c r="V38" s="139"/>
-      <c r="W38" s="139"/>
-      <c r="X38" s="139"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="124"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="124"/>
-      <c r="AH38" s="124"/>
-      <c r="AI38" s="124"/>
-      <c r="AJ38" s="124"/>
-      <c r="AK38" s="124"/>
-      <c r="AL38" s="124"/>
-      <c r="AM38" s="124"/>
-      <c r="AN38" s="124"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="138"/>
-      <c r="AQ38" s="138"/>
-      <c r="AR38" s="138"/>
-      <c r="AS38" s="138"/>
-      <c r="AT38" s="138"/>
-      <c r="AU38" s="138"/>
-      <c r="AV38" s="138"/>
-      <c r="AW38" s="138"/>
-      <c r="AX38" s="138"/>
-      <c r="AY38" s="138"/>
-      <c r="AZ38" s="138"/>
-      <c r="BA38" s="138"/>
-      <c r="BB38" s="138"/>
-      <c r="BC38" s="138"/>
-      <c r="BD38" s="2"/>
+    <row customHeight="true" ht="29.85" r="38" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A38" t="n" s="112">
+        <v>1.0</v>
+      </c>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" t="s" s="113">
+        <v>80</v>
+      </c>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" t="s" s="117">
+        <v>82</v>
+      </c>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" t="s" s="118">
+        <v>73</v>
+      </c>
+      <c r="U38" s="118"/>
+      <c r="V38" s="118"/>
+      <c r="W38" t="s" s="119">
+        <v>74</v>
+      </c>
+      <c r="X38" s="119"/>
+      <c r="Y38" s="119"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="96"/>
+      <c r="AG38" s="96"/>
+      <c r="AH38" s="97"/>
+      <c r="AI38" s="97"/>
+      <c r="AJ38" s="97"/>
+      <c r="AK38" t="s" s="98">
+        <v>81</v>
+      </c>
+      <c r="AL38" s="98"/>
+      <c r="AM38" s="98"/>
+      <c r="AN38" t="s" s="99">
+        <v>83</v>
+      </c>
+      <c r="AO38" s="99"/>
+      <c r="AP38" s="99"/>
+      <c r="AQ38" t="s" s="95">
+        <v>84</v>
+      </c>
+      <c r="AR38" s="95"/>
+      <c r="AS38" s="95"/>
+      <c r="AT38" t="n" s="100">
+        <v>0.2</v>
+      </c>
+      <c r="AU38" s="101"/>
+      <c r="AV38" s="101"/>
+      <c r="AW38" t="s" s="94">
+        <v>85</v>
+      </c>
+      <c r="AX38" s="94"/>
+      <c r="AY38" s="94"/>
+      <c r="AZ38" s="94"/>
+      <c r="BA38" t="s" s="95">
+        <v>86</v>
+      </c>
+      <c r="BB38" s="95"/>
+      <c r="BC38" s="95"/>
+      <c r="BD38" s="95"/>
       <c r="BE38" s="23"/>
-      <c r="BF38" s="1">
-        <v>9762</v>
-      </c>
-      <c r="BG38" s="7">
-        <v>970</v>
+      <c r="BF38" t="n" s="1">
+        <v>5373.0</v>
+      </c>
+      <c r="BG38" t="n" s="7">
+        <v>598.0</v>
       </c>
       <c r="BH38" s="6"/>
       <c r="BI38" s="6"/>
@@ -4420,147 +4508,163 @@
       <c r="BL38" s="47"/>
       <c r="BM38" s="47"/>
       <c r="BN38" s="47"/>
+      <c r="BO38" s="7"/>
       <c r="BP38" s="7"/>
       <c r="BQ38" s="6"/>
       <c r="BR38" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="39" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="127"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="127"/>
-      <c r="AE39" s="127"/>
-      <c r="AF39" s="127"/>
-      <c r="AG39" s="127"/>
-      <c r="AH39" s="127"/>
-      <c r="AI39" s="127"/>
-      <c r="AJ39" s="127"/>
-      <c r="AK39" s="127"/>
-      <c r="AL39" s="127"/>
-      <c r="AM39" s="127"/>
-      <c r="AN39" s="127"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="140"/>
-      <c r="AQ39" s="140"/>
-      <c r="AR39" s="140"/>
-      <c r="AS39" s="140"/>
-      <c r="AT39" s="140"/>
-      <c r="AU39" s="140"/>
-      <c r="AV39" s="140"/>
-      <c r="AW39" s="140"/>
-      <c r="AX39" s="140"/>
-      <c r="AY39" s="140"/>
-      <c r="AZ39" s="140"/>
-      <c r="BA39" s="140"/>
-      <c r="BB39" s="140"/>
-      <c r="BC39" s="140"/>
-      <c r="BD39" s="2"/>
+    <row customHeight="true" ht="34.5" r="39" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" t="s" s="36">
+        <v>43</v>
+      </c>
+      <c r="AF39" s="114">
+        <f>SUM(AF33)</f>
+      </c>
+      <c r="AG39" s="114"/>
+      <c r="AH39" s="115"/>
+      <c r="AI39" s="115"/>
+      <c r="AJ39" s="115"/>
+      <c r="AK39" s="116">
+        <f>SUM(AK33)</f>
+      </c>
+      <c r="AL39" s="116"/>
+      <c r="AM39" s="116"/>
+      <c r="AN39" t="s" s="120">
+        <v>42</v>
+      </c>
+      <c r="AO39" s="120"/>
+      <c r="AP39" s="120"/>
+      <c r="AQ39" s="121">
+        <f>SUM(AQ33)</f>
+      </c>
+      <c r="AR39" s="121"/>
+      <c r="AS39" s="121"/>
+      <c r="AT39" t="s" s="120">
+        <v>42</v>
+      </c>
+      <c r="AU39" s="120"/>
+      <c r="AV39" s="120"/>
+      <c r="AW39" s="122">
+        <f>SUM(AW33)</f>
+      </c>
+      <c r="AX39" s="122"/>
+      <c r="AY39" s="122"/>
+      <c r="AZ39" s="122"/>
+      <c r="BA39" s="122">
+        <f>SUM(BA33)</f>
+      </c>
+      <c r="BB39" s="122"/>
+      <c r="BC39" s="122"/>
+      <c r="BD39" s="122"/>
+      <c r="BF39" s="49"/>
       <c r="BG39" s="6"/>
-      <c r="BH39" s="52">
-        <v>225</v>
-      </c>
+      <c r="BH39" s="7"/>
       <c r="BI39" s="6"/>
       <c r="BJ39" s="47"/>
       <c r="BK39" s="47"/>
       <c r="BL39" s="47"/>
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
-      <c r="BP39" s="52"/>
+      <c r="BO39" s="7"/>
+      <c r="BP39" s="7"/>
       <c r="BQ39" s="6"/>
       <c r="BR39" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="40" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+    <row customHeight="true" ht="32.25" r="40" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A40" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="S40" s="141"/>
-      <c r="T40" s="141"/>
-      <c r="U40" s="141"/>
-      <c r="V40" s="141"/>
-      <c r="W40" s="141"/>
-      <c r="X40" s="141"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="124"/>
-      <c r="AG40" s="124"/>
-      <c r="AH40" s="124"/>
-      <c r="AI40" s="124"/>
-      <c r="AJ40" s="124"/>
-      <c r="AK40" s="124"/>
-      <c r="AL40" s="124"/>
-      <c r="AM40" s="124"/>
-      <c r="AN40" s="124"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="137"/>
+      <c r="R40" s="137"/>
+      <c r="S40" s="137"/>
+      <c r="T40" s="137"/>
+      <c r="U40" s="137"/>
+      <c r="V40" s="137"/>
+      <c r="W40" s="137"/>
+      <c r="X40" s="137"/>
+      <c r="Y40" s="137"/>
+      <c r="Z40" s="137"/>
+      <c r="AA40" s="137"/>
+      <c r="AB40" s="137"/>
+      <c r="AC40" s="137"/>
+      <c r="AD40" s="137"/>
+      <c r="AE40" s="137"/>
+      <c r="AF40" s="137"/>
+      <c r="AG40" s="137"/>
+      <c r="AH40" s="137"/>
+      <c r="AI40" s="137"/>
+      <c r="AJ40" s="137"/>
+      <c r="AK40" s="137"/>
+      <c r="AL40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
-      <c r="AP40" s="140"/>
-      <c r="AQ40" s="140"/>
-      <c r="AR40" s="140"/>
-      <c r="AS40" s="140"/>
-      <c r="AT40" s="140"/>
-      <c r="AU40" s="140"/>
-      <c r="AV40" s="140"/>
-      <c r="AW40" s="140"/>
-      <c r="AX40" s="140"/>
-      <c r="AY40" s="140"/>
-      <c r="AZ40" s="140"/>
-      <c r="BA40" s="140"/>
-      <c r="BB40" s="140"/>
-      <c r="BC40" s="140"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
       <c r="BD40" s="2"/>
+      <c r="BF40" s="49"/>
       <c r="BG40" s="6"/>
-      <c r="BH40" s="52">
-        <v>225</v>
+      <c r="BH40" t="n" s="7">
+        <v>195.0</v>
       </c>
       <c r="BI40" s="6"/>
       <c r="BJ40" s="47"/>
@@ -4568,152 +4672,169 @@
       <c r="BL40" s="47"/>
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
-      <c r="BP40" s="52"/>
+      <c r="BO40" s="7"/>
+      <c r="BP40" s="7"/>
       <c r="BQ40" s="6"/>
       <c r="BR40" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="41" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+    <row customHeight="true" ht="9.0" r="41" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A41" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="127"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="127"/>
-      <c r="AB41" s="127"/>
-      <c r="AC41" s="127"/>
-      <c r="AD41" s="127"/>
-      <c r="AE41" s="127"/>
-      <c r="AF41" s="127"/>
-      <c r="AG41" s="127"/>
-      <c r="AH41" s="127"/>
-      <c r="AI41" s="127"/>
-      <c r="AJ41" s="127"/>
-      <c r="AK41" s="127"/>
-      <c r="AL41" s="127"/>
-      <c r="AM41" s="127"/>
-      <c r="AN41" s="127"/>
+      <c r="F41" t="s" s="137">
+        <v>75</v>
+      </c>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="137"/>
+      <c r="N41" s="137"/>
+      <c r="O41" s="137"/>
+      <c r="P41" s="137"/>
+      <c r="Q41" s="137"/>
+      <c r="R41" s="137"/>
+      <c r="S41" s="137"/>
+      <c r="T41" s="137"/>
+      <c r="U41" s="137"/>
+      <c r="V41" s="137"/>
+      <c r="W41" s="137"/>
+      <c r="X41" s="137"/>
+      <c r="Y41" s="137"/>
+      <c r="Z41" s="137"/>
+      <c r="AA41" s="137"/>
+      <c r="AB41" s="137"/>
+      <c r="AC41" s="137"/>
+      <c r="AD41" s="137"/>
+      <c r="AE41" s="137"/>
+      <c r="AF41" s="137"/>
+      <c r="AG41" s="137"/>
+      <c r="AH41" s="137"/>
+      <c r="AI41" s="137"/>
+      <c r="AJ41" s="137"/>
+      <c r="AK41" s="137"/>
+      <c r="AL41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
-      <c r="AP41" s="53"/>
-      <c r="AQ41" s="53"/>
-      <c r="AR41" s="53"/>
-      <c r="AS41" s="53"/>
-      <c r="AT41" s="53"/>
-      <c r="AU41" s="53"/>
-      <c r="AV41" s="53"/>
-      <c r="AW41" s="53"/>
-      <c r="AX41" s="53"/>
-      <c r="AY41" s="53"/>
-      <c r="AZ41" s="53"/>
-      <c r="BA41" s="53"/>
-      <c r="BB41" s="53"/>
-      <c r="BC41" s="53"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
       <c r="BD41" s="2"/>
       <c r="BE41" s="46"/>
-      <c r="BF41" s="6"/>
-      <c r="BH41" s="7">
-        <v>225</v>
-      </c>
-      <c r="BI41" s="4"/>
+      <c r="BF41" s="49"/>
+      <c r="BG41" s="6"/>
+      <c r="BH41" t="n" s="7">
+        <v>180.0</v>
+      </c>
+      <c r="BI41" s="6"/>
+      <c r="BJ41" s="47"/>
+      <c r="BK41" s="47"/>
+      <c r="BL41" s="47"/>
+      <c r="BM41" s="47"/>
+      <c r="BN41" s="47"/>
       <c r="BP41" s="7"/>
       <c r="BQ41" s="6"/>
       <c r="BR41" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="42" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="29.85" r="42" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
+      <c r="F42" t="s" s="134">
+        <v>48</v>
+      </c>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="134"/>
+      <c r="P42" s="134"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="134"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="134"/>
+      <c r="U42" s="134"/>
+      <c r="V42" s="134"/>
+      <c r="W42" s="134"/>
+      <c r="X42" s="134"/>
+      <c r="Y42" s="134"/>
+      <c r="Z42" s="134"/>
+      <c r="AA42" s="134"/>
+      <c r="AB42" s="134"/>
+      <c r="AC42" s="134"/>
+      <c r="AD42" s="134"/>
+      <c r="AE42" s="134"/>
+      <c r="AF42" s="134"/>
+      <c r="AG42" s="134"/>
+      <c r="AH42" s="134"/>
+      <c r="AI42" s="134"/>
+      <c r="AJ42" s="134"/>
+      <c r="AK42" s="134"/>
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
-      <c r="AP42" s="2"/>
-      <c r="AQ42" s="2"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="2"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2"/>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
-      <c r="AY42" s="2"/>
-      <c r="AZ42" s="2"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="2"/>
+      <c r="AP42" s="138"/>
+      <c r="AQ42" s="138"/>
+      <c r="AR42" s="138"/>
+      <c r="AS42" s="138"/>
+      <c r="AT42" s="138"/>
+      <c r="AU42" s="138"/>
+      <c r="AV42" s="138"/>
+      <c r="AW42" s="138"/>
+      <c r="AX42" s="138"/>
+      <c r="AY42" s="138"/>
+      <c r="AZ42" s="138"/>
+      <c r="BA42" s="138"/>
+      <c r="BB42" s="138"/>
+      <c r="BC42" s="138"/>
       <c r="BD42" s="2"/>
-      <c r="BE42" s="46"/>
-      <c r="BF42" s="6"/>
-      <c r="BH42" s="7">
-        <v>225</v>
-      </c>
-      <c r="BI42" s="4"/>
+      <c r="BE42" s="23"/>
+      <c r="BF42" t="n" s="1">
+        <v>10360.0</v>
+      </c>
+      <c r="BG42" t="n" s="7">
+        <v>598.0</v>
+      </c>
+      <c r="BH42" s="6"/>
+      <c r="BI42" s="6"/>
+      <c r="BJ42" s="47"/>
+      <c r="BK42" s="47"/>
+      <c r="BL42" s="47"/>
+      <c r="BM42" s="47"/>
+      <c r="BN42" s="47"/>
       <c r="BP42" s="7"/>
       <c r="BQ42" s="6"/>
       <c r="BR42" s="6"/>
     </row>
-    <row customHeight="1" ht="8.25" r="43" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>52</v>
-      </c>
+    <row customHeight="true" ht="48.6" r="43" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4727,65 +4848,69 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" t="s" s="139">
+        <v>49</v>
+      </c>
+      <c r="T43" s="139"/>
+      <c r="U43" s="139"/>
+      <c r="V43" s="139"/>
+      <c r="W43" s="139"/>
+      <c r="X43" s="139"/>
+      <c r="Y43" s="124"/>
+      <c r="Z43" s="124"/>
+      <c r="AA43" s="124"/>
+      <c r="AB43" s="124"/>
+      <c r="AC43" s="124"/>
+      <c r="AD43" s="124"/>
+      <c r="AE43" s="124"/>
+      <c r="AF43" s="124"/>
+      <c r="AG43" s="124"/>
+      <c r="AH43" s="124"/>
+      <c r="AI43" s="124"/>
+      <c r="AJ43" s="124"/>
       <c r="AK43" s="124"/>
       <c r="AL43" s="124"/>
       <c r="AM43" s="124"/>
       <c r="AN43" s="124"/>
-      <c r="AO43" s="124"/>
-      <c r="AP43" s="124"/>
-      <c r="AQ43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR43" s="124"/>
-      <c r="AS43" s="124"/>
-      <c r="AT43" s="124"/>
-      <c r="AU43" s="124"/>
-      <c r="AV43" s="124"/>
-      <c r="AW43" s="124"/>
-      <c r="AX43" s="124"/>
-      <c r="AY43" s="124"/>
-      <c r="AZ43" s="124"/>
-      <c r="BA43" s="124"/>
-      <c r="BB43" s="124"/>
-      <c r="BC43" s="124"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="138"/>
+      <c r="AQ43" s="138"/>
+      <c r="AR43" s="138"/>
+      <c r="AS43" s="138"/>
+      <c r="AT43" s="138"/>
+      <c r="AU43" s="138"/>
+      <c r="AV43" s="138"/>
+      <c r="AW43" s="138"/>
+      <c r="AX43" s="138"/>
+      <c r="AY43" s="138"/>
+      <c r="AZ43" s="138"/>
+      <c r="BA43" s="138"/>
+      <c r="BB43" s="138"/>
+      <c r="BC43" s="138"/>
       <c r="BD43" s="2"/>
-      <c r="BE43" s="46"/>
-      <c r="BF43" s="6"/>
-      <c r="BH43" s="7">
-        <v>165</v>
-      </c>
-      <c r="BI43" s="4"/>
+      <c r="BE43" s="23"/>
+      <c r="BF43" t="n" s="1">
+        <v>9762.0</v>
+      </c>
+      <c r="BG43" t="n" s="7">
+        <v>970.0</v>
+      </c>
+      <c r="BH43" s="6"/>
+      <c r="BI43" s="6"/>
+      <c r="BJ43" s="47"/>
+      <c r="BK43" s="47"/>
+      <c r="BL43" s="47"/>
+      <c r="BM43" s="47"/>
+      <c r="BN43" s="47"/>
       <c r="BP43" s="7"/>
       <c r="BQ43" s="6"/>
       <c r="BR43" s="6"/>
     </row>
-    <row customHeight="1" ht="9.75" r="44" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="11.25" r="44" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4802,353 +4927,357 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="134" t="s">
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" t="s" s="127">
         <v>48</v>
       </c>
-      <c r="S44" s="134"/>
-      <c r="T44" s="134"/>
-      <c r="U44" s="134"/>
-      <c r="V44" s="134"/>
-      <c r="W44" s="134"/>
-      <c r="X44" s="134"/>
-      <c r="Y44" s="134"/>
-      <c r="Z44" s="134"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="56"/>
-      <c r="AE44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="124"/>
-      <c r="AI44" s="124"/>
-      <c r="AJ44" s="124"/>
-      <c r="AK44" s="124"/>
-      <c r="AL44" s="124"/>
-      <c r="AM44" s="124"/>
-      <c r="AN44" s="124"/>
-      <c r="AO44" s="124"/>
-      <c r="AP44" s="124"/>
-      <c r="AQ44" s="124"/>
-      <c r="AR44" s="124"/>
-      <c r="AS44" s="124"/>
-      <c r="AT44" s="124"/>
-      <c r="AU44" s="124"/>
-      <c r="AV44" s="124"/>
-      <c r="AW44" s="124"/>
-      <c r="AX44" s="124"/>
-      <c r="AY44" s="124"/>
-      <c r="AZ44" s="124"/>
-      <c r="BA44" s="124"/>
-      <c r="BB44" s="124"/>
-      <c r="BC44" s="124"/>
+      <c r="Z44" s="127"/>
+      <c r="AA44" s="127"/>
+      <c r="AB44" s="127"/>
+      <c r="AC44" s="127"/>
+      <c r="AD44" s="127"/>
+      <c r="AE44" s="127"/>
+      <c r="AF44" s="127"/>
+      <c r="AG44" s="127"/>
+      <c r="AH44" s="127"/>
+      <c r="AI44" s="127"/>
+      <c r="AJ44" s="127"/>
+      <c r="AK44" s="127"/>
+      <c r="AL44" s="127"/>
+      <c r="AM44" s="127"/>
+      <c r="AN44" s="127"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="140"/>
+      <c r="AQ44" s="140"/>
+      <c r="AR44" s="140"/>
+      <c r="AS44" s="140"/>
+      <c r="AT44" s="140"/>
+      <c r="AU44" s="140"/>
+      <c r="AV44" s="140"/>
+      <c r="AW44" s="140"/>
+      <c r="AX44" s="140"/>
+      <c r="AY44" s="140"/>
+      <c r="AZ44" s="140"/>
+      <c r="BA44" s="140"/>
+      <c r="BB44" s="140"/>
+      <c r="BC44" s="140"/>
       <c r="BD44" s="2"/>
       <c r="BE44" s="46"/>
       <c r="BF44" s="6"/>
-      <c r="BH44" s="7">
-        <v>195</v>
-      </c>
-      <c r="BI44" s="4"/>
-      <c r="BP44" s="7"/>
+      <c r="BG44" s="6"/>
+      <c r="BH44" t="n" s="52">
+        <v>225.0</v>
+      </c>
+      <c r="BI44" s="6"/>
+      <c r="BJ44" s="47"/>
+      <c r="BK44" s="47"/>
+      <c r="BL44" s="47"/>
+      <c r="BM44" s="47"/>
+      <c r="BN44" s="47"/>
+      <c r="BP44" s="52"/>
       <c r="BQ44" s="6"/>
       <c r="BR44" s="6"/>
     </row>
-    <row customHeight="1" ht="7.5" r="45" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A45" s="135" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="135"/>
-      <c r="P45" s="135"/>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="135"/>
-      <c r="S45" s="135"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="135"/>
-      <c r="V45" s="135"/>
-      <c r="W45" s="135"/>
-      <c r="X45" s="135"/>
-      <c r="Y45" s="135"/>
-      <c r="Z45" s="135"/>
-      <c r="AA45" s="135"/>
-      <c r="AB45" s="135"/>
-      <c r="AC45" s="135"/>
-      <c r="AD45" s="135"/>
-      <c r="AE45" s="55"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ45" s="126"/>
-      <c r="AK45" s="126"/>
-      <c r="AL45" s="126"/>
-      <c r="AM45" s="126"/>
-      <c r="AN45" s="126"/>
-      <c r="AO45" s="126"/>
-      <c r="AP45" s="126"/>
-      <c r="AQ45" s="126"/>
-      <c r="AR45" s="126"/>
-      <c r="AS45" s="126"/>
-      <c r="AT45" s="126"/>
-      <c r="AU45" s="126"/>
-      <c r="AV45" s="126"/>
-      <c r="AW45" s="126"/>
-      <c r="AX45" s="126"/>
-      <c r="AY45" s="126"/>
-      <c r="AZ45" s="126"/>
-      <c r="BA45" s="126"/>
-      <c r="BB45" s="126"/>
-      <c r="BC45" s="126"/>
+    <row customHeight="true" ht="11.25" r="45" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="24">
+        <v>50</v>
+      </c>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="124"/>
+      <c r="O45" s="124"/>
+      <c r="P45" s="124"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="141">
+        <v>51</v>
+      </c>
+      <c r="S45" s="141"/>
+      <c r="T45" s="141"/>
+      <c r="U45" s="141"/>
+      <c r="V45" s="141"/>
+      <c r="W45" s="141"/>
+      <c r="X45" s="141"/>
+      <c r="Y45" s="124"/>
+      <c r="Z45" s="124"/>
+      <c r="AA45" s="124"/>
+      <c r="AB45" s="124"/>
+      <c r="AC45" s="124"/>
+      <c r="AD45" s="124"/>
+      <c r="AE45" s="124"/>
+      <c r="AF45" s="124"/>
+      <c r="AG45" s="124"/>
+      <c r="AH45" s="124"/>
+      <c r="AI45" s="124"/>
+      <c r="AJ45" s="124"/>
+      <c r="AK45" s="124"/>
+      <c r="AL45" s="124"/>
+      <c r="AM45" s="124"/>
+      <c r="AN45" s="124"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="140"/>
+      <c r="AQ45" s="140"/>
+      <c r="AR45" s="140"/>
+      <c r="AS45" s="140"/>
+      <c r="AT45" s="140"/>
+      <c r="AU45" s="140"/>
+      <c r="AV45" s="140"/>
+      <c r="AW45" s="140"/>
+      <c r="AX45" s="140"/>
+      <c r="AY45" s="140"/>
+      <c r="AZ45" s="140"/>
+      <c r="BA45" s="140"/>
+      <c r="BB45" s="140"/>
+      <c r="BC45" s="140"/>
       <c r="BD45" s="2"/>
       <c r="BE45" s="52">
         <v>150</v>
       </c>
       <c r="BF45" s="6"/>
-      <c r="BH45" s="7">
-        <v>150</v>
-      </c>
-      <c r="BI45" s="4"/>
-      <c r="BP45" s="7"/>
+      <c r="BG45" s="6"/>
+      <c r="BH45" t="n" s="52">
+        <v>225.0</v>
+      </c>
+      <c r="BI45" s="6"/>
+      <c r="BJ45" s="47"/>
+      <c r="BK45" s="47"/>
+      <c r="BL45" s="47"/>
+      <c r="BM45" s="47"/>
+      <c r="BN45" s="47"/>
+      <c r="BP45" s="52"/>
       <c r="BQ45" s="6"/>
       <c r="BR45" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="46" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A46" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="136"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="136"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="136"/>
-      <c r="N46" s="136"/>
-      <c r="O46" s="136"/>
-      <c r="P46" s="136"/>
-      <c r="Q46" s="136"/>
-      <c r="R46" s="136"/>
-      <c r="S46" s="136"/>
-      <c r="T46" s="136"/>
-      <c r="U46" s="136"/>
-      <c r="V46" s="136"/>
-      <c r="W46" s="136"/>
-      <c r="X46" s="136"/>
-      <c r="Y46" s="136"/>
-      <c r="Z46" s="136"/>
-      <c r="AA46" s="136"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="58"/>
-      <c r="AD46" s="57"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="59"/>
-      <c r="AG46" s="59"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="60"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="60"/>
-      <c r="AL46" s="60"/>
-      <c r="AM46" s="60"/>
-      <c r="AN46" s="60"/>
-      <c r="AO46" s="60"/>
-      <c r="AP46" s="60"/>
-      <c r="AQ46" s="60"/>
-      <c r="AR46" s="60"/>
-      <c r="AS46" s="60"/>
-      <c r="AT46" s="60"/>
-      <c r="AU46" s="60"/>
-      <c r="AV46" s="60"/>
-      <c r="AW46" s="60"/>
-      <c r="AX46" s="60"/>
-      <c r="AY46" s="60"/>
-      <c r="AZ46" s="60"/>
-      <c r="BA46" s="60"/>
-      <c r="BB46" s="60"/>
-      <c r="BC46" s="60"/>
+    <row customHeight="true" ht="11.25" r="46" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="127">
+        <v>48</v>
+      </c>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="127"/>
+      <c r="P46" s="127"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" t="s" s="127">
+        <v>48</v>
+      </c>
+      <c r="Z46" s="127"/>
+      <c r="AA46" s="127"/>
+      <c r="AB46" s="127"/>
+      <c r="AC46" s="127"/>
+      <c r="AD46" s="127"/>
+      <c r="AE46" s="127"/>
+      <c r="AF46" s="127"/>
+      <c r="AG46" s="127"/>
+      <c r="AH46" s="127"/>
+      <c r="AI46" s="127"/>
+      <c r="AJ46" s="127"/>
+      <c r="AK46" s="127"/>
+      <c r="AL46" s="127"/>
+      <c r="AM46" s="127"/>
+      <c r="AN46" s="127"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="53"/>
+      <c r="AQ46" s="53"/>
+      <c r="AR46" s="53"/>
+      <c r="AS46" s="53"/>
+      <c r="AT46" s="53"/>
+      <c r="AU46" s="53"/>
+      <c r="AV46" s="53"/>
+      <c r="AW46" s="53"/>
+      <c r="AX46" s="53"/>
+      <c r="AY46" s="53"/>
+      <c r="AZ46" s="53"/>
+      <c r="BA46" s="53"/>
+      <c r="BB46" s="53"/>
+      <c r="BC46" s="53"/>
       <c r="BD46" s="2"/>
-      <c r="BE46" s="52">
-        <v>225</v>
-      </c>
+      <c r="BE46" s="46"/>
       <c r="BF46" s="6"/>
-      <c r="BH46" s="7">
-        <v>225</v>
+      <c r="BH46" t="n" s="7">
+        <v>225.0</v>
       </c>
       <c r="BI46" s="4"/>
       <c r="BP46" s="7"/>
       <c r="BQ46" s="6"/>
       <c r="BR46" s="6"/>
     </row>
-    <row customHeight="1" ht="7.5" r="47" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="61"/>
-      <c r="V47" s="61"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="61"/>
-      <c r="AA47" s="61"/>
-      <c r="AB47" s="63"/>
-      <c r="AC47" s="63"/>
-      <c r="AD47" s="64"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="59"/>
-      <c r="AG47" s="59"/>
-      <c r="AH47" s="129"/>
-      <c r="AI47" s="129"/>
-      <c r="AJ47" s="129"/>
-      <c r="AK47" s="129"/>
-      <c r="AL47" s="129"/>
-      <c r="AM47" s="129"/>
-      <c r="AN47" s="129"/>
-      <c r="AO47" s="129"/>
-      <c r="AP47" s="129"/>
-      <c r="AQ47" s="129"/>
-      <c r="AR47" s="129"/>
-      <c r="AS47" s="129"/>
-      <c r="AT47" s="129"/>
-      <c r="AU47" s="129"/>
-      <c r="AV47" s="129"/>
-      <c r="AW47" s="129"/>
-      <c r="AX47" s="129"/>
-      <c r="AY47" s="129"/>
-      <c r="AZ47" s="129"/>
-      <c r="BA47" s="129"/>
-      <c r="BB47" s="129"/>
-      <c r="BC47" s="129"/>
+    <row customHeight="true" ht="11.25" r="47" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
       <c r="BD47" s="2"/>
-      <c r="BE47" s="52">
-        <v>150</v>
-      </c>
+      <c r="BE47" s="46"/>
       <c r="BF47" s="6"/>
-      <c r="BH47" s="7">
-        <v>150</v>
+      <c r="BH47" t="n" s="7">
+        <v>225.0</v>
       </c>
       <c r="BI47" s="4"/>
       <c r="BP47" s="7"/>
       <c r="BQ47" s="6"/>
       <c r="BR47" s="6"/>
     </row>
-    <row customHeight="1" ht="0.75" r="48" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
-        <v>58</v>
+    <row customHeight="true" ht="8.25" r="48" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A48" t="s" s="2">
+        <v>52</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="130"/>
-      <c r="S48" s="130"/>
-      <c r="T48" s="130"/>
-      <c r="U48" s="130"/>
-      <c r="V48" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="W48" s="131"/>
-      <c r="X48" s="131"/>
-      <c r="Y48" s="131"/>
-      <c r="Z48" s="131"/>
-      <c r="AA48" s="131"/>
-      <c r="AB48" s="131"/>
-      <c r="AC48" s="131"/>
-      <c r="AD48" s="131"/>
-      <c r="AE48" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF48" s="59"/>
-      <c r="AG48" s="59"/>
-      <c r="AH48" s="59"/>
-      <c r="AI48" s="132"/>
-      <c r="AJ48" s="132"/>
-      <c r="AK48" s="132"/>
-      <c r="AL48" s="132"/>
-      <c r="AM48" s="132"/>
-      <c r="AN48" s="132"/>
-      <c r="AO48" s="132"/>
-      <c r="AP48" s="132"/>
-      <c r="AQ48" s="8"/>
-      <c r="AR48" s="132"/>
-      <c r="AS48" s="132"/>
-      <c r="AT48" s="132"/>
-      <c r="AU48" s="132"/>
-      <c r="AV48" s="132"/>
-      <c r="AW48" s="8"/>
-      <c r="AX48" s="132"/>
-      <c r="AY48" s="132"/>
-      <c r="AZ48" s="132"/>
-      <c r="BA48" s="132"/>
-      <c r="BB48" s="132"/>
-      <c r="BC48" s="132"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="54"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="54"/>
+      <c r="AA48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="124"/>
+      <c r="AL48" s="124"/>
+      <c r="AM48" s="124"/>
+      <c r="AN48" s="124"/>
+      <c r="AO48" s="124"/>
+      <c r="AP48" s="124"/>
+      <c r="AQ48" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AR48" s="124"/>
+      <c r="AS48" s="124"/>
+      <c r="AT48" s="124"/>
+      <c r="AU48" s="124"/>
+      <c r="AV48" s="124"/>
+      <c r="AW48" s="124"/>
+      <c r="AX48" s="124"/>
+      <c r="AY48" s="124"/>
+      <c r="AZ48" s="124"/>
+      <c r="BA48" s="124"/>
+      <c r="BB48" s="124"/>
+      <c r="BC48" s="124"/>
       <c r="BD48" s="2"/>
-      <c r="BE48" s="52">
-        <v>15</v>
-      </c>
+      <c r="BE48" s="46"/>
       <c r="BF48" s="6"/>
-      <c r="BH48" s="7">
-        <v>15</v>
+      <c r="BH48" t="n" s="7">
+        <v>165.0</v>
       </c>
       <c r="BI48" s="4"/>
       <c r="BP48" s="7"/>
       <c r="BQ48" s="6"/>
       <c r="BR48" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="49" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="9.75" r="49" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5156,459 +5285,509 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="133"/>
-      <c r="R49" s="133"/>
-      <c r="S49" s="133"/>
-      <c r="T49" s="133"/>
-      <c r="U49" s="133"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="X49" s="127"/>
-      <c r="Y49" s="127"/>
-      <c r="Z49" s="127"/>
-      <c r="AA49" s="127"/>
-      <c r="AB49" s="127"/>
-      <c r="AC49" s="127"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" t="s" s="134">
+        <v>48</v>
+      </c>
+      <c r="S49" s="134"/>
+      <c r="T49" s="134"/>
+      <c r="U49" s="134"/>
+      <c r="V49" s="134"/>
+      <c r="W49" s="134"/>
+      <c r="X49" s="134"/>
+      <c r="Y49" s="134"/>
+      <c r="Z49" s="134"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="55"/>
       <c r="AD49" s="56"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="59"/>
-      <c r="AG49" s="59"/>
-      <c r="AH49" s="59"/>
-      <c r="AI49" s="59"/>
-      <c r="AJ49" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK49" s="106"/>
-      <c r="AL49" s="106"/>
-      <c r="AM49" s="106"/>
-      <c r="AN49" s="106"/>
-      <c r="AO49" s="106"/>
-      <c r="AP49" s="106"/>
-      <c r="AQ49" s="8"/>
-      <c r="AR49" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS49" s="106"/>
-      <c r="AT49" s="106"/>
-      <c r="AU49" s="106"/>
-      <c r="AV49" s="106"/>
-      <c r="AW49" s="8"/>
-      <c r="AX49" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY49" s="106"/>
-      <c r="AZ49" s="106"/>
-      <c r="BA49" s="106"/>
-      <c r="BB49" s="106"/>
-      <c r="BC49" s="106"/>
+      <c r="AE49" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="124"/>
+      <c r="AI49" s="124"/>
+      <c r="AJ49" s="124"/>
+      <c r="AK49" s="124"/>
+      <c r="AL49" s="124"/>
+      <c r="AM49" s="124"/>
+      <c r="AN49" s="124"/>
+      <c r="AO49" s="124"/>
+      <c r="AP49" s="124"/>
+      <c r="AQ49" s="124"/>
+      <c r="AR49" s="124"/>
+      <c r="AS49" s="124"/>
+      <c r="AT49" s="124"/>
+      <c r="AU49" s="124"/>
+      <c r="AV49" s="124"/>
+      <c r="AW49" s="124"/>
+      <c r="AX49" s="124"/>
+      <c r="AY49" s="124"/>
+      <c r="AZ49" s="124"/>
+      <c r="BA49" s="124"/>
+      <c r="BB49" s="124"/>
+      <c r="BC49" s="124"/>
       <c r="BD49" s="2"/>
-      <c r="BE49" s="52">
-        <v>225</v>
-      </c>
+      <c r="BE49" s="46"/>
       <c r="BF49" s="6"/>
-      <c r="BH49" s="7">
-        <v>225</v>
+      <c r="BH49" t="n" s="7">
+        <v>195.0</v>
       </c>
       <c r="BI49" s="4"/>
       <c r="BP49" s="7"/>
       <c r="BQ49" s="6"/>
       <c r="BR49" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="50" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A50" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="124"/>
-      <c r="S50" s="124"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="124"/>
-      <c r="V50" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="W50" s="128"/>
-      <c r="X50" s="128"/>
-      <c r="Y50" s="128"/>
-      <c r="Z50" s="128"/>
-      <c r="AA50" s="128"/>
-      <c r="AB50" s="128"/>
-      <c r="AC50" s="128"/>
-      <c r="AD50" s="128"/>
-      <c r="AE50" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF50" s="59"/>
-      <c r="AG50" s="59"/>
-      <c r="AH50" s="59"/>
-      <c r="AI50" s="125"/>
-      <c r="AJ50" s="125"/>
-      <c r="AK50" s="125"/>
-      <c r="AL50" s="125"/>
-      <c r="AM50" s="125"/>
-      <c r="AN50" s="125"/>
-      <c r="AO50" s="125"/>
-      <c r="AP50" s="125"/>
-      <c r="AQ50" s="59"/>
-      <c r="AR50" s="125"/>
-      <c r="AS50" s="125"/>
-      <c r="AT50" s="125"/>
-      <c r="AU50" s="125"/>
-      <c r="AV50" s="125"/>
-      <c r="AW50" s="59"/>
-      <c r="AX50" s="125"/>
-      <c r="AY50" s="125"/>
-      <c r="AZ50" s="125"/>
-      <c r="BA50" s="125"/>
-      <c r="BB50" s="125"/>
-      <c r="BC50" s="125"/>
+    <row customHeight="true" ht="7.5" r="50" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A50" t="s" s="135">
+        <v>56</v>
+      </c>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
+      <c r="N50" s="135"/>
+      <c r="O50" s="135"/>
+      <c r="P50" s="135"/>
+      <c r="Q50" s="135"/>
+      <c r="R50" s="135"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="135"/>
+      <c r="U50" s="135"/>
+      <c r="V50" s="135"/>
+      <c r="W50" s="135"/>
+      <c r="X50" s="135"/>
+      <c r="Y50" s="135"/>
+      <c r="Z50" s="135"/>
+      <c r="AA50" s="135"/>
+      <c r="AB50" s="135"/>
+      <c r="AC50" s="135"/>
+      <c r="AD50" s="135"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" t="s" s="126">
+        <v>57</v>
+      </c>
+      <c r="AJ50" s="126"/>
+      <c r="AK50" s="126"/>
+      <c r="AL50" s="126"/>
+      <c r="AM50" s="126"/>
+      <c r="AN50" s="126"/>
+      <c r="AO50" s="126"/>
+      <c r="AP50" s="126"/>
+      <c r="AQ50" s="126"/>
+      <c r="AR50" s="126"/>
+      <c r="AS50" s="126"/>
+      <c r="AT50" s="126"/>
+      <c r="AU50" s="126"/>
+      <c r="AV50" s="126"/>
+      <c r="AW50" s="126"/>
+      <c r="AX50" s="126"/>
+      <c r="AY50" s="126"/>
+      <c r="AZ50" s="126"/>
+      <c r="BA50" s="126"/>
+      <c r="BB50" s="126"/>
+      <c r="BC50" s="126"/>
       <c r="BD50" s="2"/>
-      <c r="BE50" s="52">
-        <v>225</v>
+      <c r="BE50" t="n" s="52">
+        <v>150.0</v>
       </c>
       <c r="BF50" s="6"/>
-      <c r="BH50" s="7">
-        <v>225</v>
+      <c r="BH50" t="n" s="7">
+        <v>150.0</v>
       </c>
       <c r="BI50" s="4"/>
       <c r="BP50" s="7"/>
       <c r="BQ50" s="6"/>
       <c r="BR50" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="51" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="126"/>
-      <c r="T51" s="126"/>
-      <c r="U51" s="126"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="X51" s="127"/>
-      <c r="Y51" s="127"/>
-      <c r="Z51" s="127"/>
-      <c r="AA51" s="127"/>
-      <c r="AB51" s="127"/>
-      <c r="AC51" s="127"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" s="67" t="s">
-        <v>67</v>
-      </c>
+    <row customHeight="true" ht="11.25" r="51" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A51" t="s" s="136">
+        <v>90</v>
+      </c>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="136"/>
+      <c r="P51" s="136"/>
+      <c r="Q51" s="136"/>
+      <c r="R51" s="136"/>
+      <c r="S51" s="136"/>
+      <c r="T51" s="136"/>
+      <c r="U51" s="136"/>
+      <c r="V51" s="136"/>
+      <c r="W51" s="136"/>
+      <c r="X51" s="136"/>
+      <c r="Y51" s="136"/>
+      <c r="Z51" s="136"/>
+      <c r="AA51" s="136"/>
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="57"/>
+      <c r="AE51" s="8"/>
       <c r="AF51" s="59"/>
       <c r="AG51" s="59"/>
-      <c r="AH51" s="59"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK51" s="106"/>
-      <c r="AL51" s="106"/>
-      <c r="AM51" s="106"/>
-      <c r="AN51" s="106"/>
-      <c r="AO51" s="106"/>
-      <c r="AP51" s="106"/>
-      <c r="AQ51" s="59"/>
-      <c r="AR51" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS51" s="127"/>
-      <c r="AT51" s="127"/>
-      <c r="AU51" s="127"/>
-      <c r="AV51" s="127"/>
-      <c r="AW51" s="59"/>
-      <c r="AX51" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY51" s="127"/>
-      <c r="AZ51" s="127"/>
-      <c r="BA51" s="127"/>
-      <c r="BB51" s="127"/>
-      <c r="BC51" s="127"/>
+      <c r="AH51" s="60"/>
+      <c r="AI51" s="60"/>
+      <c r="AJ51" s="60"/>
+      <c r="AK51" s="60"/>
+      <c r="AL51" s="60"/>
+      <c r="AM51" s="60"/>
+      <c r="AN51" s="60"/>
+      <c r="AO51" s="60"/>
+      <c r="AP51" s="60"/>
+      <c r="AQ51" s="60"/>
+      <c r="AR51" s="60"/>
+      <c r="AS51" s="60"/>
+      <c r="AT51" s="60"/>
+      <c r="AU51" s="60"/>
+      <c r="AV51" s="60"/>
+      <c r="AW51" s="60"/>
+      <c r="AX51" s="60"/>
+      <c r="AY51" s="60"/>
+      <c r="AZ51" s="60"/>
+      <c r="BA51" s="60"/>
+      <c r="BB51" s="60"/>
+      <c r="BC51" s="60"/>
       <c r="BD51" s="2"/>
-      <c r="BE51" s="52">
-        <v>225</v>
+      <c r="BE51" t="n" s="52">
+        <v>225.0</v>
       </c>
       <c r="BF51" s="6"/>
-      <c r="BH51" s="7">
-        <v>225</v>
+      <c r="BH51" t="n" s="7">
+        <v>225.0</v>
       </c>
       <c r="BI51" s="4"/>
       <c r="BP51" s="7"/>
       <c r="BQ51" s="6"/>
       <c r="BR51" s="6"/>
     </row>
-    <row customHeight="1" ht="11.25" r="52" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="124"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="124"/>
-      <c r="S52" s="124"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="124"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="124"/>
-      <c r="X52" s="124"/>
-      <c r="Y52" s="124"/>
-      <c r="Z52" s="124"/>
-      <c r="AA52" s="124"/>
-      <c r="AB52" s="124"/>
-      <c r="AC52" s="124"/>
-      <c r="AD52" s="56"/>
+    <row customHeight="true" ht="7.5" r="52" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" t="s" s="62">
+        <v>48</v>
+      </c>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="63"/>
+      <c r="AC52" s="63"/>
+      <c r="AD52" s="64"/>
       <c r="AE52" s="8"/>
       <c r="AF52" s="59"/>
       <c r="AG52" s="59"/>
-      <c r="AH52" s="59"/>
-      <c r="AI52" s="59"/>
-      <c r="AJ52" s="59"/>
-      <c r="AK52" s="59"/>
-      <c r="AL52" s="59"/>
-      <c r="AM52" s="59"/>
-      <c r="AN52" s="59"/>
-      <c r="AO52" s="59"/>
-      <c r="AP52" s="59"/>
-      <c r="AQ52" s="59"/>
-      <c r="AR52" s="59"/>
-      <c r="AS52" s="59"/>
-      <c r="AT52" s="59"/>
-      <c r="AU52" s="59"/>
-      <c r="AV52" s="59"/>
-      <c r="AW52" s="59"/>
-      <c r="AX52" s="59"/>
-      <c r="AY52" s="59"/>
-      <c r="AZ52" s="59"/>
-      <c r="BA52" s="59"/>
-      <c r="BB52" s="59"/>
-      <c r="BC52" s="59"/>
+      <c r="AH52" s="129"/>
+      <c r="AI52" s="129"/>
+      <c r="AJ52" s="129"/>
+      <c r="AK52" s="129"/>
+      <c r="AL52" s="129"/>
+      <c r="AM52" s="129"/>
+      <c r="AN52" s="129"/>
+      <c r="AO52" s="129"/>
+      <c r="AP52" s="129"/>
+      <c r="AQ52" s="129"/>
+      <c r="AR52" s="129"/>
+      <c r="AS52" s="129"/>
+      <c r="AT52" s="129"/>
+      <c r="AU52" s="129"/>
+      <c r="AV52" s="129"/>
+      <c r="AW52" s="129"/>
+      <c r="AX52" s="129"/>
+      <c r="AY52" s="129"/>
+      <c r="AZ52" s="129"/>
+      <c r="BA52" s="129"/>
+      <c r="BB52" s="129"/>
+      <c r="BC52" s="129"/>
       <c r="BD52" s="2"/>
-      <c r="BE52" s="52">
-        <v>180</v>
+      <c r="BE52" t="n" s="52">
+        <v>150.0</v>
       </c>
       <c r="BF52" s="6"/>
-      <c r="BH52" s="7"/>
+      <c r="BH52" t="n" s="7">
+        <v>150.0</v>
+      </c>
       <c r="BI52" s="4"/>
+      <c r="BP52" s="7"/>
       <c r="BQ52" s="6"/>
       <c r="BR52" s="6"/>
     </row>
-    <row customHeight="1" ht="8.25" r="53" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+    <row customHeight="true" ht="0.75" r="53" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A53" t="s" s="59">
+        <v>58</v>
+      </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" t="s" s="65">
+        <v>76</v>
+      </c>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="126"/>
-      <c r="R53" s="126"/>
-      <c r="S53" s="126"/>
-      <c r="T53" s="126"/>
-      <c r="U53" s="126"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="X53" s="127"/>
-      <c r="Y53" s="127"/>
-      <c r="Z53" s="127"/>
-      <c r="AA53" s="127"/>
-      <c r="AB53" s="127"/>
-      <c r="AC53" s="127"/>
-      <c r="AD53" s="56"/>
-      <c r="AE53" s="8"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
+      <c r="U53" s="130"/>
+      <c r="V53" t="s" s="131">
+        <v>77</v>
+      </c>
+      <c r="W53" s="131"/>
+      <c r="X53" s="131"/>
+      <c r="Y53" s="131"/>
+      <c r="Z53" s="131"/>
+      <c r="AA53" s="131"/>
+      <c r="AB53" s="131"/>
+      <c r="AC53" s="131"/>
+      <c r="AD53" s="131"/>
+      <c r="AE53" t="s" s="59">
+        <v>59</v>
+      </c>
       <c r="AF53" s="59"/>
       <c r="AG53" s="59"/>
       <c r="AH53" s="59"/>
-      <c r="AI53" s="59"/>
-      <c r="AJ53" s="59"/>
-      <c r="AK53" s="59"/>
-      <c r="AL53" s="59"/>
-      <c r="AM53" s="59"/>
-      <c r="AN53" s="59"/>
-      <c r="AO53" s="59"/>
-      <c r="AP53" s="59"/>
-      <c r="AQ53" s="59"/>
-      <c r="AR53" s="59"/>
-      <c r="AS53" s="59"/>
-      <c r="AT53" s="59"/>
-      <c r="AU53" s="59"/>
-      <c r="AV53" s="59"/>
-      <c r="AW53" s="59"/>
-      <c r="AX53" s="59"/>
-      <c r="AY53" s="59"/>
-      <c r="AZ53" s="59"/>
-      <c r="BA53" s="59"/>
-      <c r="BB53" s="59"/>
-      <c r="BC53" s="59"/>
+      <c r="AI53" s="132"/>
+      <c r="AJ53" s="132"/>
+      <c r="AK53" s="132"/>
+      <c r="AL53" s="132"/>
+      <c r="AM53" s="132"/>
+      <c r="AN53" s="132"/>
+      <c r="AO53" s="132"/>
+      <c r="AP53" s="132"/>
+      <c r="AQ53" s="8"/>
+      <c r="AR53" s="132"/>
+      <c r="AS53" s="132"/>
+      <c r="AT53" s="132"/>
+      <c r="AU53" s="132"/>
+      <c r="AV53" s="132"/>
+      <c r="AW53" s="8"/>
+      <c r="AX53" s="132"/>
+      <c r="AY53" s="132"/>
+      <c r="AZ53" s="132"/>
+      <c r="BA53" s="132"/>
+      <c r="BB53" s="132"/>
+      <c r="BC53" s="132"/>
       <c r="BD53" s="2"/>
-      <c r="BE53" s="52">
-        <v>165</v>
+      <c r="BE53" t="n" s="52">
+        <v>15.0</v>
       </c>
       <c r="BF53" s="6"/>
-      <c r="BH53" s="7"/>
+      <c r="BH53" t="n" s="7">
+        <v>15.0</v>
+      </c>
       <c r="BI53" s="4"/>
+      <c r="BP53" s="7"/>
       <c r="BQ53" s="6"/>
       <c r="BR53" s="6"/>
     </row>
-    <row customHeight="1" ht="14.25" r="54" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="11.25" r="54" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="68" t="s">
-        <v>69</v>
-      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="123"/>
+      <c r="H54" t="s" s="106">
+        <v>61</v>
+      </c>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
       <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
+      <c r="Q54" s="133"/>
+      <c r="R54" s="133"/>
+      <c r="S54" s="133"/>
+      <c r="T54" s="133"/>
+      <c r="U54" s="133"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
+      <c r="W54" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="X54" s="127"/>
+      <c r="Y54" s="127"/>
+      <c r="Z54" s="127"/>
+      <c r="AA54" s="127"/>
+      <c r="AB54" s="127"/>
+      <c r="AC54" s="127"/>
       <c r="AD54" s="56"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="59"/>
-      <c r="AG54" s="37"/>
+      <c r="AG54" s="59"/>
       <c r="AH54" s="59"/>
-      <c r="AI54" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ54" s="70"/>
-      <c r="AK54" s="70"/>
-      <c r="AL54" s="70"/>
-      <c r="AM54" s="70"/>
-      <c r="AN54" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO54" s="60"/>
-      <c r="AP54" s="60"/>
-      <c r="AQ54" s="60"/>
-      <c r="AR54" s="60"/>
-      <c r="AS54" s="60"/>
-      <c r="AT54" s="60"/>
-      <c r="AU54" s="8">
-        <v>20</v>
-      </c>
-      <c r="AV54" s="37"/>
-      <c r="AW54" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX54" s="37"/>
-      <c r="AY54" s="37"/>
-      <c r="AZ54" s="37"/>
-      <c r="BA54" s="37"/>
-      <c r="BB54" s="59"/>
-      <c r="BC54" s="59"/>
+      <c r="AI54" s="59"/>
+      <c r="AJ54" t="s" s="106">
+        <v>63</v>
+      </c>
+      <c r="AK54" s="106"/>
+      <c r="AL54" s="106"/>
+      <c r="AM54" s="106"/>
+      <c r="AN54" s="106"/>
+      <c r="AO54" s="106"/>
+      <c r="AP54" s="106"/>
+      <c r="AQ54" s="8"/>
+      <c r="AR54" t="s" s="106">
+        <v>64</v>
+      </c>
+      <c r="AS54" s="106"/>
+      <c r="AT54" s="106"/>
+      <c r="AU54" s="106"/>
+      <c r="AV54" s="106"/>
+      <c r="AW54" s="8"/>
+      <c r="AX54" t="s" s="106">
+        <v>62</v>
+      </c>
+      <c r="AY54" s="106"/>
+      <c r="AZ54" s="106"/>
+      <c r="BA54" s="106"/>
+      <c r="BB54" s="106"/>
+      <c r="BC54" s="106"/>
       <c r="BD54" s="2"/>
-      <c r="BE54" s="52" t="s">
-        <v>60</v>
+      <c r="BE54" t="n" s="52">
+        <v>225.0</v>
       </c>
       <c r="BF54" s="6"/>
-      <c r="BH54" s="7">
-        <v>285</v>
+      <c r="BH54" t="n" s="7">
+        <v>225.0</v>
       </c>
       <c r="BI54" s="4"/>
       <c r="BP54" s="7"/>
       <c r="BQ54" s="6"/>
       <c r="BR54" s="6"/>
     </row>
-    <row customHeight="1" ht="7.5" r="55" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="AU55" s="52"/>
-      <c r="AV55" s="52"/>
-      <c r="BE55" s="52">
-        <v>150</v>
+    <row customHeight="true" ht="11.25" r="55" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A55" t="s" s="66">
+        <v>65</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="124"/>
+      <c r="S55" s="124"/>
+      <c r="T55" s="124"/>
+      <c r="U55" s="124"/>
+      <c r="V55" t="s" s="128">
+        <v>77</v>
+      </c>
+      <c r="W55" s="128"/>
+      <c r="X55" s="128"/>
+      <c r="Y55" s="128"/>
+      <c r="Z55" s="128"/>
+      <c r="AA55" s="128"/>
+      <c r="AB55" s="128"/>
+      <c r="AC55" s="128"/>
+      <c r="AD55" s="128"/>
+      <c r="AE55" t="s" s="59">
+        <v>66</v>
+      </c>
+      <c r="AF55" s="59"/>
+      <c r="AG55" s="59"/>
+      <c r="AH55" s="59"/>
+      <c r="AI55" s="125"/>
+      <c r="AJ55" s="125"/>
+      <c r="AK55" s="125"/>
+      <c r="AL55" s="125"/>
+      <c r="AM55" s="125"/>
+      <c r="AN55" s="125"/>
+      <c r="AO55" s="125"/>
+      <c r="AP55" s="125"/>
+      <c r="AQ55" s="59"/>
+      <c r="AR55" s="125"/>
+      <c r="AS55" s="125"/>
+      <c r="AT55" s="125"/>
+      <c r="AU55" s="125"/>
+      <c r="AV55" s="125"/>
+      <c r="AW55" s="59"/>
+      <c r="AX55" s="125"/>
+      <c r="AY55" s="125"/>
+      <c r="AZ55" s="125"/>
+      <c r="BA55" s="125"/>
+      <c r="BB55" s="125"/>
+      <c r="BC55" s="125"/>
+      <c r="BD55" s="2"/>
+      <c r="BE55" t="n" s="52">
+        <v>225.0</v>
       </c>
       <c r="BF55" s="6"/>
-      <c r="BH55" s="7">
-        <v>150</v>
+      <c r="BH55" t="n" s="7">
+        <v>225.0</v>
       </c>
       <c r="BI55" s="4"/>
       <c r="BP55" s="7"/>
@@ -5915,35 +6094,21 @@
       <c r="BQ59" s="6"/>
       <c r="BR59" s="6"/>
     </row>
-    <row customHeight="true" ht="7.5" r="60" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="AU60" s="52"/>
-      <c r="AV60" s="52"/>
-      <c r="BE60" t="n" s="52">
-        <v>150.0</v>
-      </c>
+    <row customHeight="1" ht="9.75" r="60" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="BE60" s="52"/>
       <c r="BF60" s="6"/>
-      <c r="BH60" t="n" s="7">
-        <v>150.0</v>
+      <c r="BH60" s="7">
+        <v>195</v>
       </c>
       <c r="BI60" s="4"/>
       <c r="BP60" s="7"/>
       <c r="BQ60" s="6"/>
       <c r="BR60" s="6"/>
     </row>
-    <row customHeight="true" ht="9.75" r="61" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="AU61" s="52"/>
-      <c r="AV61" s="52"/>
-      <c r="BE61" t="n" s="52">
-        <v>195.0</v>
-      </c>
-      <c r="BF61" s="6"/>
-      <c r="BH61" t="n" s="7">
-        <v>195.0</v>
-      </c>
-      <c r="BI61" s="4"/>
-      <c r="BP61" s="7"/>
-      <c r="BQ61" s="6"/>
-      <c r="BR61" s="6"/>
+    <row customHeight="1" ht="12.75" r="61" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="BR61" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="12.75" r="62" spans="1:70" x14ac:dyDescent="0.2">
       <c r="BR62" s="1">
@@ -6014,47 +6179,47 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells>
-    <mergeCell ref="Q35:AK35"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="F37:AK37"/>
-    <mergeCell ref="AP37:BC38"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="Y38:AN38"/>
-    <mergeCell ref="Y39:AN39"/>
-    <mergeCell ref="AP39:BC40"/>
-    <mergeCell ref="F40:P40"/>
-    <mergeCell ref="R40:X40"/>
-    <mergeCell ref="Y40:AN40"/>
-    <mergeCell ref="F41:P41"/>
-    <mergeCell ref="Y41:AN41"/>
-    <mergeCell ref="AK43:AP43"/>
-    <mergeCell ref="AR43:BC43"/>
-    <mergeCell ref="R44:Z44"/>
-    <mergeCell ref="AH44:BC44"/>
-    <mergeCell ref="A45:AD45"/>
-    <mergeCell ref="AI45:BC45"/>
-    <mergeCell ref="A46:AA46"/>
-    <mergeCell ref="V48:AD48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="AR48:AV48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="W49:AC49"/>
-    <mergeCell ref="AJ49:AP49"/>
-    <mergeCell ref="AR49:AV49"/>
-    <mergeCell ref="AX49:BC49"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AQ34:AS34"/>
-    <mergeCell ref="AT34:AV34"/>
-    <mergeCell ref="AW34:AZ34"/>
-    <mergeCell ref="BA34:BD34"/>
+    <mergeCell ref="Q40:AK40"/>
+    <mergeCell ref="F41:AK41"/>
+    <mergeCell ref="F42:AK42"/>
+    <mergeCell ref="AP42:BC43"/>
+    <mergeCell ref="S43:X43"/>
+    <mergeCell ref="Y43:AN43"/>
+    <mergeCell ref="Y44:AN44"/>
+    <mergeCell ref="AP44:BC45"/>
+    <mergeCell ref="F45:P45"/>
+    <mergeCell ref="R45:X45"/>
+    <mergeCell ref="Y45:AN45"/>
+    <mergeCell ref="F46:P46"/>
+    <mergeCell ref="Y46:AN46"/>
+    <mergeCell ref="AK48:AP48"/>
+    <mergeCell ref="AR48:BC48"/>
+    <mergeCell ref="R49:Z49"/>
+    <mergeCell ref="AH49:BC49"/>
+    <mergeCell ref="A50:AD50"/>
+    <mergeCell ref="AI50:BC50"/>
+    <mergeCell ref="A51:AA51"/>
+    <mergeCell ref="V53:AD53"/>
+    <mergeCell ref="AI53:AP53"/>
+    <mergeCell ref="AR53:AV53"/>
+    <mergeCell ref="AX53:BC53"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="W54:AC54"/>
+    <mergeCell ref="AJ54:AP54"/>
+    <mergeCell ref="AR54:AV54"/>
+    <mergeCell ref="AX54:BC54"/>
+    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="AQ39:AS39"/>
+    <mergeCell ref="AT39:AV39"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="BA39:BD39"/>
     <mergeCell ref="H59:O59"/>
     <mergeCell ref="I57:O57"/>
     <mergeCell ref="Q57:U57"/>
     <mergeCell ref="W57:AC57"/>
     <mergeCell ref="I58:O58"/>
-    <mergeCell ref="AX50:BC50"/>
+    <mergeCell ref="AX55:BC55"/>
     <mergeCell ref="Q56:U56"/>
     <mergeCell ref="W56:AC56"/>
     <mergeCell ref="AJ56:AP56"/>
@@ -6062,30 +6227,30 @@
     <mergeCell ref="AX56:BC56"/>
     <mergeCell ref="Q58:U58"/>
     <mergeCell ref="W58:AC58"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="V50:AD50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="AR50:AV50"/>
-    <mergeCell ref="AH47:BC47"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AW33:AZ33"/>
-    <mergeCell ref="BA33:BD33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AQ33:AS33"/>
-    <mergeCell ref="AT33:AV33"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="V55:AD55"/>
+    <mergeCell ref="AI55:AP55"/>
+    <mergeCell ref="AR55:AV55"/>
+    <mergeCell ref="AH52:BC52"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AK39:AM39"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="BA38:BD38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AQ38:AS38"/>
+    <mergeCell ref="AT38:AV38"/>
     <mergeCell ref="BB5:BD5"/>
     <mergeCell ref="BB6:BD6"/>
     <mergeCell ref="A7:AX8"/>
@@ -6161,6 +6326,81 @@
     <mergeCell ref="AK32:AM32"/>
     <mergeCell ref="AN32:AP32"/>
     <mergeCell ref="AQ32:AS32"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AW33:AZ33"/>
+    <mergeCell ref="BA33:BD33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AQ33:AS33"/>
+    <mergeCell ref="AT33:AV33"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AW34:AZ34"/>
+    <mergeCell ref="BA34:BD34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AQ34:AS34"/>
+    <mergeCell ref="AT34:AV34"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AW35:AZ35"/>
+    <mergeCell ref="BA35:BD35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AN35:AP35"/>
+    <mergeCell ref="AQ35:AS35"/>
+    <mergeCell ref="AT35:AV35"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AW36:AZ36"/>
+    <mergeCell ref="BA36:BD36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ36:AS36"/>
+    <mergeCell ref="AT36:AV36"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AW37:AZ37"/>
+    <mergeCell ref="BA37:BD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AH37:AJ37"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="AQ37:AS37"/>
+    <mergeCell ref="AT37:AV37"/>
   </mergeCells>
   <pageMargins bottom="0.35416666666666669" footer="0.51180555555555551" header="0.51180555555555551" left="0.35416666666666669" right="0.2361111111111111" top="0.39374999999999999"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" horizontalDpi="300" orientation="landscape" paperSize="9" r:id="rId1" scale="96" verticalDpi="300"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="94">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>02311KSW</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -4023,103 +4029,13 @@
       <c r="BQ33" s="6"/>
       <c r="BR33" s="6"/>
     </row>
-    <row customHeight="true" ht="29.85" r="34" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A34" t="n" s="112">
-        <v>1.0</v>
-      </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" t="s" s="113">
-        <v>80</v>
-      </c>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" t="s" s="117">
-        <v>82</v>
-      </c>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" t="s" s="118">
-        <v>73</v>
-      </c>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" t="s" s="119">
-        <v>74</v>
-      </c>
-      <c r="X34" s="119"/>
-      <c r="Y34" s="119"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="111"/>
-      <c r="AE34" s="111"/>
-      <c r="AF34" s="96"/>
-      <c r="AG34" s="96"/>
-      <c r="AH34" s="97"/>
-      <c r="AI34" s="97"/>
-      <c r="AJ34" s="97"/>
-      <c r="AK34" t="s" s="98">
-        <v>81</v>
-      </c>
-      <c r="AL34" s="98"/>
-      <c r="AM34" s="98"/>
-      <c r="AN34" t="s" s="99">
-        <v>83</v>
-      </c>
-      <c r="AO34" s="99"/>
-      <c r="AP34" s="99"/>
-      <c r="AQ34" t="s" s="95">
-        <v>84</v>
-      </c>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" t="n" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="AU34" s="101"/>
-      <c r="AV34" s="101"/>
-      <c r="AW34" t="s" s="94">
-        <v>85</v>
-      </c>
-      <c r="AX34" s="94"/>
-      <c r="AY34" s="94"/>
-      <c r="AZ34" s="94"/>
-      <c r="BA34" t="s" s="95">
-        <v>86</v>
-      </c>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="23"/>
-      <c r="BF34" t="n" s="1">
-        <v>5373.0</v>
-      </c>
-      <c r="BG34" t="n" s="7">
-        <v>598.0</v>
-      </c>
-      <c r="BH34" s="6"/>
-      <c r="BI34" s="6"/>
-      <c r="BJ34" s="47"/>
-      <c r="BK34" s="47"/>
-      <c r="BL34" s="47"/>
-      <c r="BM34" s="47"/>
-      <c r="BN34" s="47"/>
-      <c r="BO34" s="7"/>
-      <c r="BP34" s="7"/>
-      <c r="BQ34" s="6"/>
-      <c r="BR34" s="6"/>
+    <row r="34">
+      <c r="Q34" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="AK34" t="s" s="17">
+        <v>93</v>
+      </c>
     </row>
     <row customHeight="true" ht="29.85" r="35" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A35" t="n" s="112">
@@ -4513,158 +4429,143 @@
       <c r="BQ38" s="6"/>
       <c r="BR38" s="6"/>
     </row>
-    <row customHeight="true" ht="34.5" r="39" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="48"/>
-      <c r="AE39" t="s" s="36">
-        <v>43</v>
-      </c>
-      <c r="AF39" s="114">
-        <f>SUM(AF33)</f>
-      </c>
-      <c r="AG39" s="114"/>
-      <c r="AH39" s="115"/>
-      <c r="AI39" s="115"/>
-      <c r="AJ39" s="115"/>
-      <c r="AK39" s="116">
-        <f>SUM(AK33)</f>
-      </c>
-      <c r="AL39" s="116"/>
-      <c r="AM39" s="116"/>
-      <c r="AN39" t="s" s="120">
-        <v>42</v>
-      </c>
-      <c r="AO39" s="120"/>
-      <c r="AP39" s="120"/>
-      <c r="AQ39" s="121">
-        <f>SUM(AQ33)</f>
-      </c>
-      <c r="AR39" s="121"/>
-      <c r="AS39" s="121"/>
-      <c r="AT39" t="s" s="120">
-        <v>42</v>
-      </c>
-      <c r="AU39" s="120"/>
-      <c r="AV39" s="120"/>
-      <c r="AW39" s="122">
-        <f>SUM(AW33)</f>
-      </c>
-      <c r="AX39" s="122"/>
-      <c r="AY39" s="122"/>
-      <c r="AZ39" s="122"/>
-      <c r="BA39" s="122">
-        <f>SUM(BA33)</f>
-      </c>
-      <c r="BB39" s="122"/>
-      <c r="BC39" s="122"/>
-      <c r="BD39" s="122"/>
-      <c r="BF39" s="49"/>
+    <row customHeight="1" ht="11.25" r="39" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z39" s="127"/>
+      <c r="AA39" s="127"/>
+      <c r="AB39" s="127"/>
+      <c r="AC39" s="127"/>
+      <c r="AD39" s="127"/>
+      <c r="AE39" s="127"/>
+      <c r="AF39" s="127"/>
+      <c r="AG39" s="127"/>
+      <c r="AH39" s="127"/>
+      <c r="AI39" s="127"/>
+      <c r="AJ39" s="127"/>
+      <c r="AK39" s="127"/>
+      <c r="AL39" s="127"/>
+      <c r="AM39" s="127"/>
+      <c r="AN39" s="127"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="140"/>
+      <c r="AQ39" s="140"/>
+      <c r="AR39" s="140"/>
+      <c r="AS39" s="140"/>
+      <c r="AT39" s="140"/>
+      <c r="AU39" s="140"/>
+      <c r="AV39" s="140"/>
+      <c r="AW39" s="140"/>
+      <c r="AX39" s="140"/>
+      <c r="AY39" s="140"/>
+      <c r="AZ39" s="140"/>
+      <c r="BA39" s="140"/>
+      <c r="BB39" s="140"/>
+      <c r="BC39" s="140"/>
+      <c r="BD39" s="2"/>
       <c r="BG39" s="6"/>
-      <c r="BH39" s="7"/>
+      <c r="BH39" s="52">
+        <v>225</v>
+      </c>
       <c r="BI39" s="6"/>
       <c r="BJ39" s="47"/>
       <c r="BK39" s="47"/>
       <c r="BL39" s="47"/>
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
-      <c r="BO39" s="7"/>
-      <c r="BP39" s="7"/>
+      <c r="BP39" s="52"/>
       <c r="BQ39" s="6"/>
       <c r="BR39" s="6"/>
     </row>
-    <row customHeight="true" ht="32.25" r="40" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A40" t="s" s="2">
-        <v>44</v>
-      </c>
+    <row customHeight="1" ht="11.25" r="40" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="137"/>
-      <c r="R40" s="137"/>
-      <c r="S40" s="137"/>
-      <c r="T40" s="137"/>
-      <c r="U40" s="137"/>
-      <c r="V40" s="137"/>
-      <c r="W40" s="137"/>
-      <c r="X40" s="137"/>
-      <c r="Y40" s="137"/>
-      <c r="Z40" s="137"/>
-      <c r="AA40" s="137"/>
-      <c r="AB40" s="137"/>
-      <c r="AC40" s="137"/>
-      <c r="AD40" s="137"/>
-      <c r="AE40" s="137"/>
-      <c r="AF40" s="137"/>
-      <c r="AG40" s="137"/>
-      <c r="AH40" s="137"/>
-      <c r="AI40" s="137"/>
-      <c r="AJ40" s="137"/>
-      <c r="AK40" s="137"/>
-      <c r="AL40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM40" s="2"/>
-      <c r="AN40" s="2"/>
+      <c r="E40" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="124"/>
+      <c r="P40" s="124"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="141" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="141"/>
+      <c r="T40" s="141"/>
+      <c r="U40" s="141"/>
+      <c r="V40" s="141"/>
+      <c r="W40" s="141"/>
+      <c r="X40" s="141"/>
+      <c r="Y40" s="124"/>
+      <c r="Z40" s="124"/>
+      <c r="AA40" s="124"/>
+      <c r="AB40" s="124"/>
+      <c r="AC40" s="124"/>
+      <c r="AD40" s="124"/>
+      <c r="AE40" s="124"/>
+      <c r="AF40" s="124"/>
+      <c r="AG40" s="124"/>
+      <c r="AH40" s="124"/>
+      <c r="AI40" s="124"/>
+      <c r="AJ40" s="124"/>
+      <c r="AK40" s="124"/>
+      <c r="AL40" s="124"/>
+      <c r="AM40" s="124"/>
+      <c r="AN40" s="124"/>
       <c r="AO40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="2"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="2"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
-      <c r="AZ40" s="2"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
+      <c r="AP40" s="140"/>
+      <c r="AQ40" s="140"/>
+      <c r="AR40" s="140"/>
+      <c r="AS40" s="140"/>
+      <c r="AT40" s="140"/>
+      <c r="AU40" s="140"/>
+      <c r="AV40" s="140"/>
+      <c r="AW40" s="140"/>
+      <c r="AX40" s="140"/>
+      <c r="AY40" s="140"/>
+      <c r="AZ40" s="140"/>
+      <c r="BA40" s="140"/>
+      <c r="BB40" s="140"/>
+      <c r="BC40" s="140"/>
       <c r="BD40" s="2"/>
-      <c r="BF40" s="49"/>
       <c r="BG40" s="6"/>
-      <c r="BH40" t="n" s="7">
-        <v>195.0</v>
+      <c r="BH40" s="52">
+        <v>225</v>
       </c>
       <c r="BI40" s="6"/>
       <c r="BJ40" s="47"/>
@@ -4672,234 +4573,245 @@
       <c r="BL40" s="47"/>
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
-      <c r="BO40" s="7"/>
-      <c r="BP40" s="7"/>
+      <c r="BP40" s="52"/>
       <c r="BQ40" s="6"/>
       <c r="BR40" s="6"/>
     </row>
-    <row customHeight="true" ht="9.0" r="41" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="137">
-        <v>75</v>
-      </c>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="137"/>
-      <c r="L41" s="137"/>
-      <c r="M41" s="137"/>
-      <c r="N41" s="137"/>
-      <c r="O41" s="137"/>
-      <c r="P41" s="137"/>
-      <c r="Q41" s="137"/>
-      <c r="R41" s="137"/>
-      <c r="S41" s="137"/>
-      <c r="T41" s="137"/>
-      <c r="U41" s="137"/>
-      <c r="V41" s="137"/>
-      <c r="W41" s="137"/>
-      <c r="X41" s="137"/>
-      <c r="Y41" s="137"/>
-      <c r="Z41" s="137"/>
-      <c r="AA41" s="137"/>
-      <c r="AB41" s="137"/>
-      <c r="AC41" s="137"/>
-      <c r="AD41" s="137"/>
-      <c r="AE41" s="137"/>
-      <c r="AF41" s="137"/>
-      <c r="AG41" s="137"/>
-      <c r="AH41" s="137"/>
-      <c r="AI41" s="137"/>
-      <c r="AJ41" s="137"/>
-      <c r="AK41" s="137"/>
-      <c r="AL41" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AM41" s="2"/>
-      <c r="AN41" s="2"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
-      <c r="AY41" s="2"/>
-      <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
-      <c r="BD41" s="2"/>
+    <row customHeight="true" ht="34.5" r="41" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" t="s" s="36">
+        <v>43</v>
+      </c>
+      <c r="AF41" s="114">
+        <f>SUM(AF33)</f>
+      </c>
+      <c r="AG41" s="114"/>
+      <c r="AH41" s="115"/>
+      <c r="AI41" s="115"/>
+      <c r="AJ41" s="115"/>
+      <c r="AK41" s="116">
+        <f>SUM(AK33)</f>
+      </c>
+      <c r="AL41" s="116"/>
+      <c r="AM41" s="116"/>
+      <c r="AN41" t="s" s="120">
+        <v>42</v>
+      </c>
+      <c r="AO41" s="120"/>
+      <c r="AP41" s="120"/>
+      <c r="AQ41" s="121">
+        <f>SUM(AQ33)</f>
+      </c>
+      <c r="AR41" s="121"/>
+      <c r="AS41" s="121"/>
+      <c r="AT41" t="s" s="120">
+        <v>42</v>
+      </c>
+      <c r="AU41" s="120"/>
+      <c r="AV41" s="120"/>
+      <c r="AW41" s="122">
+        <f>SUM(AW33)</f>
+      </c>
+      <c r="AX41" s="122"/>
+      <c r="AY41" s="122"/>
+      <c r="AZ41" s="122"/>
+      <c r="BA41" s="122">
+        <f>SUM(BA33)</f>
+      </c>
+      <c r="BB41" s="122"/>
+      <c r="BC41" s="122"/>
+      <c r="BD41" s="122"/>
       <c r="BE41" s="46"/>
       <c r="BF41" s="49"/>
       <c r="BG41" s="6"/>
-      <c r="BH41" t="n" s="7">
-        <v>180.0</v>
-      </c>
+      <c r="BH41" s="7"/>
       <c r="BI41" s="6"/>
       <c r="BJ41" s="47"/>
       <c r="BK41" s="47"/>
       <c r="BL41" s="47"/>
       <c r="BM41" s="47"/>
       <c r="BN41" s="47"/>
+      <c r="BO41" s="7"/>
       <c r="BP41" s="7"/>
       <c r="BQ41" s="6"/>
       <c r="BR41" s="6"/>
     </row>
-    <row customHeight="true" ht="29.85" r="42" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+    <row customHeight="true" ht="32.25" r="42" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A42" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" t="s" s="134">
-        <v>48</v>
-      </c>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="134"/>
-      <c r="P42" s="134"/>
-      <c r="Q42" s="134"/>
-      <c r="R42" s="134"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="134"/>
-      <c r="U42" s="134"/>
-      <c r="V42" s="134"/>
-      <c r="W42" s="134"/>
-      <c r="X42" s="134"/>
-      <c r="Y42" s="134"/>
-      <c r="Z42" s="134"/>
-      <c r="AA42" s="134"/>
-      <c r="AB42" s="134"/>
-      <c r="AC42" s="134"/>
-      <c r="AD42" s="134"/>
-      <c r="AE42" s="134"/>
-      <c r="AF42" s="134"/>
-      <c r="AG42" s="134"/>
-      <c r="AH42" s="134"/>
-      <c r="AI42" s="134"/>
-      <c r="AJ42" s="134"/>
-      <c r="AK42" s="134"/>
-      <c r="AL42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="137"/>
+      <c r="R42" s="137"/>
+      <c r="S42" s="137"/>
+      <c r="T42" s="137"/>
+      <c r="U42" s="137"/>
+      <c r="V42" s="137"/>
+      <c r="W42" s="137"/>
+      <c r="X42" s="137"/>
+      <c r="Y42" s="137"/>
+      <c r="Z42" s="137"/>
+      <c r="AA42" s="137"/>
+      <c r="AB42" s="137"/>
+      <c r="AC42" s="137"/>
+      <c r="AD42" s="137"/>
+      <c r="AE42" s="137"/>
+      <c r="AF42" s="137"/>
+      <c r="AG42" s="137"/>
+      <c r="AH42" s="137"/>
+      <c r="AI42" s="137"/>
+      <c r="AJ42" s="137"/>
+      <c r="AK42" s="137"/>
+      <c r="AL42" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
-      <c r="AP42" s="138"/>
-      <c r="AQ42" s="138"/>
-      <c r="AR42" s="138"/>
-      <c r="AS42" s="138"/>
-      <c r="AT42" s="138"/>
-      <c r="AU42" s="138"/>
-      <c r="AV42" s="138"/>
-      <c r="AW42" s="138"/>
-      <c r="AX42" s="138"/>
-      <c r="AY42" s="138"/>
-      <c r="AZ42" s="138"/>
-      <c r="BA42" s="138"/>
-      <c r="BB42" s="138"/>
-      <c r="BC42" s="138"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
       <c r="BD42" s="2"/>
-      <c r="BE42" s="23"/>
-      <c r="BF42" t="n" s="1">
-        <v>10360.0</v>
-      </c>
-      <c r="BG42" t="n" s="7">
-        <v>598.0</v>
-      </c>
-      <c r="BH42" s="6"/>
+      <c r="BE42" s="46"/>
+      <c r="BF42" s="49"/>
+      <c r="BG42" s="6"/>
+      <c r="BH42" t="n" s="7">
+        <v>195.0</v>
+      </c>
       <c r="BI42" s="6"/>
       <c r="BJ42" s="47"/>
       <c r="BK42" s="47"/>
       <c r="BL42" s="47"/>
       <c r="BM42" s="47"/>
       <c r="BN42" s="47"/>
+      <c r="BO42" s="7"/>
       <c r="BP42" s="7"/>
       <c r="BQ42" s="6"/>
       <c r="BR42" s="6"/>
     </row>
-    <row customHeight="true" ht="48.6" r="43" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+    <row customHeight="true" ht="9.0" r="43" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A43" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" t="s" s="139">
-        <v>49</v>
-      </c>
-      <c r="T43" s="139"/>
-      <c r="U43" s="139"/>
-      <c r="V43" s="139"/>
-      <c r="W43" s="139"/>
-      <c r="X43" s="139"/>
-      <c r="Y43" s="124"/>
-      <c r="Z43" s="124"/>
-      <c r="AA43" s="124"/>
-      <c r="AB43" s="124"/>
-      <c r="AC43" s="124"/>
-      <c r="AD43" s="124"/>
-      <c r="AE43" s="124"/>
-      <c r="AF43" s="124"/>
-      <c r="AG43" s="124"/>
-      <c r="AH43" s="124"/>
-      <c r="AI43" s="124"/>
-      <c r="AJ43" s="124"/>
-      <c r="AK43" s="124"/>
-      <c r="AL43" s="124"/>
-      <c r="AM43" s="124"/>
-      <c r="AN43" s="124"/>
+      <c r="F43" t="s" s="137">
+        <v>75</v>
+      </c>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="137"/>
+      <c r="N43" s="137"/>
+      <c r="O43" s="137"/>
+      <c r="P43" s="137"/>
+      <c r="Q43" s="137"/>
+      <c r="R43" s="137"/>
+      <c r="S43" s="137"/>
+      <c r="T43" s="137"/>
+      <c r="U43" s="137"/>
+      <c r="V43" s="137"/>
+      <c r="W43" s="137"/>
+      <c r="X43" s="137"/>
+      <c r="Y43" s="137"/>
+      <c r="Z43" s="137"/>
+      <c r="AA43" s="137"/>
+      <c r="AB43" s="137"/>
+      <c r="AC43" s="137"/>
+      <c r="AD43" s="137"/>
+      <c r="AE43" s="137"/>
+      <c r="AF43" s="137"/>
+      <c r="AG43" s="137"/>
+      <c r="AH43" s="137"/>
+      <c r="AI43" s="137"/>
+      <c r="AJ43" s="137"/>
+      <c r="AK43" s="137"/>
+      <c r="AL43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
-      <c r="AP43" s="138"/>
-      <c r="AQ43" s="138"/>
-      <c r="AR43" s="138"/>
-      <c r="AS43" s="138"/>
-      <c r="AT43" s="138"/>
-      <c r="AU43" s="138"/>
-      <c r="AV43" s="138"/>
-      <c r="AW43" s="138"/>
-      <c r="AX43" s="138"/>
-      <c r="AY43" s="138"/>
-      <c r="AZ43" s="138"/>
-      <c r="BA43" s="138"/>
-      <c r="BB43" s="138"/>
-      <c r="BC43" s="138"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
       <c r="BD43" s="2"/>
-      <c r="BE43" s="23"/>
-      <c r="BF43" t="n" s="1">
-        <v>9762.0</v>
-      </c>
-      <c r="BG43" t="n" s="7">
-        <v>970.0</v>
-      </c>
-      <c r="BH43" s="6"/>
+      <c r="BE43" s="46"/>
+      <c r="BF43" s="49"/>
+      <c r="BG43" s="6"/>
+      <c r="BH43" t="n" s="7">
+        <v>180.0</v>
+      </c>
       <c r="BI43" s="6"/>
       <c r="BJ43" s="47"/>
       <c r="BK43" s="47"/>
@@ -4910,110 +4822,110 @@
       <c r="BQ43" s="6"/>
       <c r="BR43" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="44" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="29.85" r="44" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" t="s" s="127">
+      <c r="F44" t="s" s="134">
         <v>48</v>
       </c>
-      <c r="Z44" s="127"/>
-      <c r="AA44" s="127"/>
-      <c r="AB44" s="127"/>
-      <c r="AC44" s="127"/>
-      <c r="AD44" s="127"/>
-      <c r="AE44" s="127"/>
-      <c r="AF44" s="127"/>
-      <c r="AG44" s="127"/>
-      <c r="AH44" s="127"/>
-      <c r="AI44" s="127"/>
-      <c r="AJ44" s="127"/>
-      <c r="AK44" s="127"/>
-      <c r="AL44" s="127"/>
-      <c r="AM44" s="127"/>
-      <c r="AN44" s="127"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
+      <c r="N44" s="134"/>
+      <c r="O44" s="134"/>
+      <c r="P44" s="134"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="134"/>
+      <c r="W44" s="134"/>
+      <c r="X44" s="134"/>
+      <c r="Y44" s="134"/>
+      <c r="Z44" s="134"/>
+      <c r="AA44" s="134"/>
+      <c r="AB44" s="134"/>
+      <c r="AC44" s="134"/>
+      <c r="AD44" s="134"/>
+      <c r="AE44" s="134"/>
+      <c r="AF44" s="134"/>
+      <c r="AG44" s="134"/>
+      <c r="AH44" s="134"/>
+      <c r="AI44" s="134"/>
+      <c r="AJ44" s="134"/>
+      <c r="AK44" s="134"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
-      <c r="AP44" s="140"/>
-      <c r="AQ44" s="140"/>
-      <c r="AR44" s="140"/>
-      <c r="AS44" s="140"/>
-      <c r="AT44" s="140"/>
-      <c r="AU44" s="140"/>
-      <c r="AV44" s="140"/>
-      <c r="AW44" s="140"/>
-      <c r="AX44" s="140"/>
-      <c r="AY44" s="140"/>
-      <c r="AZ44" s="140"/>
-      <c r="BA44" s="140"/>
-      <c r="BB44" s="140"/>
-      <c r="BC44" s="140"/>
+      <c r="AP44" s="138"/>
+      <c r="AQ44" s="138"/>
+      <c r="AR44" s="138"/>
+      <c r="AS44" s="138"/>
+      <c r="AT44" s="138"/>
+      <c r="AU44" s="138"/>
+      <c r="AV44" s="138"/>
+      <c r="AW44" s="138"/>
+      <c r="AX44" s="138"/>
+      <c r="AY44" s="138"/>
+      <c r="AZ44" s="138"/>
+      <c r="BA44" s="138"/>
+      <c r="BB44" s="138"/>
+      <c r="BC44" s="138"/>
       <c r="BD44" s="2"/>
-      <c r="BE44" s="46"/>
-      <c r="BF44" s="6"/>
-      <c r="BG44" s="6"/>
-      <c r="BH44" t="n" s="52">
-        <v>225.0</v>
-      </c>
+      <c r="BE44" s="23"/>
+      <c r="BF44" t="n" s="1">
+        <v>10360.0</v>
+      </c>
+      <c r="BG44" t="n" s="7">
+        <v>598.0</v>
+      </c>
+      <c r="BH44" s="6"/>
       <c r="BI44" s="6"/>
       <c r="BJ44" s="47"/>
       <c r="BK44" s="47"/>
       <c r="BL44" s="47"/>
       <c r="BM44" s="47"/>
       <c r="BN44" s="47"/>
-      <c r="BP44" s="52"/>
+      <c r="BP44" s="7"/>
       <c r="BQ44" s="6"/>
       <c r="BR44" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="45" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="48.6" r="45" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" t="s" s="24">
-        <v>50</v>
-      </c>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="124"/>
-      <c r="O45" s="124"/>
-      <c r="P45" s="124"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="141">
-        <v>51</v>
-      </c>
-      <c r="S45" s="141"/>
-      <c r="T45" s="141"/>
-      <c r="U45" s="141"/>
-      <c r="V45" s="141"/>
-      <c r="W45" s="141"/>
-      <c r="X45" s="141"/>
+      <c r="R45" s="2"/>
+      <c r="S45" t="s" s="139">
+        <v>49</v>
+      </c>
+      <c r="T45" s="139"/>
+      <c r="U45" s="139"/>
+      <c r="V45" s="139"/>
+      <c r="W45" s="139"/>
+      <c r="X45" s="139"/>
       <c r="Y45" s="124"/>
       <c r="Z45" s="124"/>
       <c r="AA45" s="124"/>
@@ -5031,36 +4943,36 @@
       <c r="AM45" s="124"/>
       <c r="AN45" s="124"/>
       <c r="AO45" s="2"/>
-      <c r="AP45" s="140"/>
-      <c r="AQ45" s="140"/>
-      <c r="AR45" s="140"/>
-      <c r="AS45" s="140"/>
-      <c r="AT45" s="140"/>
-      <c r="AU45" s="140"/>
-      <c r="AV45" s="140"/>
-      <c r="AW45" s="140"/>
-      <c r="AX45" s="140"/>
-      <c r="AY45" s="140"/>
-      <c r="AZ45" s="140"/>
-      <c r="BA45" s="140"/>
-      <c r="BB45" s="140"/>
-      <c r="BC45" s="140"/>
+      <c r="AP45" s="138"/>
+      <c r="AQ45" s="138"/>
+      <c r="AR45" s="138"/>
+      <c r="AS45" s="138"/>
+      <c r="AT45" s="138"/>
+      <c r="AU45" s="138"/>
+      <c r="AV45" s="138"/>
+      <c r="AW45" s="138"/>
+      <c r="AX45" s="138"/>
+      <c r="AY45" s="138"/>
+      <c r="AZ45" s="138"/>
+      <c r="BA45" s="138"/>
+      <c r="BB45" s="138"/>
+      <c r="BC45" s="138"/>
       <c r="BD45" s="2"/>
-      <c r="BE45" s="52">
-        <v>150</v>
-      </c>
-      <c r="BF45" s="6"/>
-      <c r="BG45" s="6"/>
-      <c r="BH45" t="n" s="52">
-        <v>225.0</v>
-      </c>
+      <c r="BE45" s="23"/>
+      <c r="BF45" t="n" s="1">
+        <v>9762.0</v>
+      </c>
+      <c r="BG45" t="n" s="7">
+        <v>970.0</v>
+      </c>
+      <c r="BH45" s="6"/>
       <c r="BI45" s="6"/>
       <c r="BJ45" s="47"/>
       <c r="BK45" s="47"/>
       <c r="BL45" s="47"/>
       <c r="BM45" s="47"/>
       <c r="BN45" s="47"/>
-      <c r="BP45" s="52"/>
+      <c r="BP45" s="7"/>
       <c r="BQ45" s="6"/>
       <c r="BR45" s="6"/>
     </row>
@@ -5070,19 +4982,17 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" t="s" s="127">
-        <v>48</v>
-      </c>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="127"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="127"/>
-      <c r="N46" s="127"/>
-      <c r="O46" s="127"/>
-      <c r="P46" s="127"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -5090,7 +5000,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
+      <c r="X46" s="22"/>
       <c r="Y46" t="s" s="127">
         <v>48</v>
       </c>
@@ -5110,28 +5020,36 @@
       <c r="AM46" s="127"/>
       <c r="AN46" s="127"/>
       <c r="AO46" s="2"/>
-      <c r="AP46" s="53"/>
-      <c r="AQ46" s="53"/>
-      <c r="AR46" s="53"/>
-      <c r="AS46" s="53"/>
-      <c r="AT46" s="53"/>
-      <c r="AU46" s="53"/>
-      <c r="AV46" s="53"/>
-      <c r="AW46" s="53"/>
-      <c r="AX46" s="53"/>
-      <c r="AY46" s="53"/>
-      <c r="AZ46" s="53"/>
-      <c r="BA46" s="53"/>
-      <c r="BB46" s="53"/>
-      <c r="BC46" s="53"/>
+      <c r="AP46" s="140"/>
+      <c r="AQ46" s="140"/>
+      <c r="AR46" s="140"/>
+      <c r="AS46" s="140"/>
+      <c r="AT46" s="140"/>
+      <c r="AU46" s="140"/>
+      <c r="AV46" s="140"/>
+      <c r="AW46" s="140"/>
+      <c r="AX46" s="140"/>
+      <c r="AY46" s="140"/>
+      <c r="AZ46" s="140"/>
+      <c r="BA46" s="140"/>
+      <c r="BB46" s="140"/>
+      <c r="BC46" s="140"/>
       <c r="BD46" s="2"/>
-      <c r="BE46" s="46"/>
+      <c r="BE46" s="52">
+        <v>225</v>
+      </c>
       <c r="BF46" s="6"/>
-      <c r="BH46" t="n" s="7">
+      <c r="BG46" s="6"/>
+      <c r="BH46" t="n" s="52">
         <v>225.0</v>
       </c>
-      <c r="BI46" s="4"/>
-      <c r="BP46" s="7"/>
+      <c r="BI46" s="6"/>
+      <c r="BJ46" s="47"/>
+      <c r="BK46" s="47"/>
+      <c r="BL46" s="47"/>
+      <c r="BM46" s="47"/>
+      <c r="BN46" s="47"/>
+      <c r="BP46" s="52"/>
       <c r="BQ46" s="6"/>
       <c r="BR46" s="6"/>
     </row>
@@ -5140,144 +5058,152 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="E47" t="s" s="24">
+        <v>50</v>
+      </c>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="124"/>
+      <c r="P47" s="124"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" s="2"/>
-      <c r="AN47" s="2"/>
+      <c r="R47" t="s" s="141">
+        <v>51</v>
+      </c>
+      <c r="S47" s="141"/>
+      <c r="T47" s="141"/>
+      <c r="U47" s="141"/>
+      <c r="V47" s="141"/>
+      <c r="W47" s="141"/>
+      <c r="X47" s="141"/>
+      <c r="Y47" s="124"/>
+      <c r="Z47" s="124"/>
+      <c r="AA47" s="124"/>
+      <c r="AB47" s="124"/>
+      <c r="AC47" s="124"/>
+      <c r="AD47" s="124"/>
+      <c r="AE47" s="124"/>
+      <c r="AF47" s="124"/>
+      <c r="AG47" s="124"/>
+      <c r="AH47" s="124"/>
+      <c r="AI47" s="124"/>
+      <c r="AJ47" s="124"/>
+      <c r="AK47" s="124"/>
+      <c r="AL47" s="124"/>
+      <c r="AM47" s="124"/>
+      <c r="AN47" s="124"/>
       <c r="AO47" s="2"/>
-      <c r="AP47" s="2"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="2"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
-      <c r="AW47" s="2"/>
-      <c r="AX47" s="2"/>
-      <c r="AY47" s="2"/>
-      <c r="AZ47" s="2"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="2"/>
+      <c r="AP47" s="140"/>
+      <c r="AQ47" s="140"/>
+      <c r="AR47" s="140"/>
+      <c r="AS47" s="140"/>
+      <c r="AT47" s="140"/>
+      <c r="AU47" s="140"/>
+      <c r="AV47" s="140"/>
+      <c r="AW47" s="140"/>
+      <c r="AX47" s="140"/>
+      <c r="AY47" s="140"/>
+      <c r="AZ47" s="140"/>
+      <c r="BA47" s="140"/>
+      <c r="BB47" s="140"/>
+      <c r="BC47" s="140"/>
       <c r="BD47" s="2"/>
-      <c r="BE47" s="46"/>
+      <c r="BE47" s="52">
+        <v>150</v>
+      </c>
       <c r="BF47" s="6"/>
-      <c r="BH47" t="n" s="7">
+      <c r="BG47" s="6"/>
+      <c r="BH47" t="n" s="52">
         <v>225.0</v>
       </c>
-      <c r="BI47" s="4"/>
-      <c r="BP47" s="7"/>
+      <c r="BI47" s="6"/>
+      <c r="BJ47" s="47"/>
+      <c r="BK47" s="47"/>
+      <c r="BL47" s="47"/>
+      <c r="BM47" s="47"/>
+      <c r="BN47" s="47"/>
+      <c r="BP47" s="52"/>
       <c r="BQ47" s="6"/>
       <c r="BR47" s="6"/>
     </row>
-    <row customHeight="true" ht="8.25" r="48" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A48" t="s" s="2">
-        <v>52</v>
-      </c>
+    <row customHeight="true" ht="11.25" r="48" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="56"/>
-      <c r="AE48" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="124"/>
-      <c r="AL48" s="124"/>
-      <c r="AM48" s="124"/>
-      <c r="AN48" s="124"/>
-      <c r="AO48" s="124"/>
-      <c r="AP48" s="124"/>
-      <c r="AQ48" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AR48" s="124"/>
-      <c r="AS48" s="124"/>
-      <c r="AT48" s="124"/>
-      <c r="AU48" s="124"/>
-      <c r="AV48" s="124"/>
-      <c r="AW48" s="124"/>
-      <c r="AX48" s="124"/>
-      <c r="AY48" s="124"/>
-      <c r="AZ48" s="124"/>
-      <c r="BA48" s="124"/>
-      <c r="BB48" s="124"/>
-      <c r="BC48" s="124"/>
+      <c r="F48" t="s" s="127">
+        <v>48</v>
+      </c>
+      <c r="G48" s="127"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="127"/>
+      <c r="K48" s="127"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="127"/>
+      <c r="N48" s="127"/>
+      <c r="O48" s="127"/>
+      <c r="P48" s="127"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" t="s" s="127">
+        <v>48</v>
+      </c>
+      <c r="Z48" s="127"/>
+      <c r="AA48" s="127"/>
+      <c r="AB48" s="127"/>
+      <c r="AC48" s="127"/>
+      <c r="AD48" s="127"/>
+      <c r="AE48" s="127"/>
+      <c r="AF48" s="127"/>
+      <c r="AG48" s="127"/>
+      <c r="AH48" s="127"/>
+      <c r="AI48" s="127"/>
+      <c r="AJ48" s="127"/>
+      <c r="AK48" s="127"/>
+      <c r="AL48" s="127"/>
+      <c r="AM48" s="127"/>
+      <c r="AN48" s="127"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="53"/>
+      <c r="AQ48" s="53"/>
+      <c r="AR48" s="53"/>
+      <c r="AS48" s="53"/>
+      <c r="AT48" s="53"/>
+      <c r="AU48" s="53"/>
+      <c r="AV48" s="53"/>
+      <c r="AW48" s="53"/>
+      <c r="AX48" s="53"/>
+      <c r="AY48" s="53"/>
+      <c r="AZ48" s="53"/>
+      <c r="BA48" s="53"/>
+      <c r="BB48" s="53"/>
+      <c r="BC48" s="53"/>
       <c r="BD48" s="2"/>
       <c r="BE48" s="46"/>
       <c r="BF48" s="6"/>
       <c r="BH48" t="n" s="7">
-        <v>165.0</v>
+        <v>225.0</v>
       </c>
       <c r="BI48" s="4"/>
       <c r="BP48" s="7"/>
       <c r="BQ48" s="6"/>
       <c r="BR48" s="6"/>
     </row>
-    <row customHeight="true" ht="9.75" r="49" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="11.25" r="49" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5294,198 +5220,196 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" t="s" s="134">
-        <v>48</v>
-      </c>
-      <c r="S49" s="134"/>
-      <c r="T49" s="134"/>
-      <c r="U49" s="134"/>
-      <c r="V49" s="134"/>
-      <c r="W49" s="134"/>
-      <c r="X49" s="134"/>
-      <c r="Y49" s="134"/>
-      <c r="Z49" s="134"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
-      <c r="AC49" s="55"/>
-      <c r="AD49" s="56"/>
-      <c r="AE49" t="s" s="2">
-        <v>55</v>
-      </c>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="124"/>
-      <c r="AI49" s="124"/>
-      <c r="AJ49" s="124"/>
-      <c r="AK49" s="124"/>
-      <c r="AL49" s="124"/>
-      <c r="AM49" s="124"/>
-      <c r="AN49" s="124"/>
-      <c r="AO49" s="124"/>
-      <c r="AP49" s="124"/>
-      <c r="AQ49" s="124"/>
-      <c r="AR49" s="124"/>
-      <c r="AS49" s="124"/>
-      <c r="AT49" s="124"/>
-      <c r="AU49" s="124"/>
-      <c r="AV49" s="124"/>
-      <c r="AW49" s="124"/>
-      <c r="AX49" s="124"/>
-      <c r="AY49" s="124"/>
-      <c r="AZ49" s="124"/>
-      <c r="BA49" s="124"/>
-      <c r="BB49" s="124"/>
-      <c r="BC49" s="124"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
       <c r="BD49" s="2"/>
       <c r="BE49" s="46"/>
       <c r="BF49" s="6"/>
       <c r="BH49" t="n" s="7">
-        <v>195.0</v>
+        <v>225.0</v>
       </c>
       <c r="BI49" s="4"/>
       <c r="BP49" s="7"/>
       <c r="BQ49" s="6"/>
       <c r="BR49" s="6"/>
     </row>
-    <row customHeight="true" ht="7.5" r="50" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A50" t="s" s="135">
-        <v>56</v>
-      </c>
-      <c r="B50" s="135"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="135"/>
-      <c r="K50" s="135"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
-      <c r="N50" s="135"/>
-      <c r="O50" s="135"/>
-      <c r="P50" s="135"/>
-      <c r="Q50" s="135"/>
-      <c r="R50" s="135"/>
-      <c r="S50" s="135"/>
-      <c r="T50" s="135"/>
-      <c r="U50" s="135"/>
-      <c r="V50" s="135"/>
-      <c r="W50" s="135"/>
-      <c r="X50" s="135"/>
-      <c r="Y50" s="135"/>
-      <c r="Z50" s="135"/>
-      <c r="AA50" s="135"/>
-      <c r="AB50" s="135"/>
-      <c r="AC50" s="135"/>
-      <c r="AD50" s="135"/>
-      <c r="AE50" s="55"/>
+    <row customHeight="true" ht="8.25" r="50" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A50" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
+      <c r="V50" s="54"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="54"/>
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54"/>
+      <c r="AA50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
-      <c r="AI50" t="s" s="126">
-        <v>57</v>
-      </c>
-      <c r="AJ50" s="126"/>
-      <c r="AK50" s="126"/>
-      <c r="AL50" s="126"/>
-      <c r="AM50" s="126"/>
-      <c r="AN50" s="126"/>
-      <c r="AO50" s="126"/>
-      <c r="AP50" s="126"/>
-      <c r="AQ50" s="126"/>
-      <c r="AR50" s="126"/>
-      <c r="AS50" s="126"/>
-      <c r="AT50" s="126"/>
-      <c r="AU50" s="126"/>
-      <c r="AV50" s="126"/>
-      <c r="AW50" s="126"/>
-      <c r="AX50" s="126"/>
-      <c r="AY50" s="126"/>
-      <c r="AZ50" s="126"/>
-      <c r="BA50" s="126"/>
-      <c r="BB50" s="126"/>
-      <c r="BC50" s="126"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="124"/>
+      <c r="AL50" s="124"/>
+      <c r="AM50" s="124"/>
+      <c r="AN50" s="124"/>
+      <c r="AO50" s="124"/>
+      <c r="AP50" s="124"/>
+      <c r="AQ50" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AR50" s="124"/>
+      <c r="AS50" s="124"/>
+      <c r="AT50" s="124"/>
+      <c r="AU50" s="124"/>
+      <c r="AV50" s="124"/>
+      <c r="AW50" s="124"/>
+      <c r="AX50" s="124"/>
+      <c r="AY50" s="124"/>
+      <c r="AZ50" s="124"/>
+      <c r="BA50" s="124"/>
+      <c r="BB50" s="124"/>
+      <c r="BC50" s="124"/>
       <c r="BD50" s="2"/>
-      <c r="BE50" t="n" s="52">
-        <v>150.0</v>
-      </c>
+      <c r="BE50" s="46"/>
       <c r="BF50" s="6"/>
       <c r="BH50" t="n" s="7">
-        <v>150.0</v>
+        <v>165.0</v>
       </c>
       <c r="BI50" s="4"/>
       <c r="BP50" s="7"/>
       <c r="BQ50" s="6"/>
       <c r="BR50" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="51" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A51" t="s" s="136">
-        <v>90</v>
-      </c>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="136"/>
-      <c r="M51" s="136"/>
-      <c r="N51" s="136"/>
-      <c r="O51" s="136"/>
-      <c r="P51" s="136"/>
-      <c r="Q51" s="136"/>
-      <c r="R51" s="136"/>
-      <c r="S51" s="136"/>
-      <c r="T51" s="136"/>
-      <c r="U51" s="136"/>
-      <c r="V51" s="136"/>
-      <c r="W51" s="136"/>
-      <c r="X51" s="136"/>
-      <c r="Y51" s="136"/>
-      <c r="Z51" s="136"/>
-      <c r="AA51" s="136"/>
-      <c r="AB51" s="58"/>
-      <c r="AC51" s="58"/>
-      <c r="AD51" s="57"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="59"/>
-      <c r="AG51" s="59"/>
-      <c r="AH51" s="60"/>
-      <c r="AI51" s="60"/>
-      <c r="AJ51" s="60"/>
-      <c r="AK51" s="60"/>
-      <c r="AL51" s="60"/>
-      <c r="AM51" s="60"/>
-      <c r="AN51" s="60"/>
-      <c r="AO51" s="60"/>
-      <c r="AP51" s="60"/>
-      <c r="AQ51" s="60"/>
-      <c r="AR51" s="60"/>
-      <c r="AS51" s="60"/>
-      <c r="AT51" s="60"/>
-      <c r="AU51" s="60"/>
-      <c r="AV51" s="60"/>
-      <c r="AW51" s="60"/>
-      <c r="AX51" s="60"/>
-      <c r="AY51" s="60"/>
-      <c r="AZ51" s="60"/>
-      <c r="BA51" s="60"/>
-      <c r="BB51" s="60"/>
-      <c r="BC51" s="60"/>
+    <row customHeight="true" ht="9.75" r="51" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" t="s" s="134">
+        <v>48</v>
+      </c>
+      <c r="S51" s="134"/>
+      <c r="T51" s="134"/>
+      <c r="U51" s="134"/>
+      <c r="V51" s="134"/>
+      <c r="W51" s="134"/>
+      <c r="X51" s="134"/>
+      <c r="Y51" s="134"/>
+      <c r="Z51" s="134"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="55"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="124"/>
+      <c r="AI51" s="124"/>
+      <c r="AJ51" s="124"/>
+      <c r="AK51" s="124"/>
+      <c r="AL51" s="124"/>
+      <c r="AM51" s="124"/>
+      <c r="AN51" s="124"/>
+      <c r="AO51" s="124"/>
+      <c r="AP51" s="124"/>
+      <c r="AQ51" s="124"/>
+      <c r="AR51" s="124"/>
+      <c r="AS51" s="124"/>
+      <c r="AT51" s="124"/>
+      <c r="AU51" s="124"/>
+      <c r="AV51" s="124"/>
+      <c r="AW51" s="124"/>
+      <c r="AX51" s="124"/>
+      <c r="AY51" s="124"/>
+      <c r="AZ51" s="124"/>
+      <c r="BA51" s="124"/>
+      <c r="BB51" s="124"/>
+      <c r="BC51" s="124"/>
       <c r="BD51" s="2"/>
-      <c r="BE51" t="n" s="52">
-        <v>225.0</v>
-      </c>
+      <c r="BE51" s="46"/>
       <c r="BF51" s="6"/>
       <c r="BH51" t="n" s="7">
-        <v>225.0</v>
+        <v>195.0</v>
       </c>
       <c r="BI51" s="4"/>
       <c r="BP51" s="7"/>
@@ -5493,63 +5417,65 @@
       <c r="BR51" s="6"/>
     </row>
     <row customHeight="true" ht="7.5" r="52" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-      <c r="M52" t="s" s="62">
-        <v>48</v>
-      </c>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="61"/>
-      <c r="U52" s="61"/>
-      <c r="V52" s="61"/>
-      <c r="W52" s="61"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="61"/>
-      <c r="Z52" s="61"/>
-      <c r="AA52" s="61"/>
-      <c r="AB52" s="63"/>
-      <c r="AC52" s="63"/>
-      <c r="AD52" s="64"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="59"/>
-      <c r="AG52" s="59"/>
-      <c r="AH52" s="129"/>
-      <c r="AI52" s="129"/>
-      <c r="AJ52" s="129"/>
-      <c r="AK52" s="129"/>
-      <c r="AL52" s="129"/>
-      <c r="AM52" s="129"/>
-      <c r="AN52" s="129"/>
-      <c r="AO52" s="129"/>
-      <c r="AP52" s="129"/>
-      <c r="AQ52" s="129"/>
-      <c r="AR52" s="129"/>
-      <c r="AS52" s="129"/>
-      <c r="AT52" s="129"/>
-      <c r="AU52" s="129"/>
-      <c r="AV52" s="129"/>
-      <c r="AW52" s="129"/>
-      <c r="AX52" s="129"/>
-      <c r="AY52" s="129"/>
-      <c r="AZ52" s="129"/>
-      <c r="BA52" s="129"/>
-      <c r="BB52" s="129"/>
-      <c r="BC52" s="129"/>
+      <c r="A52" t="s" s="135">
+        <v>56</v>
+      </c>
+      <c r="B52" s="135"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="135"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
+      <c r="J52" s="135"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
+      <c r="N52" s="135"/>
+      <c r="O52" s="135"/>
+      <c r="P52" s="135"/>
+      <c r="Q52" s="135"/>
+      <c r="R52" s="135"/>
+      <c r="S52" s="135"/>
+      <c r="T52" s="135"/>
+      <c r="U52" s="135"/>
+      <c r="V52" s="135"/>
+      <c r="W52" s="135"/>
+      <c r="X52" s="135"/>
+      <c r="Y52" s="135"/>
+      <c r="Z52" s="135"/>
+      <c r="AA52" s="135"/>
+      <c r="AB52" s="135"/>
+      <c r="AC52" s="135"/>
+      <c r="AD52" s="135"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" t="s" s="126">
+        <v>57</v>
+      </c>
+      <c r="AJ52" s="126"/>
+      <c r="AK52" s="126"/>
+      <c r="AL52" s="126"/>
+      <c r="AM52" s="126"/>
+      <c r="AN52" s="126"/>
+      <c r="AO52" s="126"/>
+      <c r="AP52" s="126"/>
+      <c r="AQ52" s="126"/>
+      <c r="AR52" s="126"/>
+      <c r="AS52" s="126"/>
+      <c r="AT52" s="126"/>
+      <c r="AU52" s="126"/>
+      <c r="AV52" s="126"/>
+      <c r="AW52" s="126"/>
+      <c r="AX52" s="126"/>
+      <c r="AY52" s="126"/>
+      <c r="AZ52" s="126"/>
+      <c r="BA52" s="126"/>
+      <c r="BB52" s="126"/>
+      <c r="BC52" s="126"/>
       <c r="BD52" s="2"/>
       <c r="BE52" t="n" s="52">
         <v>150.0</v>
@@ -5563,231 +5489,219 @@
       <c r="BQ52" s="6"/>
       <c r="BR52" s="6"/>
     </row>
-    <row customHeight="true" ht="0.75" r="53" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A53" t="s" s="59">
-        <v>58</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" t="s" s="65">
-        <v>76</v>
-      </c>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="130"/>
-      <c r="T53" s="130"/>
-      <c r="U53" s="130"/>
-      <c r="V53" t="s" s="131">
-        <v>77</v>
-      </c>
-      <c r="W53" s="131"/>
-      <c r="X53" s="131"/>
-      <c r="Y53" s="131"/>
-      <c r="Z53" s="131"/>
-      <c r="AA53" s="131"/>
-      <c r="AB53" s="131"/>
-      <c r="AC53" s="131"/>
-      <c r="AD53" s="131"/>
-      <c r="AE53" t="s" s="59">
-        <v>59</v>
-      </c>
+    <row customHeight="true" ht="11.25" r="53" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A53" t="s" s="136">
+        <v>90</v>
+      </c>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="136"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="136"/>
+      <c r="O53" s="136"/>
+      <c r="P53" s="136"/>
+      <c r="Q53" s="136"/>
+      <c r="R53" s="136"/>
+      <c r="S53" s="136"/>
+      <c r="T53" s="136"/>
+      <c r="U53" s="136"/>
+      <c r="V53" s="136"/>
+      <c r="W53" s="136"/>
+      <c r="X53" s="136"/>
+      <c r="Y53" s="136"/>
+      <c r="Z53" s="136"/>
+      <c r="AA53" s="136"/>
+      <c r="AB53" s="58"/>
+      <c r="AC53" s="58"/>
+      <c r="AD53" s="57"/>
+      <c r="AE53" s="8"/>
       <c r="AF53" s="59"/>
       <c r="AG53" s="59"/>
-      <c r="AH53" s="59"/>
-      <c r="AI53" s="132"/>
-      <c r="AJ53" s="132"/>
-      <c r="AK53" s="132"/>
-      <c r="AL53" s="132"/>
-      <c r="AM53" s="132"/>
-      <c r="AN53" s="132"/>
-      <c r="AO53" s="132"/>
-      <c r="AP53" s="132"/>
-      <c r="AQ53" s="8"/>
-      <c r="AR53" s="132"/>
-      <c r="AS53" s="132"/>
-      <c r="AT53" s="132"/>
-      <c r="AU53" s="132"/>
-      <c r="AV53" s="132"/>
-      <c r="AW53" s="8"/>
-      <c r="AX53" s="132"/>
-      <c r="AY53" s="132"/>
-      <c r="AZ53" s="132"/>
-      <c r="BA53" s="132"/>
-      <c r="BB53" s="132"/>
-      <c r="BC53" s="132"/>
+      <c r="AH53" s="60"/>
+      <c r="AI53" s="60"/>
+      <c r="AJ53" s="60"/>
+      <c r="AK53" s="60"/>
+      <c r="AL53" s="60"/>
+      <c r="AM53" s="60"/>
+      <c r="AN53" s="60"/>
+      <c r="AO53" s="60"/>
+      <c r="AP53" s="60"/>
+      <c r="AQ53" s="60"/>
+      <c r="AR53" s="60"/>
+      <c r="AS53" s="60"/>
+      <c r="AT53" s="60"/>
+      <c r="AU53" s="60"/>
+      <c r="AV53" s="60"/>
+      <c r="AW53" s="60"/>
+      <c r="AX53" s="60"/>
+      <c r="AY53" s="60"/>
+      <c r="AZ53" s="60"/>
+      <c r="BA53" s="60"/>
+      <c r="BB53" s="60"/>
+      <c r="BC53" s="60"/>
       <c r="BD53" s="2"/>
       <c r="BE53" t="n" s="52">
-        <v>15.0</v>
+        <v>225.0</v>
       </c>
       <c r="BF53" s="6"/>
       <c r="BH53" t="n" s="7">
-        <v>15.0</v>
+        <v>225.0</v>
       </c>
       <c r="BI53" s="4"/>
       <c r="BP53" s="7"/>
       <c r="BQ53" s="6"/>
       <c r="BR53" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="54" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" t="s" s="106">
-        <v>61</v>
-      </c>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="133"/>
-      <c r="R54" s="133"/>
-      <c r="S54" s="133"/>
-      <c r="T54" s="133"/>
-      <c r="U54" s="133"/>
-      <c r="V54" s="2"/>
-      <c r="W54" t="s" s="127">
-        <v>62</v>
-      </c>
-      <c r="X54" s="127"/>
-      <c r="Y54" s="127"/>
-      <c r="Z54" s="127"/>
-      <c r="AA54" s="127"/>
-      <c r="AB54" s="127"/>
-      <c r="AC54" s="127"/>
-      <c r="AD54" s="56"/>
+    <row customHeight="true" ht="7.5" r="54" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" t="s" s="62">
+        <v>48</v>
+      </c>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="63"/>
+      <c r="AC54" s="63"/>
+      <c r="AD54" s="64"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="59"/>
       <c r="AG54" s="59"/>
-      <c r="AH54" s="59"/>
-      <c r="AI54" s="59"/>
-      <c r="AJ54" t="s" s="106">
-        <v>63</v>
-      </c>
-      <c r="AK54" s="106"/>
-      <c r="AL54" s="106"/>
-      <c r="AM54" s="106"/>
-      <c r="AN54" s="106"/>
-      <c r="AO54" s="106"/>
-      <c r="AP54" s="106"/>
-      <c r="AQ54" s="8"/>
-      <c r="AR54" t="s" s="106">
-        <v>64</v>
-      </c>
-      <c r="AS54" s="106"/>
-      <c r="AT54" s="106"/>
-      <c r="AU54" s="106"/>
-      <c r="AV54" s="106"/>
-      <c r="AW54" s="8"/>
-      <c r="AX54" t="s" s="106">
-        <v>62</v>
-      </c>
-      <c r="AY54" s="106"/>
-      <c r="AZ54" s="106"/>
-      <c r="BA54" s="106"/>
-      <c r="BB54" s="106"/>
-      <c r="BC54" s="106"/>
+      <c r="AH54" s="129"/>
+      <c r="AI54" s="129"/>
+      <c r="AJ54" s="129"/>
+      <c r="AK54" s="129"/>
+      <c r="AL54" s="129"/>
+      <c r="AM54" s="129"/>
+      <c r="AN54" s="129"/>
+      <c r="AO54" s="129"/>
+      <c r="AP54" s="129"/>
+      <c r="AQ54" s="129"/>
+      <c r="AR54" s="129"/>
+      <c r="AS54" s="129"/>
+      <c r="AT54" s="129"/>
+      <c r="AU54" s="129"/>
+      <c r="AV54" s="129"/>
+      <c r="AW54" s="129"/>
+      <c r="AX54" s="129"/>
+      <c r="AY54" s="129"/>
+      <c r="AZ54" s="129"/>
+      <c r="BA54" s="129"/>
+      <c r="BB54" s="129"/>
+      <c r="BC54" s="129"/>
       <c r="BD54" s="2"/>
       <c r="BE54" t="n" s="52">
-        <v>225.0</v>
+        <v>150.0</v>
       </c>
       <c r="BF54" s="6"/>
       <c r="BH54" t="n" s="7">
-        <v>225.0</v>
+        <v>150.0</v>
       </c>
       <c r="BI54" s="4"/>
       <c r="BP54" s="7"/>
       <c r="BQ54" s="6"/>
       <c r="BR54" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="55" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A55" t="s" s="66">
-        <v>65</v>
+    <row customHeight="true" ht="0.75" r="55" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A55" t="s" s="59">
+        <v>58</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="59"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" t="s" s="65">
+        <v>76</v>
+      </c>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
       <c r="P55" s="2"/>
-      <c r="Q55" s="124"/>
-      <c r="R55" s="124"/>
-      <c r="S55" s="124"/>
-      <c r="T55" s="124"/>
-      <c r="U55" s="124"/>
-      <c r="V55" t="s" s="128">
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130"/>
+      <c r="S55" s="130"/>
+      <c r="T55" s="130"/>
+      <c r="U55" s="130"/>
+      <c r="V55" t="s" s="131">
         <v>77</v>
       </c>
-      <c r="W55" s="128"/>
-      <c r="X55" s="128"/>
-      <c r="Y55" s="128"/>
-      <c r="Z55" s="128"/>
-      <c r="AA55" s="128"/>
-      <c r="AB55" s="128"/>
-      <c r="AC55" s="128"/>
-      <c r="AD55" s="128"/>
+      <c r="W55" s="131"/>
+      <c r="X55" s="131"/>
+      <c r="Y55" s="131"/>
+      <c r="Z55" s="131"/>
+      <c r="AA55" s="131"/>
+      <c r="AB55" s="131"/>
+      <c r="AC55" s="131"/>
+      <c r="AD55" s="131"/>
       <c r="AE55" t="s" s="59">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AF55" s="59"/>
       <c r="AG55" s="59"/>
       <c r="AH55" s="59"/>
-      <c r="AI55" s="125"/>
-      <c r="AJ55" s="125"/>
-      <c r="AK55" s="125"/>
-      <c r="AL55" s="125"/>
-      <c r="AM55" s="125"/>
-      <c r="AN55" s="125"/>
-      <c r="AO55" s="125"/>
-      <c r="AP55" s="125"/>
-      <c r="AQ55" s="59"/>
-      <c r="AR55" s="125"/>
-      <c r="AS55" s="125"/>
-      <c r="AT55" s="125"/>
-      <c r="AU55" s="125"/>
-      <c r="AV55" s="125"/>
-      <c r="AW55" s="59"/>
-      <c r="AX55" s="125"/>
-      <c r="AY55" s="125"/>
-      <c r="AZ55" s="125"/>
-      <c r="BA55" s="125"/>
-      <c r="BB55" s="125"/>
-      <c r="BC55" s="125"/>
+      <c r="AI55" s="132"/>
+      <c r="AJ55" s="132"/>
+      <c r="AK55" s="132"/>
+      <c r="AL55" s="132"/>
+      <c r="AM55" s="132"/>
+      <c r="AN55" s="132"/>
+      <c r="AO55" s="132"/>
+      <c r="AP55" s="132"/>
+      <c r="AQ55" s="8"/>
+      <c r="AR55" s="132"/>
+      <c r="AS55" s="132"/>
+      <c r="AT55" s="132"/>
+      <c r="AU55" s="132"/>
+      <c r="AV55" s="132"/>
+      <c r="AW55" s="8"/>
+      <c r="AX55" s="132"/>
+      <c r="AY55" s="132"/>
+      <c r="AZ55" s="132"/>
+      <c r="BA55" s="132"/>
+      <c r="BB55" s="132"/>
+      <c r="BC55" s="132"/>
       <c r="BD55" s="2"/>
       <c r="BE55" t="n" s="52">
-        <v>225.0</v>
+        <v>15.0</v>
       </c>
       <c r="BF55" s="6"/>
       <c r="BH55" t="n" s="7">
-        <v>225.0</v>
+        <v>15.0</v>
       </c>
       <c r="BI55" s="4"/>
       <c r="BP55" s="7"/>
@@ -5802,20 +5716,22 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="H56" t="s" s="106">
+        <v>61</v>
+      </c>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="106"/>
+      <c r="O56" s="106"/>
       <c r="P56" s="2"/>
-      <c r="Q56" s="126"/>
-      <c r="R56" s="126"/>
-      <c r="S56" s="126"/>
-      <c r="T56" s="126"/>
-      <c r="U56" s="126"/>
+      <c r="Q56" s="133"/>
+      <c r="R56" s="133"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="133"/>
+      <c r="U56" s="133"/>
       <c r="V56" s="2"/>
       <c r="W56" t="s" s="127">
         <v>62</v>
@@ -5827,13 +5743,11 @@
       <c r="AB56" s="127"/>
       <c r="AC56" s="127"/>
       <c r="AD56" s="56"/>
-      <c r="AE56" t="s" s="67">
-        <v>67</v>
-      </c>
+      <c r="AE56" s="8"/>
       <c r="AF56" s="59"/>
       <c r="AG56" s="59"/>
       <c r="AH56" s="59"/>
-      <c r="AI56" s="11"/>
+      <c r="AI56" s="59"/>
       <c r="AJ56" t="s" s="106">
         <v>63</v>
       </c>
@@ -5843,23 +5757,23 @@
       <c r="AN56" s="106"/>
       <c r="AO56" s="106"/>
       <c r="AP56" s="106"/>
-      <c r="AQ56" s="59"/>
-      <c r="AR56" t="s" s="127">
+      <c r="AQ56" s="8"/>
+      <c r="AR56" t="s" s="106">
         <v>64</v>
       </c>
-      <c r="AS56" s="127"/>
-      <c r="AT56" s="127"/>
-      <c r="AU56" s="127"/>
-      <c r="AV56" s="127"/>
-      <c r="AW56" s="59"/>
-      <c r="AX56" t="s" s="127">
+      <c r="AS56" s="106"/>
+      <c r="AT56" s="106"/>
+      <c r="AU56" s="106"/>
+      <c r="AV56" s="106"/>
+      <c r="AW56" s="8"/>
+      <c r="AX56" t="s" s="106">
         <v>62</v>
       </c>
-      <c r="AY56" s="127"/>
-      <c r="AZ56" s="127"/>
-      <c r="BA56" s="127"/>
-      <c r="BB56" s="127"/>
-      <c r="BC56" s="127"/>
+      <c r="AY56" s="106"/>
+      <c r="AZ56" s="106"/>
+      <c r="BA56" s="106"/>
+      <c r="BB56" s="106"/>
+      <c r="BC56" s="106"/>
       <c r="BD56" s="2"/>
       <c r="BE56" t="n" s="52">
         <v>225.0</v>
@@ -5874,75 +5788,81 @@
       <c r="BR56" s="6"/>
     </row>
     <row customHeight="true" ht="11.25" r="57" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A57" t="s" s="59">
-        <v>68</v>
+      <c r="A57" t="s" s="66">
+        <v>65</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="59"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="124"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="124"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="124"/>
       <c r="R57" s="124"/>
       <c r="S57" s="124"/>
       <c r="T57" s="124"/>
       <c r="U57" s="124"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="124"/>
-      <c r="X57" s="124"/>
-      <c r="Y57" s="124"/>
-      <c r="Z57" s="124"/>
-      <c r="AA57" s="124"/>
-      <c r="AB57" s="124"/>
-      <c r="AC57" s="124"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="8"/>
+      <c r="V57" t="s" s="128">
+        <v>77</v>
+      </c>
+      <c r="W57" s="128"/>
+      <c r="X57" s="128"/>
+      <c r="Y57" s="128"/>
+      <c r="Z57" s="128"/>
+      <c r="AA57" s="128"/>
+      <c r="AB57" s="128"/>
+      <c r="AC57" s="128"/>
+      <c r="AD57" s="128"/>
+      <c r="AE57" t="s" s="59">
+        <v>66</v>
+      </c>
       <c r="AF57" s="59"/>
       <c r="AG57" s="59"/>
       <c r="AH57" s="59"/>
-      <c r="AI57" s="59"/>
-      <c r="AJ57" s="59"/>
-      <c r="AK57" s="59"/>
-      <c r="AL57" s="59"/>
-      <c r="AM57" s="59"/>
-      <c r="AN57" s="59"/>
-      <c r="AO57" s="59"/>
-      <c r="AP57" s="59"/>
+      <c r="AI57" s="125"/>
+      <c r="AJ57" s="125"/>
+      <c r="AK57" s="125"/>
+      <c r="AL57" s="125"/>
+      <c r="AM57" s="125"/>
+      <c r="AN57" s="125"/>
+      <c r="AO57" s="125"/>
+      <c r="AP57" s="125"/>
       <c r="AQ57" s="59"/>
-      <c r="AR57" s="59"/>
-      <c r="AS57" s="59"/>
-      <c r="AT57" s="59"/>
-      <c r="AU57" s="59"/>
-      <c r="AV57" s="59"/>
+      <c r="AR57" s="125"/>
+      <c r="AS57" s="125"/>
+      <c r="AT57" s="125"/>
+      <c r="AU57" s="125"/>
+      <c r="AV57" s="125"/>
       <c r="AW57" s="59"/>
-      <c r="AX57" s="59"/>
-      <c r="AY57" s="59"/>
-      <c r="AZ57" s="59"/>
-      <c r="BA57" s="59"/>
-      <c r="BB57" s="59"/>
-      <c r="BC57" s="59"/>
+      <c r="AX57" s="125"/>
+      <c r="AY57" s="125"/>
+      <c r="AZ57" s="125"/>
+      <c r="BA57" s="125"/>
+      <c r="BB57" s="125"/>
+      <c r="BC57" s="125"/>
       <c r="BD57" s="2"/>
       <c r="BE57" t="n" s="52">
-        <v>180.0</v>
+        <v>225.0</v>
       </c>
       <c r="BF57" s="6"/>
-      <c r="BH57" s="7"/>
+      <c r="BH57" t="n" s="7">
+        <v>225.0</v>
+      </c>
       <c r="BI57" s="4"/>
       <c r="BP57" s="7"/>
       <c r="BQ57" s="6"/>
       <c r="BR57" s="6"/>
     </row>
-    <row customHeight="true" ht="8.25" r="58" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="11.25" r="58" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5951,15 +5871,13 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" t="s" s="106">
-        <v>63</v>
-      </c>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="106"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="126"/>
       <c r="R58" s="126"/>
@@ -5977,138 +5895,272 @@
       <c r="AB58" s="127"/>
       <c r="AC58" s="127"/>
       <c r="AD58" s="56"/>
-      <c r="AE58" s="8"/>
+      <c r="AE58" t="s" s="67">
+        <v>67</v>
+      </c>
       <c r="AF58" s="59"/>
       <c r="AG58" s="59"/>
       <c r="AH58" s="59"/>
-      <c r="AI58" s="59"/>
-      <c r="AJ58" s="59"/>
-      <c r="AK58" s="59"/>
-      <c r="AL58" s="59"/>
-      <c r="AM58" s="59"/>
-      <c r="AN58" s="59"/>
-      <c r="AO58" s="59"/>
-      <c r="AP58" s="59"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" t="s" s="106">
+        <v>63</v>
+      </c>
+      <c r="AK58" s="106"/>
+      <c r="AL58" s="106"/>
+      <c r="AM58" s="106"/>
+      <c r="AN58" s="106"/>
+      <c r="AO58" s="106"/>
+      <c r="AP58" s="106"/>
       <c r="AQ58" s="59"/>
-      <c r="AR58" s="59"/>
-      <c r="AS58" s="59"/>
-      <c r="AT58" s="59"/>
-      <c r="AU58" s="59"/>
-      <c r="AV58" s="59"/>
+      <c r="AR58" t="s" s="127">
+        <v>64</v>
+      </c>
+      <c r="AS58" s="127"/>
+      <c r="AT58" s="127"/>
+      <c r="AU58" s="127"/>
+      <c r="AV58" s="127"/>
       <c r="AW58" s="59"/>
-      <c r="AX58" s="59"/>
-      <c r="AY58" s="59"/>
-      <c r="AZ58" s="59"/>
-      <c r="BA58" s="59"/>
-      <c r="BB58" s="59"/>
-      <c r="BC58" s="59"/>
+      <c r="AX58" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="AY58" s="127"/>
+      <c r="AZ58" s="127"/>
+      <c r="BA58" s="127"/>
+      <c r="BB58" s="127"/>
+      <c r="BC58" s="127"/>
       <c r="BD58" s="2"/>
       <c r="BE58" t="n" s="52">
-        <v>165.0</v>
+        <v>225.0</v>
       </c>
       <c r="BF58" s="6"/>
-      <c r="BH58" s="7"/>
+      <c r="BH58" t="n" s="7">
+        <v>225.0</v>
+      </c>
       <c r="BI58" s="4"/>
       <c r="BP58" s="7"/>
       <c r="BQ58" s="6"/>
       <c r="BR58" s="6"/>
     </row>
-    <row customHeight="true" ht="14.25" r="59" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+    <row customHeight="true" ht="11.25" r="59" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A59" t="s" s="59">
+        <v>68</v>
+      </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" t="s" s="68">
-        <v>69</v>
-      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" t="s" s="123">
-        <v>89</v>
-      </c>
-      <c r="I59" s="123"/>
-      <c r="J59" s="123"/>
-      <c r="K59" s="123"/>
-      <c r="L59" s="123"/>
-      <c r="M59" s="123"/>
-      <c r="N59" s="123"/>
-      <c r="O59" s="123"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="124"/>
+      <c r="J59" s="124"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="124"/>
+      <c r="N59" s="124"/>
+      <c r="O59" s="124"/>
       <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
+      <c r="Q59" s="124"/>
+      <c r="R59" s="124"/>
+      <c r="S59" s="124"/>
+      <c r="T59" s="124"/>
+      <c r="U59" s="124"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
+      <c r="W59" s="124"/>
+      <c r="X59" s="124"/>
+      <c r="Y59" s="124"/>
+      <c r="Z59" s="124"/>
+      <c r="AA59" s="124"/>
+      <c r="AB59" s="124"/>
+      <c r="AC59" s="124"/>
       <c r="AD59" s="56"/>
       <c r="AE59" s="8"/>
       <c r="AF59" s="59"/>
-      <c r="AG59" s="37"/>
+      <c r="AG59" s="59"/>
       <c r="AH59" s="59"/>
-      <c r="AI59" t="s" s="69">
-        <v>69</v>
-      </c>
-      <c r="AJ59" s="70"/>
-      <c r="AK59" s="70"/>
-      <c r="AL59" s="70"/>
-      <c r="AM59" s="70"/>
-      <c r="AN59" t="s" s="71">
-        <v>70</v>
-      </c>
-      <c r="AO59" s="60"/>
-      <c r="AP59" s="60"/>
-      <c r="AQ59" s="60"/>
-      <c r="AR59" s="60"/>
-      <c r="AS59" s="60"/>
-      <c r="AT59" s="60"/>
-      <c r="AU59" t="n" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="AV59" s="37"/>
-      <c r="AW59" t="s" s="59">
-        <v>71</v>
-      </c>
-      <c r="AX59" s="37"/>
-      <c r="AY59" s="37"/>
-      <c r="AZ59" s="37"/>
-      <c r="BA59" s="37"/>
+      <c r="AI59" s="59"/>
+      <c r="AJ59" s="59"/>
+      <c r="AK59" s="59"/>
+      <c r="AL59" s="59"/>
+      <c r="AM59" s="59"/>
+      <c r="AN59" s="59"/>
+      <c r="AO59" s="59"/>
+      <c r="AP59" s="59"/>
+      <c r="AQ59" s="59"/>
+      <c r="AR59" s="59"/>
+      <c r="AS59" s="59"/>
+      <c r="AT59" s="59"/>
+      <c r="AU59" s="59"/>
+      <c r="AV59" s="59"/>
+      <c r="AW59" s="59"/>
+      <c r="AX59" s="59"/>
+      <c r="AY59" s="59"/>
+      <c r="AZ59" s="59"/>
+      <c r="BA59" s="59"/>
       <c r="BB59" s="59"/>
       <c r="BC59" s="59"/>
       <c r="BD59" s="2"/>
-      <c r="BE59" t="s" s="52">
-        <v>60</v>
+      <c r="BE59" t="n" s="52">
+        <v>180.0</v>
       </c>
       <c r="BF59" s="6"/>
-      <c r="BH59" t="n" s="7">
-        <v>285.0</v>
-      </c>
+      <c r="BH59" s="7"/>
       <c r="BI59" s="4"/>
       <c r="BP59" s="7"/>
       <c r="BQ59" s="6"/>
       <c r="BR59" s="6"/>
     </row>
-    <row customHeight="1" ht="9.75" r="60" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="BE60" s="52"/>
+    <row customHeight="true" ht="8.25" r="60" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" t="s" s="106">
+        <v>63</v>
+      </c>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
+      <c r="N60" s="106"/>
+      <c r="O60" s="106"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="126"/>
+      <c r="R60" s="126"/>
+      <c r="S60" s="126"/>
+      <c r="T60" s="126"/>
+      <c r="U60" s="126"/>
+      <c r="V60" s="2"/>
+      <c r="W60" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="X60" s="127"/>
+      <c r="Y60" s="127"/>
+      <c r="Z60" s="127"/>
+      <c r="AA60" s="127"/>
+      <c r="AB60" s="127"/>
+      <c r="AC60" s="127"/>
+      <c r="AD60" s="56"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="59"/>
+      <c r="AG60" s="59"/>
+      <c r="AH60" s="59"/>
+      <c r="AI60" s="59"/>
+      <c r="AJ60" s="59"/>
+      <c r="AK60" s="59"/>
+      <c r="AL60" s="59"/>
+      <c r="AM60" s="59"/>
+      <c r="AN60" s="59"/>
+      <c r="AO60" s="59"/>
+      <c r="AP60" s="59"/>
+      <c r="AQ60" s="59"/>
+      <c r="AR60" s="59"/>
+      <c r="AS60" s="59"/>
+      <c r="AT60" s="59"/>
+      <c r="AU60" s="59"/>
+      <c r="AV60" s="59"/>
+      <c r="AW60" s="59"/>
+      <c r="AX60" s="59"/>
+      <c r="AY60" s="59"/>
+      <c r="AZ60" s="59"/>
+      <c r="BA60" s="59"/>
+      <c r="BB60" s="59"/>
+      <c r="BC60" s="59"/>
+      <c r="BD60" s="2"/>
+      <c r="BE60" t="n" s="52">
+        <v>165.0</v>
+      </c>
       <c r="BF60" s="6"/>
-      <c r="BH60" s="7">
-        <v>195</v>
-      </c>
+      <c r="BH60" s="7"/>
       <c r="BI60" s="4"/>
       <c r="BP60" s="7"/>
       <c r="BQ60" s="6"/>
       <c r="BR60" s="6"/>
     </row>
-    <row customHeight="1" ht="12.75" r="61" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="BR61" s="1">
-        <v>0</v>
-      </c>
+    <row customHeight="true" ht="14.25" r="61" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="68">
+        <v>69</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" t="s" s="123">
+        <v>89</v>
+      </c>
+      <c r="I61" s="123"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="123"/>
+      <c r="L61" s="123"/>
+      <c r="M61" s="123"/>
+      <c r="N61" s="123"/>
+      <c r="O61" s="123"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="56"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="59"/>
+      <c r="AG61" s="37"/>
+      <c r="AH61" s="59"/>
+      <c r="AI61" t="s" s="69">
+        <v>69</v>
+      </c>
+      <c r="AJ61" s="70"/>
+      <c r="AK61" s="70"/>
+      <c r="AL61" s="70"/>
+      <c r="AM61" s="70"/>
+      <c r="AN61" t="s" s="71">
+        <v>70</v>
+      </c>
+      <c r="AO61" s="60"/>
+      <c r="AP61" s="60"/>
+      <c r="AQ61" s="60"/>
+      <c r="AR61" s="60"/>
+      <c r="AS61" s="60"/>
+      <c r="AT61" s="60"/>
+      <c r="AU61" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AV61" s="37"/>
+      <c r="AW61" t="s" s="59">
+        <v>71</v>
+      </c>
+      <c r="AX61" s="37"/>
+      <c r="AY61" s="37"/>
+      <c r="AZ61" s="37"/>
+      <c r="BA61" s="37"/>
+      <c r="BB61" s="59"/>
+      <c r="BC61" s="59"/>
+      <c r="BD61" s="2"/>
+      <c r="BE61" t="s" s="52">
+        <v>60</v>
+      </c>
+      <c r="BF61" s="6"/>
+      <c r="BH61" t="n" s="7">
+        <v>285.0</v>
+      </c>
+      <c r="BI61" s="4"/>
+      <c r="BP61" s="7"/>
+      <c r="BQ61" s="6"/>
+      <c r="BR61" s="6"/>
     </row>
     <row customHeight="1" ht="12.75" r="62" spans="1:70" x14ac:dyDescent="0.2">
       <c r="BR62" s="1">
@@ -6179,66 +6231,66 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells>
-    <mergeCell ref="Q40:AK40"/>
-    <mergeCell ref="F41:AK41"/>
-    <mergeCell ref="F42:AK42"/>
-    <mergeCell ref="AP42:BC43"/>
-    <mergeCell ref="S43:X43"/>
-    <mergeCell ref="Y43:AN43"/>
-    <mergeCell ref="Y44:AN44"/>
+    <mergeCell ref="Q42:AK42"/>
+    <mergeCell ref="F43:AK43"/>
+    <mergeCell ref="F44:AK44"/>
     <mergeCell ref="AP44:BC45"/>
-    <mergeCell ref="F45:P45"/>
-    <mergeCell ref="R45:X45"/>
+    <mergeCell ref="S45:X45"/>
     <mergeCell ref="Y45:AN45"/>
-    <mergeCell ref="F46:P46"/>
     <mergeCell ref="Y46:AN46"/>
-    <mergeCell ref="AK48:AP48"/>
-    <mergeCell ref="AR48:BC48"/>
-    <mergeCell ref="R49:Z49"/>
-    <mergeCell ref="AH49:BC49"/>
-    <mergeCell ref="A50:AD50"/>
-    <mergeCell ref="AI50:BC50"/>
-    <mergeCell ref="A51:AA51"/>
-    <mergeCell ref="V53:AD53"/>
-    <mergeCell ref="AI53:AP53"/>
-    <mergeCell ref="AR53:AV53"/>
-    <mergeCell ref="AX53:BC53"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="W54:AC54"/>
-    <mergeCell ref="AJ54:AP54"/>
-    <mergeCell ref="AR54:AV54"/>
-    <mergeCell ref="AX54:BC54"/>
-    <mergeCell ref="AN39:AP39"/>
-    <mergeCell ref="AQ39:AS39"/>
-    <mergeCell ref="AT39:AV39"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="BA39:BD39"/>
-    <mergeCell ref="H59:O59"/>
-    <mergeCell ref="I57:O57"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="W57:AC57"/>
-    <mergeCell ref="I58:O58"/>
+    <mergeCell ref="AP46:BC47"/>
+    <mergeCell ref="F47:P47"/>
+    <mergeCell ref="R47:X47"/>
+    <mergeCell ref="Y47:AN47"/>
+    <mergeCell ref="F48:P48"/>
+    <mergeCell ref="Y48:AN48"/>
+    <mergeCell ref="AK50:AP50"/>
+    <mergeCell ref="AR50:BC50"/>
+    <mergeCell ref="R51:Z51"/>
+    <mergeCell ref="AH51:BC51"/>
+    <mergeCell ref="A52:AD52"/>
+    <mergeCell ref="AI52:BC52"/>
+    <mergeCell ref="A53:AA53"/>
+    <mergeCell ref="V55:AD55"/>
+    <mergeCell ref="AI55:AP55"/>
+    <mergeCell ref="AR55:AV55"/>
     <mergeCell ref="AX55:BC55"/>
+    <mergeCell ref="H56:O56"/>
     <mergeCell ref="Q56:U56"/>
     <mergeCell ref="W56:AC56"/>
     <mergeCell ref="AJ56:AP56"/>
     <mergeCell ref="AR56:AV56"/>
     <mergeCell ref="AX56:BC56"/>
+    <mergeCell ref="AN41:AP41"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AT41:AV41"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="BA41:BD41"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="I59:O59"/>
+    <mergeCell ref="Q59:U59"/>
+    <mergeCell ref="W59:AC59"/>
+    <mergeCell ref="I60:O60"/>
+    <mergeCell ref="AX57:BC57"/>
     <mergeCell ref="Q58:U58"/>
     <mergeCell ref="W58:AC58"/>
+    <mergeCell ref="AJ58:AP58"/>
+    <mergeCell ref="AR58:AV58"/>
+    <mergeCell ref="AX58:BC58"/>
+    <mergeCell ref="Q60:U60"/>
+    <mergeCell ref="W60:AC60"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="V57:AD57"/>
+    <mergeCell ref="AI57:AP57"/>
+    <mergeCell ref="AR57:AV57"/>
+    <mergeCell ref="AH54:BC54"/>
     <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="V55:AD55"/>
-    <mergeCell ref="AI55:AP55"/>
-    <mergeCell ref="AR55:AV55"/>
-    <mergeCell ref="AH52:BC52"/>
-    <mergeCell ref="Q53:U53"/>
     <mergeCell ref="AC38:AE38"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="D38:P38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AK39:AM39"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AH41:AJ41"/>
+    <mergeCell ref="AK41:AM41"/>
     <mergeCell ref="Q38:S38"/>
     <mergeCell ref="T38:V38"/>
     <mergeCell ref="W38:Y38"/>
@@ -6326,6 +6378,11 @@
     <mergeCell ref="AK32:AM32"/>
     <mergeCell ref="AN32:AP32"/>
     <mergeCell ref="AQ32:AS32"/>
+    <mergeCell ref="Y39:AN39"/>
+    <mergeCell ref="AP39:BC40"/>
+    <mergeCell ref="F40:P40"/>
+    <mergeCell ref="R40:X40"/>
+    <mergeCell ref="Y40:AN40"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:P33"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="102">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -302,6 +302,30 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>02311MAJ</t>
+  </si>
+  <si>
+    <t>02310NBS</t>
+  </si>
+  <si>
+    <t>04092675</t>
+  </si>
+  <si>
+    <t>02114914</t>
+  </si>
+  <si>
+    <t>02232ELB</t>
+  </si>
+  <si>
+    <t>24022488</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -3932,575 +3956,145 @@
       <c r="BR32" s="6"/>
       <c r="BS32" s="1"/>
     </row>
-    <row customHeight="1" ht="29.85" r="33" spans="1:70" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="112">
-        <v>1</v>
-      </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="118" t="s">
-        <v>73</v>
-      </c>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="96"/>
-      <c r="AG33" s="96"/>
-      <c r="AH33" s="97"/>
-      <c r="AI33" s="97"/>
-      <c r="AJ33" s="97"/>
-      <c r="AK33" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL33" s="98"/>
-      <c r="AM33" s="98"/>
-      <c r="AN33" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO33" s="99"/>
-      <c r="AP33" s="99"/>
-      <c r="AQ33" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="AU33" s="101"/>
-      <c r="AV33" s="101"/>
-      <c r="AW33" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX33" s="94"/>
-      <c r="AY33" s="94"/>
-      <c r="AZ33" s="94"/>
-      <c r="BA33" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB33" s="95"/>
-      <c r="BC33" s="95"/>
-      <c r="BD33" s="95"/>
-      <c r="BE33" s="23"/>
-      <c r="BF33" s="1">
-        <v>5373</v>
-      </c>
-      <c r="BG33" s="7">
-        <v>598</v>
-      </c>
-      <c r="BH33" s="6"/>
-      <c r="BI33" s="6"/>
-      <c r="BJ33" s="47"/>
-      <c r="BK33" s="47"/>
-      <c r="BL33" s="47"/>
-      <c r="BM33" s="47"/>
-      <c r="BN33" s="47"/>
-      <c r="BP33" s="7"/>
-      <c r="BQ33" s="6"/>
-      <c r="BR33" s="6"/>
+    <row r="33">
+      <c r="Q33" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="AK33" t="s" s="17">
+        <v>93</v>
+      </c>
+      <c r="AN33" t="n" s="80">
+        <v>2285.69</v>
+      </c>
+      <c r="AQ33" t="n" s="80">
+        <v>2285.69</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>457.14</v>
+      </c>
     </row>
     <row r="34">
-      <c r="Q34" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="AK34" t="s" s="17">
+      <c r="Q34" t="s" s="91">
+        <v>95</v>
+      </c>
+      <c r="AK34" t="s" s="91">
         <v>93</v>
       </c>
-    </row>
-    <row customHeight="true" ht="29.85" r="35" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A35" t="n" s="112">
-        <v>1.0</v>
-      </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" t="s" s="113">
-        <v>80</v>
-      </c>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" t="s" s="117">
-        <v>82</v>
-      </c>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" t="s" s="118">
-        <v>73</v>
-      </c>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" t="s" s="119">
-        <v>74</v>
-      </c>
-      <c r="X35" s="119"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="96"/>
-      <c r="AG35" s="96"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="97"/>
-      <c r="AJ35" s="97"/>
-      <c r="AK35" t="s" s="98">
-        <v>81</v>
-      </c>
-      <c r="AL35" s="98"/>
-      <c r="AM35" s="98"/>
-      <c r="AN35" t="s" s="99">
-        <v>83</v>
-      </c>
-      <c r="AO35" s="99"/>
-      <c r="AP35" s="99"/>
-      <c r="AQ35" t="s" s="95">
-        <v>84</v>
-      </c>
-      <c r="AR35" s="95"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" t="n" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="AU35" s="101"/>
-      <c r="AV35" s="101"/>
-      <c r="AW35" t="s" s="94">
-        <v>85</v>
-      </c>
-      <c r="AX35" s="94"/>
-      <c r="AY35" s="94"/>
-      <c r="AZ35" s="94"/>
-      <c r="BA35" t="s" s="95">
-        <v>86</v>
-      </c>
-      <c r="BB35" s="95"/>
-      <c r="BC35" s="95"/>
-      <c r="BD35" s="95"/>
-      <c r="BE35" s="23"/>
-      <c r="BF35" t="n" s="1">
-        <v>5373.0</v>
-      </c>
-      <c r="BG35" t="n" s="7">
-        <v>598.0</v>
-      </c>
-      <c r="BH35" s="6"/>
-      <c r="BI35" s="6"/>
-      <c r="BJ35" s="47"/>
-      <c r="BK35" s="47"/>
-      <c r="BL35" s="47"/>
-      <c r="BM35" s="47"/>
-      <c r="BN35" s="47"/>
-      <c r="BO35" s="7"/>
-      <c r="BP35" s="7"/>
-      <c r="BQ35" s="6"/>
-      <c r="BR35" s="6"/>
-    </row>
-    <row customHeight="true" ht="29.85" r="36" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A36" t="n" s="112">
-        <v>1.0</v>
-      </c>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" t="s" s="113">
-        <v>80</v>
-      </c>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" t="s" s="117">
-        <v>82</v>
-      </c>
-      <c r="R36" s="117"/>
-      <c r="S36" s="117"/>
-      <c r="T36" t="s" s="118">
-        <v>73</v>
-      </c>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" t="s" s="119">
-        <v>74</v>
-      </c>
-      <c r="X36" s="119"/>
-      <c r="Y36" s="119"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="111"/>
-      <c r="AE36" s="111"/>
-      <c r="AF36" s="96"/>
-      <c r="AG36" s="96"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" t="s" s="98">
-        <v>81</v>
-      </c>
-      <c r="AL36" s="98"/>
-      <c r="AM36" s="98"/>
-      <c r="AN36" t="s" s="99">
-        <v>83</v>
-      </c>
-      <c r="AO36" s="99"/>
-      <c r="AP36" s="99"/>
-      <c r="AQ36" t="s" s="95">
-        <v>84</v>
-      </c>
-      <c r="AR36" s="95"/>
-      <c r="AS36" s="95"/>
-      <c r="AT36" t="n" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="AU36" s="101"/>
-      <c r="AV36" s="101"/>
-      <c r="AW36" t="s" s="94">
-        <v>85</v>
-      </c>
-      <c r="AX36" s="94"/>
-      <c r="AY36" s="94"/>
-      <c r="AZ36" s="94"/>
-      <c r="BA36" t="s" s="95">
-        <v>86</v>
-      </c>
-      <c r="BB36" s="95"/>
-      <c r="BC36" s="95"/>
-      <c r="BD36" s="95"/>
-      <c r="BE36" s="23"/>
-      <c r="BF36" t="n" s="1">
-        <v>5373.0</v>
-      </c>
-      <c r="BG36" t="n" s="7">
-        <v>598.0</v>
-      </c>
-      <c r="BH36" s="6"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="47"/>
-      <c r="BK36" s="47"/>
-      <c r="BL36" s="47"/>
-      <c r="BM36" s="47"/>
-      <c r="BN36" s="47"/>
-      <c r="BO36" s="7"/>
-      <c r="BP36" s="7"/>
-      <c r="BQ36" s="6"/>
-      <c r="BR36" s="6"/>
-    </row>
-    <row customHeight="true" ht="29.85" r="37" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A37" t="n" s="112">
-        <v>1.0</v>
-      </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" t="s" s="113">
-        <v>80</v>
-      </c>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" t="s" s="117">
-        <v>82</v>
-      </c>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
-      <c r="T37" t="s" s="118">
-        <v>73</v>
-      </c>
-      <c r="U37" s="118"/>
-      <c r="V37" s="118"/>
-      <c r="W37" t="s" s="119">
-        <v>74</v>
-      </c>
-      <c r="X37" s="119"/>
-      <c r="Y37" s="119"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="111"/>
-      <c r="AE37" s="111"/>
-      <c r="AF37" s="96"/>
-      <c r="AG37" s="96"/>
-      <c r="AH37" s="97"/>
-      <c r="AI37" s="97"/>
-      <c r="AJ37" s="97"/>
-      <c r="AK37" t="s" s="98">
-        <v>81</v>
-      </c>
-      <c r="AL37" s="98"/>
-      <c r="AM37" s="98"/>
-      <c r="AN37" t="s" s="99">
-        <v>83</v>
-      </c>
-      <c r="AO37" s="99"/>
-      <c r="AP37" s="99"/>
-      <c r="AQ37" t="s" s="95">
-        <v>84</v>
-      </c>
-      <c r="AR37" s="95"/>
-      <c r="AS37" s="95"/>
-      <c r="AT37" t="n" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="AU37" s="101"/>
-      <c r="AV37" s="101"/>
-      <c r="AW37" t="s" s="94">
-        <v>85</v>
-      </c>
-      <c r="AX37" s="94"/>
-      <c r="AY37" s="94"/>
-      <c r="AZ37" s="94"/>
-      <c r="BA37" t="s" s="95">
-        <v>86</v>
-      </c>
-      <c r="BB37" s="95"/>
-      <c r="BC37" s="95"/>
-      <c r="BD37" s="95"/>
-      <c r="BE37" s="23"/>
-      <c r="BF37" t="n" s="1">
-        <v>5373.0</v>
-      </c>
-      <c r="BG37" t="n" s="7">
-        <v>598.0</v>
-      </c>
-      <c r="BH37" s="6"/>
-      <c r="BI37" s="6"/>
-      <c r="BJ37" s="47"/>
-      <c r="BK37" s="47"/>
-      <c r="BL37" s="47"/>
-      <c r="BM37" s="47"/>
-      <c r="BN37" s="47"/>
-      <c r="BO37" s="7"/>
-      <c r="BP37" s="7"/>
-      <c r="BQ37" s="6"/>
-      <c r="BR37" s="6"/>
-    </row>
-    <row customHeight="true" ht="29.85" r="38" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A38" t="n" s="112">
-        <v>1.0</v>
-      </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" t="s" s="113">
-        <v>80</v>
-      </c>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" t="s" s="117">
-        <v>82</v>
-      </c>
-      <c r="R38" s="117"/>
-      <c r="S38" s="117"/>
-      <c r="T38" t="s" s="118">
-        <v>73</v>
-      </c>
-      <c r="U38" s="118"/>
-      <c r="V38" s="118"/>
-      <c r="W38" t="s" s="119">
-        <v>74</v>
-      </c>
-      <c r="X38" s="119"/>
-      <c r="Y38" s="119"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="111"/>
-      <c r="AE38" s="111"/>
-      <c r="AF38" s="96"/>
-      <c r="AG38" s="96"/>
-      <c r="AH38" s="97"/>
-      <c r="AI38" s="97"/>
-      <c r="AJ38" s="97"/>
-      <c r="AK38" t="s" s="98">
-        <v>81</v>
-      </c>
-      <c r="AL38" s="98"/>
-      <c r="AM38" s="98"/>
-      <c r="AN38" t="s" s="99">
-        <v>83</v>
-      </c>
-      <c r="AO38" s="99"/>
-      <c r="AP38" s="99"/>
-      <c r="AQ38" t="s" s="95">
-        <v>84</v>
-      </c>
-      <c r="AR38" s="95"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" t="n" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="AU38" s="101"/>
-      <c r="AV38" s="101"/>
-      <c r="AW38" t="s" s="94">
-        <v>85</v>
-      </c>
-      <c r="AX38" s="94"/>
-      <c r="AY38" s="94"/>
-      <c r="AZ38" s="94"/>
-      <c r="BA38" t="s" s="95">
-        <v>86</v>
-      </c>
-      <c r="BB38" s="95"/>
-      <c r="BC38" s="95"/>
-      <c r="BD38" s="95"/>
-      <c r="BE38" s="23"/>
-      <c r="BF38" t="n" s="1">
-        <v>5373.0</v>
-      </c>
-      <c r="BG38" t="n" s="7">
-        <v>598.0</v>
-      </c>
-      <c r="BH38" s="6"/>
-      <c r="BI38" s="6"/>
-      <c r="BJ38" s="47"/>
-      <c r="BK38" s="47"/>
-      <c r="BL38" s="47"/>
-      <c r="BM38" s="47"/>
-      <c r="BN38" s="47"/>
-      <c r="BO38" s="7"/>
-      <c r="BP38" s="7"/>
-      <c r="BQ38" s="6"/>
-      <c r="BR38" s="6"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="39" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="127"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="127"/>
-      <c r="AE39" s="127"/>
-      <c r="AF39" s="127"/>
-      <c r="AG39" s="127"/>
-      <c r="AH39" s="127"/>
-      <c r="AI39" s="127"/>
-      <c r="AJ39" s="127"/>
-      <c r="AK39" s="127"/>
-      <c r="AL39" s="127"/>
-      <c r="AM39" s="127"/>
-      <c r="AN39" s="127"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="140"/>
-      <c r="AQ39" s="140"/>
-      <c r="AR39" s="140"/>
-      <c r="AS39" s="140"/>
-      <c r="AT39" s="140"/>
-      <c r="AU39" s="140"/>
-      <c r="AV39" s="140"/>
-      <c r="AW39" s="140"/>
-      <c r="AX39" s="140"/>
-      <c r="AY39" s="140"/>
-      <c r="AZ39" s="140"/>
-      <c r="BA39" s="140"/>
-      <c r="BB39" s="140"/>
-      <c r="BC39" s="140"/>
-      <c r="BD39" s="2"/>
-      <c r="BG39" s="6"/>
-      <c r="BH39" s="52">
-        <v>225</v>
-      </c>
-      <c r="BI39" s="6"/>
-      <c r="BJ39" s="47"/>
-      <c r="BK39" s="47"/>
-      <c r="BL39" s="47"/>
-      <c r="BM39" s="47"/>
-      <c r="BN39" s="47"/>
-      <c r="BP39" s="52"/>
-      <c r="BQ39" s="6"/>
-      <c r="BR39" s="6"/>
+      <c r="AN34" t="n" s="93">
+        <v>3907.79</v>
+      </c>
+      <c r="AQ34" t="n" s="93">
+        <v>3907.79</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>781.56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="Q35" t="s" s="35">
+        <v>96</v>
+      </c>
+      <c r="AK35" t="s" s="17">
+        <v>93</v>
+      </c>
+      <c r="AN35" t="n" s="80">
+        <v>34.07</v>
+      </c>
+      <c r="AQ35" t="n" s="80">
+        <v>34.07</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="Q36" t="s" s="15">
+        <v>97</v>
+      </c>
+      <c r="AK36" t="s" s="15">
+        <v>93</v>
+      </c>
+      <c r="AN36" t="n" s="15">
+        <v>246.77</v>
+      </c>
+      <c r="AQ36" t="n" s="15">
+        <v>246.77</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>49.35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="Q37" t="s" s="16">
+        <v>98</v>
+      </c>
+      <c r="AK37" t="s" s="16">
+        <v>93</v>
+      </c>
+      <c r="AN37" t="n" s="16">
+        <v>902.32</v>
+      </c>
+      <c r="AQ37" t="n" s="16">
+        <v>902.32</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>180.46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="Q38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AN38" t="n" s="2">
+        <v>370.17</v>
+      </c>
+      <c r="AQ38" t="n" s="2">
+        <v>370.17</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>74.03</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="Q39" t="s" s="3">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s" s="39">
+        <v>101</v>
+      </c>
+      <c r="AN39" t="n" s="39">
+        <v>92.35</v>
+      </c>
+      <c r="AQ39" t="n" s="39">
+        <v>3694.0</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>738.8</v>
+      </c>
     </row>
     <row customHeight="1" ht="11.25" r="40" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="100">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -301,9 +301,6 @@
     <t>02311KSW</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>20%</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
   </si>
   <si>
     <t>24022488</t>
-  </si>
-  <si>
-    <t>40</t>
   </si>
 </sst>
 </file>
@@ -3957,297 +3951,320 @@
       <c r="BS32" s="1"/>
     </row>
     <row r="33">
-      <c r="Q33" t="s" s="10">
+      <c r="Q33" t="s">
         <v>92</v>
       </c>
-      <c r="AK33" t="s" s="17">
+      <c r="AK33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>2285.69</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2285.69</v>
+      </c>
+      <c r="AT33" t="s">
         <v>93</v>
-      </c>
-      <c r="AN33" t="n" s="80">
-        <v>2285.69</v>
-      </c>
-      <c r="AQ33" t="n" s="80">
-        <v>2285.69</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>94</v>
       </c>
       <c r="AW33" t="n">
         <v>457.14</v>
       </c>
+      <c r="BA33" t="n">
+        <v>2742.83</v>
+      </c>
     </row>
     <row r="34">
-      <c r="Q34" t="s" s="91">
-        <v>95</v>
-      </c>
-      <c r="AK34" t="s" s="91">
+      <c r="Q34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3907.79</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3907.79</v>
+      </c>
+      <c r="AT34" t="s">
         <v>93</v>
-      </c>
-      <c r="AN34" t="n" s="93">
-        <v>3907.79</v>
-      </c>
-      <c r="AQ34" t="n" s="93">
-        <v>3907.79</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>94</v>
       </c>
       <c r="AW34" t="n">
         <v>781.56</v>
       </c>
+      <c r="BA34" t="n">
+        <v>4689.35</v>
+      </c>
     </row>
     <row r="35">
-      <c r="Q35" t="s" s="35">
-        <v>96</v>
-      </c>
-      <c r="AK35" t="s" s="17">
+      <c r="Q35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>34.07</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>34.07</v>
+      </c>
+      <c r="AT35" t="s">
         <v>93</v>
-      </c>
-      <c r="AN35" t="n" s="80">
-        <v>34.07</v>
-      </c>
-      <c r="AQ35" t="n" s="80">
-        <v>34.07</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>94</v>
       </c>
       <c r="AW35" t="n">
         <v>6.81</v>
       </c>
+      <c r="BA35" t="n">
+        <v>40.88</v>
+      </c>
     </row>
     <row r="36">
-      <c r="Q36" t="s" s="15">
-        <v>97</v>
-      </c>
-      <c r="AK36" t="s" s="15">
+      <c r="Q36" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>246.77</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>246.77</v>
+      </c>
+      <c r="AT36" t="s">
         <v>93</v>
-      </c>
-      <c r="AN36" t="n" s="15">
-        <v>246.77</v>
-      </c>
-      <c r="AQ36" t="n" s="15">
-        <v>246.77</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>94</v>
       </c>
       <c r="AW36" t="n">
         <v>49.35</v>
       </c>
+      <c r="BA36" t="n">
+        <v>296.12</v>
+      </c>
     </row>
     <row r="37">
-      <c r="Q37" t="s" s="16">
-        <v>98</v>
-      </c>
-      <c r="AK37" t="s" s="16">
+      <c r="Q37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>902.32</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>902.32</v>
+      </c>
+      <c r="AT37" t="s">
         <v>93</v>
-      </c>
-      <c r="AN37" t="n" s="16">
-        <v>902.32</v>
-      </c>
-      <c r="AQ37" t="n" s="16">
-        <v>902.32</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>94</v>
       </c>
       <c r="AW37" t="n">
         <v>180.46</v>
       </c>
+      <c r="BA37" t="n">
+        <v>1082.78</v>
+      </c>
     </row>
     <row r="38">
-      <c r="Q38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="Q38" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>370.17</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>370.17</v>
+      </c>
+      <c r="AT38" t="s">
         <v>93</v>
-      </c>
-      <c r="AN38" t="n" s="2">
-        <v>370.17</v>
-      </c>
-      <c r="AQ38" t="n" s="2">
-        <v>370.17</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>94</v>
       </c>
       <c r="AW38" t="n">
         <v>74.03</v>
       </c>
+      <c r="BA38" t="n">
+        <v>444.2</v>
+      </c>
     </row>
     <row r="39">
-      <c r="Q39" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="AK39" t="s" s="39">
-        <v>101</v>
-      </c>
-      <c r="AN39" t="n" s="39">
+      <c r="Q39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AN39" t="n">
         <v>92.35</v>
       </c>
-      <c r="AQ39" t="n" s="39">
+      <c r="AQ39" t="n">
         <v>3694.0</v>
       </c>
       <c r="AT39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AW39" t="n">
         <v>738.8</v>
       </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="40" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="S40" s="141"/>
-      <c r="T40" s="141"/>
-      <c r="U40" s="141"/>
-      <c r="V40" s="141"/>
-      <c r="W40" s="141"/>
-      <c r="X40" s="141"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="124"/>
-      <c r="AG40" s="124"/>
-      <c r="AH40" s="124"/>
-      <c r="AI40" s="124"/>
-      <c r="AJ40" s="124"/>
-      <c r="AK40" s="124"/>
-      <c r="AL40" s="124"/>
-      <c r="AM40" s="124"/>
-      <c r="AN40" s="124"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="140"/>
-      <c r="AQ40" s="140"/>
-      <c r="AR40" s="140"/>
-      <c r="AS40" s="140"/>
-      <c r="AT40" s="140"/>
-      <c r="AU40" s="140"/>
-      <c r="AV40" s="140"/>
-      <c r="AW40" s="140"/>
-      <c r="AX40" s="140"/>
-      <c r="AY40" s="140"/>
-      <c r="AZ40" s="140"/>
-      <c r="BA40" s="140"/>
-      <c r="BB40" s="140"/>
-      <c r="BC40" s="140"/>
-      <c r="BD40" s="2"/>
+      <c r="BA39" t="n">
+        <v>4432.8</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="34.5" r="40" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="48"/>
+      <c r="AE40" t="s" s="36">
+        <v>43</v>
+      </c>
+      <c r="AF40" s="114">
+        <f>SUM(AF33)</f>
+      </c>
+      <c r="AG40" s="114"/>
+      <c r="AH40" s="115"/>
+      <c r="AI40" s="115"/>
+      <c r="AJ40" s="115"/>
+      <c r="AK40" s="116">
+        <f>SUM(AK33)</f>
+      </c>
+      <c r="AL40" s="116"/>
+      <c r="AM40" s="116"/>
+      <c r="AN40" t="s" s="120">
+        <v>42</v>
+      </c>
+      <c r="AO40" s="120"/>
+      <c r="AP40" s="120"/>
+      <c r="AQ40" s="121">
+        <f>SUM(AQ33)</f>
+      </c>
+      <c r="AR40" s="121"/>
+      <c r="AS40" s="121"/>
+      <c r="AT40" t="s" s="120">
+        <v>42</v>
+      </c>
+      <c r="AU40" s="120"/>
+      <c r="AV40" s="120"/>
+      <c r="AW40" s="122">
+        <f>SUM(AW33)</f>
+      </c>
+      <c r="AX40" s="122"/>
+      <c r="AY40" s="122"/>
+      <c r="AZ40" s="122"/>
+      <c r="BA40" s="122">
+        <f>SUM(BA33)</f>
+      </c>
+      <c r="BB40" s="122"/>
+      <c r="BC40" s="122"/>
+      <c r="BD40" s="122"/>
+      <c r="BF40" s="49"/>
       <c r="BG40" s="6"/>
-      <c r="BH40" s="52">
-        <v>225</v>
-      </c>
+      <c r="BH40" s="7"/>
       <c r="BI40" s="6"/>
       <c r="BJ40" s="47"/>
       <c r="BK40" s="47"/>
       <c r="BL40" s="47"/>
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
-      <c r="BP40" s="52"/>
+      <c r="BO40" s="7"/>
+      <c r="BP40" s="7"/>
       <c r="BQ40" s="6"/>
       <c r="BR40" s="6"/>
     </row>
-    <row customHeight="true" ht="34.5" r="41" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="48"/>
-      <c r="AE41" t="s" s="36">
-        <v>43</v>
-      </c>
-      <c r="AF41" s="114">
-        <f>SUM(AF33)</f>
-      </c>
-      <c r="AG41" s="114"/>
-      <c r="AH41" s="115"/>
-      <c r="AI41" s="115"/>
-      <c r="AJ41" s="115"/>
-      <c r="AK41" s="116">
-        <f>SUM(AK33)</f>
-      </c>
-      <c r="AL41" s="116"/>
-      <c r="AM41" s="116"/>
-      <c r="AN41" t="s" s="120">
-        <v>42</v>
-      </c>
-      <c r="AO41" s="120"/>
-      <c r="AP41" s="120"/>
-      <c r="AQ41" s="121">
-        <f>SUM(AQ33)</f>
-      </c>
-      <c r="AR41" s="121"/>
-      <c r="AS41" s="121"/>
-      <c r="AT41" t="s" s="120">
-        <v>42</v>
-      </c>
-      <c r="AU41" s="120"/>
-      <c r="AV41" s="120"/>
-      <c r="AW41" s="122">
-        <f>SUM(AW33)</f>
-      </c>
-      <c r="AX41" s="122"/>
-      <c r="AY41" s="122"/>
-      <c r="AZ41" s="122"/>
-      <c r="BA41" s="122">
-        <f>SUM(BA33)</f>
-      </c>
-      <c r="BB41" s="122"/>
-      <c r="BC41" s="122"/>
-      <c r="BD41" s="122"/>
+    <row customHeight="true" ht="32.25" r="41" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="137"/>
+      <c r="R41" s="137"/>
+      <c r="S41" s="137"/>
+      <c r="T41" s="137"/>
+      <c r="U41" s="137"/>
+      <c r="V41" s="137"/>
+      <c r="W41" s="137"/>
+      <c r="X41" s="137"/>
+      <c r="Y41" s="137"/>
+      <c r="Z41" s="137"/>
+      <c r="AA41" s="137"/>
+      <c r="AB41" s="137"/>
+      <c r="AC41" s="137"/>
+      <c r="AD41" s="137"/>
+      <c r="AE41" s="137"/>
+      <c r="AF41" s="137"/>
+      <c r="AG41" s="137"/>
+      <c r="AH41" s="137"/>
+      <c r="AI41" s="137"/>
+      <c r="AJ41" s="137"/>
+      <c r="AK41" s="137"/>
+      <c r="AL41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
       <c r="BE41" s="46"/>
       <c r="BF41" s="49"/>
       <c r="BG41" s="6"/>
-      <c r="BH41" s="7"/>
+      <c r="BH41" t="n" s="7">
+        <v>195.0</v>
+      </c>
       <c r="BI41" s="6"/>
       <c r="BJ41" s="47"/>
       <c r="BK41" s="47"/>
@@ -4259,25 +4276,27 @@
       <c r="BQ41" s="6"/>
       <c r="BR41" s="6"/>
     </row>
-    <row customHeight="true" ht="32.25" r="42" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="9.0" r="42" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A42" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="F42" t="s" s="137">
+        <v>75</v>
+      </c>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="137"/>
       <c r="Q42" s="137"/>
       <c r="R42" s="137"/>
       <c r="S42" s="137"/>
@@ -4300,7 +4319,7 @@
       <c r="AJ42" s="137"/>
       <c r="AK42" s="137"/>
       <c r="AL42" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
@@ -4324,7 +4343,7 @@
       <c r="BF42" s="49"/>
       <c r="BG42" s="6"/>
       <c r="BH42" t="n" s="7">
-        <v>195.0</v>
+        <v>180.0</v>
       </c>
       <c r="BI42" s="6"/>
       <c r="BJ42" s="47"/>
@@ -4332,80 +4351,77 @@
       <c r="BL42" s="47"/>
       <c r="BM42" s="47"/>
       <c r="BN42" s="47"/>
-      <c r="BO42" s="7"/>
       <c r="BP42" s="7"/>
       <c r="BQ42" s="6"/>
       <c r="BR42" s="6"/>
     </row>
-    <row customHeight="true" ht="9.0" r="43" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A43" t="s" s="2">
-        <v>46</v>
-      </c>
+    <row customHeight="true" ht="29.85" r="43" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" t="s" s="137">
-        <v>75</v>
-      </c>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="137"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="137"/>
-      <c r="P43" s="137"/>
-      <c r="Q43" s="137"/>
-      <c r="R43" s="137"/>
-      <c r="S43" s="137"/>
-      <c r="T43" s="137"/>
-      <c r="U43" s="137"/>
-      <c r="V43" s="137"/>
-      <c r="W43" s="137"/>
-      <c r="X43" s="137"/>
-      <c r="Y43" s="137"/>
-      <c r="Z43" s="137"/>
-      <c r="AA43" s="137"/>
-      <c r="AB43" s="137"/>
-      <c r="AC43" s="137"/>
-      <c r="AD43" s="137"/>
-      <c r="AE43" s="137"/>
-      <c r="AF43" s="137"/>
-      <c r="AG43" s="137"/>
-      <c r="AH43" s="137"/>
-      <c r="AI43" s="137"/>
-      <c r="AJ43" s="137"/>
-      <c r="AK43" s="137"/>
-      <c r="AL43" t="s" s="2">
-        <v>47</v>
-      </c>
+      <c r="F43" t="s" s="134">
+        <v>48</v>
+      </c>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
+      <c r="O43" s="134"/>
+      <c r="P43" s="134"/>
+      <c r="Q43" s="134"/>
+      <c r="R43" s="134"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="134"/>
+      <c r="V43" s="134"/>
+      <c r="W43" s="134"/>
+      <c r="X43" s="134"/>
+      <c r="Y43" s="134"/>
+      <c r="Z43" s="134"/>
+      <c r="AA43" s="134"/>
+      <c r="AB43" s="134"/>
+      <c r="AC43" s="134"/>
+      <c r="AD43" s="134"/>
+      <c r="AE43" s="134"/>
+      <c r="AF43" s="134"/>
+      <c r="AG43" s="134"/>
+      <c r="AH43" s="134"/>
+      <c r="AI43" s="134"/>
+      <c r="AJ43" s="134"/>
+      <c r="AK43" s="134"/>
+      <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
-      <c r="AP43" s="2"/>
-      <c r="AQ43" s="2"/>
-      <c r="AR43" s="2"/>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2"/>
-      <c r="AW43" s="2"/>
-      <c r="AX43" s="2"/>
-      <c r="AY43" s="2"/>
-      <c r="AZ43" s="2"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
+      <c r="AP43" s="138"/>
+      <c r="AQ43" s="138"/>
+      <c r="AR43" s="138"/>
+      <c r="AS43" s="138"/>
+      <c r="AT43" s="138"/>
+      <c r="AU43" s="138"/>
+      <c r="AV43" s="138"/>
+      <c r="AW43" s="138"/>
+      <c r="AX43" s="138"/>
+      <c r="AY43" s="138"/>
+      <c r="AZ43" s="138"/>
+      <c r="BA43" s="138"/>
+      <c r="BB43" s="138"/>
+      <c r="BC43" s="138"/>
       <c r="BD43" s="2"/>
-      <c r="BE43" s="46"/>
-      <c r="BF43" s="49"/>
-      <c r="BG43" s="6"/>
-      <c r="BH43" t="n" s="7">
-        <v>180.0</v>
-      </c>
+      <c r="BE43" s="23"/>
+      <c r="BF43" t="n" s="1">
+        <v>10360.0</v>
+      </c>
+      <c r="BG43" t="n" s="7">
+        <v>598.0</v>
+      </c>
+      <c r="BH43" s="6"/>
       <c r="BI43" s="6"/>
       <c r="BJ43" s="47"/>
       <c r="BK43" s="47"/>
@@ -4416,49 +4432,49 @@
       <c r="BQ43" s="6"/>
       <c r="BR43" s="6"/>
     </row>
-    <row customHeight="true" ht="29.85" r="44" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="48.6" r="44" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" t="s" s="134">
-        <v>48</v>
-      </c>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
-      <c r="N44" s="134"/>
-      <c r="O44" s="134"/>
-      <c r="P44" s="134"/>
-      <c r="Q44" s="134"/>
-      <c r="R44" s="134"/>
-      <c r="S44" s="134"/>
-      <c r="T44" s="134"/>
-      <c r="U44" s="134"/>
-      <c r="V44" s="134"/>
-      <c r="W44" s="134"/>
-      <c r="X44" s="134"/>
-      <c r="Y44" s="134"/>
-      <c r="Z44" s="134"/>
-      <c r="AA44" s="134"/>
-      <c r="AB44" s="134"/>
-      <c r="AC44" s="134"/>
-      <c r="AD44" s="134"/>
-      <c r="AE44" s="134"/>
-      <c r="AF44" s="134"/>
-      <c r="AG44" s="134"/>
-      <c r="AH44" s="134"/>
-      <c r="AI44" s="134"/>
-      <c r="AJ44" s="134"/>
-      <c r="AK44" s="134"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" t="s" s="139">
+        <v>49</v>
+      </c>
+      <c r="T44" s="139"/>
+      <c r="U44" s="139"/>
+      <c r="V44" s="139"/>
+      <c r="W44" s="139"/>
+      <c r="X44" s="139"/>
+      <c r="Y44" s="124"/>
+      <c r="Z44" s="124"/>
+      <c r="AA44" s="124"/>
+      <c r="AB44" s="124"/>
+      <c r="AC44" s="124"/>
+      <c r="AD44" s="124"/>
+      <c r="AE44" s="124"/>
+      <c r="AF44" s="124"/>
+      <c r="AG44" s="124"/>
+      <c r="AH44" s="124"/>
+      <c r="AI44" s="124"/>
+      <c r="AJ44" s="124"/>
+      <c r="AK44" s="124"/>
+      <c r="AL44" s="124"/>
+      <c r="AM44" s="124"/>
+      <c r="AN44" s="124"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="138"/>
       <c r="AQ44" s="138"/>
@@ -4477,10 +4493,10 @@
       <c r="BD44" s="2"/>
       <c r="BE44" s="23"/>
       <c r="BF44" t="n" s="1">
-        <v>10360.0</v>
+        <v>9762.0</v>
       </c>
       <c r="BG44" t="n" s="7">
-        <v>598.0</v>
+        <v>970.0</v>
       </c>
       <c r="BH44" s="6"/>
       <c r="BI44" s="6"/>
@@ -4493,7 +4509,7 @@
       <c r="BQ44" s="6"/>
       <c r="BR44" s="6"/>
     </row>
-    <row customHeight="true" ht="48.6" r="45" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="11.25" r="45" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4512,61 +4528,61 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" t="s" s="139">
-        <v>49</v>
-      </c>
-      <c r="T45" s="139"/>
-      <c r="U45" s="139"/>
-      <c r="V45" s="139"/>
-      <c r="W45" s="139"/>
-      <c r="X45" s="139"/>
-      <c r="Y45" s="124"/>
-      <c r="Z45" s="124"/>
-      <c r="AA45" s="124"/>
-      <c r="AB45" s="124"/>
-      <c r="AC45" s="124"/>
-      <c r="AD45" s="124"/>
-      <c r="AE45" s="124"/>
-      <c r="AF45" s="124"/>
-      <c r="AG45" s="124"/>
-      <c r="AH45" s="124"/>
-      <c r="AI45" s="124"/>
-      <c r="AJ45" s="124"/>
-      <c r="AK45" s="124"/>
-      <c r="AL45" s="124"/>
-      <c r="AM45" s="124"/>
-      <c r="AN45" s="124"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" t="s" s="127">
+        <v>48</v>
+      </c>
+      <c r="Z45" s="127"/>
+      <c r="AA45" s="127"/>
+      <c r="AB45" s="127"/>
+      <c r="AC45" s="127"/>
+      <c r="AD45" s="127"/>
+      <c r="AE45" s="127"/>
+      <c r="AF45" s="127"/>
+      <c r="AG45" s="127"/>
+      <c r="AH45" s="127"/>
+      <c r="AI45" s="127"/>
+      <c r="AJ45" s="127"/>
+      <c r="AK45" s="127"/>
+      <c r="AL45" s="127"/>
+      <c r="AM45" s="127"/>
+      <c r="AN45" s="127"/>
       <c r="AO45" s="2"/>
-      <c r="AP45" s="138"/>
-      <c r="AQ45" s="138"/>
-      <c r="AR45" s="138"/>
-      <c r="AS45" s="138"/>
-      <c r="AT45" s="138"/>
-      <c r="AU45" s="138"/>
-      <c r="AV45" s="138"/>
-      <c r="AW45" s="138"/>
-      <c r="AX45" s="138"/>
-      <c r="AY45" s="138"/>
-      <c r="AZ45" s="138"/>
-      <c r="BA45" s="138"/>
-      <c r="BB45" s="138"/>
-      <c r="BC45" s="138"/>
+      <c r="AP45" s="140"/>
+      <c r="AQ45" s="140"/>
+      <c r="AR45" s="140"/>
+      <c r="AS45" s="140"/>
+      <c r="AT45" s="140"/>
+      <c r="AU45" s="140"/>
+      <c r="AV45" s="140"/>
+      <c r="AW45" s="140"/>
+      <c r="AX45" s="140"/>
+      <c r="AY45" s="140"/>
+      <c r="AZ45" s="140"/>
+      <c r="BA45" s="140"/>
+      <c r="BB45" s="140"/>
+      <c r="BC45" s="140"/>
       <c r="BD45" s="2"/>
-      <c r="BE45" s="23"/>
-      <c r="BF45" t="n" s="1">
-        <v>9762.0</v>
-      </c>
-      <c r="BG45" t="n" s="7">
-        <v>970.0</v>
-      </c>
-      <c r="BH45" s="6"/>
+      <c r="BE45" s="52">
+        <v>150</v>
+      </c>
+      <c r="BF45" s="6"/>
+      <c r="BG45" s="6"/>
+      <c r="BH45" t="n" s="52">
+        <v>225.0</v>
+      </c>
       <c r="BI45" s="6"/>
       <c r="BJ45" s="47"/>
       <c r="BK45" s="47"/>
       <c r="BL45" s="47"/>
       <c r="BM45" s="47"/>
       <c r="BN45" s="47"/>
-      <c r="BP45" s="7"/>
+      <c r="BP45" s="52"/>
       <c r="BQ45" s="6"/>
       <c r="BR45" s="6"/>
     </row>
@@ -4575,44 +4591,46 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="E46" t="s" s="24">
+        <v>50</v>
+      </c>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="124"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" t="s" s="127">
-        <v>48</v>
-      </c>
-      <c r="Z46" s="127"/>
-      <c r="AA46" s="127"/>
-      <c r="AB46" s="127"/>
-      <c r="AC46" s="127"/>
-      <c r="AD46" s="127"/>
-      <c r="AE46" s="127"/>
-      <c r="AF46" s="127"/>
-      <c r="AG46" s="127"/>
-      <c r="AH46" s="127"/>
-      <c r="AI46" s="127"/>
-      <c r="AJ46" s="127"/>
-      <c r="AK46" s="127"/>
-      <c r="AL46" s="127"/>
-      <c r="AM46" s="127"/>
-      <c r="AN46" s="127"/>
+      <c r="R46" t="s" s="141">
+        <v>51</v>
+      </c>
+      <c r="S46" s="141"/>
+      <c r="T46" s="141"/>
+      <c r="U46" s="141"/>
+      <c r="V46" s="141"/>
+      <c r="W46" s="141"/>
+      <c r="X46" s="141"/>
+      <c r="Y46" s="124"/>
+      <c r="Z46" s="124"/>
+      <c r="AA46" s="124"/>
+      <c r="AB46" s="124"/>
+      <c r="AC46" s="124"/>
+      <c r="AD46" s="124"/>
+      <c r="AE46" s="124"/>
+      <c r="AF46" s="124"/>
+      <c r="AG46" s="124"/>
+      <c r="AH46" s="124"/>
+      <c r="AI46" s="124"/>
+      <c r="AJ46" s="124"/>
+      <c r="AK46" s="124"/>
+      <c r="AL46" s="124"/>
+      <c r="AM46" s="124"/>
+      <c r="AN46" s="124"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="140"/>
       <c r="AQ46" s="140"/>
@@ -4652,77 +4670,69 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" t="s" s="24">
-        <v>50</v>
-      </c>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="124"/>
-      <c r="P47" s="124"/>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="127">
+        <v>48</v>
+      </c>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="127"/>
+      <c r="K47" s="127"/>
+      <c r="L47" s="127"/>
+      <c r="M47" s="127"/>
+      <c r="N47" s="127"/>
+      <c r="O47" s="127"/>
+      <c r="P47" s="127"/>
       <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="141">
-        <v>51</v>
-      </c>
-      <c r="S47" s="141"/>
-      <c r="T47" s="141"/>
-      <c r="U47" s="141"/>
-      <c r="V47" s="141"/>
-      <c r="W47" s="141"/>
-      <c r="X47" s="141"/>
-      <c r="Y47" s="124"/>
-      <c r="Z47" s="124"/>
-      <c r="AA47" s="124"/>
-      <c r="AB47" s="124"/>
-      <c r="AC47" s="124"/>
-      <c r="AD47" s="124"/>
-      <c r="AE47" s="124"/>
-      <c r="AF47" s="124"/>
-      <c r="AG47" s="124"/>
-      <c r="AH47" s="124"/>
-      <c r="AI47" s="124"/>
-      <c r="AJ47" s="124"/>
-      <c r="AK47" s="124"/>
-      <c r="AL47" s="124"/>
-      <c r="AM47" s="124"/>
-      <c r="AN47" s="124"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" t="s" s="127">
+        <v>48</v>
+      </c>
+      <c r="Z47" s="127"/>
+      <c r="AA47" s="127"/>
+      <c r="AB47" s="127"/>
+      <c r="AC47" s="127"/>
+      <c r="AD47" s="127"/>
+      <c r="AE47" s="127"/>
+      <c r="AF47" s="127"/>
+      <c r="AG47" s="127"/>
+      <c r="AH47" s="127"/>
+      <c r="AI47" s="127"/>
+      <c r="AJ47" s="127"/>
+      <c r="AK47" s="127"/>
+      <c r="AL47" s="127"/>
+      <c r="AM47" s="127"/>
+      <c r="AN47" s="127"/>
       <c r="AO47" s="2"/>
-      <c r="AP47" s="140"/>
-      <c r="AQ47" s="140"/>
-      <c r="AR47" s="140"/>
-      <c r="AS47" s="140"/>
-      <c r="AT47" s="140"/>
-      <c r="AU47" s="140"/>
-      <c r="AV47" s="140"/>
-      <c r="AW47" s="140"/>
-      <c r="AX47" s="140"/>
-      <c r="AY47" s="140"/>
-      <c r="AZ47" s="140"/>
-      <c r="BA47" s="140"/>
-      <c r="BB47" s="140"/>
-      <c r="BC47" s="140"/>
+      <c r="AP47" s="53"/>
+      <c r="AQ47" s="53"/>
+      <c r="AR47" s="53"/>
+      <c r="AS47" s="53"/>
+      <c r="AT47" s="53"/>
+      <c r="AU47" s="53"/>
+      <c r="AV47" s="53"/>
+      <c r="AW47" s="53"/>
+      <c r="AX47" s="53"/>
+      <c r="AY47" s="53"/>
+      <c r="AZ47" s="53"/>
+      <c r="BA47" s="53"/>
+      <c r="BB47" s="53"/>
+      <c r="BC47" s="53"/>
       <c r="BD47" s="2"/>
-      <c r="BE47" s="52">
-        <v>150</v>
-      </c>
+      <c r="BE47" s="46"/>
       <c r="BF47" s="6"/>
-      <c r="BG47" s="6"/>
-      <c r="BH47" t="n" s="52">
+      <c r="BH47" t="n" s="7">
         <v>225.0</v>
       </c>
-      <c r="BI47" s="6"/>
-      <c r="BJ47" s="47"/>
-      <c r="BK47" s="47"/>
-      <c r="BL47" s="47"/>
-      <c r="BM47" s="47"/>
-      <c r="BN47" s="47"/>
-      <c r="BP47" s="52"/>
+      <c r="BI47" s="4"/>
+      <c r="BP47" s="7"/>
       <c r="BQ47" s="6"/>
       <c r="BR47" s="6"/>
     </row>
@@ -4732,19 +4742,17 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" t="s" s="127">
-        <v>48</v>
-      </c>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="127"/>
-      <c r="K48" s="127"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="127"/>
-      <c r="N48" s="127"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="127"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -4753,39 +4761,37 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" t="s" s="127">
-        <v>48</v>
-      </c>
-      <c r="Z48" s="127"/>
-      <c r="AA48" s="127"/>
-      <c r="AB48" s="127"/>
-      <c r="AC48" s="127"/>
-      <c r="AD48" s="127"/>
-      <c r="AE48" s="127"/>
-      <c r="AF48" s="127"/>
-      <c r="AG48" s="127"/>
-      <c r="AH48" s="127"/>
-      <c r="AI48" s="127"/>
-      <c r="AJ48" s="127"/>
-      <c r="AK48" s="127"/>
-      <c r="AL48" s="127"/>
-      <c r="AM48" s="127"/>
-      <c r="AN48" s="127"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
-      <c r="AP48" s="53"/>
-      <c r="AQ48" s="53"/>
-      <c r="AR48" s="53"/>
-      <c r="AS48" s="53"/>
-      <c r="AT48" s="53"/>
-      <c r="AU48" s="53"/>
-      <c r="AV48" s="53"/>
-      <c r="AW48" s="53"/>
-      <c r="AX48" s="53"/>
-      <c r="AY48" s="53"/>
-      <c r="AZ48" s="53"/>
-      <c r="BA48" s="53"/>
-      <c r="BB48" s="53"/>
-      <c r="BC48" s="53"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
       <c r="BD48" s="2"/>
       <c r="BE48" s="46"/>
       <c r="BF48" s="6"/>
@@ -4797,8 +4803,10 @@
       <c r="BQ48" s="6"/>
       <c r="BR48" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="49" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+    <row customHeight="true" ht="8.25" r="49" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A49" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4812,62 +4820,66 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
+      <c r="AA49" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
+      <c r="AC49" s="55"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="2"/>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="2"/>
-      <c r="AU49" s="2"/>
-      <c r="AV49" s="2"/>
-      <c r="AW49" s="2"/>
-      <c r="AX49" s="2"/>
-      <c r="AY49" s="2"/>
-      <c r="AZ49" s="2"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="2"/>
+      <c r="AK49" s="124"/>
+      <c r="AL49" s="124"/>
+      <c r="AM49" s="124"/>
+      <c r="AN49" s="124"/>
+      <c r="AO49" s="124"/>
+      <c r="AP49" s="124"/>
+      <c r="AQ49" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AR49" s="124"/>
+      <c r="AS49" s="124"/>
+      <c r="AT49" s="124"/>
+      <c r="AU49" s="124"/>
+      <c r="AV49" s="124"/>
+      <c r="AW49" s="124"/>
+      <c r="AX49" s="124"/>
+      <c r="AY49" s="124"/>
+      <c r="AZ49" s="124"/>
+      <c r="BA49" s="124"/>
+      <c r="BB49" s="124"/>
+      <c r="BC49" s="124"/>
       <c r="BD49" s="2"/>
       <c r="BE49" s="46"/>
       <c r="BF49" s="6"/>
       <c r="BH49" t="n" s="7">
-        <v>225.0</v>
+        <v>165.0</v>
       </c>
       <c r="BI49" s="4"/>
       <c r="BP49" s="7"/>
       <c r="BQ49" s="6"/>
       <c r="BR49" s="6"/>
     </row>
-    <row customHeight="true" ht="8.25" r="50" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A50" t="s" s="2">
-        <v>52</v>
-      </c>
+    <row customHeight="true" ht="9.75" r="50" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -4881,41 +4893,39 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" t="s" s="134">
+        <v>48</v>
+      </c>
+      <c r="S50" s="134"/>
+      <c r="T50" s="134"/>
+      <c r="U50" s="134"/>
+      <c r="V50" s="134"/>
+      <c r="W50" s="134"/>
+      <c r="X50" s="134"/>
+      <c r="Y50" s="134"/>
+      <c r="Z50" s="134"/>
+      <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="55"/>
       <c r="AD50" s="56"/>
       <c r="AE50" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-      <c r="AI50" s="2"/>
-      <c r="AJ50" s="2"/>
+      <c r="AH50" s="124"/>
+      <c r="AI50" s="124"/>
+      <c r="AJ50" s="124"/>
       <c r="AK50" s="124"/>
       <c r="AL50" s="124"/>
       <c r="AM50" s="124"/>
       <c r="AN50" s="124"/>
       <c r="AO50" s="124"/>
       <c r="AP50" s="124"/>
-      <c r="AQ50" t="s" s="2">
-        <v>54</v>
-      </c>
+      <c r="AQ50" s="124"/>
       <c r="AR50" s="124"/>
       <c r="AS50" s="124"/>
       <c r="AT50" s="124"/>
@@ -4932,370 +4942,378 @@
       <c r="BE50" s="46"/>
       <c r="BF50" s="6"/>
       <c r="BH50" t="n" s="7">
-        <v>165.0</v>
+        <v>195.0</v>
       </c>
       <c r="BI50" s="4"/>
       <c r="BP50" s="7"/>
       <c r="BQ50" s="6"/>
       <c r="BR50" s="6"/>
     </row>
-    <row customHeight="true" ht="9.75" r="51" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" t="s" s="134">
-        <v>48</v>
-      </c>
-      <c r="S51" s="134"/>
-      <c r="T51" s="134"/>
-      <c r="U51" s="134"/>
-      <c r="V51" s="134"/>
-      <c r="W51" s="134"/>
-      <c r="X51" s="134"/>
-      <c r="Y51" s="134"/>
-      <c r="Z51" s="134"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="56"/>
-      <c r="AE51" t="s" s="2">
-        <v>55</v>
-      </c>
+    <row customHeight="true" ht="7.5" r="51" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A51" t="s" s="135">
+        <v>56</v>
+      </c>
+      <c r="B51" s="135"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="135"/>
+      <c r="P51" s="135"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="135"/>
+      <c r="S51" s="135"/>
+      <c r="T51" s="135"/>
+      <c r="U51" s="135"/>
+      <c r="V51" s="135"/>
+      <c r="W51" s="135"/>
+      <c r="X51" s="135"/>
+      <c r="Y51" s="135"/>
+      <c r="Z51" s="135"/>
+      <c r="AA51" s="135"/>
+      <c r="AB51" s="135"/>
+      <c r="AC51" s="135"/>
+      <c r="AD51" s="135"/>
+      <c r="AE51" s="55"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="124"/>
-      <c r="AI51" s="124"/>
-      <c r="AJ51" s="124"/>
-      <c r="AK51" s="124"/>
-      <c r="AL51" s="124"/>
-      <c r="AM51" s="124"/>
-      <c r="AN51" s="124"/>
-      <c r="AO51" s="124"/>
-      <c r="AP51" s="124"/>
-      <c r="AQ51" s="124"/>
-      <c r="AR51" s="124"/>
-      <c r="AS51" s="124"/>
-      <c r="AT51" s="124"/>
-      <c r="AU51" s="124"/>
-      <c r="AV51" s="124"/>
-      <c r="AW51" s="124"/>
-      <c r="AX51" s="124"/>
-      <c r="AY51" s="124"/>
-      <c r="AZ51" s="124"/>
-      <c r="BA51" s="124"/>
-      <c r="BB51" s="124"/>
-      <c r="BC51" s="124"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" t="s" s="126">
+        <v>57</v>
+      </c>
+      <c r="AJ51" s="126"/>
+      <c r="AK51" s="126"/>
+      <c r="AL51" s="126"/>
+      <c r="AM51" s="126"/>
+      <c r="AN51" s="126"/>
+      <c r="AO51" s="126"/>
+      <c r="AP51" s="126"/>
+      <c r="AQ51" s="126"/>
+      <c r="AR51" s="126"/>
+      <c r="AS51" s="126"/>
+      <c r="AT51" s="126"/>
+      <c r="AU51" s="126"/>
+      <c r="AV51" s="126"/>
+      <c r="AW51" s="126"/>
+      <c r="AX51" s="126"/>
+      <c r="AY51" s="126"/>
+      <c r="AZ51" s="126"/>
+      <c r="BA51" s="126"/>
+      <c r="BB51" s="126"/>
+      <c r="BC51" s="126"/>
       <c r="BD51" s="2"/>
-      <c r="BE51" s="46"/>
+      <c r="BE51" t="n" s="52">
+        <v>150.0</v>
+      </c>
       <c r="BF51" s="6"/>
       <c r="BH51" t="n" s="7">
-        <v>195.0</v>
+        <v>150.0</v>
       </c>
       <c r="BI51" s="4"/>
       <c r="BP51" s="7"/>
       <c r="BQ51" s="6"/>
       <c r="BR51" s="6"/>
     </row>
-    <row customHeight="true" ht="7.5" r="52" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A52" t="s" s="135">
-        <v>56</v>
-      </c>
-      <c r="B52" s="135"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="135"/>
-      <c r="K52" s="135"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
-      <c r="N52" s="135"/>
-      <c r="O52" s="135"/>
-      <c r="P52" s="135"/>
-      <c r="Q52" s="135"/>
-      <c r="R52" s="135"/>
-      <c r="S52" s="135"/>
-      <c r="T52" s="135"/>
-      <c r="U52" s="135"/>
-      <c r="V52" s="135"/>
-      <c r="W52" s="135"/>
-      <c r="X52" s="135"/>
-      <c r="Y52" s="135"/>
-      <c r="Z52" s="135"/>
-      <c r="AA52" s="135"/>
-      <c r="AB52" s="135"/>
-      <c r="AC52" s="135"/>
-      <c r="AD52" s="135"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2"/>
-      <c r="AI52" t="s" s="126">
-        <v>57</v>
-      </c>
-      <c r="AJ52" s="126"/>
-      <c r="AK52" s="126"/>
-      <c r="AL52" s="126"/>
-      <c r="AM52" s="126"/>
-      <c r="AN52" s="126"/>
-      <c r="AO52" s="126"/>
-      <c r="AP52" s="126"/>
-      <c r="AQ52" s="126"/>
-      <c r="AR52" s="126"/>
-      <c r="AS52" s="126"/>
-      <c r="AT52" s="126"/>
-      <c r="AU52" s="126"/>
-      <c r="AV52" s="126"/>
-      <c r="AW52" s="126"/>
-      <c r="AX52" s="126"/>
-      <c r="AY52" s="126"/>
-      <c r="AZ52" s="126"/>
-      <c r="BA52" s="126"/>
-      <c r="BB52" s="126"/>
-      <c r="BC52" s="126"/>
+    <row customHeight="true" ht="11.25" r="52" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A52" t="s" s="136">
+        <v>90</v>
+      </c>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="136"/>
+      <c r="L52" s="136"/>
+      <c r="M52" s="136"/>
+      <c r="N52" s="136"/>
+      <c r="O52" s="136"/>
+      <c r="P52" s="136"/>
+      <c r="Q52" s="136"/>
+      <c r="R52" s="136"/>
+      <c r="S52" s="136"/>
+      <c r="T52" s="136"/>
+      <c r="U52" s="136"/>
+      <c r="V52" s="136"/>
+      <c r="W52" s="136"/>
+      <c r="X52" s="136"/>
+      <c r="Y52" s="136"/>
+      <c r="Z52" s="136"/>
+      <c r="AA52" s="136"/>
+      <c r="AB52" s="58"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="57"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="59"/>
+      <c r="AG52" s="59"/>
+      <c r="AH52" s="60"/>
+      <c r="AI52" s="60"/>
+      <c r="AJ52" s="60"/>
+      <c r="AK52" s="60"/>
+      <c r="AL52" s="60"/>
+      <c r="AM52" s="60"/>
+      <c r="AN52" s="60"/>
+      <c r="AO52" s="60"/>
+      <c r="AP52" s="60"/>
+      <c r="AQ52" s="60"/>
+      <c r="AR52" s="60"/>
+      <c r="AS52" s="60"/>
+      <c r="AT52" s="60"/>
+      <c r="AU52" s="60"/>
+      <c r="AV52" s="60"/>
+      <c r="AW52" s="60"/>
+      <c r="AX52" s="60"/>
+      <c r="AY52" s="60"/>
+      <c r="AZ52" s="60"/>
+      <c r="BA52" s="60"/>
+      <c r="BB52" s="60"/>
+      <c r="BC52" s="60"/>
       <c r="BD52" s="2"/>
       <c r="BE52" t="n" s="52">
-        <v>150.0</v>
+        <v>225.0</v>
       </c>
       <c r="BF52" s="6"/>
       <c r="BH52" t="n" s="7">
-        <v>150.0</v>
+        <v>225.0</v>
       </c>
       <c r="BI52" s="4"/>
       <c r="BP52" s="7"/>
       <c r="BQ52" s="6"/>
       <c r="BR52" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="53" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A53" t="s" s="136">
-        <v>90</v>
-      </c>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
-      <c r="J53" s="136"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="136"/>
-      <c r="N53" s="136"/>
-      <c r="O53" s="136"/>
-      <c r="P53" s="136"/>
-      <c r="Q53" s="136"/>
-      <c r="R53" s="136"/>
-      <c r="S53" s="136"/>
-      <c r="T53" s="136"/>
-      <c r="U53" s="136"/>
-      <c r="V53" s="136"/>
-      <c r="W53" s="136"/>
-      <c r="X53" s="136"/>
-      <c r="Y53" s="136"/>
-      <c r="Z53" s="136"/>
-      <c r="AA53" s="136"/>
-      <c r="AB53" s="58"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="57"/>
+    <row customHeight="true" ht="7.5" r="53" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" t="s" s="62">
+        <v>48</v>
+      </c>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="63"/>
+      <c r="AC53" s="63"/>
+      <c r="AD53" s="64"/>
       <c r="AE53" s="8"/>
       <c r="AF53" s="59"/>
       <c r="AG53" s="59"/>
-      <c r="AH53" s="60"/>
-      <c r="AI53" s="60"/>
-      <c r="AJ53" s="60"/>
-      <c r="AK53" s="60"/>
-      <c r="AL53" s="60"/>
-      <c r="AM53" s="60"/>
-      <c r="AN53" s="60"/>
-      <c r="AO53" s="60"/>
-      <c r="AP53" s="60"/>
-      <c r="AQ53" s="60"/>
-      <c r="AR53" s="60"/>
-      <c r="AS53" s="60"/>
-      <c r="AT53" s="60"/>
-      <c r="AU53" s="60"/>
-      <c r="AV53" s="60"/>
-      <c r="AW53" s="60"/>
-      <c r="AX53" s="60"/>
-      <c r="AY53" s="60"/>
-      <c r="AZ53" s="60"/>
-      <c r="BA53" s="60"/>
-      <c r="BB53" s="60"/>
-      <c r="BC53" s="60"/>
+      <c r="AH53" s="129"/>
+      <c r="AI53" s="129"/>
+      <c r="AJ53" s="129"/>
+      <c r="AK53" s="129"/>
+      <c r="AL53" s="129"/>
+      <c r="AM53" s="129"/>
+      <c r="AN53" s="129"/>
+      <c r="AO53" s="129"/>
+      <c r="AP53" s="129"/>
+      <c r="AQ53" s="129"/>
+      <c r="AR53" s="129"/>
+      <c r="AS53" s="129"/>
+      <c r="AT53" s="129"/>
+      <c r="AU53" s="129"/>
+      <c r="AV53" s="129"/>
+      <c r="AW53" s="129"/>
+      <c r="AX53" s="129"/>
+      <c r="AY53" s="129"/>
+      <c r="AZ53" s="129"/>
+      <c r="BA53" s="129"/>
+      <c r="BB53" s="129"/>
+      <c r="BC53" s="129"/>
       <c r="BD53" s="2"/>
       <c r="BE53" t="n" s="52">
-        <v>225.0</v>
+        <v>150.0</v>
       </c>
       <c r="BF53" s="6"/>
       <c r="BH53" t="n" s="7">
-        <v>225.0</v>
+        <v>150.0</v>
       </c>
       <c r="BI53" s="4"/>
       <c r="BP53" s="7"/>
       <c r="BQ53" s="6"/>
       <c r="BR53" s="6"/>
     </row>
-    <row customHeight="true" ht="7.5" r="54" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="61"/>
-      <c r="M54" t="s" s="62">
-        <v>48</v>
-      </c>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61"/>
-      <c r="T54" s="61"/>
-      <c r="U54" s="61"/>
-      <c r="V54" s="61"/>
-      <c r="W54" s="61"/>
-      <c r="X54" s="61"/>
-      <c r="Y54" s="61"/>
-      <c r="Z54" s="61"/>
-      <c r="AA54" s="61"/>
-      <c r="AB54" s="63"/>
-      <c r="AC54" s="63"/>
-      <c r="AD54" s="64"/>
-      <c r="AE54" s="8"/>
+    <row customHeight="true" ht="0.75" r="54" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A54" t="s" s="59">
+        <v>58</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" t="s" s="65">
+        <v>76</v>
+      </c>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="130"/>
+      <c r="R54" s="130"/>
+      <c r="S54" s="130"/>
+      <c r="T54" s="130"/>
+      <c r="U54" s="130"/>
+      <c r="V54" t="s" s="131">
+        <v>77</v>
+      </c>
+      <c r="W54" s="131"/>
+      <c r="X54" s="131"/>
+      <c r="Y54" s="131"/>
+      <c r="Z54" s="131"/>
+      <c r="AA54" s="131"/>
+      <c r="AB54" s="131"/>
+      <c r="AC54" s="131"/>
+      <c r="AD54" s="131"/>
+      <c r="AE54" t="s" s="59">
+        <v>59</v>
+      </c>
       <c r="AF54" s="59"/>
       <c r="AG54" s="59"/>
-      <c r="AH54" s="129"/>
-      <c r="AI54" s="129"/>
-      <c r="AJ54" s="129"/>
-      <c r="AK54" s="129"/>
-      <c r="AL54" s="129"/>
-      <c r="AM54" s="129"/>
-      <c r="AN54" s="129"/>
-      <c r="AO54" s="129"/>
-      <c r="AP54" s="129"/>
-      <c r="AQ54" s="129"/>
-      <c r="AR54" s="129"/>
-      <c r="AS54" s="129"/>
-      <c r="AT54" s="129"/>
-      <c r="AU54" s="129"/>
-      <c r="AV54" s="129"/>
-      <c r="AW54" s="129"/>
-      <c r="AX54" s="129"/>
-      <c r="AY54" s="129"/>
-      <c r="AZ54" s="129"/>
-      <c r="BA54" s="129"/>
-      <c r="BB54" s="129"/>
-      <c r="BC54" s="129"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="132"/>
+      <c r="AJ54" s="132"/>
+      <c r="AK54" s="132"/>
+      <c r="AL54" s="132"/>
+      <c r="AM54" s="132"/>
+      <c r="AN54" s="132"/>
+      <c r="AO54" s="132"/>
+      <c r="AP54" s="132"/>
+      <c r="AQ54" s="8"/>
+      <c r="AR54" s="132"/>
+      <c r="AS54" s="132"/>
+      <c r="AT54" s="132"/>
+      <c r="AU54" s="132"/>
+      <c r="AV54" s="132"/>
+      <c r="AW54" s="8"/>
+      <c r="AX54" s="132"/>
+      <c r="AY54" s="132"/>
+      <c r="AZ54" s="132"/>
+      <c r="BA54" s="132"/>
+      <c r="BB54" s="132"/>
+      <c r="BC54" s="132"/>
       <c r="BD54" s="2"/>
       <c r="BE54" t="n" s="52">
-        <v>150.0</v>
+        <v>15.0</v>
       </c>
       <c r="BF54" s="6"/>
       <c r="BH54" t="n" s="7">
-        <v>150.0</v>
+        <v>15.0</v>
       </c>
       <c r="BI54" s="4"/>
       <c r="BP54" s="7"/>
       <c r="BQ54" s="6"/>
       <c r="BR54" s="6"/>
     </row>
-    <row customHeight="true" ht="0.75" r="55" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A55" t="s" s="59">
-        <v>58</v>
-      </c>
+    <row customHeight="true" ht="11.25" r="55" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" t="s" s="65">
-        <v>76</v>
-      </c>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
+      <c r="G55" s="2"/>
+      <c r="H55" t="s" s="106">
+        <v>61</v>
+      </c>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="106"/>
+      <c r="N55" s="106"/>
+      <c r="O55" s="106"/>
       <c r="P55" s="2"/>
-      <c r="Q55" s="130"/>
-      <c r="R55" s="130"/>
-      <c r="S55" s="130"/>
-      <c r="T55" s="130"/>
-      <c r="U55" s="130"/>
-      <c r="V55" t="s" s="131">
-        <v>77</v>
-      </c>
-      <c r="W55" s="131"/>
-      <c r="X55" s="131"/>
-      <c r="Y55" s="131"/>
-      <c r="Z55" s="131"/>
-      <c r="AA55" s="131"/>
-      <c r="AB55" s="131"/>
-      <c r="AC55" s="131"/>
-      <c r="AD55" s="131"/>
-      <c r="AE55" t="s" s="59">
-        <v>59</v>
-      </c>
+      <c r="Q55" s="133"/>
+      <c r="R55" s="133"/>
+      <c r="S55" s="133"/>
+      <c r="T55" s="133"/>
+      <c r="U55" s="133"/>
+      <c r="V55" s="2"/>
+      <c r="W55" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="X55" s="127"/>
+      <c r="Y55" s="127"/>
+      <c r="Z55" s="127"/>
+      <c r="AA55" s="127"/>
+      <c r="AB55" s="127"/>
+      <c r="AC55" s="127"/>
+      <c r="AD55" s="56"/>
+      <c r="AE55" s="8"/>
       <c r="AF55" s="59"/>
       <c r="AG55" s="59"/>
       <c r="AH55" s="59"/>
-      <c r="AI55" s="132"/>
-      <c r="AJ55" s="132"/>
-      <c r="AK55" s="132"/>
-      <c r="AL55" s="132"/>
-      <c r="AM55" s="132"/>
-      <c r="AN55" s="132"/>
-      <c r="AO55" s="132"/>
-      <c r="AP55" s="132"/>
+      <c r="AI55" s="59"/>
+      <c r="AJ55" t="s" s="106">
+        <v>63</v>
+      </c>
+      <c r="AK55" s="106"/>
+      <c r="AL55" s="106"/>
+      <c r="AM55" s="106"/>
+      <c r="AN55" s="106"/>
+      <c r="AO55" s="106"/>
+      <c r="AP55" s="106"/>
       <c r="AQ55" s="8"/>
-      <c r="AR55" s="132"/>
-      <c r="AS55" s="132"/>
-      <c r="AT55" s="132"/>
-      <c r="AU55" s="132"/>
-      <c r="AV55" s="132"/>
+      <c r="AR55" t="s" s="106">
+        <v>64</v>
+      </c>
+      <c r="AS55" s="106"/>
+      <c r="AT55" s="106"/>
+      <c r="AU55" s="106"/>
+      <c r="AV55" s="106"/>
       <c r="AW55" s="8"/>
-      <c r="AX55" s="132"/>
-      <c r="AY55" s="132"/>
-      <c r="AZ55" s="132"/>
-      <c r="BA55" s="132"/>
-      <c r="BB55" s="132"/>
-      <c r="BC55" s="132"/>
+      <c r="AX55" t="s" s="106">
+        <v>62</v>
+      </c>
+      <c r="AY55" s="106"/>
+      <c r="AZ55" s="106"/>
+      <c r="BA55" s="106"/>
+      <c r="BB55" s="106"/>
+      <c r="BC55" s="106"/>
       <c r="BD55" s="2"/>
       <c r="BE55" t="n" s="52">
-        <v>15.0</v>
+        <v>225.0</v>
       </c>
       <c r="BF55" s="6"/>
       <c r="BH55" t="n" s="7">
-        <v>15.0</v>
+        <v>225.0</v>
       </c>
       <c r="BI55" s="4"/>
       <c r="BP55" s="7"/>
@@ -5303,71 +5321,67 @@
       <c r="BR55" s="6"/>
     </row>
     <row customHeight="true" ht="11.25" r="56" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" t="s" s="66">
+        <v>65</v>
+      </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" t="s" s="106">
-        <v>61</v>
-      </c>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="106"/>
-      <c r="O56" s="106"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-      <c r="Q56" s="133"/>
-      <c r="R56" s="133"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="133"/>
-      <c r="U56" s="133"/>
-      <c r="V56" s="2"/>
-      <c r="W56" t="s" s="127">
-        <v>62</v>
-      </c>
-      <c r="X56" s="127"/>
-      <c r="Y56" s="127"/>
-      <c r="Z56" s="127"/>
-      <c r="AA56" s="127"/>
-      <c r="AB56" s="127"/>
-      <c r="AC56" s="127"/>
-      <c r="AD56" s="56"/>
-      <c r="AE56" s="8"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="124"/>
+      <c r="S56" s="124"/>
+      <c r="T56" s="124"/>
+      <c r="U56" s="124"/>
+      <c r="V56" t="s" s="128">
+        <v>77</v>
+      </c>
+      <c r="W56" s="128"/>
+      <c r="X56" s="128"/>
+      <c r="Y56" s="128"/>
+      <c r="Z56" s="128"/>
+      <c r="AA56" s="128"/>
+      <c r="AB56" s="128"/>
+      <c r="AC56" s="128"/>
+      <c r="AD56" s="128"/>
+      <c r="AE56" t="s" s="59">
+        <v>66</v>
+      </c>
       <c r="AF56" s="59"/>
       <c r="AG56" s="59"/>
       <c r="AH56" s="59"/>
-      <c r="AI56" s="59"/>
-      <c r="AJ56" t="s" s="106">
-        <v>63</v>
-      </c>
-      <c r="AK56" s="106"/>
-      <c r="AL56" s="106"/>
-      <c r="AM56" s="106"/>
-      <c r="AN56" s="106"/>
-      <c r="AO56" s="106"/>
-      <c r="AP56" s="106"/>
-      <c r="AQ56" s="8"/>
-      <c r="AR56" t="s" s="106">
-        <v>64</v>
-      </c>
-      <c r="AS56" s="106"/>
-      <c r="AT56" s="106"/>
-      <c r="AU56" s="106"/>
-      <c r="AV56" s="106"/>
-      <c r="AW56" s="8"/>
-      <c r="AX56" t="s" s="106">
-        <v>62</v>
-      </c>
-      <c r="AY56" s="106"/>
-      <c r="AZ56" s="106"/>
-      <c r="BA56" s="106"/>
-      <c r="BB56" s="106"/>
-      <c r="BC56" s="106"/>
+      <c r="AI56" s="125"/>
+      <c r="AJ56" s="125"/>
+      <c r="AK56" s="125"/>
+      <c r="AL56" s="125"/>
+      <c r="AM56" s="125"/>
+      <c r="AN56" s="125"/>
+      <c r="AO56" s="125"/>
+      <c r="AP56" s="125"/>
+      <c r="AQ56" s="59"/>
+      <c r="AR56" s="125"/>
+      <c r="AS56" s="125"/>
+      <c r="AT56" s="125"/>
+      <c r="AU56" s="125"/>
+      <c r="AV56" s="125"/>
+      <c r="AW56" s="59"/>
+      <c r="AX56" s="125"/>
+      <c r="AY56" s="125"/>
+      <c r="AZ56" s="125"/>
+      <c r="BA56" s="125"/>
+      <c r="BB56" s="125"/>
+      <c r="BC56" s="125"/>
       <c r="BD56" s="2"/>
       <c r="BE56" t="n" s="52">
         <v>225.0</v>
@@ -5382,11 +5396,9 @@
       <c r="BR56" s="6"/>
     </row>
     <row customHeight="true" ht="11.25" r="57" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A57" t="s" s="66">
-        <v>65</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="59"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -5400,49 +5412,55 @@
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="124"/>
-      <c r="R57" s="124"/>
-      <c r="S57" s="124"/>
-      <c r="T57" s="124"/>
-      <c r="U57" s="124"/>
-      <c r="V57" t="s" s="128">
-        <v>77</v>
-      </c>
-      <c r="W57" s="128"/>
-      <c r="X57" s="128"/>
-      <c r="Y57" s="128"/>
-      <c r="Z57" s="128"/>
-      <c r="AA57" s="128"/>
-      <c r="AB57" s="128"/>
-      <c r="AC57" s="128"/>
-      <c r="AD57" s="128"/>
-      <c r="AE57" t="s" s="59">
-        <v>66</v>
+      <c r="Q57" s="126"/>
+      <c r="R57" s="126"/>
+      <c r="S57" s="126"/>
+      <c r="T57" s="126"/>
+      <c r="U57" s="126"/>
+      <c r="V57" s="2"/>
+      <c r="W57" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="X57" s="127"/>
+      <c r="Y57" s="127"/>
+      <c r="Z57" s="127"/>
+      <c r="AA57" s="127"/>
+      <c r="AB57" s="127"/>
+      <c r="AC57" s="127"/>
+      <c r="AD57" s="56"/>
+      <c r="AE57" t="s" s="67">
+        <v>67</v>
       </c>
       <c r="AF57" s="59"/>
       <c r="AG57" s="59"/>
       <c r="AH57" s="59"/>
-      <c r="AI57" s="125"/>
-      <c r="AJ57" s="125"/>
-      <c r="AK57" s="125"/>
-      <c r="AL57" s="125"/>
-      <c r="AM57" s="125"/>
-      <c r="AN57" s="125"/>
-      <c r="AO57" s="125"/>
-      <c r="AP57" s="125"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" t="s" s="106">
+        <v>63</v>
+      </c>
+      <c r="AK57" s="106"/>
+      <c r="AL57" s="106"/>
+      <c r="AM57" s="106"/>
+      <c r="AN57" s="106"/>
+      <c r="AO57" s="106"/>
+      <c r="AP57" s="106"/>
       <c r="AQ57" s="59"/>
-      <c r="AR57" s="125"/>
-      <c r="AS57" s="125"/>
-      <c r="AT57" s="125"/>
-      <c r="AU57" s="125"/>
-      <c r="AV57" s="125"/>
+      <c r="AR57" t="s" s="127">
+        <v>64</v>
+      </c>
+      <c r="AS57" s="127"/>
+      <c r="AT57" s="127"/>
+      <c r="AU57" s="127"/>
+      <c r="AV57" s="127"/>
       <c r="AW57" s="59"/>
-      <c r="AX57" s="125"/>
-      <c r="AY57" s="125"/>
-      <c r="AZ57" s="125"/>
-      <c r="BA57" s="125"/>
-      <c r="BB57" s="125"/>
-      <c r="BC57" s="125"/>
+      <c r="AX57" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="AY57" s="127"/>
+      <c r="AZ57" s="127"/>
+      <c r="BA57" s="127"/>
+      <c r="BB57" s="127"/>
+      <c r="BC57" s="127"/>
       <c r="BD57" s="2"/>
       <c r="BE57" t="n" s="52">
         <v>225.0</v>
@@ -5457,116 +5475,108 @@
       <c r="BR57" s="6"/>
     </row>
     <row customHeight="true" ht="11.25" r="58" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+      <c r="A58" t="s" s="59">
+        <v>68</v>
+      </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="124"/>
+      <c r="N58" s="124"/>
+      <c r="O58" s="124"/>
       <c r="P58" s="2"/>
-      <c r="Q58" s="126"/>
-      <c r="R58" s="126"/>
-      <c r="S58" s="126"/>
-      <c r="T58" s="126"/>
-      <c r="U58" s="126"/>
+      <c r="Q58" s="124"/>
+      <c r="R58" s="124"/>
+      <c r="S58" s="124"/>
+      <c r="T58" s="124"/>
+      <c r="U58" s="124"/>
       <c r="V58" s="2"/>
-      <c r="W58" t="s" s="127">
-        <v>62</v>
-      </c>
-      <c r="X58" s="127"/>
-      <c r="Y58" s="127"/>
-      <c r="Z58" s="127"/>
-      <c r="AA58" s="127"/>
-      <c r="AB58" s="127"/>
-      <c r="AC58" s="127"/>
+      <c r="W58" s="124"/>
+      <c r="X58" s="124"/>
+      <c r="Y58" s="124"/>
+      <c r="Z58" s="124"/>
+      <c r="AA58" s="124"/>
+      <c r="AB58" s="124"/>
+      <c r="AC58" s="124"/>
       <c r="AD58" s="56"/>
-      <c r="AE58" t="s" s="67">
-        <v>67</v>
-      </c>
+      <c r="AE58" s="8"/>
       <c r="AF58" s="59"/>
       <c r="AG58" s="59"/>
       <c r="AH58" s="59"/>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" t="s" s="106">
-        <v>63</v>
-      </c>
-      <c r="AK58" s="106"/>
-      <c r="AL58" s="106"/>
-      <c r="AM58" s="106"/>
-      <c r="AN58" s="106"/>
-      <c r="AO58" s="106"/>
-      <c r="AP58" s="106"/>
+      <c r="AI58" s="59"/>
+      <c r="AJ58" s="59"/>
+      <c r="AK58" s="59"/>
+      <c r="AL58" s="59"/>
+      <c r="AM58" s="59"/>
+      <c r="AN58" s="59"/>
+      <c r="AO58" s="59"/>
+      <c r="AP58" s="59"/>
       <c r="AQ58" s="59"/>
-      <c r="AR58" t="s" s="127">
-        <v>64</v>
-      </c>
-      <c r="AS58" s="127"/>
-      <c r="AT58" s="127"/>
-      <c r="AU58" s="127"/>
-      <c r="AV58" s="127"/>
+      <c r="AR58" s="59"/>
+      <c r="AS58" s="59"/>
+      <c r="AT58" s="59"/>
+      <c r="AU58" s="59"/>
+      <c r="AV58" s="59"/>
       <c r="AW58" s="59"/>
-      <c r="AX58" t="s" s="127">
-        <v>62</v>
-      </c>
-      <c r="AY58" s="127"/>
-      <c r="AZ58" s="127"/>
-      <c r="BA58" s="127"/>
-      <c r="BB58" s="127"/>
-      <c r="BC58" s="127"/>
+      <c r="AX58" s="59"/>
+      <c r="AY58" s="59"/>
+      <c r="AZ58" s="59"/>
+      <c r="BA58" s="59"/>
+      <c r="BB58" s="59"/>
+      <c r="BC58" s="59"/>
       <c r="BD58" s="2"/>
       <c r="BE58" t="n" s="52">
-        <v>225.0</v>
+        <v>180.0</v>
       </c>
       <c r="BF58" s="6"/>
-      <c r="BH58" t="n" s="7">
-        <v>225.0</v>
-      </c>
+      <c r="BH58" s="7"/>
       <c r="BI58" s="4"/>
       <c r="BP58" s="7"/>
       <c r="BQ58" s="6"/>
       <c r="BR58" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="59" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A59" t="s" s="59">
-        <v>68</v>
-      </c>
+    <row customHeight="true" ht="8.25" r="59" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="124"/>
-      <c r="J59" s="124"/>
-      <c r="K59" s="124"/>
-      <c r="L59" s="124"/>
-      <c r="M59" s="124"/>
-      <c r="N59" s="124"/>
-      <c r="O59" s="124"/>
+      <c r="H59" s="2"/>
+      <c r="I59" t="s" s="106">
+        <v>63</v>
+      </c>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="106"/>
+      <c r="N59" s="106"/>
+      <c r="O59" s="106"/>
       <c r="P59" s="2"/>
-      <c r="Q59" s="124"/>
-      <c r="R59" s="124"/>
-      <c r="S59" s="124"/>
-      <c r="T59" s="124"/>
-      <c r="U59" s="124"/>
+      <c r="Q59" s="126"/>
+      <c r="R59" s="126"/>
+      <c r="S59" s="126"/>
+      <c r="T59" s="126"/>
+      <c r="U59" s="126"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="124"/>
-      <c r="X59" s="124"/>
-      <c r="Y59" s="124"/>
-      <c r="Z59" s="124"/>
-      <c r="AA59" s="124"/>
-      <c r="AB59" s="124"/>
-      <c r="AC59" s="124"/>
+      <c r="W59" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="X59" s="127"/>
+      <c r="Y59" s="127"/>
+      <c r="Z59" s="127"/>
+      <c r="AA59" s="127"/>
+      <c r="AB59" s="127"/>
+      <c r="AC59" s="127"/>
       <c r="AD59" s="56"/>
       <c r="AE59" s="8"/>
       <c r="AF59" s="59"/>
@@ -5595,7 +5605,7 @@
       <c r="BC59" s="59"/>
       <c r="BD59" s="2"/>
       <c r="BE59" t="n" s="52">
-        <v>180.0</v>
+        <v>165.0</v>
       </c>
       <c r="BF59" s="6"/>
       <c r="BH59" s="7"/>
@@ -5604,157 +5614,91 @@
       <c r="BQ59" s="6"/>
       <c r="BR59" s="6"/>
     </row>
-    <row customHeight="true" ht="8.25" r="60" spans="1:70" x14ac:dyDescent="0.2">
+    <row customHeight="true" ht="14.25" r="60" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" t="s" s="68">
+        <v>69</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" t="s" s="106">
-        <v>63</v>
-      </c>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="106"/>
-      <c r="O60" s="106"/>
+      <c r="H60" t="s" s="123">
+        <v>89</v>
+      </c>
+      <c r="I60" s="123"/>
+      <c r="J60" s="123"/>
+      <c r="K60" s="123"/>
+      <c r="L60" s="123"/>
+      <c r="M60" s="123"/>
+      <c r="N60" s="123"/>
+      <c r="O60" s="123"/>
       <c r="P60" s="2"/>
-      <c r="Q60" s="126"/>
-      <c r="R60" s="126"/>
-      <c r="S60" s="126"/>
-      <c r="T60" s="126"/>
-      <c r="U60" s="126"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" t="s" s="127">
-        <v>62</v>
-      </c>
-      <c r="X60" s="127"/>
-      <c r="Y60" s="127"/>
-      <c r="Z60" s="127"/>
-      <c r="AA60" s="127"/>
-      <c r="AB60" s="127"/>
-      <c r="AC60" s="127"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
       <c r="AD60" s="56"/>
       <c r="AE60" s="8"/>
       <c r="AF60" s="59"/>
-      <c r="AG60" s="59"/>
+      <c r="AG60" s="37"/>
       <c r="AH60" s="59"/>
-      <c r="AI60" s="59"/>
-      <c r="AJ60" s="59"/>
-      <c r="AK60" s="59"/>
-      <c r="AL60" s="59"/>
-      <c r="AM60" s="59"/>
-      <c r="AN60" s="59"/>
-      <c r="AO60" s="59"/>
-      <c r="AP60" s="59"/>
-      <c r="AQ60" s="59"/>
-      <c r="AR60" s="59"/>
-      <c r="AS60" s="59"/>
-      <c r="AT60" s="59"/>
-      <c r="AU60" s="59"/>
-      <c r="AV60" s="59"/>
-      <c r="AW60" s="59"/>
-      <c r="AX60" s="59"/>
-      <c r="AY60" s="59"/>
-      <c r="AZ60" s="59"/>
-      <c r="BA60" s="59"/>
+      <c r="AI60" t="s" s="69">
+        <v>69</v>
+      </c>
+      <c r="AJ60" s="70"/>
+      <c r="AK60" s="70"/>
+      <c r="AL60" s="70"/>
+      <c r="AM60" s="70"/>
+      <c r="AN60" t="s" s="71">
+        <v>70</v>
+      </c>
+      <c r="AO60" s="60"/>
+      <c r="AP60" s="60"/>
+      <c r="AQ60" s="60"/>
+      <c r="AR60" s="60"/>
+      <c r="AS60" s="60"/>
+      <c r="AT60" s="60"/>
+      <c r="AU60" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AV60" s="37"/>
+      <c r="AW60" t="s" s="59">
+        <v>71</v>
+      </c>
+      <c r="AX60" s="37"/>
+      <c r="AY60" s="37"/>
+      <c r="AZ60" s="37"/>
+      <c r="BA60" s="37"/>
       <c r="BB60" s="59"/>
       <c r="BC60" s="59"/>
       <c r="BD60" s="2"/>
-      <c r="BE60" t="n" s="52">
-        <v>165.0</v>
+      <c r="BE60" t="s" s="52">
+        <v>60</v>
       </c>
       <c r="BF60" s="6"/>
-      <c r="BH60" s="7"/>
+      <c r="BH60" t="n" s="7">
+        <v>285.0</v>
+      </c>
       <c r="BI60" s="4"/>
       <c r="BP60" s="7"/>
       <c r="BQ60" s="6"/>
       <c r="BR60" s="6"/>
     </row>
-    <row customHeight="true" ht="14.25" r="61" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="68">
-        <v>69</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" t="s" s="123">
-        <v>89</v>
-      </c>
-      <c r="I61" s="123"/>
-      <c r="J61" s="123"/>
-      <c r="K61" s="123"/>
-      <c r="L61" s="123"/>
-      <c r="M61" s="123"/>
-      <c r="N61" s="123"/>
-      <c r="O61" s="123"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="56"/>
-      <c r="AE61" s="8"/>
-      <c r="AF61" s="59"/>
-      <c r="AG61" s="37"/>
-      <c r="AH61" s="59"/>
-      <c r="AI61" t="s" s="69">
-        <v>69</v>
-      </c>
-      <c r="AJ61" s="70"/>
-      <c r="AK61" s="70"/>
-      <c r="AL61" s="70"/>
-      <c r="AM61" s="70"/>
-      <c r="AN61" t="s" s="71">
-        <v>70</v>
-      </c>
-      <c r="AO61" s="60"/>
-      <c r="AP61" s="60"/>
-      <c r="AQ61" s="60"/>
-      <c r="AR61" s="60"/>
-      <c r="AS61" s="60"/>
-      <c r="AT61" s="60"/>
-      <c r="AU61" t="n" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="AV61" s="37"/>
-      <c r="AW61" t="s" s="59">
-        <v>71</v>
-      </c>
-      <c r="AX61" s="37"/>
-      <c r="AY61" s="37"/>
-      <c r="AZ61" s="37"/>
-      <c r="BA61" s="37"/>
-      <c r="BB61" s="59"/>
-      <c r="BC61" s="59"/>
-      <c r="BD61" s="2"/>
-      <c r="BE61" t="s" s="52">
-        <v>60</v>
-      </c>
-      <c r="BF61" s="6"/>
-      <c r="BH61" t="n" s="7">
-        <v>285.0</v>
-      </c>
-      <c r="BI61" s="4"/>
-      <c r="BP61" s="7"/>
-      <c r="BQ61" s="6"/>
-      <c r="BR61" s="6"/>
+    <row customHeight="1" ht="12.75" r="61" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="BR61" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="12.75" r="62" spans="1:70" x14ac:dyDescent="0.2">
       <c r="BR62" s="1">
@@ -5825,78 +5769,78 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells>
-    <mergeCell ref="Q42:AK42"/>
+    <mergeCell ref="Q41:AK41"/>
+    <mergeCell ref="F42:AK42"/>
     <mergeCell ref="F43:AK43"/>
-    <mergeCell ref="F44:AK44"/>
-    <mergeCell ref="AP44:BC45"/>
-    <mergeCell ref="S45:X45"/>
+    <mergeCell ref="AP43:BC44"/>
+    <mergeCell ref="S44:X44"/>
+    <mergeCell ref="Y44:AN44"/>
     <mergeCell ref="Y45:AN45"/>
+    <mergeCell ref="AP45:BC46"/>
+    <mergeCell ref="F46:P46"/>
+    <mergeCell ref="R46:X46"/>
     <mergeCell ref="Y46:AN46"/>
-    <mergeCell ref="AP46:BC47"/>
     <mergeCell ref="F47:P47"/>
-    <mergeCell ref="R47:X47"/>
     <mergeCell ref="Y47:AN47"/>
-    <mergeCell ref="F48:P48"/>
-    <mergeCell ref="Y48:AN48"/>
-    <mergeCell ref="AK50:AP50"/>
-    <mergeCell ref="AR50:BC50"/>
-    <mergeCell ref="R51:Z51"/>
-    <mergeCell ref="AH51:BC51"/>
-    <mergeCell ref="A52:AD52"/>
-    <mergeCell ref="AI52:BC52"/>
-    <mergeCell ref="A53:AA53"/>
-    <mergeCell ref="V55:AD55"/>
-    <mergeCell ref="AI55:AP55"/>
+    <mergeCell ref="AK49:AP49"/>
+    <mergeCell ref="AR49:BC49"/>
+    <mergeCell ref="R50:Z50"/>
+    <mergeCell ref="AH50:BC50"/>
+    <mergeCell ref="A51:AD51"/>
+    <mergeCell ref="AI51:BC51"/>
+    <mergeCell ref="A52:AA52"/>
+    <mergeCell ref="V54:AD54"/>
+    <mergeCell ref="AI54:AP54"/>
+    <mergeCell ref="AR54:AV54"/>
+    <mergeCell ref="AX54:BC54"/>
+    <mergeCell ref="H55:O55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="W55:AC55"/>
+    <mergeCell ref="AJ55:AP55"/>
     <mergeCell ref="AR55:AV55"/>
     <mergeCell ref="AX55:BC55"/>
-    <mergeCell ref="H56:O56"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="W56:AC56"/>
-    <mergeCell ref="AJ56:AP56"/>
-    <mergeCell ref="AR56:AV56"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="AQ40:AS40"/>
+    <mergeCell ref="AT40:AV40"/>
+    <mergeCell ref="AW40:AZ40"/>
+    <mergeCell ref="BA40:BD40"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="I58:O58"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="W58:AC58"/>
+    <mergeCell ref="I59:O59"/>
     <mergeCell ref="AX56:BC56"/>
-    <mergeCell ref="AN41:AP41"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AT41:AV41"/>
-    <mergeCell ref="AW41:AZ41"/>
-    <mergeCell ref="BA41:BD41"/>
-    <mergeCell ref="H61:O61"/>
-    <mergeCell ref="I59:O59"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="W57:AC57"/>
+    <mergeCell ref="AJ57:AP57"/>
+    <mergeCell ref="AR57:AV57"/>
+    <mergeCell ref="AX57:BC57"/>
     <mergeCell ref="Q59:U59"/>
     <mergeCell ref="W59:AC59"/>
-    <mergeCell ref="I60:O60"/>
-    <mergeCell ref="AX57:BC57"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="W58:AC58"/>
-    <mergeCell ref="AJ58:AP58"/>
-    <mergeCell ref="AR58:AV58"/>
-    <mergeCell ref="AX58:BC58"/>
-    <mergeCell ref="Q60:U60"/>
-    <mergeCell ref="W60:AC60"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="V57:AD57"/>
-    <mergeCell ref="AI57:AP57"/>
-    <mergeCell ref="AR57:AV57"/>
-    <mergeCell ref="AH54:BC54"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AK41:AM41"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="BA38:BD38"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AQ38:AS38"/>
-    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="V56:AD56"/>
+    <mergeCell ref="AI56:AP56"/>
+    <mergeCell ref="AR56:AV56"/>
+    <mergeCell ref="AH53:BC53"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AK40:AM40"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AW39:AZ39"/>
+    <mergeCell ref="BA39:BD39"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AK39:AM39"/>
+    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="AQ39:AS39"/>
+    <mergeCell ref="AT39:AV39"/>
     <mergeCell ref="BB5:BD5"/>
     <mergeCell ref="BB6:BD6"/>
     <mergeCell ref="A7:AX8"/>
@@ -5972,11 +5916,6 @@
     <mergeCell ref="AK32:AM32"/>
     <mergeCell ref="AN32:AP32"/>
     <mergeCell ref="AQ32:AS32"/>
-    <mergeCell ref="Y39:AN39"/>
-    <mergeCell ref="AP39:BC40"/>
-    <mergeCell ref="F40:P40"/>
-    <mergeCell ref="R40:X40"/>
-    <mergeCell ref="Y40:AN40"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:P33"/>
@@ -6052,6 +5991,21 @@
     <mergeCell ref="AN37:AP37"/>
     <mergeCell ref="AQ37:AS37"/>
     <mergeCell ref="AT37:AV37"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AW38:AZ38"/>
+    <mergeCell ref="BA38:BD38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AQ38:AS38"/>
+    <mergeCell ref="AT38:AV38"/>
   </mergeCells>
   <pageMargins bottom="0.35416666666666669" footer="0.51180555555555551" header="0.51180555555555551" left="0.35416666666666669" right="0.2361111111111111" top="0.39374999999999999"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" horizontalDpi="300" orientation="landscape" paperSize="9" r:id="rId1" scale="96" verticalDpi="300"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="107">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -301,25 +301,46 @@
     <t>02311KSW</t>
   </si>
   <si>
+    <t>Функциональный модуль Function Module,50kVA power module,3U,UPS5000-E</t>
+  </si>
+  <si>
     <t>20%</t>
   </si>
   <si>
     <t>02311MAJ</t>
   </si>
   <si>
+    <t>Устройство электропитания UPS5000-E-200K-SM,200kVA,three phase four wire system,380V,standard configuration(with maintenance bypass switch),top or bottom cabling,50kVA power module</t>
+  </si>
+  <si>
     <t>02310NBS</t>
   </si>
   <si>
+    <t>Модуль контроля температуры и влажности Controller-Temperature and humidity acquisition module-Temperature and humidity sensor-No display screen-12V power supply</t>
+  </si>
+  <si>
     <t>04092675</t>
   </si>
   <si>
+    <t>Кабель Cable Bundle,FusionModule2000,26AH/40AH-16mm^2-32~40pcs battery-Match for 24022487(5min Discharge),24022488(5min Discharge),24021288(5min Discharge),24021289(5min Discharge)</t>
+  </si>
+  <si>
     <t>02114914</t>
   </si>
   <si>
+    <t>Шкаф для Устройства электропитания Battery  Basic Cabinet rack-600mm(W)*1100mm(D)*2000mm(H)</t>
+  </si>
+  <si>
     <t>02232ELB</t>
   </si>
   <si>
+    <t>Модуль предохранителей battery cabinet attachment-T4-160A-Switch attachment-match for iBattery</t>
+  </si>
+  <si>
     <t>24022488</t>
+  </si>
+  <si>
+    <t>Батарея Rechargeable Battery, VRLA Battery, 12V, 40Ah, 12V Monobloc, 197mm(W) * 165mm(D) * 172mm(H), 1 PCS, Shuangdeng 6-GFM-40, UPS Battery</t>
   </si>
 </sst>
 </file>
@@ -3951,6 +3972,9 @@
       <c r="BS32" s="1"/>
     </row>
     <row r="33">
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
       <c r="Q33" t="s">
         <v>92</v>
       </c>
@@ -3964,7 +3988,7 @@
         <v>2285.69</v>
       </c>
       <c r="AT33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AW33" t="n">
         <v>457.14</v>
@@ -3974,8 +3998,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
       <c r="Q34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="n">
         <v>1.0</v>
@@ -3987,7 +4014,7 @@
         <v>3907.79</v>
       </c>
       <c r="AT34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AW34" t="n">
         <v>781.56</v>
@@ -3997,8 +4024,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
       <c r="Q35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="n">
         <v>1.0</v>
@@ -4010,7 +4040,7 @@
         <v>34.07</v>
       </c>
       <c r="AT35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AW35" t="n">
         <v>6.81</v>
@@ -4020,8 +4050,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
       <c r="Q36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="n">
         <v>1.0</v>
@@ -4033,7 +4066,7 @@
         <v>246.77</v>
       </c>
       <c r="AT36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AW36" t="n">
         <v>49.35</v>
@@ -4043,8 +4076,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
       <c r="Q37" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="n">
         <v>1.0</v>
@@ -4056,7 +4092,7 @@
         <v>902.32</v>
       </c>
       <c r="AT37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AW37" t="n">
         <v>180.46</v>
@@ -4066,8 +4102,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
       <c r="Q38" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="n">
         <v>1.0</v>
@@ -4079,7 +4118,7 @@
         <v>370.17</v>
       </c>
       <c r="AT38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AW38" t="n">
         <v>74.03</v>
@@ -4089,8 +4128,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
       <c r="Q39" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="n">
         <v>40.0</v>
@@ -4102,7 +4144,7 @@
         <v>3694.0</v>
       </c>
       <c r="AT39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AW39" t="n">
         <v>738.8</v>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="109">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>20%</t>
+  </si>
+  <si>
+    <t>Поставка товаров согласно контракту на поставку оборудования № 0Y06431901480S от 2019-12-29</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
   </si>
   <si>
     <t>02311MAJ</t>
@@ -787,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -1165,6 +1171,9 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3144,7 +3153,7 @@
       <c r="BQ21" s="6"/>
       <c r="BR21" s="6"/>
     </row>
-    <row customHeight="1" ht="9.75" r="22" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="91" t="s">
         <v>15</v>
       </c>
@@ -3154,8 +3163,8 @@
       <c r="E22" s="91"/>
       <c r="F22" s="91"/>
       <c r="G22" s="91"/>
-      <c r="H22" s="93" t="s">
-        <v>87</v>
+      <c r="H22" t="s">
+        <v>95</v>
       </c>
       <c r="I22" s="93"/>
       <c r="J22" s="93"/>
@@ -3527,8 +3536,8 @@
       <c r="Z27" s="89"/>
       <c r="AA27" s="89"/>
       <c r="AB27" s="89"/>
-      <c r="AC27" s="90" t="s">
-        <v>89</v>
+      <c r="AC27" t="s">
+        <v>96</v>
       </c>
       <c r="AD27" s="90"/>
       <c r="AE27" s="90"/>
@@ -3971,8 +3980,8 @@
       <c r="BR32" s="6"/>
       <c r="BS32" s="1"/>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
+    <row r="33" s="142" customFormat="true">
+      <c r="D33" t="s" s="142">
         <v>93</v>
       </c>
       <c r="Q33" t="s">
@@ -3997,12 +4006,12 @@
         <v>2742.83</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>96</v>
+    <row r="34" s="142" customFormat="true">
+      <c r="D34" t="s" s="142">
+        <v>98</v>
       </c>
       <c r="Q34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="n">
         <v>1.0</v>
@@ -4023,12 +4032,12 @@
         <v>4689.35</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>98</v>
+    <row r="35" s="142" customFormat="true">
+      <c r="D35" t="s" s="142">
+        <v>100</v>
       </c>
       <c r="Q35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="n">
         <v>1.0</v>
@@ -4049,12 +4058,12 @@
         <v>40.88</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>100</v>
+    <row r="36" s="142" customFormat="true">
+      <c r="D36" t="s" s="142">
+        <v>102</v>
       </c>
       <c r="Q36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="n">
         <v>1.0</v>
@@ -4075,12 +4084,12 @@
         <v>296.12</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>102</v>
+    <row r="37" s="142" customFormat="true">
+      <c r="D37" t="s" s="142">
+        <v>104</v>
       </c>
       <c r="Q37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="n">
         <v>1.0</v>
@@ -4101,12 +4110,12 @@
         <v>1082.78</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>104</v>
+    <row r="38" s="142" customFormat="true">
+      <c r="D38" t="s" s="142">
+        <v>106</v>
       </c>
       <c r="Q38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="n">
         <v>1.0</v>
@@ -4127,12 +4136,12 @@
         <v>444.2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="D39" t="s">
-        <v>106</v>
+    <row r="39" s="142" customFormat="true">
+      <c r="D39" t="s" s="142">
+        <v>108</v>
       </c>
       <c r="Q39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK39" t="n">
         <v>40.0</v>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -4203,8 +4203,8 @@
       <c r="AH40" s="115"/>
       <c r="AI40" s="115"/>
       <c r="AJ40" s="115"/>
-      <c r="AK40" s="116">
-        <f>SUM(AK33)</f>
+      <c r="AK40">
+        <f>SUM(AK33:AK39)</f>
       </c>
       <c r="AL40" s="116"/>
       <c r="AM40" s="116"/>
@@ -4213,8 +4213,8 @@
       </c>
       <c r="AO40" s="120"/>
       <c r="AP40" s="120"/>
-      <c r="AQ40" s="121">
-        <f>SUM(AQ33)</f>
+      <c r="AQ40">
+        <f>SUM(AQ33:AQ39)</f>
       </c>
       <c r="AR40" s="121"/>
       <c r="AS40" s="121"/>
@@ -4223,14 +4223,14 @@
       </c>
       <c r="AU40" s="120"/>
       <c r="AV40" s="120"/>
-      <c r="AW40" s="122">
-        <f>SUM(AW33)</f>
+      <c r="AW40">
+        <f>SUM(AW33:AW39)</f>
       </c>
       <c r="AX40" s="122"/>
       <c r="AY40" s="122"/>
       <c r="AZ40" s="122"/>
-      <c r="BA40" s="122">
-        <f>SUM(BA33)</f>
+      <c r="BA40">
+        <f>SUM(BA33:BA39)</f>
       </c>
       <c r="BB40" s="122"/>
       <c r="BC40" s="122"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="PageCount">'Товарная накладная'!$C$1</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'Товарная накладная'!$A$1:$BD$55</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Товарная накладная'!$A$1:$BD$60</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1173,7 +1173,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="false"/>
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3980,7 +3980,10 @@
       <c r="BR32" s="6"/>
       <c r="BS32" s="1"/>
     </row>
-    <row r="33" s="142" customFormat="true">
+    <row r="33" ht="37.5" customHeight="true" s="142" customFormat="true">
+      <c r="A33" t="n">
+        <v>1.0</v>
+      </c>
       <c r="D33" t="s" s="142">
         <v>93</v>
       </c>
@@ -4006,7 +4009,10 @@
         <v>2742.83</v>
       </c>
     </row>
-    <row r="34" s="142" customFormat="true">
+    <row r="34" ht="37.5" customHeight="true" s="142" customFormat="true">
+      <c r="A34" t="n">
+        <v>2.0</v>
+      </c>
       <c r="D34" t="s" s="142">
         <v>98</v>
       </c>
@@ -4032,7 +4038,10 @@
         <v>4689.35</v>
       </c>
     </row>
-    <row r="35" s="142" customFormat="true">
+    <row r="35" ht="37.5" customHeight="true" s="142" customFormat="true">
+      <c r="A35" t="n">
+        <v>3.0</v>
+      </c>
       <c r="D35" t="s" s="142">
         <v>100</v>
       </c>
@@ -4058,7 +4067,10 @@
         <v>40.88</v>
       </c>
     </row>
-    <row r="36" s="142" customFormat="true">
+    <row r="36" ht="37.5" customHeight="true" s="142" customFormat="true">
+      <c r="A36" t="n">
+        <v>4.0</v>
+      </c>
       <c r="D36" t="s" s="142">
         <v>102</v>
       </c>
@@ -4084,7 +4096,10 @@
         <v>296.12</v>
       </c>
     </row>
-    <row r="37" s="142" customFormat="true">
+    <row r="37" ht="37.5" customHeight="true" s="142" customFormat="true">
+      <c r="A37" t="n">
+        <v>5.0</v>
+      </c>
       <c r="D37" t="s" s="142">
         <v>104</v>
       </c>
@@ -4110,7 +4125,10 @@
         <v>1082.78</v>
       </c>
     </row>
-    <row r="38" s="142" customFormat="true">
+    <row r="38" ht="37.5" customHeight="true" s="142" customFormat="true">
+      <c r="A38" t="n">
+        <v>6.0</v>
+      </c>
       <c r="D38" t="s" s="142">
         <v>106</v>
       </c>
@@ -4136,7 +4154,10 @@
         <v>444.2</v>
       </c>
     </row>
-    <row r="39" s="142" customFormat="true">
+    <row r="39" ht="37.5" customHeight="true" s="142" customFormat="true">
+      <c r="A39" t="n">
+        <v>7.0</v>
+      </c>
       <c r="D39" t="s" s="142">
         <v>108</v>
       </c>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="109">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -310,7 +310,7 @@
     <t>Поставка товаров согласно контракту на поставку оборудования № 0Y06431901480S от 2019-12-29</t>
   </si>
   <si>
-    <t>2020-01-29</t>
+    <t>2020-02-03</t>
   </si>
   <si>
     <t>02311MAJ</t>
@@ -3990,6 +3990,12 @@
       <c r="Q33" t="s">
         <v>92</v>
       </c>
+      <c r="T33" t="s">
+        <v>73</v>
+      </c>
+      <c r="W33" t="n">
+        <v>796.0</v>
+      </c>
       <c r="AK33" t="n">
         <v>1.0</v>
       </c>
@@ -4019,6 +4025,12 @@
       <c r="Q34" t="s">
         <v>97</v>
       </c>
+      <c r="T34" t="s">
+        <v>73</v>
+      </c>
+      <c r="W34" t="n">
+        <v>796.0</v>
+      </c>
       <c r="AK34" t="n">
         <v>1.0</v>
       </c>
@@ -4048,6 +4060,12 @@
       <c r="Q35" t="s">
         <v>99</v>
       </c>
+      <c r="T35" t="s">
+        <v>73</v>
+      </c>
+      <c r="W35" t="n">
+        <v>796.0</v>
+      </c>
       <c r="AK35" t="n">
         <v>1.0</v>
       </c>
@@ -4077,6 +4095,12 @@
       <c r="Q36" t="s">
         <v>101</v>
       </c>
+      <c r="T36" t="s">
+        <v>73</v>
+      </c>
+      <c r="W36" t="n">
+        <v>796.0</v>
+      </c>
       <c r="AK36" t="n">
         <v>1.0</v>
       </c>
@@ -4106,6 +4130,12 @@
       <c r="Q37" t="s">
         <v>103</v>
       </c>
+      <c r="T37" t="s">
+        <v>73</v>
+      </c>
+      <c r="W37" t="n">
+        <v>796.0</v>
+      </c>
       <c r="AK37" t="n">
         <v>1.0</v>
       </c>
@@ -4135,6 +4165,12 @@
       <c r="Q38" t="s">
         <v>105</v>
       </c>
+      <c r="T38" t="s">
+        <v>73</v>
+      </c>
+      <c r="W38" t="n">
+        <v>796.0</v>
+      </c>
       <c r="AK38" t="n">
         <v>1.0</v>
       </c>
@@ -4163,6 +4199,12 @@
       </c>
       <c r="Q39" t="s">
         <v>107</v>
+      </c>
+      <c r="T39" t="s">
+        <v>73</v>
+      </c>
+      <c r="W39" t="n">
+        <v>796.0</v>
       </c>
       <c r="AK39" t="n">
         <v>40.0</v>
@@ -5696,8 +5738,8 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" t="s" s="123">
-        <v>89</v>
+      <c r="H60" t="s">
+        <v>96</v>
       </c>
       <c r="I60" s="123"/>
       <c r="J60" s="123"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="109">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -307,46 +307,46 @@
     <t>20%</t>
   </si>
   <si>
+    <t>02311MAJ</t>
+  </si>
+  <si>
+    <t>Устройство электропитания UPS5000-E-200K-SM,200kVA,three phase four wire system,380V,standard configuration(with maintenance bypass switch),top or bottom cabling,50kVA power module</t>
+  </si>
+  <si>
+    <t>02310NBS</t>
+  </si>
+  <si>
+    <t>Модуль контроля температуры и влажности Controller-Temperature and humidity acquisition module-Temperature and humidity sensor-No display screen-12V power supply</t>
+  </si>
+  <si>
+    <t>04092675</t>
+  </si>
+  <si>
+    <t>Кабель Cable Bundle,FusionModule2000,26AH/40AH-16mm^2-32~40pcs battery-Match for 24022487(5min Discharge),24022488(5min Discharge),24021288(5min Discharge),24021289(5min Discharge)</t>
+  </si>
+  <si>
+    <t>02114914</t>
+  </si>
+  <si>
+    <t>Шкаф для Устройства электропитания Battery  Basic Cabinet rack-600mm(W)*1100mm(D)*2000mm(H)</t>
+  </si>
+  <si>
+    <t>02232ELB</t>
+  </si>
+  <si>
+    <t>Модуль предохранителей battery cabinet attachment-T4-160A-Switch attachment-match for iBattery</t>
+  </si>
+  <si>
+    <t>24022488</t>
+  </si>
+  <si>
+    <t>Батарея Rechargeable Battery, VRLA Battery, 12V, 40Ah, 12V Monobloc, 197mm(W) * 165mm(D) * 172mm(H), 1 PCS, Shuangdeng 6-GFM-40, UPS Battery</t>
+  </si>
+  <si>
     <t>Поставка товаров согласно контракту на поставку оборудования № 0Y06431901480S от 2019-12-29</t>
   </si>
   <si>
     <t>2020-02-03</t>
-  </si>
-  <si>
-    <t>02311MAJ</t>
-  </si>
-  <si>
-    <t>Устройство электропитания UPS5000-E-200K-SM,200kVA,three phase four wire system,380V,standard configuration(with maintenance bypass switch),top or bottom cabling,50kVA power module</t>
-  </si>
-  <si>
-    <t>02310NBS</t>
-  </si>
-  <si>
-    <t>Модуль контроля температуры и влажности Controller-Temperature and humidity acquisition module-Temperature and humidity sensor-No display screen-12V power supply</t>
-  </si>
-  <si>
-    <t>04092675</t>
-  </si>
-  <si>
-    <t>Кабель Cable Bundle,FusionModule2000,26AH/40AH-16mm^2-32~40pcs battery-Match for 24022487(5min Discharge),24022488(5min Discharge),24021288(5min Discharge),24021289(5min Discharge)</t>
-  </si>
-  <si>
-    <t>02114914</t>
-  </si>
-  <si>
-    <t>Шкаф для Устройства электропитания Battery  Basic Cabinet rack-600mm(W)*1100mm(D)*2000mm(H)</t>
-  </si>
-  <si>
-    <t>02232ELB</t>
-  </si>
-  <si>
-    <t>Модуль предохранителей battery cabinet attachment-T4-160A-Switch attachment-match for iBattery</t>
-  </si>
-  <si>
-    <t>24022488</t>
-  </si>
-  <si>
-    <t>Батарея Rechargeable Battery, VRLA Battery, 12V, 40Ah, 12V Monobloc, 197mm(W) * 165mm(D) * 172mm(H), 1 PCS, Shuangdeng 6-GFM-40, UPS Battery</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="dd\ mmmm\ yyyy&quot; г.&quot;;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -469,6 +469,11 @@
       <name val="Arial Cyr"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
   </fonts>
   <fills count="5">
@@ -793,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -1174,6 +1179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3164,7 +3172,7 @@
       <c r="F22" s="91"/>
       <c r="G22" s="91"/>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I22" s="93"/>
       <c r="J22" s="93"/>
@@ -3528,8 +3536,8 @@
       <c r="T27" s="88"/>
       <c r="U27" s="88"/>
       <c r="V27" s="88"/>
-      <c r="W27" s="89" t="s">
-        <v>88</v>
+      <c r="W27" t="n">
+        <v>123456.0</v>
       </c>
       <c r="X27" s="89"/>
       <c r="Y27" s="89"/>
@@ -3537,7 +3545,7 @@
       <c r="AA27" s="89"/>
       <c r="AB27" s="89"/>
       <c r="AC27" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AD27" s="90"/>
       <c r="AE27" s="90"/>
@@ -4000,19 +4008,19 @@
         <v>1.0</v>
       </c>
       <c r="AN33" t="n">
-        <v>2285.69</v>
+        <v>146076.39</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2285.69</v>
+        <v>146076.39</v>
       </c>
       <c r="AT33" t="s">
         <v>94</v>
       </c>
       <c r="AW33" t="n">
-        <v>457.14</v>
+        <v>29215.28</v>
       </c>
       <c r="BA33" t="n">
-        <v>2742.83</v>
+        <v>175291.67</v>
       </c>
     </row>
     <row r="34" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4020,10 +4028,10 @@
         <v>2.0</v>
       </c>
       <c r="D34" t="s" s="142">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T34" t="s">
         <v>73</v>
@@ -4035,19 +4043,19 @@
         <v>1.0</v>
       </c>
       <c r="AN34" t="n">
-        <v>3907.79</v>
+        <v>249743.34</v>
       </c>
       <c r="AQ34" t="n">
-        <v>3907.79</v>
+        <v>249743.34</v>
       </c>
       <c r="AT34" t="s">
         <v>94</v>
       </c>
       <c r="AW34" t="n">
-        <v>781.56</v>
+        <v>49948.67</v>
       </c>
       <c r="BA34" t="n">
-        <v>4689.35</v>
+        <v>299692.01</v>
       </c>
     </row>
     <row r="35" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4055,10 +4063,10 @@
         <v>3.0</v>
       </c>
       <c r="D35" t="s" s="142">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T35" t="s">
         <v>73</v>
@@ -4070,19 +4078,19 @@
         <v>1.0</v>
       </c>
       <c r="AN35" t="n">
-        <v>34.07</v>
+        <v>2177.38</v>
       </c>
       <c r="AQ35" t="n">
-        <v>34.07</v>
+        <v>2177.38</v>
       </c>
       <c r="AT35" t="s">
         <v>94</v>
       </c>
       <c r="AW35" t="n">
-        <v>6.81</v>
+        <v>435.48</v>
       </c>
       <c r="BA35" t="n">
-        <v>40.88</v>
+        <v>2612.86</v>
       </c>
     </row>
     <row r="36" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4090,10 +4098,10 @@
         <v>4.0</v>
       </c>
       <c r="D36" t="s" s="142">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T36" t="s">
         <v>73</v>
@@ -4105,19 +4113,19 @@
         <v>1.0</v>
       </c>
       <c r="AN36" t="n">
-        <v>246.77</v>
+        <v>15770.85</v>
       </c>
       <c r="AQ36" t="n">
-        <v>246.77</v>
+        <v>15770.85</v>
       </c>
       <c r="AT36" t="s">
         <v>94</v>
       </c>
       <c r="AW36" t="n">
-        <v>49.35</v>
+        <v>3154.17</v>
       </c>
       <c r="BA36" t="n">
-        <v>296.12</v>
+        <v>18925.02</v>
       </c>
     </row>
     <row r="37" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4125,10 +4133,10 @@
         <v>5.0</v>
       </c>
       <c r="D37" t="s" s="142">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T37" t="s">
         <v>73</v>
@@ -4140,19 +4148,19 @@
         <v>1.0</v>
       </c>
       <c r="AN37" t="n">
-        <v>902.32</v>
+        <v>57666.46</v>
       </c>
       <c r="AQ37" t="n">
-        <v>902.32</v>
+        <v>57666.46</v>
       </c>
       <c r="AT37" t="s">
         <v>94</v>
       </c>
       <c r="AW37" t="n">
-        <v>180.46</v>
+        <v>11533.29</v>
       </c>
       <c r="BA37" t="n">
-        <v>1082.78</v>
+        <v>69199.75</v>
       </c>
     </row>
     <row r="38" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4160,10 +4168,10 @@
         <v>6.0</v>
       </c>
       <c r="D38" t="s" s="142">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T38" t="s">
         <v>73</v>
@@ -4175,19 +4183,19 @@
         <v>1.0</v>
       </c>
       <c r="AN38" t="n">
-        <v>370.17</v>
+        <v>23657.23</v>
       </c>
       <c r="AQ38" t="n">
-        <v>370.17</v>
+        <v>23657.23</v>
       </c>
       <c r="AT38" t="s">
         <v>94</v>
       </c>
       <c r="AW38" t="n">
-        <v>74.03</v>
+        <v>4731.45</v>
       </c>
       <c r="BA38" t="n">
-        <v>444.2</v>
+        <v>28388.68</v>
       </c>
     </row>
     <row r="39" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4195,10 +4203,10 @@
         <v>7.0</v>
       </c>
       <c r="D39" t="s" s="142">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T39" t="s">
         <v>73</v>
@@ -4210,19 +4218,19 @@
         <v>40.0</v>
       </c>
       <c r="AN39" t="n">
-        <v>92.35</v>
+        <v>5902.01</v>
       </c>
       <c r="AQ39" t="n">
-        <v>3694.0</v>
+        <v>236080.40000000002</v>
       </c>
       <c r="AT39" t="s">
         <v>94</v>
       </c>
       <c r="AW39" t="n">
-        <v>738.8</v>
+        <v>47216.08</v>
       </c>
       <c r="BA39" t="n">
-        <v>4432.8</v>
+        <v>283296.48</v>
       </c>
     </row>
     <row customHeight="true" ht="34.5" r="40" spans="1:70" x14ac:dyDescent="0.2">
@@ -5063,7 +5071,7 @@
       <c r="BQ50" s="6"/>
       <c r="BR50" s="6"/>
     </row>
-    <row customHeight="true" ht="7.5" r="51" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A51" t="s" s="135">
         <v>56</v>
       </c>
@@ -5137,8 +5145,8 @@
       <c r="BR51" s="6"/>
     </row>
     <row customHeight="true" ht="11.25" r="52" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A52" t="s" s="136">
-        <v>90</v>
+      <c r="A52" t="n" s="143">
+        <v>877406.46</v>
       </c>
       <c r="B52" s="136"/>
       <c r="C52" s="136"/>
@@ -5739,7 +5747,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I60" s="123"/>
       <c r="J60" s="123"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -346,7 +346,7 @@
     <t>Поставка товаров согласно контракту на поставку оборудования № 0Y06431901480S от 2019-12-29</t>
   </si>
   <si>
-    <t>2020-02-03</t>
+    <t>2020-02-05</t>
   </si>
 </sst>
 </file>
@@ -4008,19 +4008,19 @@
         <v>1.0</v>
       </c>
       <c r="AN33" t="n">
-        <v>146076.39</v>
+        <v>144315.04</v>
       </c>
       <c r="AQ33" t="n">
-        <v>146076.39</v>
+        <v>144315.04</v>
       </c>
       <c r="AT33" t="s">
         <v>94</v>
       </c>
       <c r="AW33" t="n">
-        <v>29215.28</v>
+        <v>28863.01</v>
       </c>
       <c r="BA33" t="n">
-        <v>175291.67</v>
+        <v>173178.05</v>
       </c>
     </row>
     <row r="34" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4043,19 +4043,19 @@
         <v>1.0</v>
       </c>
       <c r="AN34" t="n">
-        <v>249743.34</v>
+        <v>246732.0</v>
       </c>
       <c r="AQ34" t="n">
-        <v>249743.34</v>
+        <v>246732.0</v>
       </c>
       <c r="AT34" t="s">
         <v>94</v>
       </c>
       <c r="AW34" t="n">
-        <v>49948.67</v>
+        <v>49346.4</v>
       </c>
       <c r="BA34" t="n">
-        <v>299692.01</v>
+        <v>296078.4</v>
       </c>
     </row>
     <row r="35" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4078,19 +4078,19 @@
         <v>1.0</v>
       </c>
       <c r="AN35" t="n">
-        <v>2177.38</v>
+        <v>2151.13</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2177.38</v>
+        <v>2151.13</v>
       </c>
       <c r="AT35" t="s">
         <v>94</v>
       </c>
       <c r="AW35" t="n">
-        <v>435.48</v>
+        <v>430.23</v>
       </c>
       <c r="BA35" t="n">
-        <v>2612.86</v>
+        <v>2581.36</v>
       </c>
     </row>
     <row r="36" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4113,19 +4113,19 @@
         <v>1.0</v>
       </c>
       <c r="AN36" t="n">
-        <v>15770.85</v>
+        <v>15580.69</v>
       </c>
       <c r="AQ36" t="n">
-        <v>15770.85</v>
+        <v>15580.69</v>
       </c>
       <c r="AT36" t="s">
         <v>94</v>
       </c>
       <c r="AW36" t="n">
-        <v>3154.17</v>
+        <v>3116.14</v>
       </c>
       <c r="BA36" t="n">
-        <v>18925.02</v>
+        <v>18696.83</v>
       </c>
     </row>
     <row r="37" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4148,19 +4148,19 @@
         <v>1.0</v>
       </c>
       <c r="AN37" t="n">
-        <v>57666.46</v>
+        <v>56971.13</v>
       </c>
       <c r="AQ37" t="n">
-        <v>57666.46</v>
+        <v>56971.13</v>
       </c>
       <c r="AT37" t="s">
         <v>94</v>
       </c>
       <c r="AW37" t="n">
-        <v>11533.29</v>
+        <v>11394.23</v>
       </c>
       <c r="BA37" t="n">
-        <v>69199.75</v>
+        <v>68365.36</v>
       </c>
     </row>
     <row r="38" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4183,19 +4183,19 @@
         <v>1.0</v>
       </c>
       <c r="AN38" t="n">
-        <v>23657.23</v>
+        <v>23371.98</v>
       </c>
       <c r="AQ38" t="n">
-        <v>23657.23</v>
+        <v>23371.98</v>
       </c>
       <c r="AT38" t="s">
         <v>94</v>
       </c>
       <c r="AW38" t="n">
-        <v>4731.45</v>
+        <v>4674.4</v>
       </c>
       <c r="BA38" t="n">
-        <v>28388.68</v>
+        <v>28046.38</v>
       </c>
     </row>
     <row r="39" ht="37.5" customHeight="true" s="142" customFormat="true">
@@ -4218,19 +4218,19 @@
         <v>40.0</v>
       </c>
       <c r="AN39" t="n">
-        <v>5902.01</v>
+        <v>5830.84</v>
       </c>
       <c r="AQ39" t="n">
-        <v>236080.40000000002</v>
+        <v>233233.6</v>
       </c>
       <c r="AT39" t="s">
         <v>94</v>
       </c>
       <c r="AW39" t="n">
-        <v>47216.08</v>
+        <v>46646.72</v>
       </c>
       <c r="BA39" t="n">
-        <v>283296.48</v>
+        <v>279880.32</v>
       </c>
     </row>
     <row customHeight="true" ht="34.5" r="40" spans="1:70" x14ac:dyDescent="0.2">
@@ -5146,7 +5146,7 @@
     </row>
     <row customHeight="true" ht="11.25" r="52" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A52" t="n" s="143">
-        <v>877406.46</v>
+        <v>866826.6840000001</v>
       </c>
       <c r="B52" s="136"/>
       <c r="C52" s="136"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="110">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ- 12 </t>
   </si>
@@ -346,7 +346,10 @@
     <t>Поставка товаров согласно контракту на поставку оборудования № 0Y06431901480S от 2019-12-29</t>
   </si>
   <si>
-    <t>2020-02-05</t>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>восемьсот шестьдесят шесть тысяч восемьсот двадцать шесть рублей 68 копеек</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1184,7 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5144,9 +5147,9 @@
       <c r="BQ51" s="6"/>
       <c r="BR51" s="6"/>
     </row>
-    <row customHeight="true" ht="11.25" r="52" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A52" t="n" s="143">
-        <v>866826.6840000001</v>
+    <row customHeight="true" ht="30.0" r="52" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A52" t="s" s="143">
+        <v>109</v>
       </c>
       <c r="B52" s="136"/>
       <c r="C52" s="136"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -505,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -797,11 +797,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -1183,6 +1201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
@@ -3992,249 +4011,564 @@
       <c r="BS32" s="1"/>
     </row>
     <row r="33" ht="37.5" customHeight="true" s="142" customFormat="true">
-      <c r="A33" t="n">
+      <c r="A33" t="n" s="143">
         <v>1.0</v>
       </c>
-      <c r="D33" t="s" s="142">
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" t="s" s="143">
         <v>93</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+      <c r="Q33" t="s" s="143">
         <v>92</v>
       </c>
-      <c r="T33" t="s">
+      <c r="R33" s="143"/>
+      <c r="S33" s="143"/>
+      <c r="T33" t="s" s="143">
         <v>73</v>
       </c>
-      <c r="W33" t="n">
+      <c r="U33" s="143"/>
+      <c r="V33" s="143"/>
+      <c r="W33" t="n" s="143">
         <v>796.0</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="X33" s="143"/>
+      <c r="Y33" s="143"/>
+      <c r="Z33" s="143"/>
+      <c r="AA33" s="143"/>
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="143"/>
+      <c r="AD33" s="143"/>
+      <c r="AE33" s="143"/>
+      <c r="AF33" s="143"/>
+      <c r="AG33" s="143"/>
+      <c r="AH33" s="143"/>
+      <c r="AI33" s="143"/>
+      <c r="AJ33" s="143"/>
+      <c r="AK33" t="n" s="143">
         <v>1.0</v>
       </c>
-      <c r="AN33" t="n">
+      <c r="AL33" s="143"/>
+      <c r="AM33" s="143"/>
+      <c r="AN33" t="n" s="143">
         <v>144315.04</v>
       </c>
-      <c r="AQ33" t="n">
+      <c r="AO33" s="143"/>
+      <c r="AP33" s="143"/>
+      <c r="AQ33" t="n" s="143">
         <v>144315.04</v>
       </c>
-      <c r="AT33" t="s">
+      <c r="AR33" s="143"/>
+      <c r="AS33" s="143"/>
+      <c r="AT33" t="s" s="143">
         <v>94</v>
       </c>
-      <c r="AW33" t="n">
+      <c r="AU33" s="143"/>
+      <c r="AV33" s="143"/>
+      <c r="AW33" t="n" s="143">
         <v>28863.01</v>
       </c>
-      <c r="BA33" t="n">
+      <c r="AX33" s="143"/>
+      <c r="AY33" s="143"/>
+      <c r="AZ33" s="143"/>
+      <c r="BA33" t="n" s="143">
         <v>173178.05</v>
       </c>
+      <c r="BB33" s="143"/>
+      <c r="BC33" s="143"/>
+      <c r="BD33" s="143"/>
     </row>
     <row r="34" ht="37.5" customHeight="true" s="142" customFormat="true">
-      <c r="A34" t="n">
+      <c r="A34" t="n" s="143">
         <v>2.0</v>
       </c>
-      <c r="D34" t="s" s="142">
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" t="s" s="143">
         <v>96</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" t="s" s="143">
         <v>95</v>
       </c>
-      <c r="T34" t="s">
+      <c r="R34" s="143"/>
+      <c r="S34" s="143"/>
+      <c r="T34" t="s" s="143">
         <v>73</v>
       </c>
-      <c r="W34" t="n">
+      <c r="U34" s="143"/>
+      <c r="V34" s="143"/>
+      <c r="W34" t="n" s="143">
         <v>796.0</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="X34" s="143"/>
+      <c r="Y34" s="143"/>
+      <c r="Z34" s="143"/>
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="143"/>
+      <c r="AC34" s="143"/>
+      <c r="AD34" s="143"/>
+      <c r="AE34" s="143"/>
+      <c r="AF34" s="143"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="143"/>
+      <c r="AI34" s="143"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" t="n" s="143">
         <v>1.0</v>
       </c>
-      <c r="AN34" t="n">
+      <c r="AL34" s="143"/>
+      <c r="AM34" s="143"/>
+      <c r="AN34" t="n" s="143">
         <v>246732.0</v>
       </c>
-      <c r="AQ34" t="n">
+      <c r="AO34" s="143"/>
+      <c r="AP34" s="143"/>
+      <c r="AQ34" t="n" s="143">
         <v>246732.0</v>
       </c>
-      <c r="AT34" t="s">
+      <c r="AR34" s="143"/>
+      <c r="AS34" s="143"/>
+      <c r="AT34" t="s" s="143">
         <v>94</v>
       </c>
-      <c r="AW34" t="n">
+      <c r="AU34" s="143"/>
+      <c r="AV34" s="143"/>
+      <c r="AW34" t="n" s="143">
         <v>49346.4</v>
       </c>
-      <c r="BA34" t="n">
+      <c r="AX34" s="143"/>
+      <c r="AY34" s="143"/>
+      <c r="AZ34" s="143"/>
+      <c r="BA34" t="n" s="143">
         <v>296078.4</v>
       </c>
+      <c r="BB34" s="143"/>
+      <c r="BC34" s="143"/>
+      <c r="BD34" s="143"/>
     </row>
     <row r="35" ht="37.5" customHeight="true" s="142" customFormat="true">
-      <c r="A35" t="n">
+      <c r="A35" t="n" s="143">
         <v>3.0</v>
       </c>
-      <c r="D35" t="s" s="142">
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" t="s" s="143">
         <v>98</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="143"/>
+      <c r="O35" s="143"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" t="s" s="143">
         <v>97</v>
       </c>
-      <c r="T35" t="s">
+      <c r="R35" s="143"/>
+      <c r="S35" s="143"/>
+      <c r="T35" t="s" s="143">
         <v>73</v>
       </c>
-      <c r="W35" t="n">
+      <c r="U35" s="143"/>
+      <c r="V35" s="143"/>
+      <c r="W35" t="n" s="143">
         <v>796.0</v>
       </c>
-      <c r="AK35" t="n">
+      <c r="X35" s="143"/>
+      <c r="Y35" s="143"/>
+      <c r="Z35" s="143"/>
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="143"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="143"/>
+      <c r="AF35" s="143"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="143"/>
+      <c r="AI35" s="143"/>
+      <c r="AJ35" s="143"/>
+      <c r="AK35" t="n" s="143">
         <v>1.0</v>
       </c>
-      <c r="AN35" t="n">
+      <c r="AL35" s="143"/>
+      <c r="AM35" s="143"/>
+      <c r="AN35" t="n" s="143">
         <v>2151.13</v>
       </c>
-      <c r="AQ35" t="n">
+      <c r="AO35" s="143"/>
+      <c r="AP35" s="143"/>
+      <c r="AQ35" t="n" s="143">
         <v>2151.13</v>
       </c>
-      <c r="AT35" t="s">
+      <c r="AR35" s="143"/>
+      <c r="AS35" s="143"/>
+      <c r="AT35" t="s" s="143">
         <v>94</v>
       </c>
-      <c r="AW35" t="n">
+      <c r="AU35" s="143"/>
+      <c r="AV35" s="143"/>
+      <c r="AW35" t="n" s="143">
         <v>430.23</v>
       </c>
-      <c r="BA35" t="n">
+      <c r="AX35" s="143"/>
+      <c r="AY35" s="143"/>
+      <c r="AZ35" s="143"/>
+      <c r="BA35" t="n" s="143">
         <v>2581.36</v>
       </c>
+      <c r="BB35" s="143"/>
+      <c r="BC35" s="143"/>
+      <c r="BD35" s="143"/>
     </row>
     <row r="36" ht="37.5" customHeight="true" s="142" customFormat="true">
-      <c r="A36" t="n">
+      <c r="A36" t="n" s="143">
         <v>4.0</v>
       </c>
-      <c r="D36" t="s" s="142">
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" t="s" s="143">
         <v>100</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="143"/>
+      <c r="N36" s="143"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="143"/>
+      <c r="Q36" t="s" s="143">
         <v>99</v>
       </c>
-      <c r="T36" t="s">
+      <c r="R36" s="143"/>
+      <c r="S36" s="143"/>
+      <c r="T36" t="s" s="143">
         <v>73</v>
       </c>
-      <c r="W36" t="n">
+      <c r="U36" s="143"/>
+      <c r="V36" s="143"/>
+      <c r="W36" t="n" s="143">
         <v>796.0</v>
       </c>
-      <c r="AK36" t="n">
+      <c r="X36" s="143"/>
+      <c r="Y36" s="143"/>
+      <c r="Z36" s="143"/>
+      <c r="AA36" s="143"/>
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="143"/>
+      <c r="AD36" s="143"/>
+      <c r="AE36" s="143"/>
+      <c r="AF36" s="143"/>
+      <c r="AG36" s="143"/>
+      <c r="AH36" s="143"/>
+      <c r="AI36" s="143"/>
+      <c r="AJ36" s="143"/>
+      <c r="AK36" t="n" s="143">
         <v>1.0</v>
       </c>
-      <c r="AN36" t="n">
+      <c r="AL36" s="143"/>
+      <c r="AM36" s="143"/>
+      <c r="AN36" t="n" s="143">
         <v>15580.69</v>
       </c>
-      <c r="AQ36" t="n">
+      <c r="AO36" s="143"/>
+      <c r="AP36" s="143"/>
+      <c r="AQ36" t="n" s="143">
         <v>15580.69</v>
       </c>
-      <c r="AT36" t="s">
+      <c r="AR36" s="143"/>
+      <c r="AS36" s="143"/>
+      <c r="AT36" t="s" s="143">
         <v>94</v>
       </c>
-      <c r="AW36" t="n">
+      <c r="AU36" s="143"/>
+      <c r="AV36" s="143"/>
+      <c r="AW36" t="n" s="143">
         <v>3116.14</v>
       </c>
-      <c r="BA36" t="n">
+      <c r="AX36" s="143"/>
+      <c r="AY36" s="143"/>
+      <c r="AZ36" s="143"/>
+      <c r="BA36" t="n" s="143">
         <v>18696.83</v>
       </c>
+      <c r="BB36" s="143"/>
+      <c r="BC36" s="143"/>
+      <c r="BD36" s="143"/>
     </row>
     <row r="37" ht="37.5" customHeight="true" s="142" customFormat="true">
-      <c r="A37" t="n">
+      <c r="A37" t="n" s="143">
         <v>5.0</v>
       </c>
-      <c r="D37" t="s" s="142">
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" t="s" s="143">
         <v>102</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="143"/>
+      <c r="P37" s="143"/>
+      <c r="Q37" t="s" s="143">
         <v>101</v>
       </c>
-      <c r="T37" t="s">
+      <c r="R37" s="143"/>
+      <c r="S37" s="143"/>
+      <c r="T37" t="s" s="143">
         <v>73</v>
       </c>
-      <c r="W37" t="n">
+      <c r="U37" s="143"/>
+      <c r="V37" s="143"/>
+      <c r="W37" t="n" s="143">
         <v>796.0</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="X37" s="143"/>
+      <c r="Y37" s="143"/>
+      <c r="Z37" s="143"/>
+      <c r="AA37" s="143"/>
+      <c r="AB37" s="143"/>
+      <c r="AC37" s="143"/>
+      <c r="AD37" s="143"/>
+      <c r="AE37" s="143"/>
+      <c r="AF37" s="143"/>
+      <c r="AG37" s="143"/>
+      <c r="AH37" s="143"/>
+      <c r="AI37" s="143"/>
+      <c r="AJ37" s="143"/>
+      <c r="AK37" t="n" s="143">
         <v>1.0</v>
       </c>
-      <c r="AN37" t="n">
+      <c r="AL37" s="143"/>
+      <c r="AM37" s="143"/>
+      <c r="AN37" t="n" s="143">
         <v>56971.13</v>
       </c>
-      <c r="AQ37" t="n">
+      <c r="AO37" s="143"/>
+      <c r="AP37" s="143"/>
+      <c r="AQ37" t="n" s="143">
         <v>56971.13</v>
       </c>
-      <c r="AT37" t="s">
+      <c r="AR37" s="143"/>
+      <c r="AS37" s="143"/>
+      <c r="AT37" t="s" s="143">
         <v>94</v>
       </c>
-      <c r="AW37" t="n">
+      <c r="AU37" s="143"/>
+      <c r="AV37" s="143"/>
+      <c r="AW37" t="n" s="143">
         <v>11394.23</v>
       </c>
-      <c r="BA37" t="n">
+      <c r="AX37" s="143"/>
+      <c r="AY37" s="143"/>
+      <c r="AZ37" s="143"/>
+      <c r="BA37" t="n" s="143">
         <v>68365.36</v>
       </c>
+      <c r="BB37" s="143"/>
+      <c r="BC37" s="143"/>
+      <c r="BD37" s="143"/>
     </row>
     <row r="38" ht="37.5" customHeight="true" s="142" customFormat="true">
-      <c r="A38" t="n">
+      <c r="A38" t="n" s="143">
         <v>6.0</v>
       </c>
-      <c r="D38" t="s" s="142">
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" t="s" s="143">
         <v>104</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" t="s" s="143">
         <v>103</v>
       </c>
-      <c r="T38" t="s">
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" t="s" s="143">
         <v>73</v>
       </c>
-      <c r="W38" t="n">
+      <c r="U38" s="143"/>
+      <c r="V38" s="143"/>
+      <c r="W38" t="n" s="143">
         <v>796.0</v>
       </c>
-      <c r="AK38" t="n">
+      <c r="X38" s="143"/>
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143"/>
+      <c r="AB38" s="143"/>
+      <c r="AC38" s="143"/>
+      <c r="AD38" s="143"/>
+      <c r="AE38" s="143"/>
+      <c r="AF38" s="143"/>
+      <c r="AG38" s="143"/>
+      <c r="AH38" s="143"/>
+      <c r="AI38" s="143"/>
+      <c r="AJ38" s="143"/>
+      <c r="AK38" t="n" s="143">
         <v>1.0</v>
       </c>
-      <c r="AN38" t="n">
+      <c r="AL38" s="143"/>
+      <c r="AM38" s="143"/>
+      <c r="AN38" t="n" s="143">
         <v>23371.98</v>
       </c>
-      <c r="AQ38" t="n">
+      <c r="AO38" s="143"/>
+      <c r="AP38" s="143"/>
+      <c r="AQ38" t="n" s="143">
         <v>23371.98</v>
       </c>
-      <c r="AT38" t="s">
+      <c r="AR38" s="143"/>
+      <c r="AS38" s="143"/>
+      <c r="AT38" t="s" s="143">
         <v>94</v>
       </c>
-      <c r="AW38" t="n">
+      <c r="AU38" s="143"/>
+      <c r="AV38" s="143"/>
+      <c r="AW38" t="n" s="143">
         <v>4674.4</v>
       </c>
-      <c r="BA38" t="n">
+      <c r="AX38" s="143"/>
+      <c r="AY38" s="143"/>
+      <c r="AZ38" s="143"/>
+      <c r="BA38" t="n" s="143">
         <v>28046.38</v>
       </c>
+      <c r="BB38" s="143"/>
+      <c r="BC38" s="143"/>
+      <c r="BD38" s="143"/>
     </row>
     <row r="39" ht="37.5" customHeight="true" s="142" customFormat="true">
-      <c r="A39" t="n">
+      <c r="A39" t="n" s="143">
         <v>7.0</v>
       </c>
-      <c r="D39" t="s" s="142">
+      <c r="B39" s="143"/>
+      <c r="C39" s="143"/>
+      <c r="D39" t="s" s="143">
         <v>106</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="143"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="143"/>
+      <c r="Q39" t="s" s="143">
         <v>105</v>
       </c>
-      <c r="T39" t="s">
+      <c r="R39" s="143"/>
+      <c r="S39" s="143"/>
+      <c r="T39" t="s" s="143">
         <v>73</v>
       </c>
-      <c r="W39" t="n">
+      <c r="U39" s="143"/>
+      <c r="V39" s="143"/>
+      <c r="W39" t="n" s="143">
         <v>796.0</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="X39" s="143"/>
+      <c r="Y39" s="143"/>
+      <c r="Z39" s="143"/>
+      <c r="AA39" s="143"/>
+      <c r="AB39" s="143"/>
+      <c r="AC39" s="143"/>
+      <c r="AD39" s="143"/>
+      <c r="AE39" s="143"/>
+      <c r="AF39" s="143"/>
+      <c r="AG39" s="143"/>
+      <c r="AH39" s="143"/>
+      <c r="AI39" s="143"/>
+      <c r="AJ39" s="143"/>
+      <c r="AK39" t="n" s="143">
         <v>40.0</v>
       </c>
-      <c r="AN39" t="n">
+      <c r="AL39" s="143"/>
+      <c r="AM39" s="143"/>
+      <c r="AN39" t="n" s="143">
         <v>5830.84</v>
       </c>
-      <c r="AQ39" t="n">
+      <c r="AO39" s="143"/>
+      <c r="AP39" s="143"/>
+      <c r="AQ39" t="n" s="143">
         <v>233233.6</v>
       </c>
-      <c r="AT39" t="s">
+      <c r="AR39" s="143"/>
+      <c r="AS39" s="143"/>
+      <c r="AT39" t="s" s="143">
         <v>94</v>
       </c>
-      <c r="AW39" t="n">
+      <c r="AU39" s="143"/>
+      <c r="AV39" s="143"/>
+      <c r="AW39" t="n" s="143">
         <v>46646.72</v>
       </c>
-      <c r="BA39" t="n">
+      <c r="AX39" s="143"/>
+      <c r="AY39" s="143"/>
+      <c r="AZ39" s="143"/>
+      <c r="BA39" t="n" s="143">
         <v>279880.32</v>
       </c>
+      <c r="BB39" s="143"/>
+      <c r="BC39" s="143"/>
+      <c r="BD39" s="143"/>
     </row>
     <row customHeight="true" ht="34.5" r="40" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
@@ -4270,45 +4604,45 @@
       <c r="AE40" t="s" s="36">
         <v>43</v>
       </c>
-      <c r="AF40" s="114">
+      <c r="AF40" s="143">
         <f>SUM(AF33)</f>
       </c>
-      <c r="AG40" s="114"/>
-      <c r="AH40" s="115"/>
-      <c r="AI40" s="115"/>
-      <c r="AJ40" s="115"/>
-      <c r="AK40">
-        <f>SUM(AK33:AK39)</f>
-      </c>
-      <c r="AL40" s="116"/>
-      <c r="AM40" s="116"/>
-      <c r="AN40" t="s" s="120">
+      <c r="AG40" s="143"/>
+      <c r="AH40" s="143"/>
+      <c r="AI40" s="143"/>
+      <c r="AJ40" s="143"/>
+      <c r="AK40" t="n" s="143">
+        <v>46.0</v>
+      </c>
+      <c r="AL40" s="143"/>
+      <c r="AM40" s="143"/>
+      <c r="AN40" t="s" s="143">
         <v>42</v>
       </c>
-      <c r="AO40" s="120"/>
-      <c r="AP40" s="120"/>
-      <c r="AQ40">
-        <f>SUM(AQ33:AQ39)</f>
-      </c>
-      <c r="AR40" s="121"/>
-      <c r="AS40" s="121"/>
-      <c r="AT40" t="s" s="120">
+      <c r="AO40" s="143"/>
+      <c r="AP40" s="143"/>
+      <c r="AQ40" t="n" s="143">
+        <v>722355.57</v>
+      </c>
+      <c r="AR40" s="143"/>
+      <c r="AS40" s="143"/>
+      <c r="AT40" t="s" s="143">
         <v>42</v>
       </c>
-      <c r="AU40" s="120"/>
-      <c r="AV40" s="120"/>
-      <c r="AW40">
-        <f>SUM(AW33:AW39)</f>
-      </c>
-      <c r="AX40" s="122"/>
-      <c r="AY40" s="122"/>
-      <c r="AZ40" s="122"/>
-      <c r="BA40">
-        <f>SUM(BA33:BA39)</f>
-      </c>
-      <c r="BB40" s="122"/>
-      <c r="BC40" s="122"/>
-      <c r="BD40" s="122"/>
+      <c r="AU40" s="143"/>
+      <c r="AV40" s="143"/>
+      <c r="AW40" t="n" s="143">
+        <v>144471.11</v>
+      </c>
+      <c r="AX40" s="143"/>
+      <c r="AY40" s="143"/>
+      <c r="AZ40" s="143"/>
+      <c r="BA40" t="n" s="143">
+        <v>866826.68</v>
+      </c>
+      <c r="BB40" s="143"/>
+      <c r="BC40" s="143"/>
+      <c r="BD40" s="143"/>
       <c r="BF40" s="49"/>
       <c r="BG40" s="6"/>
       <c r="BH40" s="7"/>
@@ -5148,7 +5482,7 @@
       <c r="BR51" s="6"/>
     </row>
     <row customHeight="true" ht="30.0" r="52" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A52" t="s" s="143">
+      <c r="A52" t="s" s="144">
         <v>109</v>
       </c>
       <c r="B52" s="136"/>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -346,7 +346,7 @@
     <t>Поставка товаров согласно контракту на поставку оборудования № 0Y06431901480S от 2019-12-29</t>
   </si>
   <si>
-    <t>2020-02-06</t>
+    <t>2020-02-07</t>
   </si>
   <si>
     <t>восемьсот шестьдесят шесть тысяч восемьсот двадцать шесть рублей 68 копеек</t>
@@ -1201,7 +1201,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>

--- a/Template Output.xlsx
+++ b/Template Output.xlsx
@@ -346,7 +346,7 @@
     <t>Поставка товаров согласно контракту на поставку оборудования № 0Y06431901480S от 2019-12-29</t>
   </si>
   <si>
-    <t>2020-02-07</t>
+    <t>2020-02-13</t>
   </si>
   <si>
     <t>восемьсот шестьдесят шесть тысяч восемьсот двадцать шесть рублей 68 копеек</t>
